--- a/LDVMDV_Data.xlsx
+++ b/LDVMDV_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\FAVs_Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\Bayesian_FAV_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E8EB0D-36C8-48E9-AC78-3DAC2490F4BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8944A2-7355-4838-A2F0-F75456DE8C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
   </bookViews>
@@ -584,64 +584,64 @@
     <t>Phthalate</t>
   </si>
   <si>
-    <t>Dimethyl phthalate</t>
-  </si>
-  <si>
     <t>131-11-3</t>
   </si>
   <si>
-    <t>Diethyl phthalate</t>
-  </si>
-  <si>
     <t>84-66-2</t>
   </si>
   <si>
-    <t>dipropyl phthalate</t>
-  </si>
-  <si>
     <t>131-16-8</t>
   </si>
   <si>
-    <t>Diisobutyl phthalate</t>
-  </si>
-  <si>
     <t>84-69-5</t>
   </si>
   <si>
-    <t>Di-n-butyl phthalate</t>
-  </si>
-  <si>
     <t>84-74-2</t>
   </si>
   <si>
-    <t>Benzylbutyl phthalate</t>
-  </si>
-  <si>
     <t>85-68-7</t>
   </si>
   <si>
-    <t>Bis(2-ethlyhexyl) tetrabromophthalate</t>
-  </si>
-  <si>
     <t>26040-51-7</t>
   </si>
   <si>
-    <t>Bis(2-ethylhexyl) phthalate</t>
-  </si>
-  <si>
     <t>117-81-7</t>
   </si>
   <si>
-    <t>Di-n-octyl phthalate</t>
-  </si>
-  <si>
     <t>117-84-0</t>
   </si>
   <si>
-    <t>Diisononyl phthalate</t>
-  </si>
-  <si>
     <t>28553-12-0</t>
+  </si>
+  <si>
+    <t>DmP</t>
+  </si>
+  <si>
+    <t>DEP</t>
+  </si>
+  <si>
+    <t>DPP</t>
+  </si>
+  <si>
+    <t>DiBP</t>
+  </si>
+  <si>
+    <t>DnBP</t>
+  </si>
+  <si>
+    <t>BzBP</t>
+  </si>
+  <si>
+    <t>TBPH</t>
+  </si>
+  <si>
+    <t>DEHP</t>
+  </si>
+  <si>
+    <t>DnOP</t>
+  </si>
+  <si>
+    <t>DiNP</t>
   </si>
 </sst>
 </file>
@@ -996,7 +996,7 @@
   <dimension ref="A1:AT75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,16 +1173,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.7677698187919759</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>3.9800541945658714</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>-35.5</v>
+        <v>35.5</v>
       </c>
       <c r="O2">
         <v>2.2492119741999494</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.0855169494241892</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.8749751374277279</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1453,16 +1453,16 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>8.6848650017520157</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>12.48883962270687</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>-69.05</v>
+        <v>69.05</v>
       </c>
       <c r="O4">
         <v>2.7577164466275392</v>
@@ -1593,16 +1593,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>4.0708239589681341</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.8538466108073814</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>-52.3</v>
+        <v>52.3</v>
       </c>
       <c r="O5">
         <v>3.3136277817086577</v>
@@ -1733,16 +1733,16 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>3.4171332880880527</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>4.913839143813469</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>-64.900000000000006</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="O6">
         <v>4.11193963734019</v>
@@ -1873,16 +1873,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.516380887048058</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>10.808558961202694</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>-65.2</v>
+        <v>65.2</v>
       </c>
       <c r="O7">
         <v>4.1309470624742737</v>
@@ -2013,16 +2013,16 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>3.446230731991605</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>4.9556812807112633</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-62.5</v>
+        <v>62.5</v>
       </c>
       <c r="O8">
         <v>6.0811183182043047</v>
@@ -2153,16 +2153,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.2882437753918481</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>3.2904955370936766</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-47.6</v>
+        <v>47.6</v>
       </c>
       <c r="O9">
         <v>3.0158447879413406</v>
@@ -2293,16 +2293,16 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>3.5196824209918418</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.0613048412105739</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>-64.5</v>
+        <v>64.5</v>
       </c>
       <c r="O10">
         <v>4.0865964038280769</v>
@@ -2433,16 +2433,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>7.7463969104641137</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>11.139322102197562</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>-62.949999999999996</v>
+        <v>62.949999999999996</v>
       </c>
       <c r="O11">
         <v>14.354267658086917</v>
@@ -2573,16 +2573,16 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>3.8713379936082077</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5.5669857064803256</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>-72.400000000000006</v>
+        <v>72.400000000000006</v>
       </c>
       <c r="O12">
         <v>4.5871252656922916</v>
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>3.4886218275518104</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5.0166396944316203</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>-71.349999999999994</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="O13">
         <v>0.21213203435596226</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>7.4912136207840945</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>10.772368421447707</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>-75.95</v>
+        <v>75.95</v>
       </c>
       <c r="O14">
         <v>1.7677669529663689</v>
@@ -2993,16 +2993,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>4.3659824858718821</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>6.278284699946556</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>-50.2</v>
+        <v>50.2</v>
       </c>
       <c r="O15">
         <v>3.1805758057700695</v>
@@ -3133,16 +3133,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.6111682283120103</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>8.0688623352556625</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>-52.3</v>
+        <v>52.3</v>
       </c>
       <c r="O16">
         <v>3.3136277817086577</v>
@@ -3273,16 +3273,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.8544724516320059</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>8.4187339134503389</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>-60.8</v>
+        <v>60.8</v>
       </c>
       <c r="O17">
         <v>3.8521714938410399</v>
@@ -3413,16 +3413,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>6.8418482979760427</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>9.8385808068490892</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>-77</v>
+        <v>77</v>
       </c>
       <c r="O18">
         <v>4.8785724510815802</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>5.5075884925279723</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>7.9199146304717374</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-77.2</v>
+        <v>77.2</v>
       </c>
       <c r="O19">
         <v>4.8912440678376363</v>
@@ -3693,10 +3693,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.7574516529360409</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>12.593219258452939</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.6736975111514596</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.282778607364933</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3973,10 +3973,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>7.199385365416191</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>10.352719264215112</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -4045,10 +4045,10 @@
         <v>1</v>
       </c>
       <c r="AI22">
-        <v>-9.6578674389508308</v>
+        <v>-11.17626232745083</v>
       </c>
       <c r="AJ22">
-        <v>2.8973602316852491</v>
+        <v>3.3528786982352492</v>
       </c>
       <c r="AK22">
         <v>1</v>
@@ -4122,7 +4122,7 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>-81.75</v>
+        <v>81.75</v>
       </c>
       <c r="O23">
         <v>2.8991378028648409</v>
@@ -4131,13 +4131,13 @@
         <v>2</v>
       </c>
       <c r="Q23">
-        <v>60.731431800000003</v>
+        <v>39.308999999999997</v>
       </c>
       <c r="R23">
-        <v>13.120357794640201</v>
+        <v>3.6769552621700443</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23">
         <v>-24.578272000000002</v>
@@ -4253,16 +4253,16 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>2.6992563962081988</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3.8815318633058089</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>-81.650000000000006</v>
+        <v>81.650000000000006</v>
       </c>
       <c r="O24">
         <v>2.8991378028648507</v>
@@ -4393,16 +4393,16 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>2.5668291268399486</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>3.6911013927712131</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>-85</v>
+        <v>85</v>
       </c>
       <c r="O25">
         <v>1.9798989873223412</v>
@@ -4411,13 +4411,13 @@
         <v>2</v>
       </c>
       <c r="Q25">
-        <v>67.696422799999993</v>
+        <v>39.809000000000005</v>
       </c>
       <c r="R25">
-        <v>14.625067485289199</v>
+        <v>11.9427</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <v>-26.927071999999999</v>
@@ -4542,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>-84.5</v>
+        <v>84.5</v>
       </c>
       <c r="O26">
         <v>0.84852813742384892</v>
@@ -4673,16 +4673,16 @@
         <v>2</v>
       </c>
       <c r="K27">
-        <v>4.0864175135843652</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>5.8762701490789313</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>-73.2</v>
+        <v>73.2</v>
       </c>
       <c r="O27">
         <v>4.637811732716516</v>
@@ -4691,13 +4691,13 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>63.624090199999991</v>
+        <v>29.809000000000005</v>
       </c>
       <c r="R27">
-        <v>13.745284822717798</v>
+        <v>8.9427000000000003</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
         <v>-17.663428</v>
@@ -4813,16 +4813,16 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>1.9411756868159955</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>2.7914114758550914</v>
+        <v>0</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>-74.7</v>
+        <v>74.7</v>
       </c>
       <c r="O28">
         <v>4.7328488583869364</v>
@@ -4831,13 +4831,13 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>81.15639920000001</v>
+        <v>50.459000000000003</v>
       </c>
       <c r="R28">
-        <v>17.532947326768802</v>
+        <v>18.738329701443487</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T28">
         <v>-16.38782800000001</v>
@@ -4953,16 +4953,16 @@
         <v>0</v>
       </c>
       <c r="K29">
-        <v>14.416645774624172</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>20.73114284912139</v>
+        <v>0</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>-79.8</v>
+        <v>79.8</v>
       </c>
       <c r="O29">
         <v>14.117011015083925</v>
@@ -5093,16 +5093,16 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>10.523885889296238</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>15.133352453097972</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>-90.3</v>
+        <v>90.3</v>
       </c>
       <c r="O30">
         <v>15.703821191035079</v>
@@ -5233,16 +5233,16 @@
         <v>0</v>
       </c>
       <c r="K31">
-        <v>11.45452447393582</v>
+        <v>0</v>
       </c>
       <c r="L31">
-        <v>16.471611139666155</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-93.066666666666663</v>
+        <v>93.066666666666663</v>
       </c>
       <c r="O31">
         <v>5.7500724633115148</v>
@@ -5373,16 +5373,16 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>7.2887838306799324</v>
+        <v>0</v>
       </c>
       <c r="L32">
-        <v>10.481274295867275</v>
+        <v>0</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>-95.100000000000009</v>
+        <v>95.100000000000009</v>
       </c>
       <c r="O32">
         <v>5.8077534382926403</v>
@@ -5513,16 +5513,16 @@
         <v>0</v>
       </c>
       <c r="K33">
-        <v>6.7868184388082824</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>9.7594478456035585</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>-102</v>
+        <v>102</v>
       </c>
       <c r="O33">
         <v>6.4625245455885869</v>
@@ -5653,16 +5653,16 @@
         <v>0</v>
       </c>
       <c r="K34">
-        <v>6.4092891357116315</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>9.2165605447306937</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>-97.9</v>
+        <v>97.9</v>
       </c>
       <c r="O34">
         <v>6.2027564020894381</v>
@@ -5793,16 +5793,16 @@
         <v>0</v>
       </c>
       <c r="K35">
-        <v>7.1739603940400798</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>10.316158144397578</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>-104</v>
+        <v>104</v>
       </c>
       <c r="O35">
         <v>6.5892407131491479</v>
@@ -5933,16 +5933,16 @@
         <v>0</v>
       </c>
       <c r="K36">
-        <v>4.8328781671361156</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>6.9496808912134531</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>-103.56666666666666</v>
+        <v>103.56666666666666</v>
       </c>
       <c r="O36">
         <v>7.4875452141094492</v>
@@ -6073,16 +6073,16 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>3.4477632265923148</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>4.9578850086088266</v>
+        <v>0</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>-105.63333333333333</v>
+        <v>105.63333333333333</v>
       </c>
       <c r="O37">
         <v>5.6109268396584868</v>
@@ -6213,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>7.1788619249362284</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>10.323206547942755</v>
+        <v>0</v>
       </c>
       <c r="M38">
         <v>0</v>
@@ -6353,16 +6353,16 @@
         <v>0</v>
       </c>
       <c r="K39">
-        <v>5.2379786369601931</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>7.5322155417457868</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>-106.65</v>
+        <v>106.65</v>
       </c>
       <c r="O39">
         <v>0.91923881554250975</v>
@@ -6493,16 +6493,16 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>5.8272615858800378</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>8.3796046767491603</v>
+        <v>0</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>-99.75</v>
+        <v>99.75</v>
       </c>
       <c r="O40">
         <v>6.7175144212722016</v>
@@ -6633,10 +6633,10 @@
         <v>0</v>
       </c>
       <c r="K41">
-        <v>13.007027706688376</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>18.704111458746446</v>
+        <v>0</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -6782,7 +6782,7 @@
         <v>1</v>
       </c>
       <c r="N42">
-        <v>-101.25</v>
+        <v>101.25</v>
       </c>
       <c r="O42">
         <v>2.616295090390218</v>
@@ -6791,13 +6791,13 @@
         <v>2</v>
       </c>
       <c r="Q42">
-        <v>73.989164799999998</v>
+        <v>36.872581419041104</v>
       </c>
       <c r="R42">
-        <v>13.8706747358912</v>
+        <v>11.061774425712331</v>
       </c>
       <c r="S42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42">
         <v>-25.4</v>
@@ -6913,16 +6913,16 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>4.2101512426480525</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>6.0541993049016325</v>
+        <v>0</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>-100.05</v>
+        <v>100.05</v>
       </c>
       <c r="O43">
         <v>2.0506096654409918</v>
@@ -6931,13 +6931,13 @@
         <v>2</v>
       </c>
       <c r="Q43">
-        <v>68.0877488</v>
+        <v>46.260425888396732</v>
       </c>
       <c r="R43">
-        <v>12.764342179787199</v>
+        <v>13.87812776651902</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T43">
         <v>-35.839772000000004</v>
@@ -6985,10 +6985,10 @@
         <v>4</v>
       </c>
       <c r="AI43">
-        <v>-3.5173626058676488</v>
+        <v>-3.2450748650495234</v>
       </c>
       <c r="AJ43">
-        <v>0.25242396939971701</v>
+        <v>0.25242396939971734</v>
       </c>
       <c r="AK43">
         <v>2</v>
@@ -7053,16 +7053,16 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>4.2967974015840014</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>6.1787965188659637</v>
+        <v>0</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>-93.4</v>
+        <v>93.4</v>
       </c>
       <c r="O44">
         <v>4.6669047558312196</v>
@@ -7071,13 +7071,13 @@
         <v>2</v>
       </c>
       <c r="Q44">
-        <v>70.758807699999991</v>
+        <v>58.509</v>
       </c>
       <c r="R44">
-        <v>13.265082920711299</v>
+        <v>17.552699999999998</v>
       </c>
       <c r="S44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44">
         <v>-21.7</v>
@@ -7193,16 +7193,16 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>4.6010027029921474</v>
+        <v>0</v>
       </c>
       <c r="L45">
-        <v>6.6162438736489255</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>-103</v>
+        <v>103</v>
       </c>
       <c r="O45">
         <v>6.5258826293688674</v>
@@ -7333,16 +7333,16 @@
         <v>0</v>
       </c>
       <c r="K46">
-        <v>4.7805045747598029</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>6.8743676427610199</v>
+        <v>0</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>-98.4</v>
+        <v>98.4</v>
       </c>
       <c r="O46">
         <v>6.2344354439795788</v>
@@ -7473,16 +7473,16 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>4.4621379019357761</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>6.4165562297670391</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>-122</v>
+        <v>122</v>
       </c>
       <c r="O47">
         <v>7.7296862211941928</v>
@@ -7491,13 +7491,13 @@
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>77.959482699999995</v>
+        <v>54.209000000000003</v>
       </c>
       <c r="R47">
-        <v>14.614986262286299</v>
+        <v>16.262699999999999</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
         <v>-28.546148000000013</v>
@@ -7613,16 +7613,16 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>4.8293702345921474</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>6.9446364827004761</v>
+        <v>0</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>-91.1</v>
+        <v>91.1</v>
       </c>
       <c r="O48">
         <v>27.33</v>
@@ -7631,13 +7631,13 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>79.564132699999988</v>
+        <v>70.908999999999992</v>
       </c>
       <c r="R48">
-        <v>14.915808393136297</v>
+        <v>21.272699999999997</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
         <v>-29.258548000000015</v>
@@ -7685,10 +7685,10 @@
         <v>4</v>
       </c>
       <c r="AI48">
-        <v>-4.2554666846671543</v>
+        <v>-4.2943158888599235</v>
       </c>
       <c r="AJ48">
-        <v>0.29719362983561631</v>
+        <v>0.29719362983561609</v>
       </c>
       <c r="AK48">
         <v>3</v>
@@ -7753,16 +7753,16 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>3.431115592671901</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>4.9339457038427028</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>-61.2</v>
+        <v>61.2</v>
       </c>
       <c r="O49">
         <v>3.8775147273531525</v>
@@ -7893,16 +7893,16 @@
         <v>0</v>
       </c>
       <c r="K50">
-        <v>3.2927695071998926</v>
+        <v>0</v>
       </c>
       <c r="L50">
-        <v>4.7350039731951146</v>
+        <v>0</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>-70.099999999999994</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="O50">
         <v>4.441401672997646</v>
@@ -8033,16 +8033,16 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>2.8348884338479081</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>4.0765707919986047</v>
+        <v>0</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>-76.099999999999994</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="O51">
         <v>4.8215501756793282</v>
@@ -8173,16 +8173,16 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>3.6011771303441691</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>5.1784942684492252</v>
+        <v>0</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>-63.8</v>
+        <v>63.8</v>
       </c>
       <c r="O52">
         <v>4.042245745181881</v>
@@ -8313,16 +8313,16 @@
         <v>0</v>
       </c>
       <c r="K53">
-        <v>3.375780711535981</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>4.8543741208752484</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>-83</v>
+        <v>83</v>
       </c>
       <c r="O53">
         <v>5.2587209537632624</v>
@@ -8453,16 +8453,16 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>2.9175220740240775</v>
+        <v>0</v>
       </c>
       <c r="L54">
-        <v>4.1953980022537394</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>-77</v>
+        <v>77</v>
       </c>
       <c r="O54">
         <v>4.8785724510815802</v>
@@ -8593,16 +8593,16 @@
         <v>0</v>
       </c>
       <c r="K55">
-        <v>4.1899954586160675</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>6.025215278760224</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>-82.3</v>
+        <v>82.3</v>
       </c>
       <c r="O55">
         <v>5.2143702951170656</v>
@@ -8733,16 +8733,16 @@
         <v>0</v>
       </c>
       <c r="K56">
-        <v>2.9918111487838956</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>4.3022257238369175</v>
+        <v>0</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>-87.5</v>
+        <v>87.5</v>
       </c>
       <c r="O56">
         <v>5.5438323307745234</v>
@@ -8873,16 +8873,16 @@
         <v>1</v>
       </c>
       <c r="K57">
-        <v>5.8868070856240564</v>
+        <v>0</v>
       </c>
       <c r="L57">
-        <v>8.4652311310932351</v>
+        <v>0</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>-104</v>
+        <v>104</v>
       </c>
       <c r="O57">
         <v>6.5892407131491479</v>
@@ -8936,28 +8936,28 @@
         <v>0</v>
       </c>
       <c r="AF57">
-        <v>-4.9397366133846008</v>
+        <v>-4.6996349403159625</v>
       </c>
       <c r="AG57">
-        <v>0.45466857646634756</v>
+        <v>0.28490908503016454</v>
       </c>
       <c r="AH57">
         <v>4</v>
       </c>
       <c r="AI57">
-        <v>-5.8669835519668307</v>
+        <v>-4.9065768596922759</v>
       </c>
       <c r="AJ57">
-        <v>0.22757118902063592</v>
+        <v>0.22757118902063608</v>
       </c>
       <c r="AK57">
         <v>5</v>
       </c>
       <c r="AL57">
-        <v>1.533336835519298</v>
+        <v>2.013540181656575</v>
       </c>
       <c r="AM57">
-        <v>0.68025804777806742</v>
+        <v>1.3593681325823463</v>
       </c>
       <c r="AN57">
         <v>2</v>
@@ -8989,136 +8989,136 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" t="s">
         <v>183</v>
       </c>
-      <c r="D58" t="s">
-        <v>184</v>
-      </c>
       <c r="E58">
-        <v>77.251485714285693</v>
+        <v>0.96533834384387507</v>
       </c>
       <c r="F58">
-        <v>0.96533834384387507</v>
+        <v>7</v>
       </c>
       <c r="G58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>-1.3400000000000034</v>
+        <v>1.8797252000000046</v>
       </c>
       <c r="I58">
-        <v>1.8797252000000046</v>
+        <v>0</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>8.5500000000000043</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>12.294903691951795</v>
+        <v>0</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>-54.963853999999998</v>
+        <v>3.4824044666190925</v>
       </c>
       <c r="O58">
-        <v>3.4824044666190925</v>
+        <v>1</v>
       </c>
       <c r="P58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>79.281399399999998</v>
+        <v>14.862804664118599</v>
       </c>
       <c r="R58">
-        <v>14.862804664118599</v>
+        <v>0</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>13.732444000000006</v>
+        <v>5.6332290796609685</v>
       </c>
       <c r="U58">
-        <v>5.6332290796609685</v>
+        <v>0</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
       <c r="W58">
-        <v>7</v>
+        <v>0.18023472661974055</v>
       </c>
       <c r="X58">
-        <v>0.18023472661974055</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58">
-        <v>1.6110213059370522</v>
+        <v>0.10675059659978832</v>
       </c>
       <c r="AA58">
-        <v>0.10675059659978832</v>
+        <v>14</v>
       </c>
       <c r="AB58">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-4.7471469690201067</v>
+        <v>0.94942939380402136</v>
       </c>
       <c r="AD58">
-        <v>0.94942939380402136</v>
+        <v>1</v>
       </c>
       <c r="AE58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF58">
-        <v>-0.5737975003434046</v>
+        <v>9.5464368197886035E-2</v>
       </c>
       <c r="AG58">
-        <v>9.5464368197886035E-2</v>
+        <v>9</v>
       </c>
       <c r="AH58">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI58">
-        <v>1.3026136962115185</v>
+        <v>7.889766480857377E-2</v>
       </c>
       <c r="AJ58">
-        <v>7.889766480857377E-2</v>
+        <v>5</v>
       </c>
       <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0.4510360428047997</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>0</v>
+      </c>
+      <c r="AO58">
+        <v>4.8710528878201647</v>
+      </c>
+      <c r="AP58">
+        <v>1</v>
+      </c>
+      <c r="AQ58">
+        <v>0</v>
+      </c>
+      <c r="AR58">
+        <v>0.23177575369309009</v>
+      </c>
+      <c r="AS58">
         <v>5</v>
       </c>
-      <c r="AL58">
-        <v>2.4956207999999984</v>
-      </c>
-      <c r="AM58">
-        <v>0.4510360428047997</v>
-      </c>
-      <c r="AN58">
-        <v>0</v>
-      </c>
-      <c r="AO58">
-        <v>61.8</v>
-      </c>
-      <c r="AP58">
-        <v>4.8710528878201647</v>
-      </c>
-      <c r="AQ58">
-        <v>1</v>
-      </c>
-      <c r="AR58">
-        <v>5.4119999999999999</v>
-      </c>
-      <c r="AS58">
-        <v>0.23177575369309009</v>
-      </c>
       <c r="AT58">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
@@ -9129,136 +9129,136 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D59" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E59">
-        <v>83.510311011427788</v>
+        <v>2.0167132760553788</v>
       </c>
       <c r="F59">
-        <v>2.0167132760553788</v>
+        <v>6</v>
       </c>
       <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>9.8615434000000004</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>3.7436769844595208</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>16.187359459846199</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>4.9152100352025263</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0.19259367930223703</v>
+      </c>
+      <c r="X59">
+        <v>1</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0.41659773461009664</v>
+      </c>
+      <c r="AA59">
+        <v>10</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
+        <v>0.94750978205391412</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
+      </c>
+      <c r="AF59">
+        <v>0.22717615065451793</v>
+      </c>
+      <c r="AG59">
+        <v>11</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>4.9413997541154983E-2</v>
+      </c>
+      <c r="AJ59">
         <v>6</v>
       </c>
-      <c r="H59">
-        <v>-7.0300000000000011</v>
-      </c>
-      <c r="I59">
-        <v>9.8615434000000004</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>7.289999999999992</v>
-      </c>
-      <c r="L59">
-        <v>10.483023147874672</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>-59.087598</v>
-      </c>
-      <c r="O59">
-        <v>3.7436769844595208</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>86.346859800000004</v>
-      </c>
-      <c r="R59">
-        <v>16.187359459846199</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>11.982088000000003</v>
-      </c>
-      <c r="U59">
-        <v>4.9152100352025263</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>7.48</v>
-      </c>
-      <c r="X59">
-        <v>0.19259367930223703</v>
-      </c>
-      <c r="Y59">
-        <v>1</v>
-      </c>
-      <c r="Z59">
-        <v>2.309034364660989</v>
-      </c>
-      <c r="AA59">
-        <v>0.41659773461009664</v>
-      </c>
-      <c r="AB59">
-        <v>10</v>
-      </c>
-      <c r="AC59">
-        <v>-4.7375489102695703</v>
-      </c>
-      <c r="AD59">
-        <v>0.94750978205391412</v>
-      </c>
-      <c r="AE59">
-        <v>1</v>
-      </c>
-      <c r="AF59">
-        <v>-0.86296934379017121</v>
-      </c>
-      <c r="AG59">
-        <v>0.22717615065451793</v>
-      </c>
-      <c r="AH59">
-        <v>11</v>
-      </c>
-      <c r="AI59">
-        <v>0.6479393964825203</v>
-      </c>
-      <c r="AJ59">
-        <v>4.9413997541154983E-2</v>
-      </c>
       <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0.49704722756259995</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>0</v>
+      </c>
+      <c r="AO59">
+        <v>5.2525398777400616</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>0</v>
+      </c>
+      <c r="AR59">
+        <v>10.907871775312827</v>
+      </c>
+      <c r="AS59">
         <v>6</v>
       </c>
-      <c r="AL59">
-        <v>2.7502045999999996</v>
-      </c>
-      <c r="AM59">
-        <v>0.49704722756259995</v>
-      </c>
-      <c r="AN59">
-        <v>0</v>
-      </c>
-      <c r="AO59">
-        <v>66.64</v>
-      </c>
-      <c r="AP59">
-        <v>5.2525398777400616</v>
-      </c>
-      <c r="AQ59">
-        <v>1</v>
-      </c>
-      <c r="AR59">
-        <v>-50.183333333333337</v>
-      </c>
-      <c r="AS59">
-        <v>10.907871775312827</v>
-      </c>
       <c r="AT59">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
@@ -9269,115 +9269,115 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D60" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E60">
-        <v>88.7</v>
+        <v>6.3299352182001298</v>
       </c>
       <c r="F60">
-        <v>6.3299352182001298</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>-5.6399999999999864</v>
+        <v>7.9116791999999805</v>
       </c>
       <c r="I60">
-        <v>7.9116791999999805</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>6.6300000000000097</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>9.5339428628819274</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>-74.55</v>
+        <v>14.227494749999998</v>
       </c>
       <c r="O60">
-        <v>14.227494749999998</v>
+        <v>0</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>94.4325142</v>
+        <v>17.7031690045598</v>
       </c>
       <c r="R60">
-        <v>17.7031690045598</v>
+        <v>0</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>10.048651999999995</v>
+        <v>4.1220891676524074</v>
       </c>
       <c r="U60">
-        <v>4.1220891676524074</v>
+        <v>0</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
       <c r="W60">
-        <v>8.0530000000000008</v>
+        <v>0.54628330800000002</v>
       </c>
       <c r="X60">
-        <v>0.54628330800000002</v>
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
       </c>
       <c r="Z60">
-        <v>3.8510326049913961</v>
+        <v>0.48041586212717508</v>
       </c>
       <c r="AA60">
-        <v>0.48041586212717508</v>
+        <v>3</v>
       </c>
       <c r="AB60">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>-4.8</v>
+        <v>0.96928320000000001</v>
       </c>
       <c r="AD60">
-        <v>0.96928320000000001</v>
+        <v>0</v>
       </c>
       <c r="AE60">
         <v>0</v>
       </c>
       <c r="AF60">
-        <v>-1.7569619513137056</v>
+        <v>0.27876727169807036</v>
       </c>
       <c r="AG60">
-        <v>0.27876727169807036</v>
+        <v>1</v>
       </c>
       <c r="AH60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI60">
-        <v>-0.37927796599702324</v>
+        <v>4.689946047095362E-2</v>
       </c>
       <c r="AJ60">
-        <v>4.689946047095362E-2</v>
+        <v>1</v>
       </c>
       <c r="AK60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL60">
-        <v>2.9567283999999998</v>
+        <v>0.53437248046039998</v>
       </c>
       <c r="AM60">
-        <v>0.53437248046039998</v>
+        <v>0</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -9392,13 +9392,13 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <v>-31</v>
+        <v>1.4311372328443748</v>
       </c>
       <c r="AS60">
-        <v>1.4311372328443748</v>
+        <v>1</v>
       </c>
       <c r="AT60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
@@ -9409,115 +9409,115 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E61">
-        <v>77.779285878211255</v>
+        <v>11.289652223038836</v>
       </c>
       <c r="F61">
-        <v>11.289652223038836</v>
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>3.1389999999999998</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="I61">
-        <v>0.62780000000000002</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
-        <v>5.9300000000000068</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>8.527342560616864</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>-79.66</v>
+        <v>15.202712699999998</v>
       </c>
       <c r="O61">
-        <v>15.202712699999998</v>
+        <v>0</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>100.65146460000001</v>
+        <v>18.869029417097401</v>
       </c>
       <c r="R61">
-        <v>18.869029417097401</v>
+        <v>0</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61">
-        <v>10.309695999999986</v>
+        <v>4.229172848595943</v>
       </c>
       <c r="U61">
-        <v>4.229172848595943</v>
+        <v>0</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>8.4120000000000008</v>
+        <v>0.57063643200000003</v>
       </c>
       <c r="X61">
-        <v>0.57063643200000003</v>
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>4.2356685525576738</v>
+        <v>0.14754694795495324</v>
       </c>
       <c r="AA61">
-        <v>0.14754694795495324</v>
+        <v>1</v>
       </c>
       <c r="AB61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>-4.2</v>
+        <v>0.84812280000000007</v>
       </c>
       <c r="AD61">
-        <v>0.84812280000000007</v>
+        <v>0</v>
       </c>
       <c r="AE61">
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>-2</v>
+        <v>0.31732875204227629</v>
       </c>
       <c r="AG61">
-        <v>0.31732875204227629</v>
+        <v>1</v>
       </c>
       <c r="AH61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI61">
-        <v>-1.3958411066867862</v>
+        <v>0.20844345466840553</v>
       </c>
       <c r="AJ61">
-        <v>0.20844345466840553</v>
+        <v>4</v>
       </c>
       <c r="AK61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL61">
-        <v>3.2624221999999987</v>
+        <v>0.58962082662819981</v>
       </c>
       <c r="AM61">
-        <v>0.58962082662819981</v>
+        <v>0</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -9532,13 +9532,13 @@
         <v>0</v>
       </c>
       <c r="AR61">
-        <v>-54.6</v>
+        <v>11.3929802949009</v>
       </c>
       <c r="AS61">
-        <v>11.3929802949009</v>
+        <v>5</v>
       </c>
       <c r="AT61">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
@@ -9549,115 +9549,115 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D62" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E62">
-        <v>94.398029513874349</v>
+        <v>2.7191972778775324</v>
       </c>
       <c r="F62">
-        <v>2.7191972778775324</v>
+        <v>10</v>
       </c>
       <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0.2162</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>4.3857963377810565</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <v>18.884489985527399</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>4.0549143034280206</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <v>0.22297610464670758</v>
+      </c>
+      <c r="X62">
+        <v>1</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0.28331014372467622</v>
+      </c>
+      <c r="AA62">
+        <v>12</v>
+      </c>
+      <c r="AB62">
+        <v>0</v>
+      </c>
+      <c r="AC62">
+        <v>0.82616992931380784</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>0.13346437472296552</v>
+      </c>
+      <c r="AG62">
         <v>10</v>
       </c>
-      <c r="H62">
-        <v>-1.081</v>
-      </c>
-      <c r="I62">
-        <v>0.2162</v>
-      </c>
-      <c r="J62">
-        <v>1</v>
-      </c>
-      <c r="K62">
-        <v>6.0300000000000011</v>
-      </c>
-      <c r="L62">
-        <v>8.6711426037975787</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>-69.222363999999999</v>
-      </c>
-      <c r="O62">
-        <v>4.3857963377810565</v>
-      </c>
-      <c r="P62">
-        <v>1</v>
-      </c>
-      <c r="Q62">
-        <v>100.7339346</v>
-      </c>
-      <c r="R62">
-        <v>18.884489985527399</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <v>9.8848959999999888</v>
-      </c>
-      <c r="U62">
-        <v>4.0549143034280206</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
-      <c r="W62">
-        <v>8.66</v>
-      </c>
-      <c r="X62">
-        <v>0.22297610464670758</v>
-      </c>
-      <c r="Y62">
-        <v>1</v>
-      </c>
-      <c r="Z62">
-        <v>4.4422553262077491</v>
-      </c>
-      <c r="AA62">
-        <v>0.28331014372467622</v>
-      </c>
-      <c r="AB62">
-        <v>12</v>
-      </c>
-      <c r="AC62">
-        <v>-4.1308496465690387</v>
-      </c>
-      <c r="AD62">
-        <v>0.82616992931380784</v>
-      </c>
-      <c r="AE62">
-        <v>1</v>
-      </c>
-      <c r="AF62">
-        <v>-2.3350542131060088</v>
-      </c>
-      <c r="AG62">
-        <v>0.13346437472296552</v>
-      </c>
       <c r="AH62">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI62">
-        <v>-1.3998152287306809</v>
+        <v>6.8688215356957738E-2</v>
       </c>
       <c r="AJ62">
-        <v>6.8688215356957738E-2</v>
+        <v>7</v>
       </c>
       <c r="AK62">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AL62">
-        <v>3.2098221999999987</v>
+        <v>0.58011437602819982</v>
       </c>
       <c r="AM62">
-        <v>0.58011437602819982</v>
+        <v>0</v>
       </c>
       <c r="AN62">
         <v>0</v>
@@ -9672,13 +9672,13 @@
         <v>0</v>
       </c>
       <c r="AR62">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AS62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT62">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
@@ -9689,115 +9689,115 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D63" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E63">
-        <v>96.432000000000002</v>
+        <v>12.116981802412674</v>
       </c>
       <c r="F63">
-        <v>12.116981802412674</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>4.5799999999999983</v>
+        <v>6.4247323999999972</v>
       </c>
       <c r="I63">
-        <v>6.4247323999999972</v>
+        <v>0</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>7.75</v>
+        <v>0</v>
       </c>
       <c r="L63">
-        <v>11.144503346506008</v>
+        <v>0</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>-76.272636000000006</v>
+        <v>4.832488061830821</v>
       </c>
       <c r="O63">
-        <v>4.832488061830821</v>
+        <v>1</v>
       </c>
       <c r="P63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>114.1820809</v>
+        <v>21.4056005242421</v>
       </c>
       <c r="R63">
-        <v>21.4056005242421</v>
+        <v>0</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
       <c r="T63">
-        <v>5.5415839999999914</v>
+        <v>2.2732306162096045</v>
       </c>
       <c r="U63">
-        <v>2.2732306162096045</v>
+        <v>0</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
       <c r="W63">
-        <v>9.66</v>
+        <v>0.24872392273524194</v>
       </c>
       <c r="X63">
-        <v>0.24872392273524194</v>
+        <v>1</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>4.5386669822446644</v>
+        <v>0.4185329646809503</v>
       </c>
       <c r="AA63">
-        <v>0.4185329646809503</v>
+        <v>6</v>
       </c>
       <c r="AB63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>-5.64</v>
+        <v>1.1389077599999999</v>
       </c>
       <c r="AD63">
-        <v>1.1389077599999999</v>
+        <v>0</v>
       </c>
       <c r="AE63">
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>-3.4028429570900025</v>
+        <v>0.56113384528000032</v>
       </c>
       <c r="AG63">
-        <v>0.56113384528000032</v>
+        <v>5</v>
       </c>
       <c r="AH63">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI63">
-        <v>-2.196787626474034</v>
+        <v>0.29807311025252042</v>
       </c>
       <c r="AJ63">
-        <v>0.29807311025252042</v>
+        <v>4</v>
       </c>
       <c r="AK63">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL63">
-        <v>2.7457662999999988</v>
+        <v>0.4962450891652998</v>
       </c>
       <c r="AM63">
-        <v>0.4962450891652998</v>
+        <v>0</v>
       </c>
       <c r="AN63">
         <v>0</v>
@@ -9812,13 +9812,13 @@
         <v>0</v>
       </c>
       <c r="AR63">
-        <v>-35</v>
+        <v>0</v>
       </c>
       <c r="AS63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
@@ -9829,115 +9829,115 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E64">
-        <v>141.63999999999999</v>
+        <v>14.879848559999997</v>
       </c>
       <c r="F64">
-        <v>14.879848559999997</v>
+        <v>0</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>12.97999999999999</v>
+        <v>18.208084399999983</v>
       </c>
       <c r="I64">
-        <v>18.208084399999983</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>6.5999999999999943</v>
+        <v>0</v>
       </c>
       <c r="L64">
-        <v>9.4908028499276895</v>
+        <v>0</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>-135.04</v>
+        <v>25.771708799999995</v>
       </c>
       <c r="O64">
-        <v>25.771708799999995</v>
+        <v>0</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>129.42021819999999</v>
+        <v>24.2622788857358</v>
       </c>
       <c r="R64">
-        <v>24.2622788857358</v>
+        <v>0</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64">
-        <v>-22.272568000000003</v>
+        <v>9.1365002279511423</v>
       </c>
       <c r="U64">
-        <v>9.1365002279511423</v>
+        <v>0</v>
       </c>
       <c r="V64">
         <v>0</v>
       </c>
       <c r="W64">
-        <v>16.864000000000001</v>
+        <v>1.143986304</v>
       </c>
       <c r="X64">
-        <v>1.143986304</v>
+        <v>0</v>
       </c>
       <c r="Y64">
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>10.199999999999999</v>
+        <v>0.69146320276503692</v>
       </c>
       <c r="AA64">
-        <v>0.69146320276503692</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>-3.12</v>
+        <v>0.63003408000000005</v>
       </c>
       <c r="AD64">
-        <v>0.63003408000000005</v>
+        <v>0</v>
       </c>
       <c r="AE64">
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>-6.5403690608624325</v>
+        <v>1.0121875158590701</v>
       </c>
       <c r="AG64">
-        <v>1.0121875158590701</v>
+        <v>0</v>
       </c>
       <c r="AH64">
         <v>0</v>
       </c>
       <c r="AI64">
-        <v>-8.68</v>
+        <v>2.39297184</v>
       </c>
       <c r="AJ64">
-        <v>2.39297184</v>
+        <v>0</v>
       </c>
       <c r="AK64">
         <v>0</v>
       </c>
       <c r="AL64">
-        <v>4.4496473999999981</v>
+        <v>0.80418922424939965</v>
       </c>
       <c r="AM64">
-        <v>0.80418922424939965</v>
+        <v>0</v>
       </c>
       <c r="AN64">
         <v>0</v>
@@ -9952,13 +9952,13 @@
         <v>0</v>
       </c>
       <c r="AR64">
-        <v>-27</v>
+        <v>1.2464743640902618</v>
       </c>
       <c r="AS64">
-        <v>1.2464743640902618</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
@@ -9969,115 +9969,115 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="E65">
-        <v>112.20803244366759</v>
+        <v>4.4625575442630749</v>
       </c>
       <c r="F65">
-        <v>4.4625575442630749</v>
+        <v>7</v>
       </c>
       <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.631251000000004</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>5.4003343808469122</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+      <c r="Q65">
+        <v>24.097129944875796</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1.0867908191780329</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0.26983713356784012</v>
+      </c>
+      <c r="X65">
+        <v>1</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0.35617946252389365</v>
+      </c>
+      <c r="AA65">
         <v>7</v>
       </c>
-      <c r="H65">
-        <v>0.45000000000000284</v>
-      </c>
-      <c r="I65">
-        <v>0.631251000000004</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>5.4299999999999926</v>
-      </c>
-      <c r="L65">
-        <v>7.808342344713231</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
-      <c r="N65">
-        <v>-85.235128000000003</v>
-      </c>
-      <c r="O65">
-        <v>5.4003343808469122</v>
-      </c>
-      <c r="P65">
-        <v>1</v>
-      </c>
-      <c r="Q65">
-        <v>128.53927819999998</v>
-      </c>
-      <c r="R65">
-        <v>24.097129944875796</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <v>2.6493320000000207</v>
-      </c>
-      <c r="U65">
-        <v>1.0867908191780329</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="W65">
-        <v>10.48</v>
-      </c>
-      <c r="X65">
-        <v>0.26983713356784012</v>
-      </c>
-      <c r="Y65">
-        <v>1</v>
-      </c>
-      <c r="Z65">
-        <v>7.5961428571428575</v>
-      </c>
-      <c r="AA65">
-        <v>0.35617946252389365</v>
-      </c>
       <c r="AB65">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>-3.28</v>
+        <v>0.66234351999999996</v>
       </c>
       <c r="AD65">
-        <v>0.66234351999999996</v>
+        <v>0</v>
       </c>
       <c r="AE65">
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>-4.6359639287313668</v>
+        <v>0.40136383442810358</v>
       </c>
       <c r="AG65">
-        <v>0.40136383442810358</v>
+        <v>10</v>
       </c>
       <c r="AH65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI65">
-        <v>-3.4780745027655433</v>
+        <v>0.53164878715036823</v>
       </c>
       <c r="AJ65">
-        <v>0.53164878715036823</v>
+        <v>4</v>
       </c>
       <c r="AK65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL65">
-        <v>4.1874873999999984</v>
+        <v>0.75680878528939977</v>
       </c>
       <c r="AM65">
-        <v>0.75680878528939977</v>
+        <v>0</v>
       </c>
       <c r="AN65">
         <v>0</v>
@@ -10092,13 +10092,13 @@
         <v>0</v>
       </c>
       <c r="AR65">
-        <v>-53</v>
+        <v>2.7386127875258306</v>
       </c>
       <c r="AS65">
-        <v>2.7386127875258306</v>
+        <v>5</v>
       </c>
       <c r="AT65">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
@@ -10109,136 +10109,136 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E66">
-        <v>117.3274</v>
+        <v>8.7652894441655516</v>
       </c>
       <c r="F66">
-        <v>8.7652894441655516</v>
+        <v>4</v>
       </c>
       <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>8.7393193999999852</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>5.8696767465642949</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>24.363710862875802</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>5.3751049177136349E-2</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0.28786060622981419</v>
+      </c>
+      <c r="X66">
+        <v>1</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>5.5075705472860809E-2</v>
+      </c>
+      <c r="AA66">
         <v>4</v>
       </c>
-      <c r="H66">
-        <v>6.2299999999999898</v>
-      </c>
-      <c r="I66">
-        <v>8.7393193999999852</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>5.8299999999999983</v>
-      </c>
-      <c r="L66">
-        <v>8.3835425174361298</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>-92.642902000000007</v>
-      </c>
-      <c r="O66">
-        <v>5.8696767465642949</v>
-      </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>129.96127820000001</v>
-      </c>
-      <c r="R66">
-        <v>24.363710862875802</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>0.13103200000002402</v>
-      </c>
-      <c r="U66">
-        <v>5.3751049177136349E-2</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>11.18</v>
-      </c>
-      <c r="X66">
-        <v>0.28786060622981419</v>
-      </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-      <c r="Z66">
-        <v>8.125</v>
-      </c>
-      <c r="AA66">
-        <v>5.5075705472860809E-2</v>
-      </c>
       <c r="AB66">
+        <v>0</v>
+      </c>
+      <c r="AC66">
+        <v>0.73907844</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AE66">
+        <v>0</v>
+      </c>
+      <c r="AF66">
+        <v>0.21714113940771862</v>
+      </c>
+      <c r="AG66">
         <v>4</v>
       </c>
-      <c r="AC66">
-        <v>-3.66</v>
-      </c>
-      <c r="AD66">
-        <v>0.73907844</v>
-      </c>
-      <c r="AE66">
-        <v>0</v>
-      </c>
-      <c r="AF66">
-        <v>-5.2448925746858528</v>
-      </c>
-      <c r="AG66">
-        <v>0.21714113940771862</v>
-      </c>
       <c r="AH66">
+        <v>0</v>
+      </c>
+      <c r="AI66">
+        <v>0.83723737685498756</v>
+      </c>
+      <c r="AJ66">
         <v>4</v>
       </c>
-      <c r="AI66">
-        <v>-5.5036251812831916</v>
-      </c>
-      <c r="AJ66">
-        <v>0.83723737685498756</v>
-      </c>
       <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0.74672399548939983</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AO66">
+        <v>0</v>
+      </c>
+      <c r="AP66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>0</v>
+      </c>
+      <c r="AR66">
+        <v>0</v>
+      </c>
+      <c r="AS66">
         <v>4</v>
       </c>
-      <c r="AL66">
-        <v>4.1316873999999988</v>
-      </c>
-      <c r="AM66">
-        <v>0.74672399548939983</v>
-      </c>
-      <c r="AN66">
-        <v>0</v>
-      </c>
-      <c r="AO66">
-        <v>0</v>
-      </c>
-      <c r="AP66">
-        <v>0</v>
-      </c>
-      <c r="AQ66">
-        <v>0</v>
-      </c>
-      <c r="AR66">
-        <v>-25</v>
-      </c>
-      <c r="AS66">
-        <v>0</v>
-      </c>
       <c r="AT66">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.25">
@@ -10249,115 +10249,115 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E67">
-        <v>128.97</v>
+        <v>13.54881438</v>
       </c>
       <c r="F67">
-        <v>13.54881438</v>
+        <v>0</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>6.039999999999992</v>
+        <v>8.472791199999989</v>
       </c>
       <c r="I67">
-        <v>8.472791199999989</v>
+        <v>0</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>5.9599999999999937</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>8.5704825735710628</v>
+        <v>0</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>-123.01</v>
+        <v>23.475843449999999</v>
       </c>
       <c r="O67">
-        <v>23.475843449999999</v>
+        <v>0</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>135.21335159999998</v>
+        <v>25.348311811100395</v>
       </c>
       <c r="R67">
-        <v>25.348311811100395</v>
+        <v>0</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
       <c r="T67">
-        <v>-2.5794840000000026</v>
+        <v>1.0581382512333712</v>
       </c>
       <c r="U67">
-        <v>1.0581382512333712</v>
+        <v>0</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
       <c r="W67">
-        <v>13.57</v>
+        <v>1.2558695750000002</v>
       </c>
       <c r="X67">
-        <v>1.2558695750000002</v>
+        <v>0</v>
       </c>
       <c r="Y67">
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>7.4342989408727043</v>
+        <v>1.2838945315165156</v>
       </c>
       <c r="AA67">
-        <v>1.2838945315165156</v>
+        <v>1</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>-3.63</v>
+        <v>0.73302042000000001</v>
       </c>
       <c r="AD67">
-        <v>0.73302042000000001</v>
+        <v>0</v>
       </c>
       <c r="AE67">
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>-3.8839740178332058</v>
+        <v>0.14303515418375298</v>
       </c>
       <c r="AG67">
-        <v>0.14303515418375298</v>
+        <v>7</v>
       </c>
       <c r="AH67">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI67">
-        <v>-5.8270387665542565</v>
+        <v>7.1528670243570947E-3</v>
       </c>
       <c r="AJ67">
-        <v>7.1528670243570947E-3</v>
+        <v>3</v>
       </c>
       <c r="AK67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL67">
-        <v>4.4287711999999981</v>
+        <v>0.80041624774719966</v>
       </c>
       <c r="AM67">
-        <v>0.80041624774719966</v>
+        <v>0</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -10372,13 +10372,13 @@
         <v>0</v>
       </c>
       <c r="AR67">
-        <v>-45.5</v>
+        <v>3.5355339059327378</v>
       </c>
       <c r="AS67">
-        <v>3.5355339059327378</v>
+        <v>2</v>
       </c>
       <c r="AT67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
@@ -10386,7 +10386,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -10413,16 +10413,16 @@
         <v>0</v>
       </c>
       <c r="K68">
-        <v>5.9957474500716899</v>
+        <v>0</v>
       </c>
       <c r="L68">
-        <v>8.6218874222101682</v>
+        <v>0</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>-65.7</v>
+        <v>65.7</v>
       </c>
       <c r="O68">
         <v>4.1626261043644135</v>
@@ -10526,7 +10526,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C69" t="s">
         <v>69</v>
@@ -10553,16 +10553,16 @@
         <v>0</v>
       </c>
       <c r="K69">
-        <v>8.2113004094161113</v>
+        <v>0</v>
       </c>
       <c r="L69">
-        <v>11.807853534439227</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>-75.3</v>
+        <v>75.3</v>
       </c>
       <c r="O69">
         <v>4.7708637086551038</v>
@@ -10666,7 +10666,7 @@
         <v>67</v>
       </c>
       <c r="B70">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
         <v>70</v>
@@ -10693,16 +10693,16 @@
         <v>0</v>
       </c>
       <c r="K70">
-        <v>4.3645426961598588</v>
+        <v>0</v>
       </c>
       <c r="L70">
-        <v>6.2762142817189552</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>-64.900000000000006</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="O70">
         <v>4.11193963734019</v>
@@ -10806,7 +10806,7 @@
         <v>67</v>
       </c>
       <c r="B71">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
         <v>71</v>
@@ -10833,16 +10833,16 @@
         <v>0</v>
       </c>
       <c r="K71">
-        <v>5.9286749301441262</v>
+        <v>0</v>
       </c>
       <c r="L71">
-        <v>8.5254371095919339</v>
+        <v>0</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>-82.9</v>
+        <v>82.9</v>
       </c>
       <c r="O71">
         <v>5.2523851453852348</v>
@@ -10946,7 +10946,7 @@
         <v>67</v>
       </c>
       <c r="B72">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>72</v>
@@ -10973,10 +10973,10 @@
         <v>0</v>
       </c>
       <c r="K72">
-        <v>8.9664609587679394</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>12.893774730490938</v>
+        <v>0</v>
       </c>
       <c r="M72">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>67</v>
       </c>
       <c r="B73">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C73" t="s">
         <v>73</v>
@@ -11113,10 +11113,10 @@
         <v>0</v>
       </c>
       <c r="K73">
-        <v>5.7726576913842678</v>
+        <v>0</v>
       </c>
       <c r="L73">
-        <v>8.3010842528858859</v>
+        <v>0</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>67</v>
       </c>
       <c r="B74">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
         <v>74</v>
@@ -11253,10 +11253,10 @@
         <v>0</v>
       </c>
       <c r="K74">
-        <v>9.5164892389438762</v>
+        <v>0</v>
       </c>
       <c r="L74">
-        <v>13.684715634890122</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <v>0</v>
@@ -11366,7 +11366,7 @@
         <v>67</v>
       </c>
       <c r="B75">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C75" t="s">
         <v>75</v>
@@ -11393,16 +11393,16 @@
         <v>0</v>
       </c>
       <c r="K75">
-        <v>6.4736074288558285</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>9.3090502780451523</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>-101.7366255</v>
+        <v>101.7366255</v>
       </c>
       <c r="O75">
         <v>20.17145766310653</v>

--- a/LDVMDV_Data.xlsx
+++ b/LDVMDV_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\Bayesian_FAV_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8944A2-7355-4838-A2F0-F75456DE8C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0219B918-3E60-42A7-AC8F-563E5C079E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
+    <workbookView xWindow="-38510" yWindow="-3230" windowWidth="38620" windowHeight="21220" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="211">
   <si>
     <t>Class</t>
   </si>
@@ -614,34 +614,58 @@
     <t>28553-12-0</t>
   </si>
   <si>
-    <t>DmP</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>DPP</t>
-  </si>
-  <si>
-    <t>DiBP</t>
-  </si>
-  <si>
-    <t>DnBP</t>
-  </si>
-  <si>
-    <t>BzBP</t>
-  </si>
-  <si>
-    <t>TBPH</t>
-  </si>
-  <si>
-    <t>DEHP</t>
-  </si>
-  <si>
-    <t>DnOP</t>
-  </si>
-  <si>
-    <t>DiNP</t>
+    <t>TiBP</t>
+  </si>
+  <si>
+    <t>126-71-6</t>
+  </si>
+  <si>
+    <t>TnBP</t>
+  </si>
+  <si>
+    <t>126-73-8</t>
+  </si>
+  <si>
+    <t>TPPO</t>
+  </si>
+  <si>
+    <t>791-28-6</t>
+  </si>
+  <si>
+    <t>B4tBPPP</t>
+  </si>
+  <si>
+    <t>115-87-7</t>
+  </si>
+  <si>
+    <t>Dimethyl phthalate</t>
+  </si>
+  <si>
+    <t>Diethyl phthalate</t>
+  </si>
+  <si>
+    <t>dipropyl phthalate</t>
+  </si>
+  <si>
+    <t>Diisobutyl phthalate</t>
+  </si>
+  <si>
+    <t>Di-n-butyl phthalate</t>
+  </si>
+  <si>
+    <t>Benzylbutyl phthalate</t>
+  </si>
+  <si>
+    <t>Bis(2-ethlyhexyl) tetrabromophthalate</t>
+  </si>
+  <si>
+    <t>Bis(2-ethylhexyl) phthalate</t>
+  </si>
+  <si>
+    <t>Di-n-octyl phthalate</t>
+  </si>
+  <si>
+    <t>Diisononyl phthalate</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6089F3A3-B933-43E9-8E92-242433A56B01}">
-  <dimension ref="A1:AT75"/>
+  <dimension ref="A1:AT79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.7677698187919759</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4.031691560950958</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>35.5</v>
+        <v>-35.5</v>
       </c>
       <c r="O2">
         <v>2.2492119741999494</v>
@@ -1313,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.0855169494241892</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.9511972763344883</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1453,16 +1477,16 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.6848650017520157</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.650870277516244</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>69.05</v>
+        <v>-69.05</v>
       </c>
       <c r="O4">
         <v>2.7577164466275392</v>
@@ -1593,16 +1617,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>4.0708239589681341</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.9297946274492332</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>52.3</v>
+        <v>-52.3</v>
       </c>
       <c r="O5">
         <v>3.3136277817086577</v>
@@ -1733,16 +1757,16 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.4171332880880527</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.9775914697423254</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>64.900000000000006</v>
+        <v>-64.900000000000006</v>
       </c>
       <c r="O6">
         <v>4.11193963734019</v>
@@ -1873,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7.516380887048058</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.948789594226854</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>65.2</v>
+        <v>-65.2</v>
       </c>
       <c r="O7">
         <v>4.1309470624742737</v>
@@ -2013,16 +2037,16 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.446230731991605</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.0199764680303689</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>62.5</v>
+        <v>-62.5</v>
       </c>
       <c r="O8">
         <v>6.0811183182043047</v>
@@ -2153,16 +2177,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.2882437753918481</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.3331865446355806</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>47.6</v>
+        <v>-47.6</v>
       </c>
       <c r="O9">
         <v>3.0158447879413406</v>
@@ -2293,16 +2317,16 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.5196824209918418</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.1269703924055898</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>64.5</v>
+        <v>-64.5</v>
       </c>
       <c r="O10">
         <v>4.0865964038280769</v>
@@ -2433,16 +2457,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>7.7463969104641137</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.283844068119038</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>62.949999999999996</v>
+        <v>-62.949999999999996</v>
       </c>
       <c r="O11">
         <v>14.354267658086917</v>
@@ -2573,16 +2597,16 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.8713379936082077</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.6392119794236821</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>72.400000000000006</v>
+        <v>-72.400000000000006</v>
       </c>
       <c r="O12">
         <v>4.5871252656922916</v>
@@ -2713,16 +2737,16 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.4886218275518104</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.0817257584045734</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>71.349999999999994</v>
+        <v>-71.349999999999994</v>
       </c>
       <c r="O13">
         <v>0.21213203435596226</v>
@@ -2853,16 +2877,16 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.4912136207840945</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.912129517106383</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>75.95</v>
+        <v>-75.95</v>
       </c>
       <c r="O14">
         <v>1.7677669529663689</v>
@@ -2993,16 +3017,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.3659824858718821</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.3597393916348404</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>50.2</v>
+        <v>-50.2</v>
       </c>
       <c r="O15">
         <v>3.1805758057700695</v>
@@ -3133,16 +3157,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.6111682283120103</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.1735480456375207</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>52.3</v>
+        <v>-52.3</v>
       </c>
       <c r="O16">
         <v>3.3136277817086577</v>
@@ -3273,16 +3297,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.8544724516320059</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.5279588702815623</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>60.8</v>
+        <v>-60.8</v>
       </c>
       <c r="O17">
         <v>3.8521714938410399</v>
@@ -3413,16 +3437,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.8418482979760427</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.9662269083836357</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>77</v>
+        <v>-77</v>
       </c>
       <c r="O18">
         <v>4.8785724510815802</v>
@@ -3553,16 +3577,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.5075884925279723</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.022667887970254</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>77.2</v>
+        <v>-77.2</v>
       </c>
       <c r="O19">
         <v>4.8912440678376363</v>
@@ -3693,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.7574516529360409</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.756604138413699</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3833,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.6736975111514596</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.3513175671741369</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3973,10 +3997,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7.199385365416191</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.487035816602292</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -4045,10 +4069,10 @@
         <v>1</v>
       </c>
       <c r="AI22">
-        <v>-11.17626232745083</v>
+        <v>-9.6578674389508308</v>
       </c>
       <c r="AJ22">
-        <v>3.3528786982352492</v>
+        <v>2.8973602316852491</v>
       </c>
       <c r="AK22">
         <v>1</v>
@@ -4122,7 +4146,7 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>81.75</v>
+        <v>-81.75</v>
       </c>
       <c r="O23">
         <v>2.8991378028648409</v>
@@ -4131,13 +4155,13 @@
         <v>2</v>
       </c>
       <c r="Q23">
-        <v>39.308999999999997</v>
+        <v>60.731431800000003</v>
       </c>
       <c r="R23">
-        <v>3.6769552621700443</v>
+        <v>13.120357794640201</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>-24.578272000000002</v>
@@ -4253,16 +4277,16 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.6992563962081988</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.9318909974187486</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>81.650000000000006</v>
+        <v>-81.650000000000006</v>
       </c>
       <c r="O24">
         <v>2.8991378028648507</v>
@@ -4393,16 +4417,16 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.5668291268399486</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.7389898751047612</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>85</v>
+        <v>-85</v>
       </c>
       <c r="O25">
         <v>1.9798989873223412</v>
@@ -4411,13 +4435,13 @@
         <v>2</v>
       </c>
       <c r="Q25">
-        <v>39.809000000000005</v>
+        <v>67.696422799999993</v>
       </c>
       <c r="R25">
-        <v>11.9427</v>
+        <v>14.625067485289199</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>-26.927071999999999</v>
@@ -4542,7 +4566,7 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>84.5</v>
+        <v>-84.5</v>
       </c>
       <c r="O26">
         <v>0.84852813742384892</v>
@@ -4673,16 +4697,16 @@
         <v>2</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>4.0864175135843652</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>5.9525090895134687</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>73.2</v>
+        <v>-73.2</v>
       </c>
       <c r="O27">
         <v>4.637811732716516</v>
@@ -4691,13 +4715,13 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>29.809000000000005</v>
+        <v>63.624090199999991</v>
       </c>
       <c r="R27">
-        <v>8.9427000000000003</v>
+        <v>13.745284822717798</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>-17.663428</v>
@@ -4813,16 +4837,16 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.9411756868159955</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2.8276273488216122</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>74.7</v>
+        <v>-74.7</v>
       </c>
       <c r="O28">
         <v>4.7328488583869364</v>
@@ -4831,13 +4855,13 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>50.459000000000003</v>
+        <v>81.15639920000001</v>
       </c>
       <c r="R28">
-        <v>18.738329701443487</v>
+        <v>17.532947326768802</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>-16.38782800000001</v>
@@ -4929,25 +4953,25 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="E29">
-        <v>81.233333333333334</v>
+        <v>73.579280213433478</v>
       </c>
       <c r="F29">
-        <v>2.9091808698211468</v>
+        <v>9.6108129578966537</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
-        <v>8.5991821757841791</v>
+        <v>7.0501590657234505</v>
       </c>
       <c r="I29">
-        <v>12.062760772546531</v>
+        <v>2.115047719717035</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4962,82 +4986,82 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>79.8</v>
+        <v>-70.8495712</v>
       </c>
       <c r="O29">
-        <v>14.117011015083925</v>
+        <v>7.7266416863584002</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>88.651607799999994</v>
+        <v>94.157976399999995</v>
       </c>
       <c r="R29">
-        <v>16.6194282626582</v>
+        <v>17.651701677731598</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>19.752828000000004</v>
+        <v>23.304604000000001</v>
       </c>
       <c r="U29">
-        <v>8.1028697510174723</v>
+        <v>9.5598549641115067</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>7.914452287052451</v>
+        <v>7.3810200000000004</v>
       </c>
       <c r="X29">
-        <v>6.3438854805062408E-2</v>
+        <v>0.48744256080000004</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>1.6487788978175042</v>
+        <v>3.72</v>
       </c>
       <c r="AA29">
-        <v>0.19072172315272956</v>
+        <v>0.2521806974790135</v>
       </c>
       <c r="AB29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>-5.9826251278887241</v>
+        <v>-2.9467767029021981</v>
       </c>
       <c r="AD29">
-        <v>1.6947161678524225</v>
+        <v>0.83474227696121439</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>-1.3849533306583126</v>
+        <v>-0.48126167744393333</v>
       </c>
       <c r="AG29">
-        <v>0.17815080358449792</v>
+        <v>0.11783463401677403</v>
       </c>
       <c r="AH29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI29">
-        <v>1.4162808651238727</v>
+        <v>-7.0988371796333744E-3</v>
       </c>
       <c r="AJ29">
-        <v>2.992467579434344E-2</v>
+        <v>4.6885273026846148E-3</v>
       </c>
       <c r="AK29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL29">
-        <v>2.1740961999999993</v>
+        <v>4.1284707999999988</v>
       </c>
       <c r="AM29">
-        <v>0.39292658032219985</v>
+        <v>0.7461426561547998</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -5052,13 +5076,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>-45</v>
+        <v>-60</v>
       </c>
       <c r="AS29">
-        <v>14.142135623730951</v>
+        <v>2.7699430313116928</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -5069,28 +5093,28 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="E30">
-        <v>90.566666666666663</v>
+        <v>77.756666666666661</v>
       </c>
       <c r="F30">
-        <v>9.2251467919666919</v>
+        <v>3.3164187512033716</v>
       </c>
       <c r="G30">
         <v>3</v>
       </c>
       <c r="H30">
-        <v>-0.73212846989601132</v>
+        <v>-21.437204504851408</v>
       </c>
       <c r="I30">
-        <v>1.0270151750007268</v>
+        <v>4.2874409009702816</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -5102,82 +5126,82 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>90.3</v>
+        <v>-80.2</v>
       </c>
       <c r="O30">
-        <v>15.703821191035079</v>
+        <v>14.849242404917437</v>
       </c>
       <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>111.9953814</v>
+      </c>
+      <c r="R30">
+        <v>20.995662155676598</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>28.68670400000001</v>
+      </c>
+      <c r="U30">
+        <v>11.767663146663958</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>7.4499999999999993</v>
+      </c>
+      <c r="X30">
+        <v>0.14142135623730964</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>3.9971606868913212</v>
+      </c>
+      <c r="AA30">
+        <v>1.012674051761338E-2</v>
+      </c>
+      <c r="AB30">
+        <v>2</v>
+      </c>
+      <c r="AC30">
+        <v>-3.1676449286445965</v>
+      </c>
+      <c r="AD30">
+        <v>0.89730828187194078</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>-0.96840832213366246</v>
+      </c>
+      <c r="AG30">
+        <v>0.25994612154186569</v>
+      </c>
+      <c r="AH30">
         <v>3</v>
       </c>
-      <c r="Q30">
-        <v>112.60832490000001</v>
-      </c>
-      <c r="R30">
-        <v>21.110570060678103</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>22.089963999999991</v>
-      </c>
-      <c r="U30">
-        <v>9.0615936663177958</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>8.5999801895500738</v>
-      </c>
-      <c r="X30">
-        <v>0.93553903324940713</v>
-      </c>
-      <c r="Y30">
-        <v>3</v>
-      </c>
-      <c r="Z30">
-        <v>2.6349999999999998</v>
-      </c>
-      <c r="AA30">
-        <v>6.3639610306789496E-2</v>
-      </c>
-      <c r="AB30">
-        <v>2</v>
-      </c>
-      <c r="AC30">
-        <v>-5.613207895230822</v>
-      </c>
-      <c r="AD30">
-        <v>1.5900702401057205</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>-2.0793529564966393</v>
-      </c>
-      <c r="AG30">
-        <v>0.83649137759001246</v>
-      </c>
-      <c r="AH30">
-        <v>5</v>
-      </c>
       <c r="AI30">
-        <v>0.56851833009543651</v>
+        <v>0.12912422184350617</v>
       </c>
       <c r="AJ30">
-        <v>8.5459697155219894E-2</v>
+        <v>9.4534838877287433E-2</v>
       </c>
       <c r="AK30">
         <v>3</v>
       </c>
       <c r="AL30">
-        <v>2.9175402999999984</v>
+        <v>3.6484507999999995</v>
       </c>
       <c r="AM30">
-        <v>0.52728997595929972</v>
+        <v>0.65938816153479995</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -5192,13 +5216,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>-45.5</v>
+        <v>-80</v>
       </c>
       <c r="AS30">
-        <v>7.7781745930520225</v>
+        <v>3.6932573750822573</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
@@ -5209,28 +5233,28 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="E31">
-        <v>97</v>
+        <v>101.4</v>
       </c>
       <c r="F31">
-        <v>5.0239426748321856</v>
+        <v>7.2362506327564056</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>8.4122944185202044</v>
+        <v>22.132368777024709</v>
       </c>
       <c r="I31">
-        <v>11.800598364411771</v>
+        <v>4.4264737554049418</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -5242,82 +5266,82 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>93.066666666666663</v>
+        <v>-131.44674519999998</v>
       </c>
       <c r="O31">
-        <v>5.7500724633115148</v>
+        <v>14.335187691276397</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>117.4782165</v>
+        <v>129.36153389999998</v>
       </c>
       <c r="R31">
-        <v>22.023523769038501</v>
+        <v>24.251277398699095</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>20.914440000000003</v>
+        <v>-2.0959359999999965</v>
       </c>
       <c r="U31">
-        <v>8.5793782660118261</v>
+        <v>0.85978050406091344</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>10.196734960730311</v>
+        <v>10.4476</v>
       </c>
       <c r="X31">
-        <v>0.35717875532112214</v>
+        <v>0.68995950399999995</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>3.7354013998198079</v>
+        <v>2.83</v>
       </c>
       <c r="AA31">
-        <v>5.478325049151412E-2</v>
+        <v>0.19184714351226026</v>
       </c>
       <c r="AB31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-6.9726409069821225</v>
+        <v>-7.6675176248253818</v>
       </c>
       <c r="AD31">
-        <v>1.9751609076435468</v>
+        <v>2.1720007201371603</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>-3.8968901507926397</v>
+        <v>-4.3260580013659125</v>
       </c>
       <c r="AG31">
-        <v>0.8017700738440946</v>
+        <v>0.68639129341797445</v>
       </c>
       <c r="AH31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI31">
-        <v>-1.5157161364205862</v>
+        <v>6.8766978856811892E-2</v>
       </c>
       <c r="AJ31">
-        <v>0.23853678415206614</v>
+        <v>8.5033524110052442E-3</v>
       </c>
       <c r="AK31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL31">
-        <v>2.4274862999999964</v>
+        <v>1.529792299999998</v>
       </c>
       <c r="AM31">
-        <v>0.43872202648529934</v>
+        <v>0.27648089217129962</v>
       </c>
       <c r="AN31">
         <v>0</v>
@@ -5332,13 +5356,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>27</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="AS31">
-        <v>8.1</v>
+        <v>7.0710678118670822E-2</v>
       </c>
       <c r="AT31">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
@@ -5349,25 +5373,25 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="E32">
-        <v>94.320000000000007</v>
+        <v>114.61585945221712</v>
       </c>
       <c r="F32">
-        <v>8.6586373061816122</v>
+        <v>34.384757835665134</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>16.749474442736073</v>
+        <v>7.0501590657234505</v>
       </c>
       <c r="I32">
-        <v>23.495827758781306</v>
+        <v>2.115047719717035</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -5382,103 +5406,103 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>95.100000000000009</v>
+        <v>-134.07584640000002</v>
       </c>
       <c r="O32">
-        <v>5.8077534382926403</v>
+        <v>14.621909580844802</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>109.47182520000001</v>
+        <v>141.6297758</v>
       </c>
       <c r="R32">
-        <v>20.522573598418802</v>
+        <v>26.551192439450201</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>2.4292000000000646E-2</v>
+        <v>7.5455880000000004</v>
       </c>
       <c r="U32">
-        <v>9.9648977853561849E-3</v>
+        <v>3.0952994051707643</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>10.202624059176518</v>
+        <v>11.6829</v>
       </c>
       <c r="X32">
-        <v>0.16599464740887165</v>
+        <v>0.77153871600000001</v>
       </c>
       <c r="Y32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>4.281560068433973</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="AA32">
-        <v>0.75778339429101471</v>
+        <v>0.12020815280171303</v>
       </c>
       <c r="AB32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC32">
-        <v>-5.7889397877108442</v>
+        <v>-3.2833185915855339</v>
       </c>
       <c r="AD32">
-        <v>1.639850340484214</v>
+        <v>0.93007550739420897</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>-3.6388660479834938</v>
+        <v>-3.3442177994290483</v>
       </c>
       <c r="AG32">
-        <v>0.42628200846392272</v>
+        <v>0.53060823042519367</v>
       </c>
       <c r="AH32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI32">
-        <v>-2.3752720246754775</v>
+        <v>-2.1445400588030026</v>
       </c>
       <c r="AJ32">
-        <v>0.18822354636508534</v>
+        <v>0.26518221656197488</v>
       </c>
       <c r="AK32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL32">
-        <v>2.3427773999999992</v>
+        <v>3.0528525999999996</v>
       </c>
       <c r="AM32">
-        <v>0.42341250227939986</v>
+        <v>0.55174510325059989</v>
       </c>
       <c r="AN32">
         <v>0</v>
       </c>
       <c r="AO32">
-        <v>91.84</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>7.2387944533560509</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>49.708333333333336</v>
+        <v>-21</v>
       </c>
       <c r="AS32">
-        <v>0.6003471218109292</v>
+        <v>0.96948006095909256</v>
       </c>
       <c r="AT32">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
@@ -5489,115 +5513,115 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E33">
-        <v>109.58571428571429</v>
+        <v>81.233333333333334</v>
       </c>
       <c r="F33">
-        <v>7.9982140863713171</v>
+        <v>2.9091808698211468</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H33">
-        <v>11.646784604791947</v>
+        <v>8.5991821757841791</v>
       </c>
       <c r="I33">
-        <v>16.337876507910046</v>
+        <v>12.062760772546531</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>14.416645774624172</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>21.000109442677644</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>102</v>
+        <v>-79.8</v>
       </c>
       <c r="O33">
-        <v>6.4625245455885869</v>
+        <v>14.117011015083925</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>136.38984429999999</v>
+        <v>88.651607799999994</v>
       </c>
       <c r="R33">
-        <v>25.5688677210767</v>
+        <v>16.6194282626582</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3.1020880000000073</v>
+        <v>19.752828000000004</v>
       </c>
       <c r="U33">
-        <v>1.2725172831046947</v>
+        <v>8.1028697510174723</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>11.064474887288533</v>
+        <v>7.914452287052451</v>
       </c>
       <c r="X33">
-        <v>0.28488608664306192</v>
+        <v>6.3438854805062408E-2</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z33">
-        <v>5.1369400000000001</v>
+        <v>1.6487788978175042</v>
       </c>
       <c r="AA33">
-        <v>2.39362397322</v>
+        <v>0.19072172315272956</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC33">
-        <v>-5.6602455473135667</v>
+        <v>-5.9826251278887241</v>
       </c>
       <c r="AD33">
-        <v>1.6033947369241559</v>
+        <v>1.6947161678524225</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>-4.9827157586780739</v>
+        <v>-1.3849533306583126</v>
       </c>
       <c r="AG33">
-        <v>0.66020783020185903</v>
+        <v>0.17815080358449792</v>
       </c>
       <c r="AH33">
+        <v>4</v>
+      </c>
+      <c r="AI33">
+        <v>1.4162808651238727</v>
+      </c>
+      <c r="AJ33">
+        <v>2.992467579434344E-2</v>
+      </c>
+      <c r="AK33">
         <v>3</v>
       </c>
-      <c r="AI33">
-        <v>-3.3293905311605743</v>
-      </c>
-      <c r="AJ33">
-        <v>2.9155639350899705</v>
-      </c>
-      <c r="AK33">
-        <v>0</v>
-      </c>
       <c r="AL33">
-        <v>2.0676830999999991</v>
+        <v>2.1740961999999993</v>
       </c>
       <c r="AM33">
-        <v>0.37369443434609984</v>
+        <v>0.39292658032219985</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -5612,13 +5636,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>25.5</v>
+        <v>-45</v>
       </c>
       <c r="AS33">
-        <v>1.1772257883074695</v>
+        <v>14.142135623730951</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
@@ -5629,115 +5653,115 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E34">
-        <v>96.174999999999997</v>
+        <v>90.566666666666663</v>
       </c>
       <c r="F34">
-        <v>7.2168783648703219</v>
+        <v>9.2251467919666919</v>
       </c>
       <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
-        <v>11.919418940071921</v>
+        <v>-0.73212846989601132</v>
       </c>
       <c r="I34">
-        <v>16.72032250075409</v>
+        <v>1.0270151750007268</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>10.523885889296238</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>15.3296931125599</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>97.9</v>
+        <v>-90.3</v>
       </c>
       <c r="O34">
-        <v>6.2027564020894381</v>
+        <v>15.703821191035079</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q34">
-        <v>136.38984429999999</v>
+        <v>112.60832490000001</v>
       </c>
       <c r="R34">
-        <v>25.5688677210767</v>
+        <v>21.110570060678103</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>3.1020880000000073</v>
+        <v>22.089963999999991</v>
       </c>
       <c r="U34">
-        <v>1.2725172831046947</v>
+        <v>9.0615936663177958</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>10.720407474148484</v>
+        <v>8.5999801895500738</v>
       </c>
       <c r="X34">
-        <v>0.27602710147933929</v>
+        <v>0.93553903324940713</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z34">
-        <v>5.1511899999999997</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="AA34">
-        <v>2.4002639459699999</v>
+        <v>6.3639610306789496E-2</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC34">
-        <v>-5.6602455473135667</v>
+        <v>-5.613207895230822</v>
       </c>
       <c r="AD34">
-        <v>1.6033947369241559</v>
+        <v>1.5900702401057205</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>-4.0295295311185804</v>
+        <v>-2.0793529564966393</v>
       </c>
       <c r="AG34">
-        <v>0.33620127189764476</v>
+        <v>0.83649137759001246</v>
       </c>
       <c r="AH34">
+        <v>5</v>
+      </c>
+      <c r="AI34">
+        <v>0.56851833009543651</v>
+      </c>
+      <c r="AJ34">
+        <v>8.5459697155219894E-2</v>
+      </c>
+      <c r="AK34">
         <v>3</v>
       </c>
-      <c r="AI34">
-        <v>-2.1255891224464589</v>
-      </c>
-      <c r="AJ34">
-        <v>0.63767673673393765</v>
-      </c>
-      <c r="AK34">
-        <v>1</v>
-      </c>
       <c r="AL34">
-        <v>2.0676830999999991</v>
+        <v>2.9175402999999984</v>
       </c>
       <c r="AM34">
-        <v>0.37369443434609984</v>
+        <v>0.52728997595929972</v>
       </c>
       <c r="AN34">
         <v>0</v>
@@ -5752,13 +5776,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>-10.95</v>
+        <v>-45.5</v>
       </c>
       <c r="AS34">
-        <v>0.50551460321438391</v>
+        <v>7.7781745930520225</v>
       </c>
       <c r="AT34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
@@ -5769,115 +5793,115 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E35">
-        <v>107.25</v>
+        <v>97</v>
       </c>
       <c r="F35">
-        <v>4.1154181642533825</v>
+        <v>5.0239426748321856</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>10.954777397464071</v>
+        <v>8.4122944185202044</v>
       </c>
       <c r="I35">
-        <v>15.367142637614648</v>
+        <v>11.800598364411771</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>11.45452447393582</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>16.68531441549916</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>104</v>
+        <v>-93.066666666666663</v>
       </c>
       <c r="O35">
-        <v>6.5892407131491479</v>
+        <v>5.7500724633115148</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>136.38984429999999</v>
+        <v>117.4782165</v>
       </c>
       <c r="R35">
-        <v>25.5688677210767</v>
+        <v>22.023523769038501</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3.1020880000000073</v>
+        <v>20.914440000000003</v>
       </c>
       <c r="U35">
-        <v>1.2725172831046947</v>
+        <v>8.5793782660118261</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>11.296948484835518</v>
+        <v>10.196734960730311</v>
       </c>
       <c r="X35">
-        <v>0.29087177454308882</v>
+        <v>0.35717875532112214</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z35">
-        <v>5.1328800000000001</v>
+        <v>3.7354013998198079</v>
       </c>
       <c r="AA35">
-        <v>2.3917321634399999</v>
+        <v>5.478325049151412E-2</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC35">
-        <v>-5.6602455473135667</v>
+        <v>-6.9726409069821225</v>
       </c>
       <c r="AD35">
-        <v>1.6033947369241559</v>
+        <v>1.9751609076435468</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>-4.8811502522142618</v>
+        <v>-3.8968901507926397</v>
       </c>
       <c r="AG35">
-        <v>0.52309835760605849</v>
+        <v>0.8017700738440946</v>
       </c>
       <c r="AH35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI35">
-        <v>-3.6970513553893394</v>
+        <v>-1.5157161364205862</v>
       </c>
       <c r="AJ35">
-        <v>1.1091154066168019</v>
+        <v>0.23853678415206614</v>
       </c>
       <c r="AK35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL35">
-        <v>2.0676830999999991</v>
+        <v>2.4274862999999964</v>
       </c>
       <c r="AM35">
-        <v>0.37369443434609984</v>
+        <v>0.43872202648529934</v>
       </c>
       <c r="AN35">
         <v>0</v>
@@ -5892,13 +5916,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>76.875</v>
+        <v>27</v>
       </c>
       <c r="AS35">
-        <v>0.62915286960589578</v>
+        <v>8.1</v>
       </c>
       <c r="AT35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
@@ -5909,136 +5933,136 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E36">
-        <v>106.39999999999999</v>
+        <v>94.320000000000007</v>
       </c>
       <c r="F36">
-        <v>3.9564293666554136</v>
+        <v>8.6586373061816122</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H36">
-        <v>-25.078541008080165</v>
+        <v>16.749474442736073</v>
       </c>
       <c r="I36">
-        <v>35.17967575531469</v>
+        <v>23.495827758781306</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>7.2887838306799324</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>10.617258725862538</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>103.56666666666666</v>
+        <v>-95.100000000000009</v>
       </c>
       <c r="O36">
-        <v>7.4875452141094492</v>
+        <v>5.8077534382926403</v>
       </c>
       <c r="P36">
         <v>3</v>
       </c>
       <c r="Q36">
-        <v>161.93206889999999</v>
+        <v>109.47182520000001</v>
       </c>
       <c r="R36">
-        <v>30.357243024614096</v>
+        <v>20.522573598418802</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>30.219663999999998</v>
+        <v>2.4292000000000646E-2</v>
       </c>
       <c r="U36">
-        <v>12.396503493652231</v>
+        <v>9.9648977853561849E-3</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>11.043333333333331</v>
+        <v>10.202624059176518</v>
       </c>
       <c r="X36">
-        <v>0.48335632129241141</v>
+        <v>0.16599464740887165</v>
       </c>
       <c r="Y36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z36">
-        <v>4.0149999999999997</v>
+        <v>4.281560068433973</v>
       </c>
       <c r="AA36">
-        <v>0.41137979208188291</v>
+        <v>0.75778339429101471</v>
       </c>
       <c r="AB36">
         <v>4</v>
       </c>
       <c r="AC36">
-        <v>-9.3114594635355044</v>
+        <v>-5.7889397877108442</v>
       </c>
       <c r="AD36">
-        <v>2.6376850566140928</v>
+        <v>1.639850340484214</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>-4.5257014829074143</v>
+        <v>-3.6388660479834938</v>
       </c>
       <c r="AG36">
-        <v>0.26343339067048643</v>
+        <v>0.42628200846392272</v>
       </c>
       <c r="AH36">
+        <v>5</v>
+      </c>
+      <c r="AI36">
+        <v>-2.3752720246754775</v>
+      </c>
+      <c r="AJ36">
+        <v>0.18822354636508534</v>
+      </c>
+      <c r="AK36">
+        <v>4</v>
+      </c>
+      <c r="AL36">
+        <v>2.3427773999999992</v>
+      </c>
+      <c r="AM36">
+        <v>0.42341250227939986</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>91.84</v>
+      </c>
+      <c r="AP36">
+        <v>7.2387944533560509</v>
+      </c>
+      <c r="AQ36">
+        <v>1</v>
+      </c>
+      <c r="AR36">
+        <v>49.708333333333336</v>
+      </c>
+      <c r="AS36">
+        <v>0.6003471218109292</v>
+      </c>
+      <c r="AT36">
         <v>7</v>
-      </c>
-      <c r="AI36">
-        <v>0.22099596443744718</v>
-      </c>
-      <c r="AJ36">
-        <v>0.15524653687336698</v>
-      </c>
-      <c r="AK36">
-        <v>2</v>
-      </c>
-      <c r="AL36">
-        <v>3.3537672999999995</v>
-      </c>
-      <c r="AM36">
-        <v>0.60612971789629988</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
-      </c>
-      <c r="AQ36">
-        <v>0</v>
-      </c>
-      <c r="AR36">
-        <v>-70</v>
-      </c>
-      <c r="AS36">
-        <v>3.2316002031969751</v>
-      </c>
-      <c r="AT36">
-        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
@@ -6049,115 +6073,115 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E37">
-        <v>108.8053199021883</v>
+        <v>109.58571428571429</v>
       </c>
       <c r="F37">
-        <v>2.7599602935757312</v>
+        <v>7.9982140863713171</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H37">
-        <v>-1.2870326288639831</v>
+        <v>11.646784604791947</v>
       </c>
       <c r="I37">
-        <v>1.805423631117818</v>
+        <v>16.337876507910046</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>6.7868184388082824</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>9.8860672732504593</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>105.63333333333333</v>
+        <v>-102</v>
       </c>
       <c r="O37">
-        <v>5.6109268396584868</v>
+        <v>6.4625245455885869</v>
       </c>
       <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>136.38984429999999</v>
+      </c>
+      <c r="R37">
+        <v>25.5688677210767</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <v>3.1020880000000073</v>
+      </c>
+      <c r="U37">
+        <v>1.2725172831046947</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>11.064474887288533</v>
+      </c>
+      <c r="X37">
+        <v>0.28488608664306192</v>
+      </c>
+      <c r="Y37">
+        <v>1</v>
+      </c>
+      <c r="Z37">
+        <v>5.1369400000000001</v>
+      </c>
+      <c r="AA37">
+        <v>2.39362397322</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
+        <v>-5.6602455473135667</v>
+      </c>
+      <c r="AD37">
+        <v>1.6033947369241559</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>-4.9827157586780739</v>
+      </c>
+      <c r="AG37">
+        <v>0.66020783020185903</v>
+      </c>
+      <c r="AH37">
         <v>3</v>
       </c>
-      <c r="Q37">
-        <v>152.94250580000002</v>
-      </c>
-      <c r="R37">
-        <v>28.671978619820205</v>
-      </c>
-      <c r="S37">
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <v>9.7376280000000062</v>
-      </c>
-      <c r="U37">
-        <v>3.9945030335838898</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>11.254058807284656</v>
-      </c>
-      <c r="X37">
-        <v>0.56090842337414826</v>
-      </c>
-      <c r="Y37">
-        <v>3</v>
-      </c>
-      <c r="Z37">
-        <v>4.4551030939086207</v>
-      </c>
-      <c r="AA37">
-        <v>0.51039582393287042</v>
-      </c>
-      <c r="AB37">
-        <v>3</v>
-      </c>
-      <c r="AC37">
-        <v>-2.4079210568011886</v>
-      </c>
-      <c r="AD37">
-        <v>0.68209902152324309</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>-4.6558136987291556</v>
-      </c>
-      <c r="AG37">
-        <v>0.27719074419421286</v>
-      </c>
-      <c r="AH37">
-        <v>7</v>
-      </c>
       <c r="AI37">
-        <v>-4.7043664347305514</v>
+        <v>-3.3293905311605743</v>
       </c>
       <c r="AJ37">
-        <v>2.6083556879317391</v>
+        <v>2.9155639350899705</v>
       </c>
       <c r="AK37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL37">
-        <v>4.8651235999999987</v>
+        <v>2.0676830999999991</v>
       </c>
       <c r="AM37">
-        <v>0.87927865335159983</v>
+        <v>0.37369443434609984</v>
       </c>
       <c r="AN37">
         <v>0</v>
@@ -6172,13 +6196,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>-72</v>
+        <v>25.5</v>
       </c>
       <c r="AS37">
-        <v>2.8284271247461903</v>
+        <v>1.1772257883074695</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
@@ -6189,115 +6213,115 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E38">
-        <v>135</v>
+        <v>96.174999999999997</v>
       </c>
       <c r="F38">
-        <v>9.6340614933147393</v>
+        <v>7.2168783648703219</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>11.415015016767995</v>
+        <v>11.919418940071921</v>
       </c>
       <c r="I38">
-        <v>16.012754765221807</v>
+        <v>16.72032250075409</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>6.4092891357116315</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>9.3361365329944679</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>-138.71850051290377</v>
+        <v>-97.9</v>
       </c>
       <c r="O38">
-        <v>15.128223510435747</v>
+        <v>6.2027564020894381</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>168.94886359999998</v>
+        <v>136.38984429999999</v>
       </c>
       <c r="R38">
-        <v>31.672674510228397</v>
+        <v>25.5688677210767</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>2.1688360000000042</v>
+        <v>3.1020880000000073</v>
       </c>
       <c r="U38">
-        <v>0.88968504253253056</v>
+        <v>1.2725172831046947</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38">
-        <v>11.6783</v>
+        <v>10.720407474148484</v>
       </c>
       <c r="X38">
-        <v>0.77123493200000004</v>
+        <v>0.27602710147933929</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
-        <v>8.5659399999999994</v>
+        <v>5.1511899999999997</v>
       </c>
       <c r="AA38">
-        <v>3.9914111002199997</v>
+        <v>2.4002639459699999</v>
       </c>
       <c r="AB38">
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>-4.5528853633970989</v>
+        <v>-5.6602455473135667</v>
       </c>
       <c r="AD38">
-        <v>1.2897094955455863</v>
+        <v>1.6033947369241559</v>
       </c>
       <c r="AE38">
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>-5.9337440369338292</v>
+        <v>-4.0295295311185804</v>
       </c>
       <c r="AG38">
-        <v>0.94147379508925533</v>
+        <v>0.33620127189764476</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI38">
-        <v>-5.1955273046673671</v>
+        <v>-2.1255891224464589</v>
       </c>
       <c r="AJ38">
-        <v>4.5497492383337361</v>
+        <v>0.63767673673393765</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL38">
-        <v>3.2175101999999995</v>
+        <v>2.0676830999999991</v>
       </c>
       <c r="AM38">
-        <v>0.58150383595619992</v>
+        <v>0.37369443434609984</v>
       </c>
       <c r="AN38">
         <v>0</v>
@@ -6312,13 +6336,13 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>99.75</v>
+        <v>-10.95</v>
       </c>
       <c r="AS38">
-        <v>0.35355339059327379</v>
+        <v>0.50551460321438391</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
@@ -6329,115 +6353,115 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E39">
-        <v>111.56666666666666</v>
+        <v>107.25</v>
       </c>
       <c r="F39">
-        <v>4.8850110883531626</v>
+        <v>4.1154181642533825</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>13.571716907400017</v>
+        <v>10.954777397464071</v>
       </c>
       <c r="I39">
-        <v>19.038133043362595</v>
+        <v>15.367142637614648</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>7.1739603940400798</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>10.450000351500202</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>106.65</v>
+        <v>-104</v>
       </c>
       <c r="O39">
-        <v>0.91923881554250975</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>159.06712350000001</v>
+        <v>136.38984429999999</v>
       </c>
       <c r="R39">
-        <v>29.820154575421501</v>
+        <v>25.5688677210767</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0.71806000000001347</v>
+        <v>3.1020880000000073</v>
       </c>
       <c r="U39">
-        <v>0.29455765287966429</v>
+        <v>1.2725172831046947</v>
       </c>
       <c r="V39">
         <v>0</v>
       </c>
       <c r="W39">
-        <v>11.609699222331166</v>
+        <v>11.296948484835518</v>
       </c>
       <c r="X39">
-        <v>0.24084166946195062</v>
+        <v>0.29087177454308882</v>
       </c>
       <c r="Y39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z39">
-        <v>6.0075900000000004</v>
+        <v>5.1328800000000001</v>
       </c>
       <c r="AA39">
-        <v>2.7993146591700002</v>
+        <v>2.3917321634399999</v>
       </c>
       <c r="AB39">
         <v>0</v>
       </c>
       <c r="AC39">
-        <v>-4.9214883845347419</v>
+        <v>-5.6602455473135667</v>
       </c>
       <c r="AD39">
-        <v>1.3941247791523099</v>
+        <v>1.6033947369241559</v>
       </c>
       <c r="AE39">
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>-5.2702642012958201</v>
+        <v>-4.8811502522142618</v>
       </c>
       <c r="AG39">
-        <v>0.18378959287479971</v>
+        <v>0.52309835760605849</v>
       </c>
       <c r="AH39">
         <v>4</v>
       </c>
       <c r="AI39">
-        <v>-4.947844932800435</v>
+        <v>-3.6970513553893394</v>
       </c>
       <c r="AJ39">
-        <v>4.332852546878005</v>
+        <v>1.1091154066168019</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39">
-        <v>2.7322344999999979</v>
+        <v>2.0676830999999991</v>
       </c>
       <c r="AM39">
-        <v>0.49379947341949965</v>
+        <v>0.37369443434609984</v>
       </c>
       <c r="AN39">
         <v>0</v>
@@ -6452,13 +6476,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>76.875</v>
       </c>
       <c r="AS39">
-        <v>0</v>
+        <v>0.62915286960589578</v>
       </c>
       <c r="AT39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -6469,115 +6493,115 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E40">
-        <v>98.617666666666665</v>
+        <v>106.39999999999999</v>
       </c>
       <c r="F40">
-        <v>11.372626624194313</v>
+        <v>3.9564293666554136</v>
       </c>
       <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>-25.078541008080165</v>
+      </c>
+      <c r="I40">
+        <v>35.17967575531469</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>4.8328781671361156</v>
+      </c>
+      <c r="L40">
+        <v>7.0398463012546024</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>-103.56666666666666</v>
+      </c>
+      <c r="O40">
+        <v>7.4875452141094492</v>
+      </c>
+      <c r="P40">
         <v>3</v>
       </c>
-      <c r="H40">
-        <v>12.004375829927909</v>
-      </c>
-      <c r="I40">
-        <v>16.83949832670627</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>99.75</v>
-      </c>
-      <c r="O40">
-        <v>6.7175144212722016</v>
-      </c>
-      <c r="P40">
-        <v>2</v>
-      </c>
       <c r="Q40">
-        <v>135.47459039999998</v>
+        <v>161.93206889999999</v>
       </c>
       <c r="R40">
-        <v>25.397285987697597</v>
+        <v>30.357243024614096</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>8.2935040000000111</v>
+        <v>30.219663999999998</v>
       </c>
       <c r="U40">
-        <v>3.402104381789913</v>
+        <v>12.396503493652231</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>10.879999999999999</v>
+        <v>11.043333333333331</v>
       </c>
       <c r="X40">
-        <v>0.45254833995938959</v>
+        <v>0.48335632129241141</v>
       </c>
       <c r="Y40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z40">
-        <v>5.5325137523428518</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="AA40">
-        <v>0.4666388278829241</v>
+        <v>0.41137979208188291</v>
       </c>
       <c r="AB40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC40">
-        <v>-5.5353437273052064</v>
+        <v>-9.3114594635355044</v>
       </c>
       <c r="AD40">
-        <v>1.6606031181915619</v>
+        <v>2.6376850566140928</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>-4.2249019599857434</v>
+        <v>-4.5257014829074143</v>
       </c>
       <c r="AG40">
-        <v>0.21483584436789924</v>
+        <v>0.26343339067048643</v>
       </c>
       <c r="AH40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AI40">
-        <v>-2.8238365561540544</v>
+        <v>0.22099596443744718</v>
       </c>
       <c r="AJ40">
-        <v>0.90185046293129689</v>
+        <v>0.15524653687336698</v>
       </c>
       <c r="AK40">
         <v>2</v>
       </c>
       <c r="AL40">
-        <v>2.6897827999999979</v>
+        <v>3.3537672999999995</v>
       </c>
       <c r="AM40">
-        <v>0.48612713522679962</v>
+        <v>0.60612971789629988</v>
       </c>
       <c r="AN40">
         <v>0</v>
@@ -6592,13 +6616,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>-67</v>
+        <v>-70</v>
       </c>
       <c r="AS40">
-        <v>18.384776310850235</v>
+        <v>3.2316002031969751</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
@@ -6609,115 +6633,115 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E41">
-        <v>77.2</v>
+        <v>108.8053199021883</v>
       </c>
       <c r="F41">
-        <v>5.5092559058066515</v>
+        <v>2.7599602935757312</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H41">
-        <v>8.5225134635762458</v>
+        <v>-1.2870326288639831</v>
       </c>
       <c r="I41">
-        <v>11.955211436435485</v>
+        <v>1.805423631117818</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>3.4477632265923148</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>5.0222087871729997</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>-127.90782443979163</v>
+        <v>-105.63333333333333</v>
       </c>
       <c r="O41">
-        <v>13.949243609930356</v>
+        <v>5.6109268396584868</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q41">
-        <v>139.24704929999999</v>
+        <v>152.94250580000002</v>
       </c>
       <c r="R41">
-        <v>26.104505085221696</v>
+        <v>28.671978619820205</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>12.569867999999998</v>
+        <v>9.7376280000000062</v>
       </c>
       <c r="U41">
-        <v>5.1563251191921706</v>
+        <v>3.9945030335838898</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>11.689500000000001</v>
+        <v>11.254058807284656</v>
       </c>
       <c r="X41">
-        <v>0.77197458000000008</v>
+        <v>0.56090842337414826</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z41">
-        <v>4.6850000000000005</v>
+        <v>4.4551030939086207</v>
       </c>
       <c r="AA41">
-        <v>0.41719300090006356</v>
+        <v>0.51039582393287042</v>
       </c>
       <c r="AB41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC41">
-        <v>-9.8836998236453422</v>
+        <v>-2.4079210568011886</v>
       </c>
       <c r="AD41">
-        <v>2.7997853001434869</v>
+        <v>0.68209902152324309</v>
       </c>
       <c r="AE41">
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>-4.3871611703129787</v>
+        <v>-4.6558136987291556</v>
       </c>
       <c r="AG41">
-        <v>0.69608618959187496</v>
+        <v>0.27719074419421286</v>
       </c>
       <c r="AH41">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI41">
-        <v>-2.2900095802422902</v>
+        <v>-4.7043664347305514</v>
       </c>
       <c r="AJ41">
-        <v>0.49424642991199053</v>
+        <v>2.6083556879317391</v>
       </c>
       <c r="AK41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL41">
-        <v>1.7478950999999965</v>
+        <v>4.8651235999999987</v>
       </c>
       <c r="AM41">
-        <v>0.31589882931809937</v>
+        <v>0.87927865335159983</v>
       </c>
       <c r="AN41">
         <v>0</v>
@@ -6732,272 +6756,272 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>119.5</v>
+        <v>-72</v>
       </c>
       <c r="AS41">
-        <v>5.5168032040291219</v>
+        <v>2.8284271247461903</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E42">
-        <v>102.97044542908371</v>
+        <v>135</v>
       </c>
       <c r="F42">
-        <v>8.2645317733743067</v>
+        <v>9.6340614933147393</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>28.535700146660066</v>
+        <v>11.415015016767995</v>
       </c>
       <c r="I42">
-        <v>9.3194645443453155</v>
+        <v>16.012754765221807</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>7.6253721994684973</v>
+        <v>7.1788619249362284</v>
       </c>
       <c r="L42">
-        <v>2.2876116598405489</v>
+        <v>10.457140201286688</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>101.25</v>
+        <v>-138.71850051290377</v>
       </c>
       <c r="O42">
-        <v>2.616295090390218</v>
+        <v>15.128223510435747</v>
       </c>
       <c r="P42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>36.872581419041104</v>
+        <v>168.94886359999998</v>
       </c>
       <c r="R42">
-        <v>11.061774425712331</v>
+        <v>31.672674510228397</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>-25.4</v>
+        <v>2.1688360000000042</v>
       </c>
       <c r="U42">
-        <v>5.08</v>
+        <v>0.88968504253253056</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>11.228588497286774</v>
+        <v>11.6783</v>
       </c>
       <c r="X42">
-        <v>0.46868664186349301</v>
+        <v>0.77123493200000004</v>
       </c>
       <c r="Y42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>6.1318209339345842</v>
+        <v>8.5659399999999994</v>
       </c>
       <c r="AA42">
-        <v>0.2700030284701323</v>
+        <v>3.9914111002199997</v>
       </c>
       <c r="AB42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-4.5228787452803374</v>
+        <v>-4.5528853633970989</v>
       </c>
       <c r="AD42">
-        <v>0.90457574905606752</v>
+        <v>1.2897094955455863</v>
       </c>
       <c r="AE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>-4.6349999999999998</v>
+        <v>-5.9337440369338292</v>
       </c>
       <c r="AG42">
-        <v>0.57275649276110319</v>
+        <v>0.94147379508925533</v>
       </c>
       <c r="AH42">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI42">
-        <v>-4.1856271642104357</v>
+        <v>-5.1955273046673671</v>
       </c>
       <c r="AJ42">
-        <v>0.27611870329049543</v>
+        <v>4.5497492383337361</v>
       </c>
       <c r="AK42">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AL42">
-        <v>2.2353977200130184</v>
+        <v>3.2175101999999995</v>
       </c>
       <c r="AM42">
-        <v>0.44707954400260369</v>
+        <v>0.58150383595619992</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>36.703691924967444</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.8061861822140384</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>177.33333333333334</v>
+        <v>99.75</v>
       </c>
       <c r="AS42">
-        <v>1.5275252316519465</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AT42">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E43">
-        <v>105.49559435946666</v>
+        <v>111.56666666666666</v>
       </c>
       <c r="F43">
-        <v>7.5751191460147407</v>
+        <v>4.8850110883531626</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H43">
-        <v>24.695982056704011</v>
+        <v>13.571716907400017</v>
       </c>
       <c r="I43">
-        <v>34.643029709503253</v>
+        <v>19.038133043362595</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>5.2379786369601931</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>7.6299387773116782</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>100.05</v>
+        <v>-106.65</v>
       </c>
       <c r="O43">
-        <v>2.0506096654409918</v>
+        <v>0.91923881554250975</v>
       </c>
       <c r="P43">
         <v>2</v>
       </c>
       <c r="Q43">
-        <v>46.260425888396732</v>
+        <v>159.06712350000001</v>
       </c>
       <c r="R43">
-        <v>13.87812776651902</v>
+        <v>29.820154575421501</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>-35.839772000000004</v>
+        <v>0.71806000000001347</v>
       </c>
       <c r="U43">
-        <v>14.701945687076449</v>
+        <v>0.29455765287966429</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
       <c r="W43">
-        <v>11.073997910243794</v>
+        <v>11.609699222331166</v>
       </c>
       <c r="X43">
-        <v>0.41861016982400551</v>
+        <v>0.24084166946195062</v>
       </c>
       <c r="Y43">
         <v>2</v>
       </c>
       <c r="Z43">
-        <v>5.6850000000000005</v>
+        <v>6.0075900000000004</v>
       </c>
       <c r="AA43">
-        <v>0.36062445840513968</v>
+        <v>2.7993146591700002</v>
       </c>
       <c r="AB43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC43">
-        <v>-4.4799016767325135</v>
+        <v>-4.9214883845347419</v>
       </c>
       <c r="AD43">
-        <v>1.4837389554321319</v>
+        <v>1.3941247791523099</v>
       </c>
       <c r="AE43">
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>-4.6904457173535388</v>
+        <v>-5.2702642012958201</v>
       </c>
       <c r="AG43">
-        <v>0.35274120168317763</v>
+        <v>0.18378959287479971</v>
       </c>
       <c r="AH43">
         <v>4</v>
       </c>
       <c r="AI43">
-        <v>-3.2450748650495234</v>
+        <v>-4.947844932800435</v>
       </c>
       <c r="AJ43">
-        <v>0.25242396939971734</v>
+        <v>4.332852546878005</v>
       </c>
       <c r="AK43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL43">
-        <v>1.9273476</v>
+        <v>2.7322344999999979</v>
       </c>
       <c r="AM43">
-        <v>0.34833145909560004</v>
+        <v>0.49379947341949965</v>
       </c>
       <c r="AN43">
         <v>0</v>
@@ -7012,272 +7036,272 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>216.61666666666667</v>
+        <v>0</v>
       </c>
       <c r="AS43">
-        <v>0.53928965624545278</v>
+        <v>0</v>
       </c>
       <c r="AT43">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E44">
-        <v>94.14</v>
+        <v>98.617666666666665</v>
       </c>
       <c r="F44">
-        <v>4.4506179346243595</v>
+        <v>11.372626624194313</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H44">
-        <v>14.9</v>
+        <v>12.004375829927909</v>
       </c>
       <c r="I44">
-        <v>2.9800000000000004</v>
+        <v>16.83949832670627</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>5.8272615858800378</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>8.4883219694549386</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>93.4</v>
+        <v>-99.75</v>
       </c>
       <c r="O44">
-        <v>4.6669047558312196</v>
+        <v>6.7175144212722016</v>
       </c>
       <c r="P44">
         <v>2</v>
       </c>
       <c r="Q44">
-        <v>58.509</v>
+        <v>135.47459039999998</v>
       </c>
       <c r="R44">
-        <v>17.552699999999998</v>
+        <v>25.397285987697597</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>-21.7</v>
+        <v>8.2935040000000111</v>
       </c>
       <c r="U44">
-        <v>4.34</v>
+        <v>3.402104381789913</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>10.434999999999999</v>
+        <v>10.879999999999999</v>
       </c>
       <c r="X44">
-        <v>0.13435028842544369</v>
+        <v>0.45254833995938959</v>
       </c>
       <c r="Y44">
         <v>2</v>
       </c>
       <c r="Z44">
-        <v>6.6174999999999997</v>
+        <v>5.5325137523428518</v>
       </c>
       <c r="AA44">
-        <v>0.39969780251251513</v>
+        <v>0.4666388278829241</v>
       </c>
       <c r="AB44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC44">
-        <v>-3.3186978724594232</v>
+        <v>-5.5353437273052064</v>
       </c>
       <c r="AD44">
-        <v>0.38418905920526514</v>
+        <v>1.6606031181915619</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44">
-        <v>-3.7075139892385729</v>
+        <v>-4.2249019599857434</v>
       </c>
       <c r="AG44">
-        <v>0.19995588786711851</v>
+        <v>0.21483584436789924</v>
       </c>
       <c r="AH44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI44">
-        <v>-4.0697069918861315</v>
+        <v>-2.8238365561540544</v>
       </c>
       <c r="AJ44">
-        <v>7.1457772538696201E-2</v>
+        <v>0.90185046293129689</v>
       </c>
       <c r="AK44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL44">
-        <v>2.6982638999999988</v>
+        <v>2.6897827999999979</v>
       </c>
       <c r="AM44">
-        <v>0.48765993291089982</v>
+        <v>0.48612713522679962</v>
       </c>
       <c r="AN44">
         <v>0</v>
       </c>
       <c r="AO44">
-        <v>48.472961613897454</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>3.820620706319922</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>83.875</v>
+        <v>-67</v>
       </c>
       <c r="AS44">
-        <v>0.17677669529663689</v>
+        <v>18.384776310850235</v>
       </c>
       <c r="AT44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E45">
-        <v>96.833333333333329</v>
+        <v>77.2</v>
       </c>
       <c r="F45">
-        <v>2.9704096238285618</v>
+        <v>5.5092559058066515</v>
       </c>
       <c r="G45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>16.357400538928019</v>
+        <v>8.5225134635762458</v>
       </c>
       <c r="I45">
-        <v>22.945834327997446</v>
+        <v>11.955211436435485</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>13.007027706688376</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>18.946779274079585</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>103</v>
+        <v>-127.90782443979163</v>
       </c>
       <c r="O45">
-        <v>6.5258826293688674</v>
+        <v>13.949243609930356</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>67.159043699999984</v>
+        <v>139.24704929999999</v>
       </c>
       <c r="R45">
-        <v>12.590238763395297</v>
+        <v>26.104505085221696</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>-32.069367999999997</v>
+        <v>12.569867999999998</v>
       </c>
       <c r="U45">
-        <v>13.155276393914209</v>
+        <v>5.1563251191921706</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
       <c r="W45">
-        <v>10.655000000000001</v>
+        <v>11.689500000000001</v>
       </c>
       <c r="X45">
-        <v>0.23334523779156074</v>
+        <v>0.77197458000000008</v>
       </c>
       <c r="Y45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z45">
-        <v>7.24</v>
+        <v>4.6850000000000005</v>
       </c>
       <c r="AA45">
-        <v>0.51206348000000002</v>
+        <v>0.41719300090006356</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC45">
-        <v>-3.4597463826083863</v>
+        <v>-9.8836998236453422</v>
       </c>
       <c r="AD45">
-        <v>0.40051753998265988</v>
+        <v>2.7997853001434869</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>-3.8064674031393619</v>
+        <v>-4.3871611703129787</v>
       </c>
       <c r="AG45">
-        <v>0.15897540206098351</v>
+        <v>0.69608618959187496</v>
       </c>
       <c r="AH45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI45">
-        <v>-3.6293678108253968</v>
+        <v>-2.2900095802422902</v>
       </c>
       <c r="AJ45">
-        <v>0.44878797989465358</v>
+        <v>0.49424642991199053</v>
       </c>
       <c r="AK45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL45">
-        <v>2.4449938999999983</v>
+        <v>1.7478950999999965</v>
       </c>
       <c r="AM45">
-        <v>0.44188619254089967</v>
+        <v>0.31589882931809937</v>
       </c>
       <c r="AN45">
         <v>0</v>
@@ -7292,10 +7316,10 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>106</v>
+        <v>119.5</v>
       </c>
       <c r="AS45">
-        <v>4.8935660219839905</v>
+        <v>5.5168032040291219</v>
       </c>
       <c r="AT45">
         <v>1</v>
@@ -7303,282 +7327,282 @@
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>102.97044542908371</v>
       </c>
       <c r="F46">
-        <v>7.136341846899807</v>
+        <v>8.2645317733743067</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H46">
-        <v>15.360580442263995</v>
+        <v>28.535700146660066</v>
       </c>
       <c r="I46">
-        <v>21.547515032799087</v>
+        <v>9.3194645443453155</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>7.6253721994684973</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>2.2876116598405489</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
-        <v>98.4</v>
+        <v>-101.25</v>
       </c>
       <c r="O46">
-        <v>6.2344354439795788</v>
+        <v>2.616295090390218</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
-        <v>67.783638699999997</v>
+        <v>73.989164799999998</v>
       </c>
       <c r="R46">
-        <v>12.7073309634503</v>
+        <v>13.8706747358912</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>-32.865367999999989</v>
+        <v>-25.4</v>
       </c>
       <c r="U46">
-        <v>13.481806059530182</v>
+        <v>5.08</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
-        <v>10.361775178295694</v>
+        <v>11.228588497286774</v>
       </c>
       <c r="X46">
-        <v>0.26679310236504827</v>
+        <v>0.46868664186349301</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z46">
-        <v>7.25</v>
+        <v>6.1318209339345842</v>
       </c>
       <c r="AA46">
-        <v>0.51277074999999994</v>
+        <v>0.2700030284701323</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC46">
-        <v>-3.608914998841187</v>
+        <v>-4.5228787452803374</v>
       </c>
       <c r="AD46">
-        <v>0.41778604484085002</v>
+        <v>0.90457574905606752</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46">
-        <v>-3.7529626300087369</v>
+        <v>-4.6349999999999998</v>
       </c>
       <c r="AG46">
-        <v>0.59546147392098581</v>
+        <v>0.57275649276110319</v>
       </c>
       <c r="AH46">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AI46">
-        <v>-3.2173176400000005</v>
+        <v>-4.1856271642104357</v>
       </c>
       <c r="AJ46">
-        <v>0.31517487064968003</v>
+        <v>0.27611870329049543</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AL46">
-        <v>2.4542238999999997</v>
+        <v>2.2353977200130184</v>
       </c>
       <c r="AM46">
-        <v>0.44355433967089997</v>
+        <v>0.44707954400260369</v>
       </c>
       <c r="AN46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>0</v>
+        <v>36.703691924967444</v>
       </c>
       <c r="AP46">
-        <v>0</v>
+        <v>2.8061861822140384</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>177.33333333333334</v>
       </c>
       <c r="AS46">
-        <v>0</v>
+        <v>1.5275252316519465</v>
       </c>
       <c r="AT46">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E47">
-        <v>113</v>
+        <v>105.49559435946666</v>
       </c>
       <c r="F47">
-        <v>15.556349186104045</v>
+        <v>7.5751191460147407</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H47">
-        <v>15.645735560719942</v>
+        <v>24.695982056704011</v>
       </c>
       <c r="I47">
-        <v>21.94752492986672</v>
+        <v>34.643029709503253</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>4.2101512426480525</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>6.1327467046084951</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>122</v>
+        <v>-100.05</v>
       </c>
       <c r="O47">
-        <v>7.7296862211941928</v>
+        <v>2.0506096654409918</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q47">
-        <v>54.209000000000003</v>
+        <v>68.0877488</v>
       </c>
       <c r="R47">
-        <v>16.262699999999999</v>
+        <v>12.764342179787199</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>-28.546148000000013</v>
+        <v>-35.839772000000004</v>
       </c>
       <c r="U47">
-        <v>11.71000522746758</v>
+        <v>14.701945687076449</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>11.375613387532628</v>
+        <v>11.073997910243794</v>
       </c>
       <c r="X47">
-        <v>0.34734978374903991</v>
+        <v>0.41861016982400551</v>
       </c>
       <c r="Y47">
         <v>2</v>
       </c>
       <c r="Z47">
-        <v>6.98</v>
+        <v>5.6850000000000005</v>
       </c>
       <c r="AA47">
-        <v>0.36769552621700502</v>
+        <v>0.36062445840513968</v>
       </c>
       <c r="AB47">
         <v>2</v>
       </c>
       <c r="AC47">
-        <v>-3.7507921573657663</v>
+        <v>-4.4799016767325135</v>
       </c>
       <c r="AD47">
-        <v>0.43421045409744796</v>
+        <v>1.4837389554321319</v>
       </c>
       <c r="AE47">
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>-4.4248091794189603</v>
+        <v>-4.6904457173535388</v>
       </c>
       <c r="AG47">
-        <v>0.1257038377706223</v>
+        <v>0.35274120168317763</v>
       </c>
       <c r="AH47">
+        <v>4</v>
+      </c>
+      <c r="AI47">
+        <v>-3.5173626058676488</v>
+      </c>
+      <c r="AJ47">
+        <v>0.25242396939971701</v>
+      </c>
+      <c r="AK47">
+        <v>2</v>
+      </c>
+      <c r="AL47">
+        <v>1.9273476</v>
+      </c>
+      <c r="AM47">
+        <v>0.34833145909560004</v>
+      </c>
+      <c r="AN47">
+        <v>0</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>0</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>216.61666666666667</v>
+      </c>
+      <c r="AS47">
+        <v>0.53928965624545278</v>
+      </c>
+      <c r="AT47">
         <v>3</v>
-      </c>
-      <c r="AI47">
-        <v>-3.9164203700479505</v>
-      </c>
-      <c r="AJ47">
-        <v>0.21552936573178999</v>
-      </c>
-      <c r="AK47">
-        <v>2</v>
-      </c>
-      <c r="AL47">
-        <v>2.6197388999999971</v>
-      </c>
-      <c r="AM47">
-        <v>0.47346803113589947</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>99</v>
-      </c>
-      <c r="AS47">
-        <v>2.1213203435596424</v>
-      </c>
-      <c r="AT47">
-        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
@@ -7589,133 +7613,133 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E48">
-        <v>100.15</v>
+        <v>94.14</v>
       </c>
       <c r="F48">
-        <v>9.0053687690547495</v>
+        <v>4.4506179346243595</v>
       </c>
       <c r="G48">
         <v>4</v>
       </c>
       <c r="H48">
-        <v>3.1000000000000014</v>
+        <v>14.9</v>
       </c>
       <c r="I48">
-        <v>0.62000000000000033</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>4.2967974015840014</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>6.2589604473117628</v>
       </c>
       <c r="M48">
         <v>0</v>
       </c>
       <c r="N48">
-        <v>91.1</v>
+        <v>-93.4</v>
       </c>
       <c r="O48">
-        <v>27.33</v>
+        <v>4.6669047558312196</v>
       </c>
       <c r="P48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q48">
-        <v>70.908999999999992</v>
+        <v>70.758807699999991</v>
       </c>
       <c r="R48">
-        <v>21.272699999999997</v>
+        <v>13.265082920711299</v>
       </c>
       <c r="S48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>-29.258548000000015</v>
+        <v>-21.7</v>
       </c>
       <c r="U48">
-        <v>12.002241073930925</v>
+        <v>4.34</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
-        <v>11.200000000000001</v>
+        <v>10.434999999999999</v>
       </c>
       <c r="X48">
-        <v>0.1652271164185832</v>
+        <v>0.13435028842544369</v>
       </c>
       <c r="Y48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z48">
-        <v>7.1433333333333335</v>
+        <v>6.6174999999999997</v>
       </c>
       <c r="AA48">
-        <v>0.36828431046317112</v>
+        <v>0.39969780251251513</v>
       </c>
       <c r="AB48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC48">
-        <v>-3.8501767895016785</v>
+        <v>-3.3186978724594232</v>
       </c>
       <c r="AD48">
-        <v>0.44571571603666182</v>
+        <v>0.38418905920526514</v>
       </c>
       <c r="AE48">
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>-4.4678337478400705</v>
+        <v>-3.7075139892385729</v>
       </c>
       <c r="AG48">
-        <v>0.28281797910706313</v>
+        <v>0.19995588786711851</v>
       </c>
       <c r="AH48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI48">
-        <v>-4.2943158888599235</v>
+        <v>-4.0697069918861315</v>
       </c>
       <c r="AJ48">
-        <v>0.29719362983561609</v>
+        <v>7.1457772538696201E-2</v>
       </c>
       <c r="AK48">
         <v>3</v>
       </c>
       <c r="AL48">
-        <v>2.5778088999999973</v>
+        <v>2.6982638999999988</v>
       </c>
       <c r="AM48">
-        <v>0.46588998030589951</v>
+        <v>0.48765993291089982</v>
       </c>
       <c r="AN48">
         <v>0</v>
       </c>
       <c r="AO48">
-        <v>77.464788732394354</v>
+        <v>48.472961613897454</v>
       </c>
       <c r="AP48">
-        <v>6.1057456773350891</v>
+        <v>3.820620706319922</v>
       </c>
       <c r="AQ48">
         <v>1</v>
       </c>
       <c r="AR48">
-        <v>86.283333333333346</v>
+        <v>83.875</v>
       </c>
       <c r="AS48">
-        <v>7.5306872196367154</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="AT48">
         <v>3</v>
@@ -7723,121 +7747,121 @@
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E49">
-        <v>73.524218355999992</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="F49">
-        <v>0.10717142872373359</v>
+        <v>2.9704096238285618</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H49">
-        <v>39</v>
+        <v>16.357400538928019</v>
       </c>
       <c r="I49">
-        <v>7.8000000000000007</v>
+        <v>22.945834327997446</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>4.6010027029921474</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>6.7020832598218973</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>61.2</v>
+        <v>-103</v>
       </c>
       <c r="O49">
-        <v>3.8775147273531525</v>
+        <v>6.5258826293688674</v>
       </c>
       <c r="P49">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>51.928700200000002</v>
+        <v>67.159043699999984</v>
       </c>
       <c r="R49">
-        <v>15.522059705482199</v>
+        <v>12.590238763395297</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
-        <v>-13.497807999999997</v>
+        <v>-32.069367999999997</v>
       </c>
       <c r="U49">
-        <v>5.5369783075234391</v>
+        <v>13.155276393914209</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
       <c r="W49">
-        <v>7.5390552184404918</v>
+        <v>10.655000000000001</v>
       </c>
       <c r="X49">
-        <v>0.19411422232382147</v>
+        <v>0.23334523779156074</v>
       </c>
       <c r="Y49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49">
-        <v>5.26</v>
+        <v>7.24</v>
       </c>
       <c r="AA49">
-        <v>0.3111269837220812</v>
+        <v>0.51206348000000002</v>
       </c>
       <c r="AB49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC49">
-        <v>-1.9124978394296193</v>
+        <v>-3.4597463826083863</v>
       </c>
       <c r="AD49">
-        <v>0.16164821075426294</v>
+        <v>0.40051753998265988</v>
       </c>
       <c r="AE49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>-1.1806733242754686</v>
+        <v>-3.8064674031393619</v>
       </c>
       <c r="AG49">
-        <v>0.14119223273996104</v>
+        <v>0.15897540206098351</v>
       </c>
       <c r="AH49">
         <v>3</v>
       </c>
       <c r="AI49">
-        <v>-2.4696037487087663</v>
+        <v>-3.6293678108253968</v>
       </c>
       <c r="AJ49">
-        <v>0.26889462132834718</v>
+        <v>0.44878797989465358</v>
       </c>
       <c r="AK49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL49">
-        <v>2.9278073999999989</v>
+        <v>2.4449938999999983</v>
       </c>
       <c r="AM49">
-        <v>0.52914555920939976</v>
+        <v>0.44188619254089967</v>
       </c>
       <c r="AN49">
         <v>0</v>
@@ -7852,10 +7876,10 @@
         <v>0</v>
       </c>
       <c r="AR49">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="AS49">
-        <v>4.2010802641560678</v>
+        <v>4.8935660219839905</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -7863,121 +7887,121 @@
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E50">
-        <v>80.262301825000009</v>
+        <v>100</v>
       </c>
       <c r="F50">
-        <v>3.164583107582521</v>
+        <v>7.136341846899807</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>16.093591803544058</v>
+        <v>15.360580442263995</v>
       </c>
       <c r="I50">
-        <v>9.8469607065492522</v>
+        <v>21.547515032799087</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>4.7805045747598029</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>6.963555936005795</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>70.099999999999994</v>
+        <v>-98.4</v>
       </c>
       <c r="O50">
-        <v>4.441401672997646</v>
+        <v>6.2344354439795788</v>
       </c>
       <c r="P50">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>51.739082200000006</v>
+        <v>67.783638699999997</v>
       </c>
       <c r="R50">
-        <v>15.465380799484201</v>
+        <v>12.7073309634503</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>-18.204648000000006</v>
+        <v>-32.865367999999989</v>
       </c>
       <c r="U50">
-        <v>7.4677859599203078</v>
+        <v>13.481806059530182</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
       <c r="W50">
-        <v>7.993297276476711</v>
+        <v>10.361775178295694</v>
       </c>
       <c r="X50">
-        <v>0.20580996420229952</v>
+        <v>0.26679310236504827</v>
       </c>
       <c r="Y50">
         <v>1</v>
       </c>
       <c r="Z50">
-        <v>5.71</v>
+        <v>7.25</v>
       </c>
       <c r="AA50">
-        <v>1.1420000000000001</v>
+        <v>0.51277074999999994</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>-2.087498225774242</v>
+        <v>-3.608914998841187</v>
       </c>
       <c r="AD50">
-        <v>0.41749964515484844</v>
+        <v>0.41778604484085002</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>-1.4403667064642687</v>
+        <v>-3.7529626300087369</v>
       </c>
       <c r="AG50">
-        <v>0.12779782186875707</v>
+        <v>0.59546147392098581</v>
       </c>
       <c r="AH50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI50">
-        <v>-2.98523196960676</v>
+        <v>-3.2173176400000005</v>
       </c>
       <c r="AJ50">
-        <v>0.36913762809068135</v>
+        <v>0.31517487064968003</v>
       </c>
       <c r="AK50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL50">
-        <v>2.9341074000000003</v>
+        <v>2.4542238999999997</v>
       </c>
       <c r="AM50">
-        <v>0.53028416450940008</v>
+        <v>0.44355433967089997</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -7992,132 +8016,132 @@
         <v>0</v>
       </c>
       <c r="AR50">
-        <v>57.75</v>
+        <v>0</v>
       </c>
       <c r="AS50">
-        <v>0.35355339059327379</v>
+        <v>0</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E51">
-        <v>77.099999999999994</v>
+        <v>113</v>
       </c>
       <c r="F51">
-        <v>5.5021195639597513</v>
+        <v>15.556349186104045</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>31.8</v>
+        <v>15.645735560719942</v>
       </c>
       <c r="I51">
-        <v>6.36</v>
+        <v>21.94752492986672</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>4.4621379019357761</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>6.4998048612603929</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>76.099999999999994</v>
+        <v>-122</v>
       </c>
       <c r="O51">
-        <v>4.8215501756793282</v>
+        <v>7.7296862211941928</v>
       </c>
       <c r="P51">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>56.590070599999997</v>
+        <v>77.959482699999995</v>
       </c>
       <c r="R51">
-        <v>16.915394593116599</v>
+        <v>14.614986262286299</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51">
-        <v>-22.709944000000011</v>
+        <v>-28.546148000000013</v>
       </c>
       <c r="U51">
-        <v>9.3159176136652828</v>
+        <v>11.71000522746758</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
       <c r="W51">
-        <v>9.0261907024857795</v>
+        <v>11.375613387532628</v>
       </c>
       <c r="X51">
-        <v>0.23240471624002404</v>
+        <v>0.34734978374903991</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z51">
-        <v>6.4024999999999999</v>
+        <v>6.98</v>
       </c>
       <c r="AA51">
-        <v>1.2805</v>
+        <v>0.36769552621700502</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC51">
-        <v>-2.5192965017072471</v>
+        <v>-3.7507921573657663</v>
       </c>
       <c r="AD51">
-        <v>0.50385930034144943</v>
+        <v>0.43421045409744796</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>-2.4598699455590731</v>
+        <v>-4.4248091794189603</v>
       </c>
       <c r="AG51">
-        <v>0.15642979300815249</v>
+        <v>0.1257038377706223</v>
       </c>
       <c r="AH51">
         <v>3</v>
       </c>
       <c r="AI51">
-        <v>-4.4217108558101943</v>
+        <v>-3.9164203700479505</v>
       </c>
       <c r="AJ51">
-        <v>0.54676483235961115</v>
+        <v>0.21552936573178999</v>
       </c>
       <c r="AK51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL51">
-        <v>2.8537641999999988</v>
+        <v>2.6197388999999971</v>
       </c>
       <c r="AM51">
-        <v>0.51576365763019982</v>
+        <v>0.47346803113589947</v>
       </c>
       <c r="AN51">
         <v>0</v>
@@ -8132,150 +8156,150 @@
         <v>0</v>
       </c>
       <c r="AR51">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AS51">
-        <v>3.5085945063281443</v>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E52">
-        <v>77.521050303999999</v>
+        <v>100.15</v>
       </c>
       <c r="F52">
-        <v>3.0417753598014903</v>
+        <v>9.0053687690547495</v>
       </c>
       <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <v>3.1000000000000014</v>
+      </c>
+      <c r="I52">
+        <v>0.62000000000000033</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>4.8293702345921474</v>
+      </c>
+      <c r="L52">
+        <v>7.0347364464040005</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>-91.1</v>
+      </c>
+      <c r="O52">
+        <v>27.33</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>79.564132699999988</v>
+      </c>
+      <c r="R52">
+        <v>14.915808393136297</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>-29.258548000000015</v>
+      </c>
+      <c r="U52">
+        <v>12.002241073930925</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="X52">
+        <v>0.1652271164185832</v>
+      </c>
+      <c r="Y52">
         <v>3</v>
       </c>
-      <c r="H52">
-        <v>17.427305216247994</v>
-      </c>
-      <c r="I52">
-        <v>10.663001260392631</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>63.8</v>
-      </c>
-      <c r="O52">
-        <v>4.042245745181881</v>
-      </c>
-      <c r="P52">
-        <v>1</v>
-      </c>
-      <c r="Q52">
-        <v>57.033388800000004</v>
-      </c>
-      <c r="R52">
-        <v>17.047907279596799</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <v>-33.734671999999989</v>
-      </c>
-      <c r="U52">
-        <v>13.838405989729468</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
-      <c r="W52">
-        <v>7.6828040702811879</v>
-      </c>
-      <c r="X52">
-        <v>2.1784930946130668E-2</v>
-      </c>
-      <c r="Y52">
-        <v>2</v>
-      </c>
       <c r="Z52">
-        <v>5.2862499999999999</v>
+        <v>7.1433333333333335</v>
       </c>
       <c r="AA52">
-        <v>1.9445436482629957E-2</v>
+        <v>0.36828431046317112</v>
       </c>
       <c r="AB52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC52">
-        <v>-2.4469041999999996</v>
+        <v>-3.8501767895016785</v>
       </c>
       <c r="AD52">
-        <v>0.54425266668499994</v>
+        <v>0.44571571603666182</v>
       </c>
       <c r="AE52">
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>-1.1641242474646873</v>
+        <v>-4.4678337478400705</v>
       </c>
       <c r="AG52">
-        <v>0.17316928979703319</v>
+        <v>0.28281797910706313</v>
       </c>
       <c r="AH52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI52">
-        <v>-3.2819205999699497</v>
+        <v>-4.2554666846671543</v>
       </c>
       <c r="AJ52">
-        <v>0.44450077171695895</v>
+        <v>0.29719362983561631</v>
       </c>
       <c r="AK52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL52">
-        <v>2.9694425999999989</v>
+        <v>2.5778088999999973</v>
       </c>
       <c r="AM52">
-        <v>0.53667033054059976</v>
+        <v>0.46588998030589951</v>
       </c>
       <c r="AN52">
         <v>0</v>
       </c>
       <c r="AO52">
-        <v>0</v>
+        <v>77.464788732394354</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>6.1057456773350891</v>
       </c>
       <c r="AQ52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR52">
-        <v>29.083333333333332</v>
+        <v>86.283333333333346</v>
       </c>
       <c r="AS52">
-        <v>0.38188130791298669</v>
+        <v>7.5306872196367154</v>
       </c>
       <c r="AT52">
         <v>3</v>
@@ -8289,115 +8313,115 @@
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E53">
-        <v>85.341688061999989</v>
+        <v>73.524218355999992</v>
       </c>
       <c r="F53">
-        <v>1.7560120975171565</v>
+        <v>0.10717142872373359</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>12.778028014968001</v>
+        <v>39</v>
       </c>
       <c r="I53">
-        <v>7.8183131091262608</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>3.431115592671901</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>4.9979588930051282</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>83</v>
+        <v>-61.2</v>
       </c>
       <c r="O53">
-        <v>5.2587209537632624</v>
+        <v>3.8775147273531525</v>
       </c>
       <c r="P53">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>58.2108378</v>
+        <v>51.928700200000002</v>
       </c>
       <c r="R53">
-        <v>17.399859737635801</v>
+        <v>15.522059705482199</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53">
-        <v>-23.136451999999995</v>
+        <v>-13.497807999999997</v>
       </c>
       <c r="U53">
-        <v>9.4908768028895718</v>
+        <v>5.5369783075234391</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
       <c r="W53">
-        <v>9.5354454649199933</v>
+        <v>7.5390552184404918</v>
       </c>
       <c r="X53">
-        <v>6.0454967129327825E-2</v>
+        <v>0.19411422232382147</v>
       </c>
       <c r="Y53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z53">
-        <v>6.665</v>
+        <v>5.26</v>
       </c>
       <c r="AA53">
-        <v>0.16263455967290624</v>
+        <v>0.3111269837220812</v>
       </c>
       <c r="AB53">
         <v>2</v>
       </c>
       <c r="AC53">
-        <v>-2.5888519995337749</v>
+        <v>-1.9124978394296193</v>
       </c>
       <c r="AD53">
-        <v>0.29502137502894887</v>
+        <v>0.16164821075426294</v>
       </c>
       <c r="AE53">
         <v>2</v>
       </c>
       <c r="AF53">
-        <v>-3.0450153498164276</v>
+        <v>-1.1806733242754686</v>
       </c>
       <c r="AG53">
-        <v>0.24220774330514885</v>
+        <v>0.14119223273996104</v>
       </c>
       <c r="AH53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI53">
-        <v>-4.9723347322518059</v>
+        <v>-2.4696037487087663</v>
       </c>
       <c r="AJ53">
-        <v>0.64224406619288954</v>
+        <v>0.26889462132834718</v>
       </c>
       <c r="AK53">
         <v>2</v>
       </c>
       <c r="AL53">
-        <v>2.8283425999999992</v>
+        <v>2.9278073999999989</v>
       </c>
       <c r="AM53">
-        <v>0.51116918644059983</v>
+        <v>0.52914555920939976</v>
       </c>
       <c r="AN53">
         <v>0</v>
@@ -8412,10 +8436,10 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="AS53">
-        <v>6.2785375376398376</v>
+        <v>4.2010802641560678</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -8429,136 +8453,136 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E54">
-        <v>85.186631759000008</v>
+        <v>80.262301825000009</v>
       </c>
       <c r="F54">
-        <v>5.9586025096942681</v>
+        <v>3.164583107582521</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <v>32</v>
+        <v>16.093591803544058</v>
       </c>
       <c r="I54">
-        <v>6.4</v>
+        <v>9.8469607065492522</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>3.2927695071998926</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>4.7964360851830747</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>77</v>
+        <v>-70.099999999999994</v>
       </c>
       <c r="O54">
-        <v>4.8785724510815802</v>
+        <v>4.441401672997646</v>
       </c>
       <c r="P54">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>54.406700399999998</v>
+        <v>51.739082200000006</v>
       </c>
       <c r="R54">
-        <v>16.262761223264398</v>
+        <v>15.465380799484201</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54">
-        <v>-18.97117600000001</v>
+        <v>-18.204648000000006</v>
       </c>
       <c r="U54">
-        <v>7.7822258236455406</v>
+        <v>7.4677859599203078</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>8.3783125260505589</v>
+        <v>7.993297276476711</v>
       </c>
       <c r="X54">
-        <v>6.3856714674023748E-2</v>
+        <v>0.20580996420229952</v>
       </c>
       <c r="Y54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z54">
-        <v>5.9708333333333323</v>
+        <v>5.71</v>
       </c>
       <c r="AA54">
-        <v>0.30598542993635075</v>
+        <v>1.1420000000000001</v>
       </c>
       <c r="AB54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC54">
-        <v>-2.1097746204853944</v>
+        <v>-2.087498225774242</v>
       </c>
       <c r="AD54">
-        <v>0.42195492409707891</v>
+        <v>0.41749964515484844</v>
       </c>
       <c r="AE54">
         <v>1</v>
       </c>
       <c r="AF54">
-        <v>-1.8415366630123795</v>
+        <v>-1.4403667064642687</v>
       </c>
       <c r="AG54">
-        <v>3.7003294481798843E-2</v>
+        <v>0.12779782186875707</v>
       </c>
       <c r="AH54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI54">
-        <v>-3.7707483866126688</v>
+        <v>-2.98523196960676</v>
       </c>
       <c r="AJ54">
-        <v>0.31763768319090768</v>
+        <v>0.36913762809068135</v>
       </c>
       <c r="AK54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL54">
-        <v>2.8884657999999988</v>
+        <v>2.9341074000000003</v>
       </c>
       <c r="AM54">
-        <v>0.52203531249979973</v>
+        <v>0.53028416450940008</v>
       </c>
       <c r="AN54">
         <v>0</v>
       </c>
       <c r="AO54">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AP54">
-        <v>4.7291775609904514</v>
+        <v>0</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR54">
-        <v>42.916666666666664</v>
+        <v>57.75</v>
       </c>
       <c r="AS54">
-        <v>2.4537386440559095</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AT54">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
@@ -8569,115 +8593,115 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E55">
-        <v>93.6</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F55">
-        <v>6.6796159686982195</v>
+        <v>5.5021195639597513</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>12.597595609048</v>
+        <v>31.8</v>
       </c>
       <c r="I55">
-        <v>7.7079144589696726</v>
+        <v>6.36</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>2.8348884338479081</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>4.1294603681929649</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>82.3</v>
+        <v>-76.099999999999994</v>
       </c>
       <c r="O55">
-        <v>5.2143702951170656</v>
+        <v>4.8215501756793282</v>
       </c>
       <c r="P55">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>60.488209000000005</v>
+        <v>56.590070599999997</v>
       </c>
       <c r="R55">
-        <v>18.080591040399</v>
+        <v>16.915394593116599</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55">
-        <v>-27.428640000000012</v>
+        <v>-22.709944000000011</v>
       </c>
       <c r="U55">
-        <v>11.251588753141977</v>
+        <v>9.3159176136652828</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
       <c r="W55">
-        <v>10.270436050858564</v>
+        <v>9.0261907024857795</v>
       </c>
       <c r="X55">
-        <v>0.10951371931483565</v>
+        <v>0.23240471624002404</v>
       </c>
       <c r="Y55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z55">
-        <v>7.8893899999999997</v>
+        <v>6.4024999999999999</v>
       </c>
       <c r="AA55">
-        <v>0.55799288653000001</v>
+        <v>1.2805</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <v>-3.2424001857599851</v>
+        <v>-2.5192965017072471</v>
       </c>
       <c r="AD55">
-        <v>0.64848003715199709</v>
+        <v>0.50385930034144943</v>
       </c>
       <c r="AE55">
         <v>1</v>
       </c>
       <c r="AF55">
-        <v>-3.5667759081346233</v>
+        <v>-2.4598699455590731</v>
       </c>
       <c r="AG55">
-        <v>0.56592027387140831</v>
+        <v>0.15642979300815249</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI55">
-        <v>-4.9091550554090064</v>
+        <v>-4.4217108558101943</v>
       </c>
       <c r="AJ55">
-        <v>0.60703954383878933</v>
+        <v>0.54676483235961115</v>
       </c>
       <c r="AK55">
         <v>1</v>
       </c>
       <c r="AL55">
-        <v>2.793641</v>
+        <v>2.8537641999999988</v>
       </c>
       <c r="AM55">
-        <v>0.50489753157100004</v>
+        <v>0.51576365763019982</v>
       </c>
       <c r="AN55">
         <v>0</v>
@@ -8692,10 +8716,10 @@
         <v>0</v>
       </c>
       <c r="AR55">
-        <v>204.5</v>
+        <v>76</v>
       </c>
       <c r="AS55">
-        <v>9.4408891650540205</v>
+        <v>3.5085945063281443</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -8709,136 +8733,136 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E56">
-        <v>88.187381608999999</v>
+        <v>77.521050303999999</v>
       </c>
       <c r="F56">
-        <v>0.72495188087407936</v>
+        <v>3.0417753598014903</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>11.734174130824016</v>
+        <v>17.427305216247994</v>
       </c>
       <c r="I56">
-        <v>7.1796248469894586</v>
+        <v>10.663001260392631</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>3.6011771303441691</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>5.2456802394915494</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>87.5</v>
+        <v>-63.8</v>
       </c>
       <c r="O56">
-        <v>5.5438323307745234</v>
+        <v>4.042245745181881</v>
       </c>
       <c r="P56">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>59.783903000000002</v>
+        <v>57.033388800000004</v>
       </c>
       <c r="R56">
-        <v>17.870066229633</v>
+        <v>17.047907279596799</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
-        <v>-23.282120000000003</v>
+        <v>-33.734671999999989</v>
       </c>
       <c r="U56">
-        <v>9.5506317316972993</v>
+        <v>13.838405989729468</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
       <c r="W56">
-        <v>9.80286139538212</v>
+        <v>7.6828040702811879</v>
       </c>
       <c r="X56">
-        <v>7.0888148300808597E-3</v>
+        <v>2.1784930946130668E-2</v>
       </c>
       <c r="Y56">
         <v>2</v>
       </c>
       <c r="Z56">
-        <v>6.6549999999999994</v>
+        <v>5.2862499999999999</v>
       </c>
       <c r="AA56">
-        <v>0.14849242404917495</v>
+        <v>1.9445436482629957E-2</v>
       </c>
       <c r="AB56">
         <v>2</v>
       </c>
       <c r="AC56">
-        <v>-2.2302775143706985</v>
+        <v>-2.4469041999999996</v>
       </c>
       <c r="AD56">
-        <v>0.44605550287413975</v>
+        <v>0.54425266668499994</v>
       </c>
       <c r="AE56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>-3.2215368249492431</v>
+        <v>-1.1641242474646873</v>
       </c>
       <c r="AG56">
-        <v>8.1858281942174385E-2</v>
+        <v>0.17316928979703319</v>
       </c>
       <c r="AH56">
+        <v>2</v>
+      </c>
+      <c r="AI56">
+        <v>-3.2819205999699497</v>
+      </c>
+      <c r="AJ56">
+        <v>0.44450077171695895</v>
+      </c>
+      <c r="AK56">
+        <v>2</v>
+      </c>
+      <c r="AL56">
+        <v>2.9694425999999989</v>
+      </c>
+      <c r="AM56">
+        <v>0.53667033054059976</v>
+      </c>
+      <c r="AN56">
+        <v>0</v>
+      </c>
+      <c r="AO56">
+        <v>0</v>
+      </c>
+      <c r="AP56">
+        <v>0</v>
+      </c>
+      <c r="AQ56">
+        <v>0</v>
+      </c>
+      <c r="AR56">
+        <v>29.083333333333332</v>
+      </c>
+      <c r="AS56">
+        <v>0.38188130791298669</v>
+      </c>
+      <c r="AT56">
         <v>3</v>
-      </c>
-      <c r="AI56">
-        <v>-4.6128134783762764</v>
-      </c>
-      <c r="AJ56">
-        <v>0.23403260873049611</v>
-      </c>
-      <c r="AK56">
-        <v>2</v>
-      </c>
-      <c r="AL56">
-        <v>2.793641</v>
-      </c>
-      <c r="AM56">
-        <v>0.50489753157100004</v>
-      </c>
-      <c r="AN56">
-        <v>0</v>
-      </c>
-      <c r="AO56">
-        <v>0</v>
-      </c>
-      <c r="AP56">
-        <v>0</v>
-      </c>
-      <c r="AQ56">
-        <v>0</v>
-      </c>
-      <c r="AR56">
-        <v>102.5</v>
-      </c>
-      <c r="AS56">
-        <v>4.7319860118241417</v>
-      </c>
-      <c r="AT56">
-        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
@@ -8849,535 +8873,535 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E57">
-        <v>104.05587005119456</v>
+        <v>85.341688061999989</v>
       </c>
       <c r="F57">
-        <v>0.65273974807507618</v>
+        <v>1.7560120975171565</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <v>37.809999999999995</v>
+        <v>12.778028014968001</v>
       </c>
       <c r="I57">
-        <v>7.5619999999999994</v>
+        <v>7.8183131091262608</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>3.375780711535981</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>4.9173549454560206</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>104</v>
+        <v>-83</v>
       </c>
       <c r="O57">
-        <v>6.5892407131491479</v>
+        <v>5.2587209537632624</v>
       </c>
       <c r="P57">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>65.77873559999999</v>
+        <v>58.2108378</v>
       </c>
       <c r="R57">
-        <v>19.661987636931595</v>
+        <v>17.399859737635801</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57">
-        <v>-23.8</v>
+        <v>-23.136451999999995</v>
       </c>
       <c r="U57">
-        <v>4.7600000000000007</v>
+        <v>9.4908768028895718</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>11.525637381635953</v>
+        <v>9.5354454649199933</v>
       </c>
       <c r="X57">
-        <v>0.19984160559524264</v>
+        <v>6.0454967129327825E-2</v>
       </c>
       <c r="Y57">
         <v>2</v>
       </c>
       <c r="Z57">
-        <v>8.1416737508306145</v>
+        <v>6.665</v>
       </c>
       <c r="AA57">
-        <v>0.25421187957856911</v>
+        <v>0.16263455967290624</v>
       </c>
       <c r="AB57">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AC57">
-        <v>-2.7664286699999998</v>
+        <v>-2.5888519995337749</v>
       </c>
       <c r="AD57">
-        <v>0.61532289692474995</v>
+        <v>0.29502137502894887</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF57">
-        <v>-4.6996349403159625</v>
+        <v>-3.0450153498164276</v>
       </c>
       <c r="AG57">
-        <v>0.28490908503016454</v>
+        <v>0.24220774330514885</v>
       </c>
       <c r="AH57">
         <v>4</v>
       </c>
       <c r="AI57">
-        <v>-4.9065768596922759</v>
+        <v>-4.9723347322518059</v>
       </c>
       <c r="AJ57">
-        <v>0.22757118902063608</v>
+        <v>0.64224406619288954</v>
       </c>
       <c r="AK57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AL57">
-        <v>2.013540181656575</v>
+        <v>2.8283425999999992</v>
       </c>
       <c r="AM57">
-        <v>1.3593681325823463</v>
+        <v>0.51116918644059983</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO57">
-        <v>55.188213787105745</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>9.8727770120457699</v>
+        <v>0</v>
       </c>
       <c r="AQ57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR57">
-        <v>308.39285714285717</v>
+        <v>136</v>
       </c>
       <c r="AS57">
-        <v>5.139425111448797</v>
+        <v>6.2785375376398376</v>
       </c>
       <c r="AT57">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>63</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="E58">
-        <v>0.96533834384387507</v>
+        <v>85.186631759000008</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>5.9586025096942681</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H58">
-        <v>1.8797252000000046</v>
+        <v>32</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>2.9175220740240775</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>4.2498292469512169</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>3.4824044666190925</v>
+        <v>-77</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>4.8785724510815802</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>14.862804664118599</v>
+        <v>54.406700399999998</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>16.262761223264398</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>5.6332290796609685</v>
+        <v>-18.97117600000001</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>7.7822258236455406</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0.18023472661974055</v>
+        <v>8.3783125260505589</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>6.3856714674023748E-2</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z58">
-        <v>0.10675059659978832</v>
+        <v>5.9708333333333323</v>
       </c>
       <c r="AA58">
-        <v>14</v>
+        <v>0.30598542993635075</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC58">
-        <v>0.94942939380402136</v>
+        <v>-2.1097746204853944</v>
       </c>
       <c r="AD58">
-        <v>1</v>
+        <v>0.42195492409707891</v>
       </c>
       <c r="AE58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF58">
-        <v>9.5464368197886035E-2</v>
+        <v>-1.8415366630123795</v>
       </c>
       <c r="AG58">
-        <v>9</v>
+        <v>3.7003294481798843E-2</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI58">
-        <v>7.889766480857377E-2</v>
+        <v>-3.7707483866126688</v>
       </c>
       <c r="AJ58">
-        <v>5</v>
+        <v>0.31763768319090768</v>
       </c>
       <c r="AK58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL58">
-        <v>0.4510360428047997</v>
+        <v>2.8884657999999988</v>
       </c>
       <c r="AM58">
-        <v>0</v>
+        <v>0.52203531249979973</v>
       </c>
       <c r="AN58">
         <v>0</v>
       </c>
       <c r="AO58">
-        <v>4.8710528878201647</v>
+        <v>60</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>4.7291775609904514</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR58">
-        <v>0.23177575369309009</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="AS58">
-        <v>5</v>
+        <v>2.4537386440559095</v>
       </c>
       <c r="AT58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>64</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="E59">
-        <v>2.0167132760553788</v>
+        <v>93.6</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>6.6796159686982195</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>9.8615434000000004</v>
+        <v>12.597595609048</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>7.7079144589696726</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>4.1899954586160675</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>6.1033866386686295</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>3.7436769844595208</v>
+        <v>-82.3</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>5.2143702951170656</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>16.187359459846199</v>
+        <v>60.488209000000005</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>18.080591040399</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>4.9152100352025263</v>
+        <v>-27.428640000000012</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>11.251588753141977</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
       <c r="W59">
-        <v>0.19259367930223703</v>
+        <v>10.270436050858564</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>0.10951371931483565</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z59">
-        <v>0.41659773461009664</v>
+        <v>7.8893899999999997</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>0.55799288653000001</v>
       </c>
       <c r="AB59">
         <v>0</v>
       </c>
       <c r="AC59">
-        <v>0.94750978205391412</v>
+        <v>-3.2424001857599851</v>
       </c>
       <c r="AD59">
-        <v>1</v>
+        <v>0.64848003715199709</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF59">
-        <v>0.22717615065451793</v>
+        <v>-3.5667759081346233</v>
       </c>
       <c r="AG59">
-        <v>11</v>
+        <v>0.56592027387140831</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59">
-        <v>4.9413997541154983E-2</v>
+        <v>-4.9091550554090064</v>
       </c>
       <c r="AJ59">
-        <v>6</v>
+        <v>0.60703954383878933</v>
       </c>
       <c r="AK59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59">
-        <v>0.49704722756259995</v>
+        <v>2.793641</v>
       </c>
       <c r="AM59">
-        <v>0</v>
+        <v>0.50489753157100004</v>
       </c>
       <c r="AN59">
         <v>0</v>
       </c>
       <c r="AO59">
-        <v>5.2525398777400616</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ59">
         <v>0</v>
       </c>
       <c r="AR59">
-        <v>10.907871775312827</v>
+        <v>204.5</v>
       </c>
       <c r="AS59">
-        <v>6</v>
+        <v>9.4408891650540205</v>
       </c>
       <c r="AT59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="E60">
-        <v>6.3299352182001298</v>
+        <v>88.187381608999999</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.72495188087407936</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>7.9116791999999805</v>
+        <v>11.734174130824016</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>7.1796248469894586</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>2.9918111487838956</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>4.3580429552395525</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>14.227494749999998</v>
+        <v>-87.5</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>5.5438323307745234</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>17.7031690045598</v>
+        <v>59.783903000000002</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>17.870066229633</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>4.1220891676524074</v>
+        <v>-23.282120000000003</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>9.5506317316972993</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
       <c r="W60">
-        <v>0.54628330800000002</v>
+        <v>9.80286139538212</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>7.0888148300808597E-3</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z60">
-        <v>0.48041586212717508</v>
+        <v>6.6549999999999994</v>
       </c>
       <c r="AA60">
+        <v>0.14849242404917495</v>
+      </c>
+      <c r="AB60">
+        <v>2</v>
+      </c>
+      <c r="AC60">
+        <v>-2.2302775143706985</v>
+      </c>
+      <c r="AD60">
+        <v>0.44605550287413975</v>
+      </c>
+      <c r="AE60">
+        <v>1</v>
+      </c>
+      <c r="AF60">
+        <v>-3.2215368249492431</v>
+      </c>
+      <c r="AG60">
+        <v>8.1858281942174385E-2</v>
+      </c>
+      <c r="AH60">
         <v>3</v>
       </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
-      <c r="AC60">
-        <v>0.96928320000000001</v>
-      </c>
-      <c r="AD60">
-        <v>0</v>
-      </c>
-      <c r="AE60">
-        <v>0</v>
-      </c>
-      <c r="AF60">
-        <v>0.27876727169807036</v>
-      </c>
-      <c r="AG60">
-        <v>1</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
       <c r="AI60">
-        <v>4.689946047095362E-2</v>
+        <v>-4.6128134783762764</v>
       </c>
       <c r="AJ60">
-        <v>1</v>
+        <v>0.23403260873049611</v>
       </c>
       <c r="AK60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL60">
-        <v>0.53437248046039998</v>
+        <v>2.793641</v>
       </c>
       <c r="AM60">
-        <v>0</v>
+        <v>0.50489753157100004</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -9392,153 +9416,153 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <v>1.4311372328443748</v>
+        <v>102.5</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>4.7319860118241417</v>
       </c>
       <c r="AT60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="E61">
-        <v>11.289652223038836</v>
+        <v>104.05587005119456</v>
       </c>
       <c r="F61">
+        <v>0.65273974807507618</v>
+      </c>
+      <c r="G61">
         <v>3</v>
       </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
       <c r="H61">
-        <v>0.62780000000000002</v>
+        <v>37.809999999999995</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>7.5619999999999994</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>5.8868070856240564</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>8.5750593444998575</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>15.202712699999998</v>
+        <v>-104</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>18.869029417097401</v>
+        <v>65.77873559999999</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>19.661987636931595</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61">
-        <v>4.229172848595943</v>
+        <v>-23.8</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W61">
-        <v>0.57063643200000003</v>
+        <v>11.525637381635953</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>0.19984160559524264</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z61">
-        <v>0.14754694795495324</v>
+        <v>8.1416737508306145</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0.25421187957856911</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC61">
-        <v>0.84812280000000007</v>
+        <v>-2.7664286699999998</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>0.61532289692474995</v>
       </c>
       <c r="AE61">
         <v>0</v>
       </c>
       <c r="AF61">
-        <v>0.31732875204227629</v>
+        <v>-4.9397366133846008</v>
       </c>
       <c r="AG61">
-        <v>1</v>
+        <v>0.45466857646634756</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI61">
-        <v>0.20844345466840553</v>
+        <v>-5.8669835519668307</v>
       </c>
       <c r="AJ61">
-        <v>4</v>
+        <v>0.22757118902063592</v>
       </c>
       <c r="AK61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL61">
-        <v>0.58962082662819981</v>
+        <v>1.533336835519298</v>
       </c>
       <c r="AM61">
-        <v>0</v>
+        <v>0.68025804777806742</v>
       </c>
       <c r="AN61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>55.188213787105745</v>
       </c>
       <c r="AP61">
-        <v>0</v>
+        <v>9.8727770120457699</v>
       </c>
       <c r="AQ61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR61">
-        <v>11.3929802949009</v>
+        <v>308.39285714285717</v>
       </c>
       <c r="AS61">
-        <v>5</v>
+        <v>5.139425111448797</v>
       </c>
       <c r="AT61">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
@@ -9549,136 +9573,136 @@
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E62">
-        <v>2.7191972778775324</v>
+        <v>77.251485714285693</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>0.96533834384387507</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H62">
-        <v>0.2162</v>
+        <v>-1.3400000000000034</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>1.8797252000000046</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>8.5500000000000043</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>12.454418215014696</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>4.3857963377810565</v>
+        <v>-54.963853999999998</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>3.4824044666190925</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>18.884489985527399</v>
+        <v>79.281399399999998</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>14.862804664118599</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62">
-        <v>4.0549143034280206</v>
+        <v>13.732444000000006</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>5.6332290796609685</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <v>0.22297610464670758</v>
+        <v>7</v>
       </c>
       <c r="X62">
-        <v>1</v>
+        <v>0.18023472661974055</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62">
-        <v>0.28331014372467622</v>
+        <v>1.6110213059370522</v>
       </c>
       <c r="AA62">
-        <v>12</v>
+        <v>0.10675059659978832</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC62">
-        <v>0.82616992931380784</v>
+        <v>-4.7471469690201067</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>0.94942939380402136</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF62">
-        <v>0.13346437472296552</v>
+        <v>-0.5737975003434046</v>
       </c>
       <c r="AG62">
-        <v>10</v>
+        <v>9.5464368197886035E-2</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI62">
-        <v>6.8688215356957738E-2</v>
+        <v>1.3026136962115185</v>
       </c>
       <c r="AJ62">
-        <v>7</v>
+        <v>7.889766480857377E-2</v>
       </c>
       <c r="AK62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL62">
-        <v>0.58011437602819982</v>
+        <v>2.4956207999999984</v>
       </c>
       <c r="AM62">
-        <v>0</v>
+        <v>0.4510360428047997</v>
       </c>
       <c r="AN62">
         <v>0</v>
       </c>
       <c r="AO62">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="AP62">
-        <v>0</v>
+        <v>4.8710528878201647</v>
       </c>
       <c r="AQ62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR62">
-        <v>0</v>
+        <v>5.4119999999999999</v>
       </c>
       <c r="AS62">
+        <v>0.23177575369309009</v>
+      </c>
+      <c r="AT62">
         <v>5</v>
-      </c>
-      <c r="AT62">
-        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
@@ -9689,136 +9713,136 @@
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E63">
-        <v>12.116981802412674</v>
+        <v>83.510311011427788</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>2.0167132760553788</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H63">
-        <v>6.4247323999999972</v>
+        <v>-7.0300000000000011</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>9.8615434000000004</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>7.289999999999992</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>10.619030267538829</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>4.832488061830821</v>
+        <v>-59.087598</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>3.7436769844595208</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>21.4056005242421</v>
+        <v>86.346859800000004</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>16.187359459846199</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
       <c r="T63">
-        <v>2.2732306162096045</v>
+        <v>11.982088000000003</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>4.9152100352025263</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
       <c r="W63">
-        <v>0.24872392273524194</v>
+        <v>7.48</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>0.19259367930223703</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z63">
-        <v>0.4185329646809503</v>
+        <v>2.309034364660989</v>
       </c>
       <c r="AA63">
+        <v>0.41659773461009664</v>
+      </c>
+      <c r="AB63">
+        <v>10</v>
+      </c>
+      <c r="AC63">
+        <v>-4.7375489102695703</v>
+      </c>
+      <c r="AD63">
+        <v>0.94750978205391412</v>
+      </c>
+      <c r="AE63">
+        <v>1</v>
+      </c>
+      <c r="AF63">
+        <v>-0.86296934379017121</v>
+      </c>
+      <c r="AG63">
+        <v>0.22717615065451793</v>
+      </c>
+      <c r="AH63">
+        <v>11</v>
+      </c>
+      <c r="AI63">
+        <v>0.6479393964825203</v>
+      </c>
+      <c r="AJ63">
+        <v>4.9413997541154983E-2</v>
+      </c>
+      <c r="AK63">
         <v>6</v>
       </c>
-      <c r="AB63">
-        <v>0</v>
-      </c>
-      <c r="AC63">
-        <v>1.1389077599999999</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>0</v>
-      </c>
-      <c r="AF63">
-        <v>0.56113384528000032</v>
-      </c>
-      <c r="AG63">
-        <v>5</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0.29807311025252042</v>
-      </c>
-      <c r="AJ63">
-        <v>4</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
       <c r="AL63">
-        <v>0.4962450891652998</v>
+        <v>2.7502045999999996</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>0.49704722756259995</v>
       </c>
       <c r="AN63">
         <v>0</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>66.64</v>
       </c>
       <c r="AP63">
-        <v>0</v>
+        <v>5.2525398777400616</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR63">
-        <v>0</v>
+        <v>-50.183333333333337</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>10.907871775312827</v>
       </c>
       <c r="AT63">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
@@ -9829,115 +9853,115 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E64">
-        <v>14.879848559999997</v>
+        <v>88.7</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>6.3299352182001298</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>18.208084399999983</v>
+        <v>-5.6399999999999864</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>7.9116791999999805</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>6.6300000000000097</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>9.6576365807657911</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>25.771708799999995</v>
+        <v>-74.55</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>14.227494749999998</v>
       </c>
       <c r="P64">
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>24.2622788857358</v>
+        <v>94.4325142</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>17.7031690045598</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64">
-        <v>9.1365002279511423</v>
+        <v>10.048651999999995</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>4.1220891676524074</v>
       </c>
       <c r="V64">
         <v>0</v>
       </c>
       <c r="W64">
-        <v>1.143986304</v>
+        <v>8.0530000000000008</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>0.54628330800000002</v>
       </c>
       <c r="Y64">
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>0.69146320276503692</v>
+        <v>3.8510326049913961</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0.48041586212717508</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC64">
-        <v>0.63003408000000005</v>
+        <v>-4.8</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>0.96928320000000001</v>
       </c>
       <c r="AE64">
         <v>0</v>
       </c>
       <c r="AF64">
-        <v>1.0121875158590701</v>
+        <v>-1.7569619513137056</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>0.27876727169807036</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64">
-        <v>2.39297184</v>
+        <v>-0.37927796599702324</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>4.689946047095362E-2</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL64">
-        <v>0.80418922424939965</v>
+        <v>2.9567283999999998</v>
       </c>
       <c r="AM64">
-        <v>0</v>
+        <v>0.53437248046039998</v>
       </c>
       <c r="AN64">
         <v>0</v>
@@ -9952,13 +9976,13 @@
         <v>0</v>
       </c>
       <c r="AR64">
-        <v>1.2464743640902618</v>
+        <v>-31</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>1.4311372328443748</v>
       </c>
       <c r="AT64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
@@ -9969,115 +9993,115 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E65">
-        <v>4.4625575442630749</v>
+        <v>77.779285878211255</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>11.289652223038836</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H65">
-        <v>0.631251000000004</v>
+        <v>3.1389999999999998</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>5.9300000000000068</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>8.6379766099458717</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5.4003343808469122</v>
+        <v>-79.66</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>15.202712699999998</v>
       </c>
       <c r="P65">
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>24.097129944875796</v>
+        <v>100.65146460000001</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>18.869029417097401</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65">
-        <v>1.0867908191780329</v>
+        <v>10.309695999999986</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>4.229172848595943</v>
       </c>
       <c r="V65">
         <v>0</v>
       </c>
       <c r="W65">
-        <v>0.26983713356784012</v>
+        <v>8.4120000000000008</v>
       </c>
       <c r="X65">
-        <v>1</v>
+        <v>0.57063643200000003</v>
       </c>
       <c r="Y65">
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>0.35617946252389365</v>
+        <v>4.2356685525576738</v>
       </c>
       <c r="AA65">
-        <v>7</v>
+        <v>0.14754694795495324</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>0.66234351999999996</v>
+        <v>-4.2</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>0.84812280000000007</v>
       </c>
       <c r="AE65">
         <v>0</v>
       </c>
       <c r="AF65">
-        <v>0.40136383442810358</v>
+        <v>-2</v>
       </c>
       <c r="AG65">
-        <v>10</v>
+        <v>0.31732875204227629</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65">
-        <v>0.53164878715036823</v>
+        <v>-1.3958411066867862</v>
       </c>
       <c r="AJ65">
+        <v>0.20844345466840553</v>
+      </c>
+      <c r="AK65">
         <v>4</v>
       </c>
-      <c r="AK65">
-        <v>0</v>
-      </c>
       <c r="AL65">
-        <v>0.75680878528939977</v>
+        <v>3.2624221999999987</v>
       </c>
       <c r="AM65">
-        <v>0</v>
+        <v>0.58962082662819981</v>
       </c>
       <c r="AN65">
         <v>0</v>
@@ -10092,13 +10116,13 @@
         <v>0</v>
       </c>
       <c r="AR65">
-        <v>2.7386127875258306</v>
+        <v>-54.6</v>
       </c>
       <c r="AS65">
+        <v>11.3929802949009</v>
+      </c>
+      <c r="AT65">
         <v>5</v>
-      </c>
-      <c r="AT65">
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
@@ -10109,115 +10133,115 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E66">
-        <v>8.7652894441655516</v>
+        <v>94.398029513874349</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>2.7191972778775324</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H66">
-        <v>8.7393193999999852</v>
+        <v>-1.081</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>0.2162</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>6.0300000000000011</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>8.7836423200629934</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>5.8696767465642949</v>
+        <v>-69.222363999999999</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>4.3857963377810565</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>24.363710862875802</v>
+        <v>100.7339346</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>18.884489985527399</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
       <c r="T66">
-        <v>5.3751049177136349E-2</v>
+        <v>9.8848959999999888</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>4.0549143034280206</v>
       </c>
       <c r="V66">
         <v>0</v>
       </c>
       <c r="W66">
-        <v>0.28786060622981419</v>
+        <v>8.66</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>0.22297610464670758</v>
       </c>
       <c r="Y66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z66">
-        <v>5.5075705472860809E-2</v>
+        <v>4.4422553262077491</v>
       </c>
       <c r="AA66">
-        <v>4</v>
+        <v>0.28331014372467622</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC66">
-        <v>0.73907844</v>
+        <v>-4.1308496465690387</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>0.82616992931380784</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF66">
-        <v>0.21714113940771862</v>
+        <v>-2.3350542131060088</v>
       </c>
       <c r="AG66">
-        <v>4</v>
+        <v>0.13346437472296552</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI66">
-        <v>0.83723737685498756</v>
+        <v>-1.3998152287306809</v>
       </c>
       <c r="AJ66">
-        <v>4</v>
+        <v>6.8688215356957738E-2</v>
       </c>
       <c r="AK66">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL66">
-        <v>0.74672399548939983</v>
+        <v>3.2098221999999987</v>
       </c>
       <c r="AM66">
-        <v>0</v>
+        <v>0.58011437602819982</v>
       </c>
       <c r="AN66">
         <v>0</v>
@@ -10232,13 +10256,13 @@
         <v>0</v>
       </c>
       <c r="AR66">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AS66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AT66">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.25">
@@ -10249,115 +10273,115 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D67" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E67">
-        <v>13.54881438</v>
+        <v>96.432000000000002</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>12.116981802412674</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H67">
-        <v>8.472791199999989</v>
+        <v>4.5799999999999983</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>6.4247323999999972</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>11.289092534077643</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>23.475843449999999</v>
+        <v>-76.272636000000006</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>4.832488061830821</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>25.348311811100395</v>
+        <v>114.1820809</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>21.4056005242421</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
       <c r="T67">
-        <v>1.0581382512333712</v>
+        <v>5.5415839999999914</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>2.2732306162096045</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
       <c r="W67">
-        <v>1.2558695750000002</v>
+        <v>9.66</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>0.24872392273524194</v>
       </c>
       <c r="Y67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z67">
-        <v>1.2838945315165156</v>
+        <v>4.5386669822446644</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>0.4185329646809503</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC67">
-        <v>0.73302042000000001</v>
+        <v>-5.64</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>1.1389077599999999</v>
       </c>
       <c r="AE67">
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>0.14303515418375298</v>
+        <v>-3.4028429570900025</v>
       </c>
       <c r="AG67">
-        <v>7</v>
+        <v>0.56113384528000032</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI67">
-        <v>7.1528670243570947E-3</v>
+        <v>-2.196787626474034</v>
       </c>
       <c r="AJ67">
-        <v>3</v>
+        <v>0.29807311025252042</v>
       </c>
       <c r="AK67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL67">
-        <v>0.80041624774719966</v>
+        <v>2.7457662999999988</v>
       </c>
       <c r="AM67">
-        <v>0</v>
+        <v>0.4962450891652998</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -10372,132 +10396,132 @@
         <v>0</v>
       </c>
       <c r="AR67">
-        <v>3.5355339059327378</v>
+        <v>-35</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="E68">
-        <v>77.099999999999994</v>
+        <v>141.63999999999999</v>
       </c>
       <c r="F68">
-        <v>5.5021195639597513</v>
+        <v>14.879848559999997</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>7.374634427559954</v>
+        <v>12.97999999999999</v>
       </c>
       <c r="I68">
-        <v>10.344989682292551</v>
+        <v>18.208084399999983</v>
       </c>
       <c r="J68">
         <v>0</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>6.5999999999999943</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>9.6139368677306294</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>65.7</v>
+        <v>-135.04</v>
       </c>
       <c r="O68">
-        <v>4.1626261043644135</v>
+        <v>25.771708799999995</v>
       </c>
       <c r="P68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>62.918134400000007</v>
+        <v>129.42021819999999</v>
       </c>
       <c r="R68">
-        <v>11.795199737833601</v>
+        <v>24.2622788857358</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68">
-        <v>-4.7459759999999971</v>
+        <v>-22.272568000000003</v>
       </c>
       <c r="U68">
-        <v>1.9468617541475512</v>
+        <v>9.1365002279511423</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
       <c r="W68">
-        <v>7.4756656115367477</v>
+        <v>16.864000000000001</v>
       </c>
       <c r="X68">
-        <v>0.19248207825656016</v>
+        <v>1.143986304</v>
       </c>
       <c r="Y68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
-        <v>3.2034298799999998</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA68">
-        <v>0.47526085699679993</v>
+        <v>0.69146320276503692</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68">
-        <v>-4.6116239999999991</v>
+        <v>-3.12</v>
       </c>
       <c r="AD68">
-        <v>0.9705992800319998</v>
+        <v>0.63003408000000005</v>
       </c>
       <c r="AE68">
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>-0.83534495289423183</v>
+        <v>-6.5403690608624325</v>
       </c>
       <c r="AG68">
-        <v>0.13253948571337032</v>
+        <v>1.0121875158590701</v>
       </c>
       <c r="AH68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI68">
-        <v>0.20717968999999953</v>
+        <v>-8.68</v>
       </c>
       <c r="AJ68">
-        <v>6.2769437858989849E-2</v>
+        <v>2.39297184</v>
       </c>
       <c r="AK68">
         <v>0</v>
       </c>
       <c r="AL68">
-        <v>2.3943827999999989</v>
+        <v>4.4496473999999981</v>
       </c>
       <c r="AM68">
-        <v>0.43273919782679982</v>
+        <v>0.80418922424939965</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -10512,10 +10536,10 @@
         <v>0</v>
       </c>
       <c r="AR68">
-        <v>51.5</v>
+        <v>-27</v>
       </c>
       <c r="AS68">
-        <v>2.1213203435596424</v>
+        <v>1.2464743640902618</v>
       </c>
       <c r="AT68">
         <v>1</v>
@@ -10523,261 +10547,261 @@
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="E69">
-        <v>79.976666666666674</v>
+        <v>112.20803244366759</v>
       </c>
       <c r="F69">
-        <v>7.7949748770174621</v>
+        <v>4.4625575442630749</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H69">
-        <v>12.407421093848001</v>
+        <v>0.45000000000000284</v>
       </c>
       <c r="I69">
-        <v>17.404882162028098</v>
+        <v>0.631251000000004</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>5.4299999999999926</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>7.9096480593601957</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>75.3</v>
+        <v>-85.235128000000003</v>
       </c>
       <c r="O69">
-        <v>4.7708637086551038</v>
+        <v>5.4003343808469122</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>70.401418300000003</v>
+        <v>128.53927819999998</v>
       </c>
       <c r="R69">
-        <v>13.1980834872827</v>
+        <v>24.097129944875796</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69">
-        <v>-11.785092000000001</v>
+        <v>2.6493320000000207</v>
       </c>
       <c r="U69">
-        <v>4.8343996859466394</v>
+        <v>1.0867908191780329</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
-        <v>9.062289783061221</v>
+        <v>10.48</v>
       </c>
       <c r="X69">
-        <v>0.23333418879984386</v>
+        <v>0.26983713356784012</v>
       </c>
       <c r="Y69">
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>3.4536576318955827</v>
+        <v>7.5961428571428575</v>
       </c>
       <c r="AA69">
-        <v>0.12659127947609147</v>
+        <v>0.35617946252389365</v>
       </c>
       <c r="AB69">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AC69">
-        <v>-4.6387730000000005</v>
+        <v>-3.28</v>
       </c>
       <c r="AD69">
-        <v>0.97631327576400007</v>
+        <v>0.66234351999999996</v>
       </c>
       <c r="AE69">
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>-2.4901757792294523</v>
+        <v>-4.6359639287313668</v>
       </c>
       <c r="AG69">
-        <v>0.15804862177910686</v>
+        <v>0.40136383442810358</v>
       </c>
       <c r="AH69">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI69">
-        <v>-0.99160050980834902</v>
+        <v>-3.4780745027655433</v>
       </c>
       <c r="AJ69">
-        <v>0.18611663456422731</v>
+        <v>0.53164878715036823</v>
       </c>
       <c r="AK69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL69">
-        <v>2.4676880999999993</v>
+        <v>4.1874873999999984</v>
       </c>
       <c r="AM69">
-        <v>0.44598773800109986</v>
+        <v>0.75680878528939977</v>
       </c>
       <c r="AN69">
         <v>0</v>
       </c>
       <c r="AO69">
-        <v>64.656964656964661</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>5.096237773624499</v>
+        <v>0</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR69">
-        <v>63.741666666666667</v>
+        <v>-53</v>
       </c>
       <c r="AS69">
-        <v>0.94995613933837286</v>
+        <v>2.7386127875258306</v>
       </c>
       <c r="AT69">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="E70">
-        <v>65.7</v>
+        <v>117.3274</v>
       </c>
       <c r="F70">
-        <v>4.688576593413174</v>
+        <v>8.7652894441655516</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70">
-        <v>-2.362202987335948</v>
+        <v>6.2299999999999898</v>
       </c>
       <c r="I70">
-        <v>3.3136511065751209</v>
+        <v>8.7393193999999852</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>5.8299999999999983</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>8.4923108998287269</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>64.900000000000006</v>
+        <v>-92.642902000000007</v>
       </c>
       <c r="O70">
-        <v>4.11193963734019</v>
+        <v>5.8696767465642949</v>
       </c>
       <c r="P70">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>80.724194100000005</v>
+        <v>129.96127820000001</v>
       </c>
       <c r="R70">
-        <v>15.1332839437329</v>
+        <v>24.363710862875802</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70">
-        <v>-7.3026040000000041</v>
+        <v>0.13103200000002402</v>
       </c>
       <c r="U70">
-        <v>2.9956241736757501</v>
+        <v>5.3751049177136349E-2</v>
       </c>
       <c r="V70">
         <v>0</v>
       </c>
       <c r="W70">
-        <v>8.5342489113816207</v>
+        <v>11.18</v>
       </c>
       <c r="X70">
-        <v>0.21973828849252638</v>
+        <v>0.28786060622981419</v>
       </c>
       <c r="Y70">
         <v>1</v>
       </c>
       <c r="Z70">
-        <v>5.1021482939458087</v>
+        <v>8.125</v>
       </c>
       <c r="AA70">
-        <v>1.5306444881837427</v>
+        <v>5.5075705472860809E-2</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC70">
-        <v>-3.1825809999999994</v>
+        <v>-3.66</v>
       </c>
       <c r="AD70">
-        <v>0.66983145790799981</v>
+        <v>0.73907844</v>
       </c>
       <c r="AE70">
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>-2.1437560717924429</v>
+        <v>-5.2448925746858528</v>
       </c>
       <c r="AG70">
-        <v>0.57534852774613077</v>
+        <v>0.21714113940771862</v>
       </c>
       <c r="AH70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AI70">
-        <v>-1.9385377595649462</v>
+        <v>-5.5036251812831916</v>
       </c>
       <c r="AJ70">
-        <v>0.23970908720513637</v>
+        <v>0.83723737685498756</v>
       </c>
       <c r="AK70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL70">
-        <v>3.2429456999999982</v>
+        <v>4.1316873999999988</v>
       </c>
       <c r="AM70">
-        <v>0.58610081930669966</v>
+        <v>0.74672399548939983</v>
       </c>
       <c r="AN70">
         <v>0</v>
@@ -10792,132 +10816,132 @@
         <v>0</v>
       </c>
       <c r="AR70">
-        <v>70.400000000000006</v>
+        <v>-25</v>
       </c>
       <c r="AS70">
-        <v>3.2500664900723866</v>
+        <v>0</v>
       </c>
       <c r="AT70">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="E71">
-        <v>95.3</v>
+        <v>128.97</v>
       </c>
       <c r="F71">
-        <v>6.8009337800955159</v>
+        <v>13.54881438</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>11.791564401960017</v>
+        <v>6.039999999999992</v>
       </c>
       <c r="I71">
-        <v>16.540970711781473</v>
+        <v>8.472791199999989</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>5.9599999999999937</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>8.6816763229809908</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>82.9</v>
+        <v>-123.01</v>
       </c>
       <c r="O71">
-        <v>5.2523851453852348</v>
+        <v>23.475843449999999</v>
       </c>
       <c r="P71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>80.665976700000002</v>
+        <v>135.21335159999998</v>
       </c>
       <c r="R71">
-        <v>15.1223699859723</v>
+        <v>25.348311811100395</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
       <c r="T71">
-        <v>-11.64974799999999</v>
+        <v>-2.5794840000000026</v>
       </c>
       <c r="U71">
-        <v>4.7788797976763728</v>
+        <v>1.0581382512333712</v>
       </c>
       <c r="V71">
         <v>0</v>
       </c>
       <c r="W71">
-        <v>8.4929739722986248</v>
+        <v>13.57</v>
       </c>
       <c r="X71">
-        <v>0.21867554886940208</v>
+        <v>1.2558695750000002</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>6.4226390597038554</v>
+        <v>7.4342989408727043</v>
       </c>
       <c r="AA71">
-        <v>1.2845278119407713</v>
+        <v>1.2838945315165156</v>
       </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71">
-        <v>-2.8134969999999999</v>
+        <v>-3.63</v>
       </c>
       <c r="AD71">
-        <v>0.59215108659599991</v>
+        <v>0.73302042000000001</v>
       </c>
       <c r="AE71">
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>-1.8907497643218214</v>
+        <v>-3.8839740178332058</v>
       </c>
       <c r="AG71">
-        <v>9.4527481783361011E-2</v>
+        <v>0.14303515418375298</v>
       </c>
       <c r="AH71">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI71">
-        <v>-2.8168194218021276</v>
+        <v>-5.8270387665542565</v>
       </c>
       <c r="AJ71">
-        <v>0.34831264394531203</v>
+        <v>7.1528670243570947E-3</v>
       </c>
       <c r="AK71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL71">
-        <v>3.647892699999999</v>
+        <v>4.4287711999999981</v>
       </c>
       <c r="AM71">
-        <v>0.6592872955636998</v>
+        <v>0.80041624774719966</v>
       </c>
       <c r="AN71">
         <v>0</v>
@@ -10932,13 +10956,13 @@
         <v>0</v>
       </c>
       <c r="AR71">
-        <v>-20</v>
+        <v>-45.5</v>
       </c>
       <c r="AS71">
-        <v>6</v>
+        <v>3.5355339059327378</v>
       </c>
       <c r="AT71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
@@ -10949,115 +10973,115 @@
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E72">
-        <v>94.890864162898467</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F72">
-        <v>6.7717364481417759</v>
+        <v>5.5021195639597513</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>14.364364347839867</v>
+        <v>7.374634427559954</v>
       </c>
       <c r="I72">
-        <v>20.150043019862807</v>
+        <v>10.344989682292551</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>5.9957474500716899</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>8.7337480999766939</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>-110.07866029979206</v>
+        <v>-65.7</v>
       </c>
       <c r="O72">
-        <v>18.278671621440772</v>
+        <v>4.1626261043644135</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>113.09291160000001</v>
+        <v>62.918134400000007</v>
       </c>
       <c r="R72">
-        <v>21.201415044740401</v>
+        <v>11.795199737833601</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72">
-        <v>-7.3122039999999959</v>
+        <v>-4.7459759999999971</v>
       </c>
       <c r="U72">
-        <v>2.9995622198942309</v>
+        <v>1.9468617541475512</v>
       </c>
       <c r="V72">
         <v>0</v>
       </c>
       <c r="W72">
-        <v>12.639320878301151</v>
+        <v>7.4756656115367477</v>
       </c>
       <c r="X72">
-        <v>1.0364369513415728</v>
+        <v>0.19248207825656016</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72">
-        <v>6.089186783305113</v>
+        <v>3.2034298799999998</v>
       </c>
       <c r="AA72">
-        <v>1.2178373566610228</v>
+        <v>0.47526085699679993</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>-5.8832059999999995</v>
+        <v>-4.6116239999999991</v>
       </c>
       <c r="AD72">
-        <v>1.2382266004079998</v>
+        <v>0.9705992800319998</v>
       </c>
       <c r="AE72">
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>-9.755026966610103</v>
+        <v>-0.83534495289423183</v>
       </c>
       <c r="AG72">
-        <v>1.5477752667265681</v>
+        <v>0.13253948571337032</v>
       </c>
       <c r="AH72">
         <v>1</v>
       </c>
       <c r="AI72">
-        <v>-4.1239577006727393</v>
+        <v>0.20717968999999953</v>
       </c>
       <c r="AJ72">
-        <v>0.22861214103520214</v>
+        <v>6.2769437858989849E-2</v>
       </c>
       <c r="AK72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL72">
-        <v>3.0572181999999977</v>
+        <v>2.3943827999999989</v>
       </c>
       <c r="AM72">
-        <v>0.55253410250419954</v>
+        <v>0.43273919782679982</v>
       </c>
       <c r="AN72">
         <v>0</v>
@@ -11072,10 +11096,10 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>-9.9</v>
+        <v>51.5</v>
       </c>
       <c r="AS72">
-        <v>2.97</v>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AT72">
         <v>1</v>
@@ -11089,136 +11113,136 @@
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E73">
-        <v>95.314065814702502</v>
+        <v>79.976666666666674</v>
       </c>
       <c r="F73">
-        <v>6.8019375647162388</v>
+        <v>7.7949748770174621</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73">
-        <v>13.321313130624034</v>
+        <v>12.407421093848001</v>
       </c>
       <c r="I73">
-        <v>18.686871633376782</v>
+        <v>17.404882162028098</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>8.2113004094161113</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>11.961049051226853</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>-77.583805094615741</v>
+        <v>-75.3</v>
       </c>
       <c r="O73">
-        <v>12.882868419766039</v>
+        <v>4.7708637086551038</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>77.906984800000004</v>
+        <v>70.401418300000003</v>
       </c>
       <c r="R73">
-        <v>14.605144533471201</v>
+        <v>13.1980834872827</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73">
-        <v>-10.924632000000004</v>
+        <v>-11.785092000000001</v>
       </c>
       <c r="U73">
-        <v>4.4814276808261342</v>
+        <v>4.8343996859466394</v>
       </c>
       <c r="V73">
         <v>0</v>
       </c>
       <c r="W73">
-        <v>8.2228855706999919</v>
+        <v>9.062289783061221</v>
       </c>
       <c r="X73">
-        <v>0.67428483968297004</v>
+        <v>0.23333418879984386</v>
       </c>
       <c r="Y73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z73">
-        <v>6.4362128672865646</v>
+        <v>3.4536576318955827</v>
       </c>
       <c r="AA73">
-        <v>1.9308638601859693</v>
+        <v>0.12659127947609147</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC73">
-        <v>-2.5275280000000002</v>
+        <v>-4.6387730000000005</v>
       </c>
       <c r="AD73">
-        <v>0.53196376310400006</v>
+        <v>0.97631327576400007</v>
       </c>
       <c r="AE73">
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>-1.2839966563652008</v>
+        <v>-2.4901757792294523</v>
       </c>
       <c r="AG73">
-        <v>0.20372452829541232</v>
+        <v>0.15804862177910686</v>
       </c>
       <c r="AH73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI73">
-        <v>-2.6450973005369249</v>
+        <v>-0.99160050980834902</v>
       </c>
       <c r="AJ73">
-        <v>0.32707841585854547</v>
+        <v>0.18611663456422731</v>
       </c>
       <c r="AK73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL73">
-        <v>3.7626205999999982</v>
+        <v>2.4676880999999993</v>
       </c>
       <c r="AM73">
-        <v>0.68002218365859968</v>
+        <v>0.44598773800109986</v>
       </c>
       <c r="AN73">
         <v>0</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>64.656964656964661</v>
       </c>
       <c r="AP73">
-        <v>0</v>
+        <v>5.096237773624499</v>
       </c>
       <c r="AQ73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR73">
-        <v>-20</v>
+        <v>63.741666666666667</v>
       </c>
       <c r="AS73">
+        <v>0.94995613933837286</v>
+      </c>
+      <c r="AT73">
         <v>6</v>
-      </c>
-      <c r="AT73">
-        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
@@ -11229,118 +11253,118 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E74">
-        <v>109.20942995680001</v>
+        <v>65.7</v>
       </c>
       <c r="F74">
-        <v>19.497050320757548</v>
+        <v>4.688576593413174</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>3.8691312060082481</v>
+        <v>-2.362202987335948</v>
       </c>
       <c r="I74">
-        <v>5.4275398731642497</v>
+        <v>3.3136511065751209</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>4.3645426961598588</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>6.3576421117266282</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>-99.692940717856132</v>
+        <v>-64.900000000000006</v>
       </c>
       <c r="O74">
-        <v>16.554112499140729</v>
+        <v>4.11193963734019</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>111.53555650000001</v>
+        <v>80.724194100000005</v>
       </c>
       <c r="R74">
-        <v>20.909459241498503</v>
+        <v>15.1332839437329</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74">
-        <v>3.0459800000000197</v>
+        <v>-7.3026040000000041</v>
       </c>
       <c r="U74">
-        <v>1.2495010438102512</v>
+        <v>2.9956241736757501</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
       <c r="W74">
-        <v>11.674199918450622</v>
+        <v>8.5342489113816207</v>
       </c>
       <c r="X74">
-        <v>0.95729606751286955</v>
+        <v>0.21973828849252638</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z74">
-        <v>4.7695797400000002</v>
+        <v>5.1021482939458087</v>
       </c>
       <c r="AA74">
-        <v>0.70761485022640003</v>
+        <v>1.5306444881837427</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>-7.4751449999999995</v>
+        <v>-3.1825809999999994</v>
       </c>
       <c r="AD74">
-        <v>1.5732788178599999</v>
+        <v>0.66983145790799981</v>
       </c>
       <c r="AE74">
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>-4.8499999999999996</v>
+        <v>-2.1437560717924429</v>
       </c>
       <c r="AG74">
-        <v>0.76952222370251988</v>
+        <v>0.57534852774613077</v>
       </c>
       <c r="AH74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI74">
-        <v>-4.0495573269641527</v>
+        <v>-1.9385377595649462</v>
       </c>
       <c r="AJ74">
-        <v>0.50074634122644102</v>
+        <v>0.23970908720513637</v>
       </c>
       <c r="AK74">
         <v>1</v>
       </c>
       <c r="AL74">
-        <v>2.0133316945093855</v>
+        <v>3.2429456999999982</v>
       </c>
       <c r="AM74">
-        <v>0.40266633890187714</v>
+        <v>0.58610081930669966</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -11352,13 +11376,13 @@
         <v>0</v>
       </c>
       <c r="AR74">
-        <v>39.783333333333331</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="AS74">
-        <v>68.339020088575069</v>
+        <v>3.2500664900723866</v>
       </c>
       <c r="AT74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
@@ -11369,135 +11393,695 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
+        <v>71</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75">
+        <v>95.3</v>
+      </c>
+      <c r="F75">
+        <v>6.8009337800955159</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>11.791564401960017</v>
+      </c>
+      <c r="I75">
+        <v>16.540970711781473</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>5.9286749301441262</v>
+      </c>
+      <c r="L75">
+        <v>8.6360464375307551</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>-82.9</v>
+      </c>
+      <c r="O75">
+        <v>5.2523851453852348</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>80.665976700000002</v>
+      </c>
+      <c r="R75">
+        <v>15.1223699859723</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-11.64974799999999</v>
+      </c>
+      <c r="U75">
+        <v>4.7788797976763728</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>8.4929739722986248</v>
+      </c>
+      <c r="X75">
+        <v>0.21867554886940208</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>6.4226390597038554</v>
+      </c>
+      <c r="AA75">
+        <v>1.2845278119407713</v>
+      </c>
+      <c r="AB75">
+        <v>1</v>
+      </c>
+      <c r="AC75">
+        <v>-2.8134969999999999</v>
+      </c>
+      <c r="AD75">
+        <v>0.59215108659599991</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>-1.8907497643218214</v>
+      </c>
+      <c r="AG75">
+        <v>9.4527481783361011E-2</v>
+      </c>
+      <c r="AH75">
+        <v>2</v>
+      </c>
+      <c r="AI75">
+        <v>-2.8168194218021276</v>
+      </c>
+      <c r="AJ75">
+        <v>0.34831264394531203</v>
+      </c>
+      <c r="AK75">
+        <v>1</v>
+      </c>
+      <c r="AL75">
+        <v>3.647892699999999</v>
+      </c>
+      <c r="AM75">
+        <v>0.6592872955636998</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>0</v>
+      </c>
+      <c r="AP75">
+        <v>0</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>-20</v>
+      </c>
+      <c r="AS75">
+        <v>6</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76">
         <v>75</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>164</v>
+      </c>
+      <c r="E76">
+        <v>94.890864162898467</v>
+      </c>
+      <c r="F76">
+        <v>6.7717364481417759</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>14.364364347839867</v>
+      </c>
+      <c r="I76">
+        <v>20.150043019862807</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>8.9664609587679394</v>
+      </c>
+      <c r="L76">
+        <v>13.061059027964621</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>-110.07866029979206</v>
+      </c>
+      <c r="O76">
+        <v>18.278671621440772</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>113.09291160000001</v>
+      </c>
+      <c r="R76">
+        <v>21.201415044740401</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-7.3122039999999959</v>
+      </c>
+      <c r="U76">
+        <v>2.9995622198942309</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>12.639320878301151</v>
+      </c>
+      <c r="X76">
+        <v>1.0364369513415728</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>6.089186783305113</v>
+      </c>
+      <c r="AA76">
+        <v>1.2178373566610228</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>-5.8832059999999995</v>
+      </c>
+      <c r="AD76">
+        <v>1.2382266004079998</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>-9.755026966610103</v>
+      </c>
+      <c r="AG76">
+        <v>1.5477752667265681</v>
+      </c>
+      <c r="AH76">
+        <v>1</v>
+      </c>
+      <c r="AI76">
+        <v>-4.1239577006727393</v>
+      </c>
+      <c r="AJ76">
+        <v>0.22861214103520214</v>
+      </c>
+      <c r="AK76">
+        <v>2</v>
+      </c>
+      <c r="AL76">
+        <v>3.0572181999999977</v>
+      </c>
+      <c r="AM76">
+        <v>0.55253410250419954</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>-9.9</v>
+      </c>
+      <c r="AS76">
+        <v>2.97</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>73</v>
+      </c>
+      <c r="D77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E77">
+        <v>95.314065814702502</v>
+      </c>
+      <c r="F77">
+        <v>6.8019375647162388</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>13.321313130624034</v>
+      </c>
+      <c r="I77">
+        <v>18.686871633376782</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>5.7726576913842678</v>
+      </c>
+      <c r="L77">
+        <v>8.4087828187860669</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>-77.583805094615741</v>
+      </c>
+      <c r="O77">
+        <v>12.882868419766039</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>77.906984800000004</v>
+      </c>
+      <c r="R77">
+        <v>14.605144533471201</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-10.924632000000004</v>
+      </c>
+      <c r="U77">
+        <v>4.4814276808261342</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>8.2228855706999919</v>
+      </c>
+      <c r="X77">
+        <v>0.67428483968297004</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <v>6.4362128672865646</v>
+      </c>
+      <c r="AA77">
+        <v>1.9308638601859693</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>-2.5275280000000002</v>
+      </c>
+      <c r="AD77">
+        <v>0.53196376310400006</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>-1.2839966563652008</v>
+      </c>
+      <c r="AG77">
+        <v>0.20372452829541232</v>
+      </c>
+      <c r="AH77">
+        <v>1</v>
+      </c>
+      <c r="AI77">
+        <v>-2.6450973005369249</v>
+      </c>
+      <c r="AJ77">
+        <v>0.32707841585854547</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>3.7626205999999982</v>
+      </c>
+      <c r="AM77">
+        <v>0.68002218365859968</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>-20</v>
+      </c>
+      <c r="AS77">
+        <v>6</v>
+      </c>
+      <c r="AT77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78">
+        <v>109.20942995680001</v>
+      </c>
+      <c r="F78">
+        <v>19.497050320757548</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>3.8691312060082481</v>
+      </c>
+      <c r="I78">
+        <v>5.4275398731642497</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>9.5164892389438762</v>
+      </c>
+      <c r="L78">
+        <v>13.862261628127941</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>-99.692940717856132</v>
+      </c>
+      <c r="O78">
+        <v>16.554112499140729</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>111.53555650000001</v>
+      </c>
+      <c r="R78">
+        <v>20.909459241498503</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>3.0459800000000197</v>
+      </c>
+      <c r="U78">
+        <v>1.2495010438102512</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>11.674199918450622</v>
+      </c>
+      <c r="X78">
+        <v>0.95729606751286955</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>4.7695797400000002</v>
+      </c>
+      <c r="AA78">
+        <v>0.70761485022640003</v>
+      </c>
+      <c r="AB78">
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <v>-7.4751449999999995</v>
+      </c>
+      <c r="AD78">
+        <v>1.5732788178599999</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="AG78">
+        <v>0.76952222370251988</v>
+      </c>
+      <c r="AH78">
+        <v>1</v>
+      </c>
+      <c r="AI78">
+        <v>-4.0495573269641527</v>
+      </c>
+      <c r="AJ78">
+        <v>0.50074634122644102</v>
+      </c>
+      <c r="AK78">
+        <v>1</v>
+      </c>
+      <c r="AL78">
+        <v>2.0133316945093855</v>
+      </c>
+      <c r="AM78">
+        <v>0.40266633890187714</v>
+      </c>
+      <c r="AN78">
+        <v>1</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>39.783333333333331</v>
+      </c>
+      <c r="AS78">
+        <v>68.339020088575069</v>
+      </c>
+      <c r="AT78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D79" t="s">
         <v>167</v>
       </c>
-      <c r="E75">
+      <c r="E79">
         <v>110.96000000000001</v>
       </c>
-      <c r="F75">
+      <c r="F79">
         <v>9.9560634791065876</v>
       </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="H75">
+      <c r="G79">
+        <v>2</v>
+      </c>
+      <c r="H79">
         <v>6.0135759891440017</v>
       </c>
-      <c r="I75">
+      <c r="I79">
         <v>8.4357241260514222</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>101.7366255</v>
-      </c>
-      <c r="O75">
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>6.4736074288558285</v>
+      </c>
+      <c r="L79">
+        <v>9.4298262314381809</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>-101.7366255</v>
+      </c>
+      <c r="O79">
         <v>20.17145766310653</v>
       </c>
-      <c r="P75">
-        <v>2</v>
-      </c>
-      <c r="Q75">
+      <c r="P79">
+        <v>2</v>
+      </c>
+      <c r="Q79">
         <v>95.871147899999997</v>
       </c>
-      <c r="R75">
+      <c r="R79">
         <v>17.972868225665099</v>
       </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
         <v>2.0442639999999894</v>
       </c>
-      <c r="U75">
+      <c r="U79">
         <v>0.8385839702899196</v>
       </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
         <v>10.330951337636964</v>
       </c>
-      <c r="X75">
+      <c r="X79">
         <v>1.3307061432192995</v>
       </c>
-      <c r="Y75">
-        <v>2</v>
-      </c>
-      <c r="Z75">
+      <c r="Y79">
+        <v>2</v>
+      </c>
+      <c r="Z79">
         <v>6.0022541387692874</v>
       </c>
-      <c r="AA75">
+      <c r="AA79">
         <v>1.2004508277538575</v>
       </c>
-      <c r="AB75">
-        <v>1</v>
-      </c>
-      <c r="AC75">
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
         <v>-3.6227189999999996</v>
       </c>
-      <c r="AD75">
+      <c r="AD79">
         <v>0.76246642249199992</v>
       </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
         <v>-4.0845351391156468</v>
       </c>
-      <c r="AG75">
+      <c r="AG79">
         <v>0.98176864457868018</v>
       </c>
-      <c r="AH75">
-        <v>2</v>
-      </c>
-      <c r="AI75">
+      <c r="AH79">
+        <v>2</v>
+      </c>
+      <c r="AI79">
         <v>-3.3038705028971718</v>
       </c>
-      <c r="AJ75">
+      <c r="AJ79">
         <v>0.76711407451090985</v>
       </c>
-      <c r="AK75">
-        <v>2</v>
-      </c>
-      <c r="AL75">
+      <c r="AK79">
+        <v>2</v>
+      </c>
+      <c r="AL79">
         <v>3.5162542999999982</v>
       </c>
-      <c r="AM75">
+      <c r="AM79">
         <v>0.63549615589329966</v>
       </c>
-      <c r="AN75">
-        <v>0</v>
-      </c>
-      <c r="AO75">
-        <v>0</v>
-      </c>
-      <c r="AP75">
-        <v>0</v>
-      </c>
-      <c r="AQ75">
-        <v>0</v>
-      </c>
-      <c r="AR75">
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
         <v>-68.3</v>
       </c>
-      <c r="AS75">
+      <c r="AS79">
         <v>3.1531184839764772</v>
       </c>
-      <c r="AT75">
+      <c r="AT79">
         <v>1</v>
       </c>
     </row>

--- a/LDVMDV_Data.xlsx
+++ b/LDVMDV_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\Bayesian_FAV_Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Bayesian_FAV_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8944A2-7355-4838-A2F0-F75456DE8C00}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE7B0E9-6DFD-4256-8382-F6A8FB4D8E88}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
+    <workbookView xWindow="22935" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="215">
   <si>
     <t>Class</t>
   </si>
@@ -614,34 +614,70 @@
     <t>28553-12-0</t>
   </si>
   <si>
-    <t>DmP</t>
-  </si>
-  <si>
-    <t>DEP</t>
-  </si>
-  <si>
-    <t>DPP</t>
-  </si>
-  <si>
-    <t>DiBP</t>
-  </si>
-  <si>
-    <t>DnBP</t>
-  </si>
-  <si>
-    <t>BzBP</t>
-  </si>
-  <si>
-    <t>TBPH</t>
-  </si>
-  <si>
-    <t>DEHP</t>
-  </si>
-  <si>
-    <t>DnOP</t>
-  </si>
-  <si>
-    <t>DiNP</t>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>78-40-0</t>
+  </si>
+  <si>
+    <t>TPrP</t>
+  </si>
+  <si>
+    <t>513-08-6</t>
+  </si>
+  <si>
+    <t>TiBP</t>
+  </si>
+  <si>
+    <t>126-71-6</t>
+  </si>
+  <si>
+    <t>TnBP</t>
+  </si>
+  <si>
+    <t>126-73-8</t>
+  </si>
+  <si>
+    <t>TPPO</t>
+  </si>
+  <si>
+    <t>791-28-6</t>
+  </si>
+  <si>
+    <t>B4tBPPP</t>
+  </si>
+  <si>
+    <t>115-87-7</t>
+  </si>
+  <si>
+    <t>Dimethyl phthalate</t>
+  </si>
+  <si>
+    <t>Diethyl phthalate</t>
+  </si>
+  <si>
+    <t>dipropyl phthalate</t>
+  </si>
+  <si>
+    <t>Diisobutyl phthalate</t>
+  </si>
+  <si>
+    <t>Di-n-butyl phthalate</t>
+  </si>
+  <si>
+    <t>Benzylbutyl phthalate</t>
+  </si>
+  <si>
+    <t>Bis(2-ethlyhexyl) tetrabromophthalate</t>
+  </si>
+  <si>
+    <t>Bis(2-ethylhexyl) phthalate</t>
+  </si>
+  <si>
+    <t>Di-n-octyl phthalate</t>
+  </si>
+  <si>
+    <t>Diisononyl phthalate</t>
   </si>
 </sst>
 </file>
@@ -993,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6089F3A3-B933-43E9-8E92-242433A56B01}">
-  <dimension ref="A1:AT75"/>
+  <dimension ref="A1:AT81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,16 +1209,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2.7677698187919759</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>4.031691560950958</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>35.5</v>
+        <v>-35.5</v>
       </c>
       <c r="O2">
         <v>2.2492119741999494</v>
@@ -1313,10 +1349,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>4.0855169494241892</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.9511972763344883</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -1453,16 +1489,16 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.6848650017520157</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.650870277516244</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>69.05</v>
+        <v>-69.05</v>
       </c>
       <c r="O4">
         <v>2.7577164466275392</v>
@@ -1593,16 +1629,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>4.0708239589681341</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.9297946274492332</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>52.3</v>
+        <v>-52.3</v>
       </c>
       <c r="O5">
         <v>3.3136277817086577</v>
@@ -1733,16 +1769,16 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.4171332880880527</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>4.9775914697423254</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>64.900000000000006</v>
+        <v>-64.900000000000006</v>
       </c>
       <c r="O6">
         <v>4.11193963734019</v>
@@ -1873,16 +1909,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>7.516380887048058</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.948789594226854</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>65.2</v>
+        <v>-65.2</v>
       </c>
       <c r="O7">
         <v>4.1309470624742737</v>
@@ -2013,16 +2049,16 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>3.446230731991605</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.0199764680303689</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>62.5</v>
+        <v>-62.5</v>
       </c>
       <c r="O8">
         <v>6.0811183182043047</v>
@@ -2153,16 +2189,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.2882437753918481</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>3.3331865446355806</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>47.6</v>
+        <v>-47.6</v>
       </c>
       <c r="O9">
         <v>3.0158447879413406</v>
@@ -2293,16 +2329,16 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.5196824209918418</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.1269703924055898</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>64.5</v>
+        <v>-64.5</v>
       </c>
       <c r="O10">
         <v>4.0865964038280769</v>
@@ -2433,16 +2469,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>7.7463969104641137</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.283844068119038</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>62.949999999999996</v>
+        <v>-62.949999999999996</v>
       </c>
       <c r="O11">
         <v>14.354267658086917</v>
@@ -2573,16 +2609,16 @@
         <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.8713379936082077</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.6392119794236821</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>72.400000000000006</v>
+        <v>-72.400000000000006</v>
       </c>
       <c r="O12">
         <v>4.5871252656922916</v>
@@ -2713,16 +2749,16 @@
         <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.4886218275518104</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.0817257584045734</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>71.349999999999994</v>
+        <v>-71.349999999999994</v>
       </c>
       <c r="O13">
         <v>0.21213203435596226</v>
@@ -2853,16 +2889,16 @@
         <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>7.4912136207840945</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.912129517106383</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>75.95</v>
+        <v>-75.95</v>
       </c>
       <c r="O14">
         <v>1.7677669529663689</v>
@@ -2993,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>4.3659824858718821</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.3597393916348404</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>50.2</v>
+        <v>-50.2</v>
       </c>
       <c r="O15">
         <v>3.1805758057700695</v>
@@ -3133,16 +3169,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.6111682283120103</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.1735480456375207</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>52.3</v>
+        <v>-52.3</v>
       </c>
       <c r="O16">
         <v>3.3136277817086577</v>
@@ -3273,16 +3309,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>5.8544724516320059</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.5279588702815623</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>60.8</v>
+        <v>-60.8</v>
       </c>
       <c r="O17">
         <v>3.8521714938410399</v>
@@ -3413,16 +3449,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>6.8418482979760427</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>9.9662269083836357</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>77</v>
+        <v>-77</v>
       </c>
       <c r="O18">
         <v>4.8785724510815802</v>
@@ -3553,16 +3589,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>5.5075884925279723</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>8.022667887970254</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>77.2</v>
+        <v>-77.2</v>
       </c>
       <c r="O19">
         <v>4.8912440678376363</v>
@@ -3693,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>8.7574516529360409</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.756604138413699</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3833,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.6736975111514596</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.3513175671741369</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3973,10 +4009,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>7.199385365416191</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>10.487035816602292</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -4045,10 +4081,10 @@
         <v>1</v>
       </c>
       <c r="AI22">
-        <v>-11.17626232745083</v>
+        <v>-9.6578674389508308</v>
       </c>
       <c r="AJ22">
-        <v>3.3528786982352492</v>
+        <v>2.8973602316852491</v>
       </c>
       <c r="AK22">
         <v>1</v>
@@ -4122,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="N23">
-        <v>81.75</v>
+        <v>-81.75</v>
       </c>
       <c r="O23">
         <v>2.8991378028648409</v>
@@ -4131,13 +4167,13 @@
         <v>2</v>
       </c>
       <c r="Q23">
-        <v>39.308999999999997</v>
+        <v>60.731431800000003</v>
       </c>
       <c r="R23">
-        <v>3.6769552621700443</v>
+        <v>13.120357794640201</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23">
         <v>-24.578272000000002</v>
@@ -4253,16 +4289,16 @@
         <v>1</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.6992563962081988</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3.9318909974187486</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>81.650000000000006</v>
+        <v>-81.650000000000006</v>
       </c>
       <c r="O24">
         <v>2.8991378028648507</v>
@@ -4393,16 +4429,16 @@
         <v>1</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.5668291268399486</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>3.7389898751047612</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>85</v>
+        <v>-85</v>
       </c>
       <c r="O25">
         <v>1.9798989873223412</v>
@@ -4411,13 +4447,13 @@
         <v>2</v>
       </c>
       <c r="Q25">
-        <v>39.809000000000005</v>
+        <v>67.696422799999993</v>
       </c>
       <c r="R25">
-        <v>11.9427</v>
+        <v>14.625067485289199</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25">
         <v>-26.927071999999999</v>
@@ -4542,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="N26">
-        <v>84.5</v>
+        <v>-84.5</v>
       </c>
       <c r="O26">
         <v>0.84852813742384892</v>
@@ -4673,16 +4709,16 @@
         <v>2</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>4.0864175135843652</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>5.9525090895134687</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>73.2</v>
+        <v>-73.2</v>
       </c>
       <c r="O27">
         <v>4.637811732716516</v>
@@ -4691,13 +4727,13 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>29.809000000000005</v>
+        <v>63.624090199999991</v>
       </c>
       <c r="R27">
-        <v>8.9427000000000003</v>
+        <v>13.745284822717798</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>-17.663428</v>
@@ -4813,16 +4849,16 @@
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1.9411756868159955</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>2.8276273488216122</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>74.7</v>
+        <v>-74.7</v>
       </c>
       <c r="O28">
         <v>4.7328488583869364</v>
@@ -4831,13 +4867,13 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>50.459000000000003</v>
+        <v>81.15639920000001</v>
       </c>
       <c r="R28">
-        <v>18.738329701443487</v>
+        <v>17.532947326768802</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T28">
         <v>-16.38782800000001</v>
@@ -4929,25 +4965,25 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="D29" t="s">
-        <v>131</v>
+        <v>194</v>
       </c>
       <c r="E29">
-        <v>81.233333333333334</v>
+        <v>56.424999999999997</v>
       </c>
       <c r="F29">
-        <v>2.9091808698211468</v>
+        <v>4.0266808871132165</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>8.5991821757841791</v>
+        <v>7.0501590657234505</v>
       </c>
       <c r="I29">
-        <v>12.062760772546531</v>
+        <v>2.115047719717035</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -4962,82 +4998,82 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>79.8</v>
+        <v>-65</v>
       </c>
       <c r="O29">
-        <v>14.117011015083925</v>
+        <v>4.1182754457182176</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>88.651607799999994</v>
+        <v>80.189397200000016</v>
       </c>
       <c r="R29">
-        <v>16.6194282626582</v>
+        <v>15.033026103686803</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>19.752828000000004</v>
+        <v>28.669831999999996</v>
       </c>
       <c r="U29">
-        <v>8.1028697510174723</v>
+        <v>11.760742030434967</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>7.914452287052451</v>
+        <v>5.21</v>
       </c>
       <c r="X29">
-        <v>6.3438854805062408E-2</v>
+        <v>0.13414613224126404</v>
       </c>
       <c r="Y29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>1.6487788978175042</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AA29">
-        <v>0.19072172315272956</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AB29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>-5.9826251278887241</v>
+        <v>-5.8322257206709365</v>
       </c>
       <c r="AD29">
-        <v>1.6947161678524225</v>
+        <v>1.7496677162012808</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>-1.3849533306583126</v>
+        <v>1.6546478151372854</v>
       </c>
       <c r="AG29">
-        <v>0.17815080358449792</v>
+        <v>9.1425816944937455E-2</v>
       </c>
       <c r="AH29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI29">
-        <v>1.4162808651238727</v>
+        <v>3.4354676142742648</v>
       </c>
       <c r="AJ29">
-        <v>2.992467579434344E-2</v>
+        <v>1.0306402842822795</v>
       </c>
       <c r="AK29">
         <v>3</v>
       </c>
       <c r="AL29">
-        <v>2.1740961999999993</v>
+        <v>3.1561648260757162</v>
       </c>
       <c r="AM29">
-        <v>0.39292658032219985</v>
+        <v>0.57041682518149028</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -5052,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>-45</v>
+        <v>-56.2</v>
       </c>
       <c r="AS29">
-        <v>14.142135623730951</v>
+        <v>0.23094010767584949</v>
       </c>
       <c r="AT29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -5069,25 +5105,25 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>195</v>
       </c>
       <c r="D30" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="E30">
-        <v>90.566666666666663</v>
+        <v>75.08</v>
       </c>
       <c r="F30">
-        <v>9.2251467919666919</v>
+        <v>5.3579654586523757</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>-0.73212846989601132</v>
+        <v>7.0501590657234505</v>
       </c>
       <c r="I30">
-        <v>1.0270151750007268</v>
+        <v>2.115047719717035</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -5102,82 +5138,82 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>90.3</v>
+        <v>-70.109681399999999</v>
       </c>
       <c r="O30">
-        <v>15.703821191035079</v>
+        <v>7.6459515244398002</v>
       </c>
       <c r="P30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>112.60832490000001</v>
+        <v>94.291493299999999</v>
       </c>
       <c r="R30">
-        <v>21.110570060678103</v>
+        <v>17.676731957457701</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>22.089963999999991</v>
+        <v>29.625788</v>
       </c>
       <c r="U30">
-        <v>9.0615936663177958</v>
+        <v>12.152887750313846</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>8.5999801895500738</v>
+        <v>7.2581699999999998</v>
       </c>
       <c r="X30">
-        <v>0.93553903324940713</v>
+        <v>0.47932954680000001</v>
       </c>
       <c r="Y30">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>2.6349999999999998</v>
+        <v>1.87</v>
       </c>
       <c r="AA30">
-        <v>6.3639610306789496E-2</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="AB30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>-5.613207895230822</v>
+        <v>-4.5560193087319867</v>
       </c>
       <c r="AD30">
-        <v>1.5900702401057205</v>
+        <v>1.366805792619596</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>-2.0793529564966393</v>
+        <v>3.9810554148350386E-2</v>
       </c>
       <c r="AG30">
-        <v>0.83649137759001246</v>
+        <v>6.3165167330037466E-3</v>
       </c>
       <c r="AH30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0.56851833009543651</v>
+        <v>-1.5406075122407692</v>
       </c>
       <c r="AJ30">
-        <v>8.5459697155219894E-2</v>
+        <v>0.46218225367223076</v>
       </c>
       <c r="AK30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>2.9175402999999984</v>
+        <v>2.9829312976044928</v>
       </c>
       <c r="AM30">
-        <v>0.52728997595929972</v>
+        <v>0.53910815634735765</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -5192,13 +5228,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>-45.5</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>7.7781745930520225</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
@@ -5209,25 +5245,25 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="E31">
-        <v>97</v>
+        <v>73.579280213433478</v>
       </c>
       <c r="F31">
-        <v>5.0239426748321856</v>
+        <v>9.6108129578966537</v>
       </c>
       <c r="G31">
         <v>3</v>
       </c>
       <c r="H31">
-        <v>8.4122944185202044</v>
+        <v>7.0501590657234505</v>
       </c>
       <c r="I31">
-        <v>11.800598364411771</v>
+        <v>2.115047719717035</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -5242,82 +5278,82 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>93.066666666666663</v>
+        <v>-70.8495712</v>
       </c>
       <c r="O31">
-        <v>5.7500724633115148</v>
+        <v>7.7266416863584002</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>117.4782165</v>
+        <v>94.157976399999995</v>
       </c>
       <c r="R31">
-        <v>22.023523769038501</v>
+        <v>17.651701677731598</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>20.914440000000003</v>
+        <v>23.304604000000001</v>
       </c>
       <c r="U31">
-        <v>8.5793782660118261</v>
+        <v>9.5598549641115067</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>10.196734960730311</v>
+        <v>7.3810200000000004</v>
       </c>
       <c r="X31">
-        <v>0.35717875532112214</v>
+        <v>0.48744256080000004</v>
       </c>
       <c r="Y31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>3.7354013998198079</v>
+        <v>3.72</v>
       </c>
       <c r="AA31">
-        <v>5.478325049151412E-2</v>
+        <v>0.2521806974790135</v>
       </c>
       <c r="AB31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC31">
-        <v>-6.9726409069821225</v>
+        <v>-2.9467767029021981</v>
       </c>
       <c r="AD31">
-        <v>1.9751609076435468</v>
+        <v>0.83474227696121439</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>-3.8968901507926397</v>
+        <v>-0.48126167744393333</v>
       </c>
       <c r="AG31">
-        <v>0.8017700738440946</v>
+        <v>0.11783463401677403</v>
       </c>
       <c r="AH31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI31">
-        <v>-1.5157161364205862</v>
+        <v>-7.0988371796333744E-3</v>
       </c>
       <c r="AJ31">
-        <v>0.23853678415206614</v>
+        <v>4.6885273026846148E-3</v>
       </c>
       <c r="AK31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL31">
-        <v>2.4274862999999964</v>
+        <v>4.1284707999999988</v>
       </c>
       <c r="AM31">
-        <v>0.43872202648529934</v>
+        <v>0.7461426561547998</v>
       </c>
       <c r="AN31">
         <v>0</v>
@@ -5332,10 +5368,10 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>27</v>
+        <v>-60</v>
       </c>
       <c r="AS31">
-        <v>8.1</v>
+        <v>2.7699430313116928</v>
       </c>
       <c r="AT31">
         <v>1</v>
@@ -5349,28 +5385,28 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>200</v>
       </c>
       <c r="E32">
-        <v>94.320000000000007</v>
+        <v>77.756666666666661</v>
       </c>
       <c r="F32">
-        <v>8.6586373061816122</v>
+        <v>3.3164187512033716</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>16.749474442736073</v>
+        <v>-21.437204504851408</v>
       </c>
       <c r="I32">
-        <v>23.495827758781306</v>
+        <v>4.2874409009702816</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -5382,103 +5418,103 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>95.100000000000009</v>
+        <v>-80.2</v>
       </c>
       <c r="O32">
-        <v>5.8077534382926403</v>
+        <v>14.849242404917437</v>
       </c>
       <c r="P32">
+        <v>2</v>
+      </c>
+      <c r="Q32">
+        <v>111.9953814</v>
+      </c>
+      <c r="R32">
+        <v>20.995662155676598</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>28.68670400000001</v>
+      </c>
+      <c r="U32">
+        <v>11.767663146663958</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>7.4950000000000001</v>
+      </c>
+      <c r="X32">
+        <v>7.7781745930519827E-2</v>
+      </c>
+      <c r="Y32">
+        <v>2</v>
+      </c>
+      <c r="Z32">
+        <v>3.9971606868913212</v>
+      </c>
+      <c r="AA32">
+        <v>1.012674051761338E-2</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>-3.1676449286445965</v>
+      </c>
+      <c r="AD32">
+        <v>0.89730828187194078</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>-0.96840832213366246</v>
+      </c>
+      <c r="AG32">
+        <v>0.25994612154186569</v>
+      </c>
+      <c r="AH32">
         <v>3</v>
       </c>
-      <c r="Q32">
-        <v>109.47182520000001</v>
-      </c>
-      <c r="R32">
-        <v>20.522573598418802</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>2.4292000000000646E-2</v>
-      </c>
-      <c r="U32">
-        <v>9.9648977853561849E-3</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>10.202624059176518</v>
-      </c>
-      <c r="X32">
-        <v>0.16599464740887165</v>
-      </c>
-      <c r="Y32">
-        <v>2</v>
-      </c>
-      <c r="Z32">
-        <v>4.281560068433973</v>
-      </c>
-      <c r="AA32">
-        <v>0.75778339429101471</v>
-      </c>
-      <c r="AB32">
-        <v>4</v>
-      </c>
-      <c r="AC32">
-        <v>-5.7889397877108442</v>
-      </c>
-      <c r="AD32">
-        <v>1.639850340484214</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>-3.6388660479834938</v>
-      </c>
-      <c r="AG32">
-        <v>0.42628200846392272</v>
-      </c>
-      <c r="AH32">
-        <v>5</v>
-      </c>
       <c r="AI32">
-        <v>-2.3752720246754775</v>
+        <v>0.12912422184350617</v>
       </c>
       <c r="AJ32">
-        <v>0.18822354636508534</v>
+        <v>9.4534838877287433E-2</v>
       </c>
       <c r="AK32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL32">
-        <v>2.3427773999999992</v>
+        <v>3.6484507999999995</v>
       </c>
       <c r="AM32">
-        <v>0.42341250227939986</v>
+        <v>0.65938816153479995</v>
       </c>
       <c r="AN32">
         <v>0</v>
       </c>
       <c r="AO32">
-        <v>91.84</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>7.2387944533560509</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR32">
-        <v>49.708333333333336</v>
+        <v>-80</v>
       </c>
       <c r="AS32">
-        <v>0.6003471218109292</v>
+        <v>3.6932573750822573</v>
       </c>
       <c r="AT32">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
@@ -5489,28 +5525,28 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>201</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="E33">
-        <v>109.58571428571429</v>
+        <v>101.4</v>
       </c>
       <c r="F33">
-        <v>7.9982140863713171</v>
+        <v>7.2362506327564056</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>11.646784604791947</v>
+        <v>22.132368777024709</v>
       </c>
       <c r="I33">
-        <v>16.337876507910046</v>
+        <v>4.4264737554049418</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -5522,82 +5558,82 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>102</v>
+        <v>-101.5</v>
       </c>
       <c r="O33">
-        <v>6.4625245455885869</v>
+        <v>6.4308455036984471</v>
       </c>
       <c r="P33">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>136.38984429999999</v>
+        <v>129.36153389999998</v>
       </c>
       <c r="R33">
-        <v>25.5688677210767</v>
+        <v>24.251277398699095</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3.1020880000000073</v>
+        <v>-2.0959359999999965</v>
       </c>
       <c r="U33">
-        <v>1.2725172831046947</v>
+        <v>0.85978050406091344</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>11.064474887288533</v>
+        <v>11</v>
       </c>
       <c r="X33">
-        <v>0.28488608664306192</v>
+        <v>0.28322599897387801</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>5.1369400000000001</v>
+        <v>2.83</v>
       </c>
       <c r="AA33">
-        <v>2.39362397322</v>
+        <v>0.19184714351226026</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>-5.6602455473135667</v>
+        <v>-7.6675176248253818</v>
       </c>
       <c r="AD33">
-        <v>1.6033947369241559</v>
+        <v>2.1720007201371603</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>-4.9827157586780739</v>
+        <v>-4.3260580013659125</v>
       </c>
       <c r="AG33">
-        <v>0.66020783020185903</v>
+        <v>0.68639129341797445</v>
       </c>
       <c r="AH33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI33">
-        <v>-3.3293905311605743</v>
+        <v>6.8766978856811892E-2</v>
       </c>
       <c r="AJ33">
-        <v>2.9155639350899705</v>
+        <v>8.5033524110052442E-3</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33">
-        <v>2.0676830999999991</v>
+        <v>1.529792299999998</v>
       </c>
       <c r="AM33">
-        <v>0.37369443434609984</v>
+        <v>0.27648089217129962</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -5612,13 +5648,13 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>25.5</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="AS33">
-        <v>1.1772257883074695</v>
+        <v>7.0710678118670822E-2</v>
       </c>
       <c r="AT33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
@@ -5629,25 +5665,25 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>136</v>
+        <v>204</v>
       </c>
       <c r="E34">
-        <v>96.174999999999997</v>
+        <v>114.61585945221712</v>
       </c>
       <c r="F34">
-        <v>7.2168783648703219</v>
+        <v>34.384757835665134</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>11.919418940071921</v>
+        <v>7.0501590657234505</v>
       </c>
       <c r="I34">
-        <v>16.72032250075409</v>
+        <v>2.115047719717035</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -5662,82 +5698,82 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>97.9</v>
+        <v>-134.07584640000002</v>
       </c>
       <c r="O34">
-        <v>6.2027564020894381</v>
+        <v>14.621909580844802</v>
       </c>
       <c r="P34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>136.38984429999999</v>
+        <v>141.6297758</v>
       </c>
       <c r="R34">
-        <v>25.5688677210767</v>
+        <v>26.551192439450201</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>3.1020880000000073</v>
+        <v>7.5455880000000004</v>
       </c>
       <c r="U34">
-        <v>1.2725172831046947</v>
+        <v>3.0952994051707643</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>10.720407474148484</v>
+        <v>11.6829</v>
       </c>
       <c r="X34">
-        <v>0.27602710147933929</v>
+        <v>0.77153871600000001</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>5.1511899999999997</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="AA34">
-        <v>2.4002639459699999</v>
+        <v>0.12020815280171303</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC34">
-        <v>-5.6602455473135667</v>
+        <v>-3.2833185915855339</v>
       </c>
       <c r="AD34">
-        <v>1.6033947369241559</v>
+        <v>0.93007550739420897</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>-4.0295295311185804</v>
+        <v>-3.3442177994290483</v>
       </c>
       <c r="AG34">
-        <v>0.33620127189764476</v>
+        <v>0.53060823042519367</v>
       </c>
       <c r="AH34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI34">
-        <v>-2.1255891224464589</v>
+        <v>-2.1445400588030026</v>
       </c>
       <c r="AJ34">
-        <v>0.63767673673393765</v>
+        <v>0.26518221656197488</v>
       </c>
       <c r="AK34">
         <v>1</v>
       </c>
       <c r="AL34">
-        <v>2.0676830999999991</v>
+        <v>3.0528525999999996</v>
       </c>
       <c r="AM34">
-        <v>0.37369443434609984</v>
+        <v>0.55174510325059989</v>
       </c>
       <c r="AN34">
         <v>0</v>
@@ -5752,10 +5788,10 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>-10.95</v>
+        <v>-21</v>
       </c>
       <c r="AS34">
-        <v>0.50551460321438391</v>
+        <v>0.96948006095909256</v>
       </c>
       <c r="AT34">
         <v>1</v>
@@ -5769,115 +5805,115 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E35">
-        <v>107.25</v>
+        <v>81.233333333333334</v>
       </c>
       <c r="F35">
-        <v>4.1154181642533825</v>
+        <v>2.9091808698211468</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>10.954777397464071</v>
+        <v>8.5991821757841791</v>
       </c>
       <c r="I35">
-        <v>15.367142637614648</v>
+        <v>12.062760772546531</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>14.416645774624172</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>21.000109442677644</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>104</v>
+        <v>-79.8</v>
       </c>
       <c r="O35">
-        <v>6.5892407131491479</v>
+        <v>14.117011015083925</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q35">
-        <v>136.38984429999999</v>
+        <v>88.651607799999994</v>
       </c>
       <c r="R35">
-        <v>25.5688677210767</v>
+        <v>16.6194282626582</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3.1020880000000073</v>
+        <v>19.752828000000004</v>
       </c>
       <c r="U35">
-        <v>1.2725172831046947</v>
+        <v>8.1028697510174723</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>11.296948484835518</v>
+        <v>7.914452287052451</v>
       </c>
       <c r="X35">
-        <v>0.29087177454308882</v>
+        <v>6.3438854805062408E-2</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z35">
-        <v>5.1328800000000001</v>
+        <v>1.6487788978175042</v>
       </c>
       <c r="AA35">
-        <v>2.3917321634399999</v>
+        <v>0.19072172315272956</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC35">
-        <v>-5.6602455473135667</v>
+        <v>-5.9826251278887241</v>
       </c>
       <c r="AD35">
-        <v>1.6033947369241559</v>
+        <v>1.6947161678524225</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>-4.8811502522142618</v>
+        <v>-1.3849533306583126</v>
       </c>
       <c r="AG35">
-        <v>0.52309835760605849</v>
+        <v>0.17815080358449792</v>
       </c>
       <c r="AH35">
         <v>4</v>
       </c>
       <c r="AI35">
-        <v>-3.6970513553893394</v>
+        <v>1.4162808651238727</v>
       </c>
       <c r="AJ35">
-        <v>1.1091154066168019</v>
+        <v>2.992467579434344E-2</v>
       </c>
       <c r="AK35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL35">
-        <v>2.0676830999999991</v>
+        <v>2.1740961999999993</v>
       </c>
       <c r="AM35">
-        <v>0.37369443434609984</v>
+        <v>0.39292658032219985</v>
       </c>
       <c r="AN35">
         <v>0</v>
@@ -5892,10 +5928,10 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>76.875</v>
+        <v>-45</v>
       </c>
       <c r="AS35">
-        <v>0.62915286960589578</v>
+        <v>14.142135623730951</v>
       </c>
       <c r="AT35">
         <v>2</v>
@@ -5909,115 +5945,115 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E36">
-        <v>106.39999999999999</v>
+        <v>90.566666666666663</v>
       </c>
       <c r="F36">
-        <v>3.9564293666554136</v>
+        <v>9.2251467919666919</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>-25.078541008080165</v>
+        <v>-0.73212846989601132</v>
       </c>
       <c r="I36">
-        <v>35.17967575531469</v>
+        <v>1.0270151750007268</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>10.523885889296238</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>15.3296931125599</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>103.56666666666666</v>
+        <v>-90.3</v>
       </c>
       <c r="O36">
-        <v>7.4875452141094492</v>
+        <v>15.703821191035079</v>
       </c>
       <c r="P36">
         <v>3</v>
       </c>
       <c r="Q36">
-        <v>161.93206889999999</v>
+        <v>112.60832490000001</v>
       </c>
       <c r="R36">
-        <v>30.357243024614096</v>
+        <v>21.110570060678103</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>30.219663999999998</v>
+        <v>22.089963999999991</v>
       </c>
       <c r="U36">
-        <v>12.396503493652231</v>
+        <v>9.0615936663177958</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>11.043333333333331</v>
+        <v>8.5999801895500738</v>
       </c>
       <c r="X36">
-        <v>0.48335632129241141</v>
+        <v>0.93553903324940713</v>
       </c>
       <c r="Y36">
         <v>3</v>
       </c>
       <c r="Z36">
-        <v>4.0149999999999997</v>
+        <v>2.6349999999999998</v>
       </c>
       <c r="AA36">
-        <v>0.41137979208188291</v>
+        <v>6.3639610306789496E-2</v>
       </c>
       <c r="AB36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AC36">
-        <v>-9.3114594635355044</v>
+        <v>-5.613207895230822</v>
       </c>
       <c r="AD36">
-        <v>2.6376850566140928</v>
+        <v>1.5900702401057205</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>-4.5257014829074143</v>
+        <v>-2.0793529564966393</v>
       </c>
       <c r="AG36">
-        <v>0.26343339067048643</v>
+        <v>0.83649137759001246</v>
       </c>
       <c r="AH36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI36">
-        <v>0.22099596443744718</v>
+        <v>0.56851833009543651</v>
       </c>
       <c r="AJ36">
-        <v>0.15524653687336698</v>
+        <v>8.5459697155219894E-2</v>
       </c>
       <c r="AK36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL36">
-        <v>3.3537672999999995</v>
+        <v>2.9175402999999984</v>
       </c>
       <c r="AM36">
-        <v>0.60612971789629988</v>
+        <v>0.52728997595929972</v>
       </c>
       <c r="AN36">
         <v>0</v>
@@ -6032,13 +6068,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>-70</v>
+        <v>-45.5</v>
       </c>
       <c r="AS36">
-        <v>3.2316002031969751</v>
+        <v>7.7781745930520225</v>
       </c>
       <c r="AT36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
@@ -6049,115 +6085,115 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E37">
-        <v>108.8053199021883</v>
+        <v>97</v>
       </c>
       <c r="F37">
-        <v>2.7599602935757312</v>
+        <v>5.0239426748321856</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>-1.2870326288639831</v>
+        <v>8.4122944185202044</v>
       </c>
       <c r="I37">
-        <v>1.805423631117818</v>
+        <v>11.800598364411771</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>11.45452447393582</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>16.68531441549916</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>105.63333333333333</v>
+        <v>-93.066666666666663</v>
       </c>
       <c r="O37">
-        <v>5.6109268396584868</v>
+        <v>5.7500724633115148</v>
       </c>
       <c r="P37">
         <v>3</v>
       </c>
       <c r="Q37">
-        <v>152.94250580000002</v>
+        <v>117.4782165</v>
       </c>
       <c r="R37">
-        <v>28.671978619820205</v>
+        <v>22.023523769038501</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>9.7376280000000062</v>
+        <v>20.914440000000003</v>
       </c>
       <c r="U37">
-        <v>3.9945030335838898</v>
+        <v>8.5793782660118261</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37">
-        <v>11.254058807284656</v>
+        <v>10.196734960730311</v>
       </c>
       <c r="X37">
-        <v>0.56090842337414826</v>
+        <v>0.35717875532112214</v>
       </c>
       <c r="Y37">
         <v>3</v>
       </c>
       <c r="Z37">
-        <v>4.4551030939086207</v>
+        <v>3.7354013998198079</v>
       </c>
       <c r="AA37">
-        <v>0.51039582393287042</v>
+        <v>5.478325049151412E-2</v>
       </c>
       <c r="AB37">
+        <v>5</v>
+      </c>
+      <c r="AC37">
+        <v>-6.9726409069821225</v>
+      </c>
+      <c r="AD37">
+        <v>1.9751609076435468</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>-3.8968901507926397</v>
+      </c>
+      <c r="AG37">
+        <v>0.8017700738440946</v>
+      </c>
+      <c r="AH37">
+        <v>5</v>
+      </c>
+      <c r="AI37">
+        <v>-1.5157161364205862</v>
+      </c>
+      <c r="AJ37">
+        <v>0.23853678415206614</v>
+      </c>
+      <c r="AK37">
         <v>3</v>
       </c>
-      <c r="AC37">
-        <v>-2.4079210568011886</v>
-      </c>
-      <c r="AD37">
-        <v>0.68209902152324309</v>
-      </c>
-      <c r="AE37">
-        <v>0</v>
-      </c>
-      <c r="AF37">
-        <v>-4.6558136987291556</v>
-      </c>
-      <c r="AG37">
-        <v>0.27719074419421286</v>
-      </c>
-      <c r="AH37">
-        <v>7</v>
-      </c>
-      <c r="AI37">
-        <v>-4.7043664347305514</v>
-      </c>
-      <c r="AJ37">
-        <v>2.6083556879317391</v>
-      </c>
-      <c r="AK37">
-        <v>1</v>
-      </c>
       <c r="AL37">
-        <v>4.8651235999999987</v>
+        <v>2.4274862999999964</v>
       </c>
       <c r="AM37">
-        <v>0.87927865335159983</v>
+        <v>0.43872202648529934</v>
       </c>
       <c r="AN37">
         <v>0</v>
@@ -6172,13 +6208,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>-72</v>
+        <v>27</v>
       </c>
       <c r="AS37">
-        <v>2.8284271247461903</v>
+        <v>8.1</v>
       </c>
       <c r="AT37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
@@ -6189,136 +6225,136 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E38">
-        <v>135</v>
+        <v>94.320000000000007</v>
       </c>
       <c r="F38">
-        <v>9.6340614933147393</v>
+        <v>8.6586373061816122</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>11.415015016767995</v>
+        <v>16.749474442736073</v>
       </c>
       <c r="I38">
-        <v>16.012754765221807</v>
+        <v>23.495827758781306</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>7.2887838306799324</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>10.617258725862538</v>
       </c>
       <c r="M38">
         <v>0</v>
       </c>
       <c r="N38">
-        <v>-138.71850051290377</v>
+        <v>-95.100000000000009</v>
       </c>
       <c r="O38">
-        <v>15.128223510435747</v>
+        <v>5.8077534382926403</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q38">
-        <v>168.94886359999998</v>
+        <v>109.47182520000001</v>
       </c>
       <c r="R38">
-        <v>31.672674510228397</v>
+        <v>20.522573598418802</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>2.1688360000000042</v>
+        <v>2.4292000000000646E-2</v>
       </c>
       <c r="U38">
-        <v>0.88968504253253056</v>
+        <v>9.9648977853561849E-3</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38">
-        <v>11.6783</v>
+        <v>10.202624059176518</v>
       </c>
       <c r="X38">
-        <v>0.77123493200000004</v>
+        <v>0.16599464740887165</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>8.5659399999999994</v>
+        <v>4.281560068433973</v>
       </c>
       <c r="AA38">
-        <v>3.9914111002199997</v>
+        <v>0.75778339429101471</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC38">
-        <v>-4.5528853633970989</v>
+        <v>-5.7889397877108442</v>
       </c>
       <c r="AD38">
-        <v>1.2897094955455863</v>
+        <v>1.639850340484214</v>
       </c>
       <c r="AE38">
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>-5.9337440369338292</v>
+        <v>-3.6388660479834938</v>
       </c>
       <c r="AG38">
-        <v>0.94147379508925533</v>
+        <v>0.42628200846392272</v>
       </c>
       <c r="AH38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AI38">
-        <v>-5.1955273046673671</v>
+        <v>-2.3752720246754775</v>
       </c>
       <c r="AJ38">
-        <v>4.5497492383337361</v>
+        <v>0.18822354636508534</v>
       </c>
       <c r="AK38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL38">
-        <v>3.2175101999999995</v>
+        <v>2.3427773999999992</v>
       </c>
       <c r="AM38">
-        <v>0.58150383595619992</v>
+        <v>0.42341250227939986</v>
       </c>
       <c r="AN38">
         <v>0</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>91.84</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>7.2387944533560509</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>99.75</v>
+        <v>49.708333333333336</v>
       </c>
       <c r="AS38">
-        <v>0.35355339059327379</v>
+        <v>0.6003471218109292</v>
       </c>
       <c r="AT38">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
@@ -6329,115 +6365,115 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E39">
-        <v>111.56666666666666</v>
+        <v>109.58571428571429</v>
       </c>
       <c r="F39">
-        <v>4.8850110883531626</v>
+        <v>7.9982140863713171</v>
       </c>
       <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39">
+        <v>11.646784604791947</v>
+      </c>
+      <c r="I39">
+        <v>16.337876507910046</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>6.7868184388082824</v>
+      </c>
+      <c r="L39">
+        <v>9.8860672732504593</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>-102</v>
+      </c>
+      <c r="O39">
+        <v>6.4625245455885869</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>136.38984429999999</v>
+      </c>
+      <c r="R39">
+        <v>25.5688677210767</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <v>3.1020880000000073</v>
+      </c>
+      <c r="U39">
+        <v>1.2725172831046947</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>11.064474887288533</v>
+      </c>
+      <c r="X39">
+        <v>0.28488608664306192</v>
+      </c>
+      <c r="Y39">
+        <v>1</v>
+      </c>
+      <c r="Z39">
+        <v>5.1369400000000001</v>
+      </c>
+      <c r="AA39">
+        <v>2.39362397322</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
+        <v>-5.6602455473135667</v>
+      </c>
+      <c r="AD39">
+        <v>1.6033947369241559</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>-4.9827157586780739</v>
+      </c>
+      <c r="AG39">
+        <v>0.66020783020185903</v>
+      </c>
+      <c r="AH39">
         <v>3</v>
       </c>
-      <c r="H39">
-        <v>13.571716907400017</v>
-      </c>
-      <c r="I39">
-        <v>19.038133043362595</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>106.65</v>
-      </c>
-      <c r="O39">
-        <v>0.91923881554250975</v>
-      </c>
-      <c r="P39">
-        <v>2</v>
-      </c>
-      <c r="Q39">
-        <v>159.06712350000001</v>
-      </c>
-      <c r="R39">
-        <v>29.820154575421501</v>
-      </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0.71806000000001347</v>
-      </c>
-      <c r="U39">
-        <v>0.29455765287966429</v>
-      </c>
-      <c r="V39">
-        <v>0</v>
-      </c>
-      <c r="W39">
-        <v>11.609699222331166</v>
-      </c>
-      <c r="X39">
-        <v>0.24084166946195062</v>
-      </c>
-      <c r="Y39">
-        <v>2</v>
-      </c>
-      <c r="Z39">
-        <v>6.0075900000000004</v>
-      </c>
-      <c r="AA39">
-        <v>2.7993146591700002</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>-4.9214883845347419</v>
-      </c>
-      <c r="AD39">
-        <v>1.3941247791523099</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>-5.2702642012958201</v>
-      </c>
-      <c r="AG39">
-        <v>0.18378959287479971</v>
-      </c>
-      <c r="AH39">
-        <v>4</v>
-      </c>
       <c r="AI39">
-        <v>-4.947844932800435</v>
+        <v>-3.3293905311605743</v>
       </c>
       <c r="AJ39">
-        <v>4.332852546878005</v>
+        <v>2.9155639350899705</v>
       </c>
       <c r="AK39">
         <v>0</v>
       </c>
       <c r="AL39">
-        <v>2.7322344999999979</v>
+        <v>2.0676830999999991</v>
       </c>
       <c r="AM39">
-        <v>0.49379947341949965</v>
+        <v>0.37369443434609984</v>
       </c>
       <c r="AN39">
         <v>0</v>
@@ -6452,13 +6488,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>25.5</v>
       </c>
       <c r="AS39">
-        <v>0</v>
+        <v>1.1772257883074695</v>
       </c>
       <c r="AT39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -6469,115 +6505,115 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E40">
-        <v>98.617666666666665</v>
+        <v>96.174999999999997</v>
       </c>
       <c r="F40">
-        <v>11.372626624194313</v>
+        <v>7.2168783648703219</v>
       </c>
       <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
-        <v>12.004375829927909</v>
+        <v>11.919418940071921</v>
       </c>
       <c r="I40">
-        <v>16.83949832670627</v>
+        <v>16.72032250075409</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>6.4092891357116315</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>9.3361365329944679</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>99.75</v>
+        <v>-97.9</v>
       </c>
       <c r="O40">
-        <v>6.7175144212722016</v>
+        <v>6.2027564020894381</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>135.47459039999998</v>
+        <v>136.38984429999999</v>
       </c>
       <c r="R40">
-        <v>25.397285987697597</v>
+        <v>25.5688677210767</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>8.2935040000000111</v>
+        <v>3.1020880000000073</v>
       </c>
       <c r="U40">
-        <v>3.402104381789913</v>
+        <v>1.2725172831046947</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>10.879999999999999</v>
+        <v>10.720407474148484</v>
       </c>
       <c r="X40">
-        <v>0.45254833995938959</v>
+        <v>0.27602710147933929</v>
       </c>
       <c r="Y40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>5.5325137523428518</v>
+        <v>5.1511899999999997</v>
       </c>
       <c r="AA40">
-        <v>0.4666388278829241</v>
+        <v>2.4002639459699999</v>
       </c>
       <c r="AB40">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>-5.5353437273052064</v>
+        <v>-5.6602455473135667</v>
       </c>
       <c r="AD40">
-        <v>1.6606031181915619</v>
+        <v>1.6033947369241559</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>-4.2249019599857434</v>
+        <v>-4.0295295311185804</v>
       </c>
       <c r="AG40">
-        <v>0.21483584436789924</v>
+        <v>0.33620127189764476</v>
       </c>
       <c r="AH40">
         <v>3</v>
       </c>
       <c r="AI40">
-        <v>-2.8238365561540544</v>
+        <v>-2.1255891224464589</v>
       </c>
       <c r="AJ40">
-        <v>0.90185046293129689</v>
+        <v>0.63767673673393765</v>
       </c>
       <c r="AK40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL40">
-        <v>2.6897827999999979</v>
+        <v>2.0676830999999991</v>
       </c>
       <c r="AM40">
-        <v>0.48612713522679962</v>
+        <v>0.37369443434609984</v>
       </c>
       <c r="AN40">
         <v>0</v>
@@ -6592,13 +6628,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>-67</v>
+        <v>-10.95</v>
       </c>
       <c r="AS40">
-        <v>18.384776310850235</v>
+        <v>0.50551460321438391</v>
       </c>
       <c r="AT40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
@@ -6609,115 +6645,115 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E41">
-        <v>77.2</v>
+        <v>107.25</v>
       </c>
       <c r="F41">
-        <v>5.5092559058066515</v>
+        <v>4.1154181642533825</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>8.5225134635762458</v>
+        <v>10.954777397464071</v>
       </c>
       <c r="I41">
-        <v>11.955211436435485</v>
+        <v>15.367142637614648</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>7.1739603940400798</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>10.450000351500202</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>-127.90782443979163</v>
+        <v>-104</v>
       </c>
       <c r="O41">
-        <v>13.949243609930356</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>139.24704929999999</v>
+        <v>136.38984429999999</v>
       </c>
       <c r="R41">
-        <v>26.104505085221696</v>
+        <v>25.5688677210767</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>12.569867999999998</v>
+        <v>3.1020880000000073</v>
       </c>
       <c r="U41">
-        <v>5.1563251191921706</v>
+        <v>1.2725172831046947</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>11.689500000000001</v>
+        <v>11.296948484835518</v>
       </c>
       <c r="X41">
-        <v>0.77197458000000008</v>
+        <v>0.29087177454308882</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>4.6850000000000005</v>
+        <v>5.1328800000000001</v>
       </c>
       <c r="AA41">
-        <v>0.41719300090006356</v>
+        <v>2.3917321634399999</v>
       </c>
       <c r="AB41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-9.8836998236453422</v>
+        <v>-5.6602455473135667</v>
       </c>
       <c r="AD41">
-        <v>2.7997853001434869</v>
+        <v>1.6033947369241559</v>
       </c>
       <c r="AE41">
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>-4.3871611703129787</v>
+        <v>-4.8811502522142618</v>
       </c>
       <c r="AG41">
-        <v>0.69608618959187496</v>
+        <v>0.52309835760605849</v>
       </c>
       <c r="AH41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI41">
-        <v>-2.2900095802422902</v>
+        <v>-3.6970513553893394</v>
       </c>
       <c r="AJ41">
-        <v>0.49424642991199053</v>
+        <v>1.1091154066168019</v>
       </c>
       <c r="AK41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL41">
-        <v>1.7478950999999965</v>
+        <v>2.0676830999999991</v>
       </c>
       <c r="AM41">
-        <v>0.31589882931809937</v>
+        <v>0.37369443434609984</v>
       </c>
       <c r="AN41">
         <v>0</v>
@@ -6732,272 +6768,272 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>119.5</v>
+        <v>76.875</v>
       </c>
       <c r="AS41">
-        <v>5.5168032040291219</v>
+        <v>0.62915286960589578</v>
       </c>
       <c r="AT41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B42">
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E42">
-        <v>102.97044542908371</v>
+        <v>106.39999999999999</v>
       </c>
       <c r="F42">
-        <v>8.2645317733743067</v>
+        <v>3.9564293666554136</v>
       </c>
       <c r="G42">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>28.535700146660066</v>
+        <v>-25.078541008080165</v>
       </c>
       <c r="I42">
-        <v>9.3194645443453155</v>
+        <v>35.17967575531469</v>
       </c>
       <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>4.8328781671361156</v>
+      </c>
+      <c r="L42">
+        <v>7.0398463012546024</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>-103.56666666666666</v>
+      </c>
+      <c r="O42">
+        <v>7.4875452141094492</v>
+      </c>
+      <c r="P42">
         <v>3</v>
       </c>
-      <c r="K42">
-        <v>7.6253721994684973</v>
-      </c>
-      <c r="L42">
-        <v>2.2876116598405489</v>
-      </c>
-      <c r="M42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>101.25</v>
-      </c>
-      <c r="O42">
-        <v>2.616295090390218</v>
-      </c>
-      <c r="P42">
-        <v>2</v>
-      </c>
       <c r="Q42">
-        <v>36.872581419041104</v>
+        <v>161.93206889999999</v>
       </c>
       <c r="R42">
-        <v>11.061774425712331</v>
+        <v>30.357243024614096</v>
       </c>
       <c r="S42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>-25.4</v>
+        <v>30.219663999999998</v>
       </c>
       <c r="U42">
-        <v>5.08</v>
+        <v>12.396503493652231</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>11.228588497286774</v>
+        <v>11.043333333333331</v>
       </c>
       <c r="X42">
-        <v>0.46868664186349301</v>
+        <v>0.48335632129241141</v>
       </c>
       <c r="Y42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z42">
-        <v>6.1318209339345842</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="AA42">
-        <v>0.2700030284701323</v>
+        <v>0.41137979208188291</v>
       </c>
       <c r="AB42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AC42">
-        <v>-4.5228787452803374</v>
+        <v>-9.3114594635355044</v>
       </c>
       <c r="AD42">
-        <v>0.90457574905606752</v>
+        <v>2.6376850566140928</v>
       </c>
       <c r="AE42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>-4.6349999999999998</v>
+        <v>-4.5257014829074143</v>
       </c>
       <c r="AG42">
-        <v>0.57275649276110319</v>
+        <v>0.26343339067048643</v>
       </c>
       <c r="AH42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI42">
-        <v>-4.1856271642104357</v>
+        <v>0.22099596443744718</v>
       </c>
       <c r="AJ42">
-        <v>0.27611870329049543</v>
+        <v>0.15524653687336698</v>
       </c>
       <c r="AK42">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AL42">
-        <v>2.2353977200130184</v>
+        <v>3.3537672999999995</v>
       </c>
       <c r="AM42">
-        <v>0.44707954400260369</v>
+        <v>0.60612971789629988</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42">
-        <v>36.703691924967444</v>
+        <v>0</v>
       </c>
       <c r="AP42">
-        <v>2.8061861822140384</v>
+        <v>0</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR42">
-        <v>177.33333333333334</v>
+        <v>-70</v>
       </c>
       <c r="AS42">
-        <v>1.5275252316519465</v>
+        <v>3.2316002031969751</v>
       </c>
       <c r="AT42">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E43">
-        <v>105.49559435946666</v>
+        <v>108.8053199021883</v>
       </c>
       <c r="F43">
-        <v>7.5751191460147407</v>
+        <v>2.7599602935757312</v>
       </c>
       <c r="G43">
         <v>5</v>
       </c>
       <c r="H43">
-        <v>24.695982056704011</v>
+        <v>-1.2870326288639831</v>
       </c>
       <c r="I43">
-        <v>34.643029709503253</v>
+        <v>1.805423631117818</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>3.4477632265923148</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>5.0222087871729997</v>
       </c>
       <c r="M43">
         <v>0</v>
       </c>
       <c r="N43">
-        <v>100.05</v>
+        <v>-105.63333333333333</v>
       </c>
       <c r="O43">
-        <v>2.0506096654409918</v>
+        <v>5.6109268396584868</v>
       </c>
       <c r="P43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q43">
-        <v>46.260425888396732</v>
+        <v>152.94250580000002</v>
       </c>
       <c r="R43">
-        <v>13.87812776651902</v>
+        <v>28.671978619820205</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>-35.839772000000004</v>
+        <v>9.7376280000000062</v>
       </c>
       <c r="U43">
-        <v>14.701945687076449</v>
+        <v>3.9945030335838898</v>
       </c>
       <c r="V43">
         <v>0</v>
       </c>
       <c r="W43">
-        <v>11.073997910243794</v>
+        <v>11.254058807284656</v>
       </c>
       <c r="X43">
-        <v>0.41861016982400551</v>
+        <v>0.56090842337414826</v>
       </c>
       <c r="Y43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z43">
-        <v>5.6850000000000005</v>
+        <v>4.4551030939086207</v>
       </c>
       <c r="AA43">
-        <v>0.36062445840513968</v>
+        <v>0.51039582393287042</v>
       </c>
       <c r="AB43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC43">
-        <v>-4.4799016767325135</v>
+        <v>-2.4079210568011886</v>
       </c>
       <c r="AD43">
-        <v>1.4837389554321319</v>
+        <v>0.68209902152324309</v>
       </c>
       <c r="AE43">
         <v>0</v>
       </c>
       <c r="AF43">
-        <v>-4.6904457173535388</v>
+        <v>-4.6558136987291556</v>
       </c>
       <c r="AG43">
-        <v>0.35274120168317763</v>
+        <v>0.27719074419421286</v>
       </c>
       <c r="AH43">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AI43">
-        <v>-3.2450748650495234</v>
+        <v>-4.7043664347305514</v>
       </c>
       <c r="AJ43">
-        <v>0.25242396939971734</v>
+        <v>2.6083556879317391</v>
       </c>
       <c r="AK43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL43">
-        <v>1.9273476</v>
+        <v>4.8651235999999987</v>
       </c>
       <c r="AM43">
-        <v>0.34833145909560004</v>
+        <v>0.87927865335159983</v>
       </c>
       <c r="AN43">
         <v>0</v>
@@ -7012,272 +7048,272 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>216.61666666666667</v>
+        <v>-72</v>
       </c>
       <c r="AS43">
-        <v>0.53928965624545278</v>
+        <v>2.8284271247461903</v>
       </c>
       <c r="AT43">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B44">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E44">
-        <v>94.14</v>
+        <v>135</v>
       </c>
       <c r="F44">
-        <v>4.4506179346243595</v>
+        <v>9.6340614933147393</v>
       </c>
       <c r="G44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>14.9</v>
+        <v>11.415015016767995</v>
       </c>
       <c r="I44">
-        <v>2.9800000000000004</v>
+        <v>16.012754765221807</v>
       </c>
       <c r="J44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>7.1788619249362284</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>10.457140201286688</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>93.4</v>
+        <v>-138.71850051290377</v>
       </c>
       <c r="O44">
-        <v>4.6669047558312196</v>
+        <v>15.128223510435747</v>
       </c>
       <c r="P44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>58.509</v>
+        <v>168.94886359999998</v>
       </c>
       <c r="R44">
-        <v>17.552699999999998</v>
+        <v>31.672674510228397</v>
       </c>
       <c r="S44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T44">
-        <v>-21.7</v>
+        <v>2.1688360000000042</v>
       </c>
       <c r="U44">
-        <v>4.34</v>
+        <v>0.88968504253253056</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>10.434999999999999</v>
+        <v>11.6783</v>
       </c>
       <c r="X44">
-        <v>0.13435028842544369</v>
+        <v>0.77123493200000004</v>
       </c>
       <c r="Y44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>6.6174999999999997</v>
+        <v>8.5659399999999994</v>
       </c>
       <c r="AA44">
-        <v>0.39969780251251513</v>
+        <v>3.9914111002199997</v>
       </c>
       <c r="AB44">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>-3.3186978724594232</v>
+        <v>-4.5528853633970989</v>
       </c>
       <c r="AD44">
-        <v>0.38418905920526514</v>
+        <v>1.2897094955455863</v>
       </c>
       <c r="AE44">
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>-3.7075139892385729</v>
+        <v>-5.9337440369338292</v>
       </c>
       <c r="AG44">
-        <v>0.19995588786711851</v>
+        <v>0.94147379508925533</v>
       </c>
       <c r="AH44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI44">
-        <v>-4.0697069918861315</v>
+        <v>-5.1955273046673671</v>
       </c>
       <c r="AJ44">
-        <v>7.1457772538696201E-2</v>
+        <v>4.5497492383337361</v>
       </c>
       <c r="AK44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL44">
-        <v>2.6982638999999988</v>
+        <v>3.2175101999999995</v>
       </c>
       <c r="AM44">
-        <v>0.48765993291089982</v>
+        <v>0.58150383595619992</v>
       </c>
       <c r="AN44">
         <v>0</v>
       </c>
       <c r="AO44">
-        <v>48.472961613897454</v>
+        <v>0</v>
       </c>
       <c r="AP44">
-        <v>3.820620706319922</v>
+        <v>0</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44">
-        <v>83.875</v>
+        <v>99.75</v>
       </c>
       <c r="AS44">
-        <v>0.17677669529663689</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AT44">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B45">
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E45">
-        <v>96.833333333333329</v>
+        <v>111.56666666666666</v>
       </c>
       <c r="F45">
-        <v>2.9704096238285618</v>
+        <v>4.8850110883531626</v>
       </c>
       <c r="G45">
         <v>3</v>
       </c>
       <c r="H45">
-        <v>16.357400538928019</v>
+        <v>13.571716907400017</v>
       </c>
       <c r="I45">
-        <v>22.945834327997446</v>
+        <v>19.038133043362595</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>5.2379786369601931</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>7.6299387773116782</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>103</v>
+        <v>-106.65</v>
       </c>
       <c r="O45">
-        <v>6.5258826293688674</v>
+        <v>0.91923881554250975</v>
       </c>
       <c r="P45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q45">
-        <v>67.159043699999984</v>
+        <v>159.06712350000001</v>
       </c>
       <c r="R45">
-        <v>12.590238763395297</v>
+        <v>29.820154575421501</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>-32.069367999999997</v>
+        <v>0.71806000000001347</v>
       </c>
       <c r="U45">
-        <v>13.155276393914209</v>
+        <v>0.29455765287966429</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
       <c r="W45">
-        <v>10.655000000000001</v>
+        <v>11.609699222331166</v>
       </c>
       <c r="X45">
-        <v>0.23334523779156074</v>
+        <v>0.24084166946195062</v>
       </c>
       <c r="Y45">
         <v>2</v>
       </c>
       <c r="Z45">
-        <v>7.24</v>
+        <v>6.0075900000000004</v>
       </c>
       <c r="AA45">
-        <v>0.51206348000000002</v>
+        <v>2.7993146591700002</v>
       </c>
       <c r="AB45">
         <v>0</v>
       </c>
       <c r="AC45">
-        <v>-3.4597463826083863</v>
+        <v>-4.9214883845347419</v>
       </c>
       <c r="AD45">
-        <v>0.40051753998265988</v>
+        <v>1.3941247791523099</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>-3.8064674031393619</v>
+        <v>-5.2702642012958201</v>
       </c>
       <c r="AG45">
-        <v>0.15897540206098351</v>
+        <v>0.18378959287479971</v>
       </c>
       <c r="AH45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI45">
-        <v>-3.6293678108253968</v>
+        <v>-4.947844932800435</v>
       </c>
       <c r="AJ45">
-        <v>0.44878797989465358</v>
+        <v>4.332852546878005</v>
       </c>
       <c r="AK45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>2.4449938999999983</v>
+        <v>2.7322344999999979</v>
       </c>
       <c r="AM45">
-        <v>0.44188619254089967</v>
+        <v>0.49379947341949965</v>
       </c>
       <c r="AN45">
         <v>0</v>
@@ -7292,132 +7328,132 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AS45">
-        <v>4.8935660219839905</v>
+        <v>0</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>98.617666666666665</v>
       </c>
       <c r="F46">
-        <v>7.136341846899807</v>
+        <v>11.372626624194313</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>15.360580442263995</v>
+        <v>12.004375829927909</v>
       </c>
       <c r="I46">
-        <v>21.547515032799087</v>
+        <v>16.83949832670627</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>5.8272615858800378</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>8.4883219694549386</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>98.4</v>
+        <v>-99.75</v>
       </c>
       <c r="O46">
-        <v>6.2344354439795788</v>
+        <v>6.7175144212722016</v>
       </c>
       <c r="P46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q46">
-        <v>67.783638699999997</v>
+        <v>135.47459039999998</v>
       </c>
       <c r="R46">
-        <v>12.7073309634503</v>
+        <v>25.397285987697597</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>-32.865367999999989</v>
+        <v>8.2935040000000111</v>
       </c>
       <c r="U46">
-        <v>13.481806059530182</v>
+        <v>3.402104381789913</v>
       </c>
       <c r="V46">
         <v>0</v>
       </c>
       <c r="W46">
-        <v>10.361775178295694</v>
+        <v>10.879999999999999</v>
       </c>
       <c r="X46">
-        <v>0.26679310236504827</v>
+        <v>0.45254833995938959</v>
       </c>
       <c r="Y46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z46">
-        <v>7.25</v>
+        <v>5.5325137523428518</v>
       </c>
       <c r="AA46">
-        <v>0.51277074999999994</v>
+        <v>0.4666388278829241</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC46">
-        <v>-3.608914998841187</v>
+        <v>-5.5353437273052064</v>
       </c>
       <c r="AD46">
-        <v>0.41778604484085002</v>
+        <v>1.6606031181915619</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46">
-        <v>-3.7529626300087369</v>
+        <v>-4.2249019599857434</v>
       </c>
       <c r="AG46">
-        <v>0.59546147392098581</v>
+        <v>0.21483584436789924</v>
       </c>
       <c r="AH46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI46">
-        <v>-3.2173176400000005</v>
+        <v>-2.8238365561540544</v>
       </c>
       <c r="AJ46">
-        <v>0.31517487064968003</v>
+        <v>0.90185046293129689</v>
       </c>
       <c r="AK46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL46">
-        <v>2.4542238999999997</v>
+        <v>2.6897827999999979</v>
       </c>
       <c r="AM46">
-        <v>0.44355433967089997</v>
+        <v>0.48612713522679962</v>
       </c>
       <c r="AN46">
         <v>0</v>
@@ -7432,132 +7468,132 @@
         <v>0</v>
       </c>
       <c r="AR46">
-        <v>0</v>
+        <v>-67</v>
       </c>
       <c r="AS46">
-        <v>0</v>
+        <v>18.384776310850235</v>
       </c>
       <c r="AT46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E47">
-        <v>113</v>
+        <v>77.2</v>
       </c>
       <c r="F47">
-        <v>15.556349186104045</v>
+        <v>5.5092559058066515</v>
       </c>
       <c r="G47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>15.645735560719942</v>
+        <v>8.5225134635762458</v>
       </c>
       <c r="I47">
-        <v>21.94752492986672</v>
+        <v>11.955211436435485</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>13.007027706688376</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>18.946779274079585</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>122</v>
+        <v>-127.90782443979163</v>
       </c>
       <c r="O47">
-        <v>7.7296862211941928</v>
+        <v>13.949243609930356</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>54.209000000000003</v>
+        <v>139.24704929999999</v>
       </c>
       <c r="R47">
-        <v>16.262699999999999</v>
+        <v>26.104505085221696</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
-        <v>-28.546148000000013</v>
+        <v>12.569867999999998</v>
       </c>
       <c r="U47">
-        <v>11.71000522746758</v>
+        <v>5.1563251191921706</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>11.375613387532628</v>
+        <v>11.689500000000001</v>
       </c>
       <c r="X47">
-        <v>0.34734978374903991</v>
+        <v>0.77197458000000008</v>
       </c>
       <c r="Y47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>6.98</v>
+        <v>4.6850000000000005</v>
       </c>
       <c r="AA47">
-        <v>0.36769552621700502</v>
+        <v>0.41719300090006356</v>
       </c>
       <c r="AB47">
         <v>2</v>
       </c>
       <c r="AC47">
-        <v>-3.7507921573657663</v>
+        <v>-9.8836998236453422</v>
       </c>
       <c r="AD47">
-        <v>0.43421045409744796</v>
+        <v>2.7997853001434869</v>
       </c>
       <c r="AE47">
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>-4.4248091794189603</v>
+        <v>-4.3871611703129787</v>
       </c>
       <c r="AG47">
-        <v>0.1257038377706223</v>
+        <v>0.69608618959187496</v>
       </c>
       <c r="AH47">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI47">
-        <v>-3.9164203700479505</v>
+        <v>-2.2900095802422902</v>
       </c>
       <c r="AJ47">
-        <v>0.21552936573178999</v>
+        <v>0.49424642991199053</v>
       </c>
       <c r="AK47">
         <v>2</v>
       </c>
       <c r="AL47">
-        <v>2.6197388999999971</v>
+        <v>1.7478950999999965</v>
       </c>
       <c r="AM47">
-        <v>0.47346803113589947</v>
+        <v>0.31589882931809937</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -7572,552 +7608,552 @@
         <v>0</v>
       </c>
       <c r="AR47">
-        <v>99</v>
+        <v>119.5</v>
       </c>
       <c r="AS47">
-        <v>2.1213203435596424</v>
+        <v>5.5168032040291219</v>
       </c>
       <c r="AT47">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E48">
-        <v>100.15</v>
+        <v>102.97044542908371</v>
       </c>
       <c r="F48">
-        <v>9.0053687690547495</v>
+        <v>8.2645317733743067</v>
       </c>
       <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>28.535700146660066</v>
+      </c>
+      <c r="I48">
+        <v>9.3194645443453155</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+      <c r="K48">
+        <v>7.6253721994684973</v>
+      </c>
+      <c r="L48">
+        <v>2.2876116598405489</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>-101.25</v>
+      </c>
+      <c r="O48">
+        <v>2.616295090390218</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
+        <v>73.989164799999998</v>
+      </c>
+      <c r="R48">
+        <v>13.8706747358912</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>-25.4</v>
+      </c>
+      <c r="U48">
+        <v>5.08</v>
+      </c>
+      <c r="V48">
+        <v>1</v>
+      </c>
+      <c r="W48">
+        <v>11.228588497286774</v>
+      </c>
+      <c r="X48">
+        <v>0.46868664186349301</v>
+      </c>
+      <c r="Y48">
+        <v>2</v>
+      </c>
+      <c r="Z48">
+        <v>6.1318209339345842</v>
+      </c>
+      <c r="AA48">
+        <v>0.2700030284701323</v>
+      </c>
+      <c r="AB48">
+        <v>5</v>
+      </c>
+      <c r="AC48">
+        <v>-4.5228787452803374</v>
+      </c>
+      <c r="AD48">
+        <v>0.90457574905606752</v>
+      </c>
+      <c r="AE48">
+        <v>1</v>
+      </c>
+      <c r="AF48">
+        <v>-4.6349999999999998</v>
+      </c>
+      <c r="AG48">
+        <v>0.57275649276110319</v>
+      </c>
+      <c r="AH48">
+        <v>9</v>
+      </c>
+      <c r="AI48">
+        <v>-4.1856271642104357</v>
+      </c>
+      <c r="AJ48">
+        <v>0.27611870329049543</v>
+      </c>
+      <c r="AK48">
+        <v>11</v>
+      </c>
+      <c r="AL48">
+        <v>2.2353977200130184</v>
+      </c>
+      <c r="AM48">
+        <v>0.44707954400260369</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>36.703691924967444</v>
+      </c>
+      <c r="AP48">
+        <v>2.8061861822140384</v>
+      </c>
+      <c r="AQ48">
+        <v>2</v>
+      </c>
+      <c r="AR48">
+        <v>177.33333333333334</v>
+      </c>
+      <c r="AS48">
+        <v>1.5275252316519465</v>
+      </c>
+      <c r="AT48">
         <v>4</v>
-      </c>
-      <c r="H48">
-        <v>3.1000000000000014</v>
-      </c>
-      <c r="I48">
-        <v>0.62000000000000033</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>91.1</v>
-      </c>
-      <c r="O48">
-        <v>27.33</v>
-      </c>
-      <c r="P48">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>70.908999999999992</v>
-      </c>
-      <c r="R48">
-        <v>21.272699999999997</v>
-      </c>
-      <c r="S48">
-        <v>1</v>
-      </c>
-      <c r="T48">
-        <v>-29.258548000000015</v>
-      </c>
-      <c r="U48">
-        <v>12.002241073930925</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>11.200000000000001</v>
-      </c>
-      <c r="X48">
-        <v>0.1652271164185832</v>
-      </c>
-      <c r="Y48">
-        <v>3</v>
-      </c>
-      <c r="Z48">
-        <v>7.1433333333333335</v>
-      </c>
-      <c r="AA48">
-        <v>0.36828431046317112</v>
-      </c>
-      <c r="AB48">
-        <v>3</v>
-      </c>
-      <c r="AC48">
-        <v>-3.8501767895016785</v>
-      </c>
-      <c r="AD48">
-        <v>0.44571571603666182</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>-4.4678337478400705</v>
-      </c>
-      <c r="AG48">
-        <v>0.28281797910706313</v>
-      </c>
-      <c r="AH48">
-        <v>4</v>
-      </c>
-      <c r="AI48">
-        <v>-4.2943158888599235</v>
-      </c>
-      <c r="AJ48">
-        <v>0.29719362983561609</v>
-      </c>
-      <c r="AK48">
-        <v>3</v>
-      </c>
-      <c r="AL48">
-        <v>2.5778088999999973</v>
-      </c>
-      <c r="AM48">
-        <v>0.46588998030589951</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>77.464788732394354</v>
-      </c>
-      <c r="AP48">
-        <v>6.1057456773350891</v>
-      </c>
-      <c r="AQ48">
-        <v>1</v>
-      </c>
-      <c r="AR48">
-        <v>86.283333333333346</v>
-      </c>
-      <c r="AS48">
-        <v>7.5306872196367154</v>
-      </c>
-      <c r="AT48">
-        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E49">
-        <v>73.524218355999992</v>
+        <v>105.49559435946666</v>
       </c>
       <c r="F49">
-        <v>0.10717142872373359</v>
+        <v>7.5751191460147407</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H49">
-        <v>39</v>
+        <v>24.695982056704011</v>
       </c>
       <c r="I49">
-        <v>7.8000000000000007</v>
+        <v>34.643029709503253</v>
       </c>
       <c r="J49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>4.2101512426480525</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>6.1327467046084951</v>
       </c>
       <c r="M49">
         <v>0</v>
       </c>
       <c r="N49">
-        <v>61.2</v>
+        <v>-100.05</v>
       </c>
       <c r="O49">
-        <v>3.8775147273531525</v>
+        <v>2.0506096654409918</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q49">
-        <v>51.928700200000002</v>
+        <v>68.0877488</v>
       </c>
       <c r="R49">
-        <v>15.522059705482199</v>
+        <v>12.764342179787199</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
-        <v>-13.497807999999997</v>
+        <v>-35.839772000000004</v>
       </c>
       <c r="U49">
-        <v>5.5369783075234391</v>
+        <v>14.701945687076449</v>
       </c>
       <c r="V49">
         <v>0</v>
       </c>
       <c r="W49">
-        <v>7.5390552184404918</v>
+        <v>11.073997910243794</v>
       </c>
       <c r="X49">
-        <v>0.19411422232382147</v>
+        <v>0.41861016982400551</v>
       </c>
       <c r="Y49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z49">
-        <v>5.26</v>
+        <v>5.6850000000000005</v>
       </c>
       <c r="AA49">
-        <v>0.3111269837220812</v>
+        <v>0.36062445840513968</v>
       </c>
       <c r="AB49">
         <v>2</v>
       </c>
       <c r="AC49">
-        <v>-1.9124978394296193</v>
+        <v>-4.4799016767325135</v>
       </c>
       <c r="AD49">
-        <v>0.16164821075426294</v>
+        <v>1.4837389554321319</v>
       </c>
       <c r="AE49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF49">
-        <v>-1.1806733242754686</v>
+        <v>-4.6904457173535388</v>
       </c>
       <c r="AG49">
-        <v>0.14119223273996104</v>
+        <v>0.35274120168317763</v>
       </c>
       <c r="AH49">
+        <v>4</v>
+      </c>
+      <c r="AI49">
+        <v>-3.5173626058676488</v>
+      </c>
+      <c r="AJ49">
+        <v>0.25242396939971701</v>
+      </c>
+      <c r="AK49">
+        <v>2</v>
+      </c>
+      <c r="AL49">
+        <v>1.9273476</v>
+      </c>
+      <c r="AM49">
+        <v>0.34833145909560004</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AO49">
+        <v>0</v>
+      </c>
+      <c r="AP49">
+        <v>0</v>
+      </c>
+      <c r="AQ49">
+        <v>0</v>
+      </c>
+      <c r="AR49">
+        <v>216.61666666666667</v>
+      </c>
+      <c r="AS49">
+        <v>0.53928965624545278</v>
+      </c>
+      <c r="AT49">
         <v>3</v>
-      </c>
-      <c r="AI49">
-        <v>-2.4696037487087663</v>
-      </c>
-      <c r="AJ49">
-        <v>0.26889462132834718</v>
-      </c>
-      <c r="AK49">
-        <v>2</v>
-      </c>
-      <c r="AL49">
-        <v>2.9278073999999989</v>
-      </c>
-      <c r="AM49">
-        <v>0.52914555920939976</v>
-      </c>
-      <c r="AN49">
-        <v>0</v>
-      </c>
-      <c r="AO49">
-        <v>0</v>
-      </c>
-      <c r="AP49">
-        <v>0</v>
-      </c>
-      <c r="AQ49">
-        <v>0</v>
-      </c>
-      <c r="AR49">
-        <v>91</v>
-      </c>
-      <c r="AS49">
-        <v>4.2010802641560678</v>
-      </c>
-      <c r="AT49">
-        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E50">
-        <v>80.262301825000009</v>
+        <v>94.14</v>
       </c>
       <c r="F50">
-        <v>3.164583107582521</v>
+        <v>4.4506179346243595</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H50">
-        <v>16.093591803544058</v>
+        <v>14.9</v>
       </c>
       <c r="I50">
-        <v>9.8469607065492522</v>
+        <v>2.9800000000000004</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
-        <v>0</v>
+        <v>4.2967974015840014</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>6.2589604473117628</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>70.099999999999994</v>
+        <v>-93.4</v>
       </c>
       <c r="O50">
-        <v>4.441401672997646</v>
+        <v>4.6669047558312196</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50">
-        <v>51.739082200000006</v>
+        <v>70.758807699999991</v>
       </c>
       <c r="R50">
-        <v>15.465380799484201</v>
+        <v>13.265082920711299</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>-18.204648000000006</v>
+        <v>-21.7</v>
       </c>
       <c r="U50">
-        <v>7.4677859599203078</v>
+        <v>4.34</v>
       </c>
       <c r="V50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W50">
-        <v>7.993297276476711</v>
+        <v>10.434999999999999</v>
       </c>
       <c r="X50">
-        <v>0.20580996420229952</v>
+        <v>0.13435028842544369</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z50">
-        <v>5.71</v>
+        <v>6.6174999999999997</v>
       </c>
       <c r="AA50">
-        <v>1.1420000000000001</v>
+        <v>0.39969780251251513</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC50">
-        <v>-2.087498225774242</v>
+        <v>-3.3186978724594232</v>
       </c>
       <c r="AD50">
-        <v>0.41749964515484844</v>
+        <v>0.38418905920526514</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>-1.4403667064642687</v>
+        <v>-3.7075139892385729</v>
       </c>
       <c r="AG50">
-        <v>0.12779782186875707</v>
+        <v>0.19995588786711851</v>
       </c>
       <c r="AH50">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI50">
-        <v>-2.98523196960676</v>
+        <v>-4.0697069918861315</v>
       </c>
       <c r="AJ50">
-        <v>0.36913762809068135</v>
+        <v>7.1457772538696201E-2</v>
       </c>
       <c r="AK50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL50">
-        <v>2.9341074000000003</v>
+        <v>2.6982638999999988</v>
       </c>
       <c r="AM50">
-        <v>0.53028416450940008</v>
+        <v>0.48765993291089982</v>
       </c>
       <c r="AN50">
         <v>0</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>48.472961613897454</v>
       </c>
       <c r="AP50">
-        <v>0</v>
+        <v>3.820620706319922</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR50">
-        <v>57.75</v>
+        <v>83.875</v>
       </c>
       <c r="AS50">
-        <v>0.35355339059327379</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="AT50">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E51">
-        <v>77.099999999999994</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="F51">
-        <v>5.5021195639597513</v>
+        <v>2.9704096238285618</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>31.8</v>
+        <v>16.357400538928019</v>
       </c>
       <c r="I51">
-        <v>6.36</v>
+        <v>22.945834327997446</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
-        <v>0</v>
+        <v>4.6010027029921474</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>6.7020832598218973</v>
       </c>
       <c r="M51">
         <v>0</v>
       </c>
       <c r="N51">
-        <v>76.099999999999994</v>
+        <v>-103</v>
       </c>
       <c r="O51">
-        <v>4.8215501756793282</v>
+        <v>6.5258826293688674</v>
       </c>
       <c r="P51">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>56.590070599999997</v>
+        <v>67.159043699999984</v>
       </c>
       <c r="R51">
-        <v>16.915394593116599</v>
+        <v>12.590238763395297</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51">
-        <v>-22.709944000000011</v>
+        <v>-32.069367999999997</v>
       </c>
       <c r="U51">
-        <v>9.3159176136652828</v>
+        <v>13.155276393914209</v>
       </c>
       <c r="V51">
         <v>0</v>
       </c>
       <c r="W51">
-        <v>9.0261907024857795</v>
+        <v>10.655000000000001</v>
       </c>
       <c r="X51">
-        <v>0.23240471624002404</v>
+        <v>0.23334523779156074</v>
       </c>
       <c r="Y51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z51">
-        <v>6.4024999999999999</v>
+        <v>7.24</v>
       </c>
       <c r="AA51">
-        <v>1.2805</v>
+        <v>0.51206348000000002</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC51">
-        <v>-2.5192965017072471</v>
+        <v>-3.4597463826083863</v>
       </c>
       <c r="AD51">
-        <v>0.50385930034144943</v>
+        <v>0.40051753998265988</v>
       </c>
       <c r="AE51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF51">
-        <v>-2.4598699455590731</v>
+        <v>-3.8064674031393619</v>
       </c>
       <c r="AG51">
-        <v>0.15642979300815249</v>
+        <v>0.15897540206098351</v>
       </c>
       <c r="AH51">
         <v>3</v>
       </c>
       <c r="AI51">
-        <v>-4.4217108558101943</v>
+        <v>-3.6293678108253968</v>
       </c>
       <c r="AJ51">
-        <v>0.54676483235961115</v>
+        <v>0.44878797989465358</v>
       </c>
       <c r="AK51">
         <v>1</v>
       </c>
       <c r="AL51">
-        <v>2.8537641999999988</v>
+        <v>2.4449938999999983</v>
       </c>
       <c r="AM51">
-        <v>0.51576365763019982</v>
+        <v>0.44188619254089967</v>
       </c>
       <c r="AN51">
         <v>0</v>
@@ -8132,10 +8168,10 @@
         <v>0</v>
       </c>
       <c r="AR51">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="AS51">
-        <v>3.5085945063281443</v>
+        <v>4.8935660219839905</v>
       </c>
       <c r="AT51">
         <v>1</v>
@@ -8143,121 +8179,121 @@
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B52">
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D52" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E52">
-        <v>77.521050303999999</v>
+        <v>100</v>
       </c>
       <c r="F52">
-        <v>3.0417753598014903</v>
+        <v>7.136341846899807</v>
       </c>
       <c r="G52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>17.427305216247994</v>
+        <v>15.360580442263995</v>
       </c>
       <c r="I52">
-        <v>10.663001260392631</v>
+        <v>21.547515032799087</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>4.7805045747598029</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>6.963555936005795</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>63.8</v>
+        <v>-98.4</v>
       </c>
       <c r="O52">
-        <v>4.042245745181881</v>
+        <v>6.2344354439795788</v>
       </c>
       <c r="P52">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>57.033388800000004</v>
+        <v>67.783638699999997</v>
       </c>
       <c r="R52">
-        <v>17.047907279596799</v>
+        <v>12.7073309634503</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>-33.734671999999989</v>
+        <v>-32.865367999999989</v>
       </c>
       <c r="U52">
-        <v>13.838405989729468</v>
+        <v>13.481806059530182</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
       <c r="W52">
-        <v>7.6828040702811879</v>
+        <v>10.361775178295694</v>
       </c>
       <c r="X52">
-        <v>2.1784930946130668E-2</v>
+        <v>0.26679310236504827</v>
       </c>
       <c r="Y52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z52">
-        <v>5.2862499999999999</v>
+        <v>7.25</v>
       </c>
       <c r="AA52">
-        <v>1.9445436482629957E-2</v>
+        <v>0.51277074999999994</v>
       </c>
       <c r="AB52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>-2.4469041999999996</v>
+        <v>-3.608914998841187</v>
       </c>
       <c r="AD52">
-        <v>0.54425266668499994</v>
+        <v>0.41778604484085002</v>
       </c>
       <c r="AE52">
         <v>0</v>
       </c>
       <c r="AF52">
-        <v>-1.1641242474646873</v>
+        <v>-3.7529626300087369</v>
       </c>
       <c r="AG52">
-        <v>0.17316928979703319</v>
+        <v>0.59546147392098581</v>
       </c>
       <c r="AH52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI52">
-        <v>-3.2819205999699497</v>
+        <v>-3.2173176400000005</v>
       </c>
       <c r="AJ52">
-        <v>0.44450077171695895</v>
+        <v>0.31517487064968003</v>
       </c>
       <c r="AK52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL52">
-        <v>2.9694425999999989</v>
+        <v>2.4542238999999997</v>
       </c>
       <c r="AM52">
-        <v>0.53667033054059976</v>
+        <v>0.44355433967089997</v>
       </c>
       <c r="AN52">
         <v>0</v>
@@ -8272,132 +8308,132 @@
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>29.083333333333332</v>
+        <v>0</v>
       </c>
       <c r="AS52">
-        <v>0.38188130791298669</v>
+        <v>0</v>
       </c>
       <c r="AT52">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E53">
-        <v>85.341688061999989</v>
+        <v>113</v>
       </c>
       <c r="F53">
-        <v>1.7560120975171565</v>
+        <v>15.556349186104045</v>
       </c>
       <c r="G53">
         <v>2</v>
       </c>
       <c r="H53">
-        <v>12.778028014968001</v>
+        <v>15.645735560719942</v>
       </c>
       <c r="I53">
-        <v>7.8183131091262608</v>
+        <v>21.94752492986672</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>4.4621379019357761</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>6.4998048612603929</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>83</v>
+        <v>-122</v>
       </c>
       <c r="O53">
-        <v>5.2587209537632624</v>
+        <v>7.7296862211941928</v>
       </c>
       <c r="P53">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>58.2108378</v>
+        <v>77.959482699999995</v>
       </c>
       <c r="R53">
-        <v>17.399859737635801</v>
+        <v>14.614986262286299</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53">
-        <v>-23.136451999999995</v>
+        <v>-28.546148000000013</v>
       </c>
       <c r="U53">
-        <v>9.4908768028895718</v>
+        <v>11.71000522746758</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
       <c r="W53">
-        <v>9.5354454649199933</v>
+        <v>11.375613387532628</v>
       </c>
       <c r="X53">
-        <v>6.0454967129327825E-2</v>
+        <v>0.34734978374903991</v>
       </c>
       <c r="Y53">
         <v>2</v>
       </c>
       <c r="Z53">
-        <v>6.665</v>
+        <v>6.98</v>
       </c>
       <c r="AA53">
-        <v>0.16263455967290624</v>
+        <v>0.36769552621700502</v>
       </c>
       <c r="AB53">
         <v>2</v>
       </c>
       <c r="AC53">
-        <v>-2.5888519995337749</v>
+        <v>-3.7507921573657663</v>
       </c>
       <c r="AD53">
-        <v>0.29502137502894887</v>
+        <v>0.43421045409744796</v>
       </c>
       <c r="AE53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>-3.0450153498164276</v>
+        <v>-4.4248091794189603</v>
       </c>
       <c r="AG53">
-        <v>0.24220774330514885</v>
+        <v>0.1257038377706223</v>
       </c>
       <c r="AH53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI53">
-        <v>-4.9723347322518059</v>
+        <v>-3.9164203700479505</v>
       </c>
       <c r="AJ53">
-        <v>0.64224406619288954</v>
+        <v>0.21552936573178999</v>
       </c>
       <c r="AK53">
         <v>2</v>
       </c>
       <c r="AL53">
-        <v>2.8283425999999992</v>
+        <v>2.6197388999999971</v>
       </c>
       <c r="AM53">
-        <v>0.51116918644059983</v>
+        <v>0.47346803113589947</v>
       </c>
       <c r="AN53">
         <v>0</v>
@@ -8412,150 +8448,150 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="AS53">
-        <v>6.2785375376398376</v>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E54">
-        <v>85.186631759000008</v>
+        <v>100.15</v>
       </c>
       <c r="F54">
-        <v>5.9586025096942681</v>
+        <v>9.0053687690547495</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H54">
-        <v>32</v>
+        <v>3.1000000000000014</v>
       </c>
       <c r="I54">
-        <v>6.4</v>
+        <v>0.62000000000000033</v>
       </c>
       <c r="J54">
         <v>1</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>4.8293702345921474</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>7.0347364464040005</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>77</v>
+        <v>-91.1</v>
       </c>
       <c r="O54">
-        <v>4.8785724510815802</v>
+        <v>27.33</v>
       </c>
       <c r="P54">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>54.406700399999998</v>
+        <v>79.564132699999988</v>
       </c>
       <c r="R54">
-        <v>16.262761223264398</v>
+        <v>14.915808393136297</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54">
-        <v>-18.97117600000001</v>
+        <v>-29.258548000000015</v>
       </c>
       <c r="U54">
-        <v>7.7822258236455406</v>
+        <v>12.002241073930925</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>8.3783125260505589</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="X54">
-        <v>6.3856714674023748E-2</v>
+        <v>0.1652271164185832</v>
       </c>
       <c r="Y54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Z54">
-        <v>5.9708333333333323</v>
+        <v>7.1433333333333335</v>
       </c>
       <c r="AA54">
-        <v>0.30598542993635075</v>
+        <v>0.36828431046317112</v>
       </c>
       <c r="AB54">
         <v>3</v>
       </c>
       <c r="AC54">
-        <v>-2.1097746204853944</v>
+        <v>-3.8501767895016785</v>
       </c>
       <c r="AD54">
-        <v>0.42195492409707891</v>
+        <v>0.44571571603666182</v>
       </c>
       <c r="AE54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>-1.8415366630123795</v>
+        <v>-4.4678337478400705</v>
       </c>
       <c r="AG54">
-        <v>3.7003294481798843E-2</v>
+        <v>0.28281797910706313</v>
       </c>
       <c r="AH54">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI54">
-        <v>-3.7707483866126688</v>
+        <v>-4.2554666846671543</v>
       </c>
       <c r="AJ54">
-        <v>0.31763768319090768</v>
+        <v>0.29719362983561631</v>
       </c>
       <c r="AK54">
         <v>3</v>
       </c>
       <c r="AL54">
-        <v>2.8884657999999988</v>
+        <v>2.5778088999999973</v>
       </c>
       <c r="AM54">
-        <v>0.52203531249979973</v>
+        <v>0.46588998030589951</v>
       </c>
       <c r="AN54">
         <v>0</v>
       </c>
       <c r="AO54">
-        <v>60</v>
+        <v>77.464788732394354</v>
       </c>
       <c r="AP54">
-        <v>4.7291775609904514</v>
+        <v>6.1057456773350891</v>
       </c>
       <c r="AQ54">
         <v>1</v>
       </c>
       <c r="AR54">
-        <v>42.916666666666664</v>
+        <v>86.283333333333346</v>
       </c>
       <c r="AS54">
-        <v>2.4537386440559095</v>
+        <v>7.5306872196367154</v>
       </c>
       <c r="AT54">
         <v>3</v>
@@ -8569,115 +8605,115 @@
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E55">
-        <v>93.6</v>
+        <v>73.524218355999992</v>
       </c>
       <c r="F55">
-        <v>6.6796159686982195</v>
+        <v>0.10717142872373359</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>12.597595609048</v>
+        <v>39</v>
       </c>
       <c r="I55">
-        <v>7.7079144589696726</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3.431115592671901</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>4.9979588930051282</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>82.3</v>
+        <v>-61.2</v>
       </c>
       <c r="O55">
-        <v>5.2143702951170656</v>
+        <v>3.8775147273531525</v>
       </c>
       <c r="P55">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>60.488209000000005</v>
+        <v>51.928700200000002</v>
       </c>
       <c r="R55">
-        <v>18.080591040399</v>
+        <v>15.522059705482199</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55">
-        <v>-27.428640000000012</v>
+        <v>-13.497807999999997</v>
       </c>
       <c r="U55">
-        <v>11.251588753141977</v>
+        <v>5.5369783075234391</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
       <c r="W55">
-        <v>10.270436050858564</v>
+        <v>7.5390552184404918</v>
       </c>
       <c r="X55">
-        <v>0.10951371931483565</v>
+        <v>0.19411422232382147</v>
       </c>
       <c r="Y55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z55">
-        <v>7.8893899999999997</v>
+        <v>5.26</v>
       </c>
       <c r="AA55">
-        <v>0.55799288653000001</v>
+        <v>0.3111269837220812</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC55">
-        <v>-3.2424001857599851</v>
+        <v>-1.9124978394296193</v>
       </c>
       <c r="AD55">
-        <v>0.64848003715199709</v>
+        <v>0.16164821075426294</v>
       </c>
       <c r="AE55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF55">
-        <v>-3.5667759081346233</v>
+        <v>-1.1806733242754686</v>
       </c>
       <c r="AG55">
-        <v>0.56592027387140831</v>
+        <v>0.14119223273996104</v>
       </c>
       <c r="AH55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI55">
-        <v>-4.9091550554090064</v>
+        <v>-2.4696037487087663</v>
       </c>
       <c r="AJ55">
-        <v>0.60703954383878933</v>
+        <v>0.26889462132834718</v>
       </c>
       <c r="AK55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL55">
-        <v>2.793641</v>
+        <v>2.9278073999999989</v>
       </c>
       <c r="AM55">
-        <v>0.50489753157100004</v>
+        <v>0.52914555920939976</v>
       </c>
       <c r="AN55">
         <v>0</v>
@@ -8692,10 +8728,10 @@
         <v>0</v>
       </c>
       <c r="AR55">
-        <v>204.5</v>
+        <v>91</v>
       </c>
       <c r="AS55">
-        <v>9.4408891650540205</v>
+        <v>4.2010802641560678</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -8709,115 +8745,115 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E56">
-        <v>88.187381608999999</v>
+        <v>80.262301825000009</v>
       </c>
       <c r="F56">
-        <v>0.72495188087407936</v>
+        <v>3.164583107582521</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56">
-        <v>11.734174130824016</v>
+        <v>16.093591803544058</v>
       </c>
       <c r="I56">
-        <v>7.1796248469894586</v>
+        <v>9.8469607065492522</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0</v>
+        <v>3.2927695071998926</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>4.7964360851830747</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>87.5</v>
+        <v>-70.099999999999994</v>
       </c>
       <c r="O56">
-        <v>5.5438323307745234</v>
+        <v>4.441401672997646</v>
       </c>
       <c r="P56">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>59.783903000000002</v>
+        <v>51.739082200000006</v>
       </c>
       <c r="R56">
-        <v>17.870066229633</v>
+        <v>15.465380799484201</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
-        <v>-23.282120000000003</v>
+        <v>-18.204648000000006</v>
       </c>
       <c r="U56">
-        <v>9.5506317316972993</v>
+        <v>7.4677859599203078</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
       <c r="W56">
-        <v>9.80286139538212</v>
+        <v>7.993297276476711</v>
       </c>
       <c r="X56">
-        <v>7.0888148300808597E-3</v>
+        <v>0.20580996420229952</v>
       </c>
       <c r="Y56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>6.6549999999999994</v>
+        <v>5.71</v>
       </c>
       <c r="AA56">
-        <v>0.14849242404917495</v>
+        <v>1.1420000000000001</v>
       </c>
       <c r="AB56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>-2.2302775143706985</v>
+        <v>-2.087498225774242</v>
       </c>
       <c r="AD56">
-        <v>0.44605550287413975</v>
+        <v>0.41749964515484844</v>
       </c>
       <c r="AE56">
         <v>1</v>
       </c>
       <c r="AF56">
-        <v>-3.2215368249492431</v>
+        <v>-1.4403667064642687</v>
       </c>
       <c r="AG56">
-        <v>8.1858281942174385E-2</v>
+        <v>0.12779782186875707</v>
       </c>
       <c r="AH56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI56">
-        <v>-4.6128134783762764</v>
+        <v>-2.98523196960676</v>
       </c>
       <c r="AJ56">
-        <v>0.23403260873049611</v>
+        <v>0.36913762809068135</v>
       </c>
       <c r="AK56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL56">
-        <v>2.793641</v>
+        <v>2.9341074000000003</v>
       </c>
       <c r="AM56">
-        <v>0.50489753157100004</v>
+        <v>0.53028416450940008</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -8832,13 +8868,13 @@
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>102.5</v>
+        <v>57.75</v>
       </c>
       <c r="AS56">
-        <v>4.7319860118241417</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AT56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
@@ -8849,675 +8885,675 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E57">
-        <v>104.05587005119456</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F57">
-        <v>0.65273974807507618</v>
+        <v>5.5021195639597513</v>
       </c>
       <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>31.8</v>
+      </c>
+      <c r="I57">
+        <v>6.36</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>2.8348884338479081</v>
+      </c>
+      <c r="L57">
+        <v>4.1294603681929649</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>-76.099999999999994</v>
+      </c>
+      <c r="O57">
+        <v>4.8215501756793282</v>
+      </c>
+      <c r="P57">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>56.590070599999997</v>
+      </c>
+      <c r="R57">
+        <v>16.915394593116599</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>-22.709944000000011</v>
+      </c>
+      <c r="U57">
+        <v>9.3159176136652828</v>
+      </c>
+      <c r="V57">
+        <v>0</v>
+      </c>
+      <c r="W57">
+        <v>9.0261907024857795</v>
+      </c>
+      <c r="X57">
+        <v>0.23240471624002404</v>
+      </c>
+      <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>6.4024999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>1.2805</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>-2.5192965017072471</v>
+      </c>
+      <c r="AD57">
+        <v>0.50385930034144943</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>-2.4598699455590731</v>
+      </c>
+      <c r="AG57">
+        <v>0.15642979300815249</v>
+      </c>
+      <c r="AH57">
         <v>3</v>
       </c>
-      <c r="H57">
-        <v>37.809999999999995</v>
-      </c>
-      <c r="I57">
-        <v>7.5619999999999994</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>104</v>
-      </c>
-      <c r="O57">
-        <v>6.5892407131491479</v>
-      </c>
-      <c r="P57">
-        <v>1</v>
-      </c>
-      <c r="Q57">
-        <v>65.77873559999999</v>
-      </c>
-      <c r="R57">
-        <v>19.661987636931595</v>
-      </c>
-      <c r="S57">
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <v>-23.8</v>
-      </c>
-      <c r="U57">
-        <v>4.7600000000000007</v>
-      </c>
-      <c r="V57">
-        <v>1</v>
-      </c>
-      <c r="W57">
-        <v>11.525637381635953</v>
-      </c>
-      <c r="X57">
-        <v>0.19984160559524264</v>
-      </c>
-      <c r="Y57">
-        <v>2</v>
-      </c>
-      <c r="Z57">
-        <v>8.1416737508306145</v>
-      </c>
-      <c r="AA57">
-        <v>0.25421187957856911</v>
-      </c>
-      <c r="AB57">
-        <v>8</v>
-      </c>
-      <c r="AC57">
-        <v>-2.7664286699999998</v>
-      </c>
-      <c r="AD57">
-        <v>0.61532289692474995</v>
-      </c>
-      <c r="AE57">
-        <v>0</v>
-      </c>
-      <c r="AF57">
-        <v>-4.6996349403159625</v>
-      </c>
-      <c r="AG57">
-        <v>0.28490908503016454</v>
-      </c>
-      <c r="AH57">
-        <v>4</v>
-      </c>
       <c r="AI57">
-        <v>-4.9065768596922759</v>
+        <v>-4.4217108558101943</v>
       </c>
       <c r="AJ57">
-        <v>0.22757118902063608</v>
+        <v>0.54676483235961115</v>
       </c>
       <c r="AK57">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL57">
-        <v>2.013540181656575</v>
+        <v>2.8537641999999988</v>
       </c>
       <c r="AM57">
-        <v>1.3593681325823463</v>
+        <v>0.51576365763019982</v>
       </c>
       <c r="AN57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO57">
-        <v>55.188213787105745</v>
+        <v>0</v>
       </c>
       <c r="AP57">
-        <v>9.8727770120457699</v>
+        <v>0</v>
       </c>
       <c r="AQ57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR57">
-        <v>308.39285714285717</v>
+        <v>76</v>
       </c>
       <c r="AS57">
-        <v>5.139425111448797</v>
+        <v>3.5085945063281443</v>
       </c>
       <c r="AT57">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B58">
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
       <c r="E58">
-        <v>0.96533834384387507</v>
+        <v>77.521050303999999</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>3.0417753598014903</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>1.8797252000000046</v>
+        <v>17.427305216247994</v>
       </c>
       <c r="I58">
-        <v>0</v>
+        <v>10.663001260392631</v>
       </c>
       <c r="J58">
         <v>0</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>3.6011771303441691</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>5.2456802394915494</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>3.4824044666190925</v>
+        <v>-63.8</v>
       </c>
       <c r="O58">
-        <v>1</v>
+        <v>4.042245745181881</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q58">
-        <v>14.862804664118599</v>
+        <v>57.033388800000004</v>
       </c>
       <c r="R58">
-        <v>0</v>
+        <v>17.047907279596799</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>5.6332290796609685</v>
+        <v>-33.734671999999989</v>
       </c>
       <c r="U58">
-        <v>0</v>
+        <v>13.838405989729468</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
       <c r="W58">
-        <v>0.18023472661974055</v>
+        <v>7.6828040702811879</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>2.1784930946130668E-2</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z58">
-        <v>0.10675059659978832</v>
+        <v>5.2862499999999999</v>
       </c>
       <c r="AA58">
-        <v>14</v>
+        <v>1.9445436482629957E-2</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC58">
-        <v>0.94942939380402136</v>
+        <v>-2.4469041999999996</v>
       </c>
       <c r="AD58">
-        <v>1</v>
+        <v>0.54425266668499994</v>
       </c>
       <c r="AE58">
         <v>0</v>
       </c>
       <c r="AF58">
-        <v>9.5464368197886035E-2</v>
+        <v>-1.1641242474646873</v>
       </c>
       <c r="AG58">
-        <v>9</v>
+        <v>0.17316928979703319</v>
       </c>
       <c r="AH58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI58">
-        <v>7.889766480857377E-2</v>
+        <v>-3.2819205999699497</v>
       </c>
       <c r="AJ58">
-        <v>5</v>
+        <v>0.44450077171695895</v>
       </c>
       <c r="AK58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL58">
-        <v>0.4510360428047997</v>
+        <v>2.9694425999999989</v>
       </c>
       <c r="AM58">
-        <v>0</v>
+        <v>0.53667033054059976</v>
       </c>
       <c r="AN58">
         <v>0</v>
       </c>
       <c r="AO58">
-        <v>4.8710528878201647</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ58">
         <v>0</v>
       </c>
       <c r="AR58">
-        <v>0.23177575369309009</v>
+        <v>29.083333333333332</v>
       </c>
       <c r="AS58">
-        <v>5</v>
+        <v>0.38188130791298669</v>
       </c>
       <c r="AT58">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="E59">
-        <v>2.0167132760553788</v>
+        <v>85.341688061999989</v>
       </c>
       <c r="F59">
-        <v>6</v>
+        <v>1.7560120975171565</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>9.8615434000000004</v>
+        <v>12.778028014968001</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>7.8183131091262608</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>0</v>
+        <v>3.375780711535981</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>4.9173549454560206</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>3.7436769844595208</v>
+        <v>-83</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>5.2587209537632624</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q59">
-        <v>16.187359459846199</v>
+        <v>58.2108378</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>17.399859737635801</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>4.9152100352025263</v>
+        <v>-23.136451999999995</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>9.4908768028895718</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
       <c r="W59">
-        <v>0.19259367930223703</v>
+        <v>9.5354454649199933</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>6.0454967129327825E-2</v>
       </c>
       <c r="Y59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z59">
-        <v>0.41659773461009664</v>
+        <v>6.665</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>0.16263455967290624</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC59">
-        <v>0.94750978205391412</v>
+        <v>-2.5888519995337749</v>
       </c>
       <c r="AD59">
-        <v>1</v>
+        <v>0.29502137502894887</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF59">
-        <v>0.22717615065451793</v>
+        <v>-3.0450153498164276</v>
       </c>
       <c r="AG59">
-        <v>11</v>
+        <v>0.24220774330514885</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI59">
-        <v>4.9413997541154983E-2</v>
+        <v>-4.9723347322518059</v>
       </c>
       <c r="AJ59">
-        <v>6</v>
+        <v>0.64224406619288954</v>
       </c>
       <c r="AK59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL59">
-        <v>0.49704722756259995</v>
+        <v>2.8283425999999992</v>
       </c>
       <c r="AM59">
-        <v>0</v>
+        <v>0.51116918644059983</v>
       </c>
       <c r="AN59">
         <v>0</v>
       </c>
       <c r="AO59">
-        <v>5.2525398777400616</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ59">
         <v>0</v>
       </c>
       <c r="AR59">
-        <v>10.907871775312827</v>
+        <v>136</v>
       </c>
       <c r="AS59">
-        <v>6</v>
+        <v>6.2785375376398376</v>
       </c>
       <c r="AT59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B60">
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="E60">
-        <v>6.3299352182001298</v>
+        <v>85.186631759000008</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>5.9586025096942681</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H60">
-        <v>7.9116791999999805</v>
+        <v>32</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
-        <v>0</v>
+        <v>2.9175220740240775</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>4.2498292469512169</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>14.227494749999998</v>
+        <v>-77</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>4.8785724510815802</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>17.7031690045598</v>
+        <v>54.406700399999998</v>
       </c>
       <c r="R60">
-        <v>0</v>
+        <v>16.262761223264398</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>4.1220891676524074</v>
+        <v>-18.97117600000001</v>
       </c>
       <c r="U60">
-        <v>0</v>
+        <v>7.7822258236455406</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
       <c r="W60">
-        <v>0.54628330800000002</v>
+        <v>8.3783125260505589</v>
       </c>
       <c r="X60">
-        <v>0</v>
+        <v>6.3856714674023748E-2</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z60">
-        <v>0.48041586212717508</v>
+        <v>5.9708333333333323</v>
       </c>
       <c r="AA60">
+        <v>0.30598542993635075</v>
+      </c>
+      <c r="AB60">
         <v>3</v>
       </c>
-      <c r="AB60">
-        <v>0</v>
-      </c>
       <c r="AC60">
-        <v>0.96928320000000001</v>
+        <v>-2.1097746204853944</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>0.42195492409707891</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF60">
-        <v>0.27876727169807036</v>
+        <v>-1.8415366630123795</v>
       </c>
       <c r="AG60">
-        <v>1</v>
+        <v>3.7003294481798843E-2</v>
       </c>
       <c r="AH60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI60">
-        <v>4.689946047095362E-2</v>
+        <v>-3.7707483866126688</v>
       </c>
       <c r="AJ60">
-        <v>1</v>
+        <v>0.31763768319090768</v>
       </c>
       <c r="AK60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL60">
-        <v>0.53437248046039998</v>
+        <v>2.8884657999999988</v>
       </c>
       <c r="AM60">
-        <v>0</v>
+        <v>0.52203531249979973</v>
       </c>
       <c r="AN60">
         <v>0</v>
       </c>
       <c r="AO60">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AP60">
-        <v>0</v>
+        <v>4.7291775609904514</v>
       </c>
       <c r="AQ60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>1.4311372328443748</v>
+        <v>42.916666666666664</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>2.4537386440559095</v>
       </c>
       <c r="AT60">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="E61">
-        <v>11.289652223038836</v>
+        <v>93.6</v>
       </c>
       <c r="F61">
-        <v>3</v>
+        <v>6.6796159686982195</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>0.62780000000000002</v>
+        <v>12.597595609048</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>7.7079144589696726</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>4.1899954586160675</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>6.1033866386686295</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>15.202712699999998</v>
+        <v>-82.3</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>5.2143702951170656</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>18.869029417097401</v>
+        <v>60.488209000000005</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>18.080591040399</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61">
-        <v>4.229172848595943</v>
+        <v>-27.428640000000012</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>11.251588753141977</v>
       </c>
       <c r="V61">
         <v>0</v>
       </c>
       <c r="W61">
-        <v>0.57063643200000003</v>
+        <v>10.270436050858564</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>0.10951371931483565</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z61">
-        <v>0.14754694795495324</v>
+        <v>7.8893899999999997</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0.55799288653000001</v>
       </c>
       <c r="AB61">
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0.84812280000000007</v>
+        <v>-3.2424001857599851</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>0.64848003715199709</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
-        <v>0.31732875204227629</v>
+        <v>-3.5667759081346233</v>
       </c>
       <c r="AG61">
-        <v>1</v>
+        <v>0.56592027387140831</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61">
-        <v>0.20844345466840553</v>
+        <v>-4.9091550554090064</v>
       </c>
       <c r="AJ61">
-        <v>4</v>
+        <v>0.60703954383878933</v>
       </c>
       <c r="AK61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL61">
-        <v>0.58962082662819981</v>
+        <v>2.793641</v>
       </c>
       <c r="AM61">
-        <v>0</v>
+        <v>0.50489753157100004</v>
       </c>
       <c r="AN61">
         <v>0</v>
@@ -9532,132 +9568,132 @@
         <v>0</v>
       </c>
       <c r="AR61">
-        <v>11.3929802949009</v>
+        <v>204.5</v>
       </c>
       <c r="AS61">
-        <v>5</v>
+        <v>9.4408891650540205</v>
       </c>
       <c r="AT61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="E62">
-        <v>2.7191972778775324</v>
+        <v>88.187381608999999</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>0.72495188087407936</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>0.2162</v>
+        <v>11.734174130824016</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>7.1796248469894586</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>2.9918111487838956</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>4.3580429552395525</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>4.3857963377810565</v>
+        <v>-87.5</v>
       </c>
       <c r="O62">
-        <v>1</v>
+        <v>5.5438323307745234</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>18.884489985527399</v>
+        <v>59.783903000000002</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>17.870066229633</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62">
-        <v>4.0549143034280206</v>
+        <v>-23.282120000000003</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>9.5506317316972993</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <v>0.22297610464670758</v>
+        <v>9.80286139538212</v>
       </c>
       <c r="X62">
-        <v>1</v>
+        <v>7.0888148300808597E-3</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z62">
-        <v>0.28331014372467622</v>
+        <v>6.6549999999999994</v>
       </c>
       <c r="AA62">
-        <v>12</v>
+        <v>0.14849242404917495</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC62">
-        <v>0.82616992931380784</v>
+        <v>-2.2302775143706985</v>
       </c>
       <c r="AD62">
-        <v>1</v>
+        <v>0.44605550287413975</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF62">
-        <v>0.13346437472296552</v>
+        <v>-3.2215368249492431</v>
       </c>
       <c r="AG62">
-        <v>10</v>
+        <v>8.1858281942174385E-2</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AI62">
-        <v>6.8688215356957738E-2</v>
+        <v>-4.6128134783762764</v>
       </c>
       <c r="AJ62">
-        <v>7</v>
+        <v>0.23403260873049611</v>
       </c>
       <c r="AK62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL62">
-        <v>0.58011437602819982</v>
+        <v>2.793641</v>
       </c>
       <c r="AM62">
-        <v>0</v>
+        <v>0.50489753157100004</v>
       </c>
       <c r="AN62">
         <v>0</v>
@@ -9672,153 +9708,153 @@
         <v>0</v>
       </c>
       <c r="AR62">
-        <v>0</v>
+        <v>102.5</v>
       </c>
       <c r="AS62">
-        <v>5</v>
+        <v>4.7319860118241417</v>
       </c>
       <c r="AT62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>198</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="E63">
-        <v>12.116981802412674</v>
+        <v>104.05587005119456</v>
       </c>
       <c r="F63">
-        <v>2</v>
+        <v>0.65273974807507618</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63">
-        <v>6.4247323999999972</v>
+        <v>37.809999999999995</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>7.5619999999999994</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63">
-        <v>0</v>
+        <v>5.8868070856240564</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>8.5750593444998575</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>4.832488061830821</v>
+        <v>-104</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>21.4056005242421</v>
+        <v>65.77873559999999</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>19.661987636931595</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
       <c r="T63">
-        <v>2.2732306162096045</v>
+        <v>-23.8</v>
       </c>
       <c r="U63">
-        <v>0</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="V63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W63">
-        <v>0.24872392273524194</v>
+        <v>11.525637381635953</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>0.19984160559524264</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z63">
-        <v>0.4185329646809503</v>
+        <v>8.1416737508306145</v>
       </c>
       <c r="AA63">
-        <v>6</v>
+        <v>0.25421187957856911</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC63">
-        <v>1.1389077599999999</v>
+        <v>-2.7664286699999998</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>0.61532289692474995</v>
       </c>
       <c r="AE63">
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>0.56113384528000032</v>
+        <v>-4.9397366133846008</v>
       </c>
       <c r="AG63">
+        <v>0.45466857646634756</v>
+      </c>
+      <c r="AH63">
+        <v>4</v>
+      </c>
+      <c r="AI63">
+        <v>-5.8669835519668307</v>
+      </c>
+      <c r="AJ63">
+        <v>0.22757118902063592</v>
+      </c>
+      <c r="AK63">
         <v>5</v>
       </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0.29807311025252042</v>
-      </c>
-      <c r="AJ63">
-        <v>4</v>
-      </c>
-      <c r="AK63">
-        <v>0</v>
-      </c>
       <c r="AL63">
-        <v>0.4962450891652998</v>
+        <v>1.533336835519298</v>
       </c>
       <c r="AM63">
-        <v>0</v>
+        <v>0.68025804777806742</v>
       </c>
       <c r="AN63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO63">
-        <v>0</v>
+        <v>55.188213787105745</v>
       </c>
       <c r="AP63">
-        <v>0</v>
+        <v>9.8727770120457699</v>
       </c>
       <c r="AQ63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR63">
-        <v>0</v>
+        <v>308.39285714285717</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>5.139425111448797</v>
       </c>
       <c r="AT63">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
@@ -9829,136 +9865,136 @@
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="E64">
-        <v>14.879848559999997</v>
+        <v>77.251485714285693</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.96533834384387507</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H64">
-        <v>18.208084399999983</v>
+        <v>-1.3400000000000034</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1.8797252000000046</v>
       </c>
       <c r="J64">
         <v>0</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>8.5500000000000043</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>12.454418215014696</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>25.771708799999995</v>
+        <v>-54.963853999999998</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>3.4824044666190925</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>24.2622788857358</v>
+        <v>79.281399399999998</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>14.862804664118599</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64">
-        <v>9.1365002279511423</v>
+        <v>13.732444000000006</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>5.6332290796609685</v>
       </c>
       <c r="V64">
         <v>0</v>
       </c>
       <c r="W64">
-        <v>1.143986304</v>
+        <v>7</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>0.18023472661974055</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z64">
-        <v>0.69146320276503692</v>
+        <v>1.6110213059370522</v>
       </c>
       <c r="AA64">
-        <v>1</v>
+        <v>0.10675059659978832</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC64">
-        <v>0.63003408000000005</v>
+        <v>-4.7471469690201067</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>0.94942939380402136</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF64">
-        <v>1.0121875158590701</v>
+        <v>-0.5737975003434046</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>9.5464368197886035E-2</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AI64">
-        <v>2.39297184</v>
+        <v>1.3026136962115185</v>
       </c>
       <c r="AJ64">
-        <v>0</v>
+        <v>7.889766480857377E-2</v>
       </c>
       <c r="AK64">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL64">
-        <v>0.80418922424939965</v>
+        <v>2.4956207999999984</v>
       </c>
       <c r="AM64">
-        <v>0</v>
+        <v>0.4510360428047997</v>
       </c>
       <c r="AN64">
         <v>0</v>
       </c>
       <c r="AO64">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="AP64">
-        <v>0</v>
+        <v>4.8710528878201647</v>
       </c>
       <c r="AQ64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR64">
-        <v>1.2464743640902618</v>
+        <v>5.4119999999999999</v>
       </c>
       <c r="AS64">
-        <v>1</v>
+        <v>0.23177575369309009</v>
       </c>
       <c r="AT64">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
@@ -9969,136 +10005,136 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E65">
-        <v>4.4625575442630749</v>
+        <v>83.510311011427788</v>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>2.0167132760553788</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H65">
-        <v>0.631251000000004</v>
+        <v>-7.0300000000000011</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>9.8615434000000004</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>7.289999999999992</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>10.619030267538829</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>5.4003343808469122</v>
+        <v>-59.087598</v>
       </c>
       <c r="O65">
-        <v>1</v>
+        <v>3.7436769844595208</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>24.097129944875796</v>
+        <v>86.346859800000004</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>16.187359459846199</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65">
-        <v>1.0867908191780329</v>
+        <v>11.982088000000003</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>4.9152100352025263</v>
       </c>
       <c r="V65">
         <v>0</v>
       </c>
       <c r="W65">
-        <v>0.26983713356784012</v>
+        <v>7.48</v>
       </c>
       <c r="X65">
-        <v>1</v>
+        <v>0.19259367930223703</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65">
-        <v>0.35617946252389365</v>
+        <v>2.309034364660989</v>
       </c>
       <c r="AA65">
-        <v>7</v>
+        <v>0.41659773461009664</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AC65">
-        <v>0.66234351999999996</v>
+        <v>-4.7375489102695703</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>0.94750978205391412</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF65">
-        <v>0.40136383442810358</v>
+        <v>-0.86296934379017121</v>
       </c>
       <c r="AG65">
-        <v>10</v>
+        <v>0.22717615065451793</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AI65">
-        <v>0.53164878715036823</v>
+        <v>0.6479393964825203</v>
       </c>
       <c r="AJ65">
-        <v>4</v>
+        <v>4.9413997541154983E-2</v>
       </c>
       <c r="AK65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AL65">
-        <v>0.75680878528939977</v>
+        <v>2.7502045999999996</v>
       </c>
       <c r="AM65">
-        <v>0</v>
+        <v>0.49704722756259995</v>
       </c>
       <c r="AN65">
         <v>0</v>
       </c>
       <c r="AO65">
-        <v>0</v>
+        <v>66.64</v>
       </c>
       <c r="AP65">
-        <v>0</v>
+        <v>5.2525398777400616</v>
       </c>
       <c r="AQ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>2.7386127875258306</v>
+        <v>-50.183333333333337</v>
       </c>
       <c r="AS65">
-        <v>5</v>
+        <v>10.907871775312827</v>
       </c>
       <c r="AT65">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:46" x14ac:dyDescent="0.25">
@@ -10109,115 +10145,115 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E66">
-        <v>8.7652894441655516</v>
+        <v>88.7</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>6.3299352182001298</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>8.7393193999999852</v>
+        <v>-5.6399999999999864</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>7.9116791999999805</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>6.6300000000000097</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>9.6576365807657911</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>5.8696767465642949</v>
+        <v>-74.55</v>
       </c>
       <c r="O66">
-        <v>1</v>
+        <v>14.227494749999998</v>
       </c>
       <c r="P66">
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24.363710862875802</v>
+        <v>94.4325142</v>
       </c>
       <c r="R66">
-        <v>0</v>
+        <v>17.7031690045598</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
       <c r="T66">
-        <v>5.3751049177136349E-2</v>
+        <v>10.048651999999995</v>
       </c>
       <c r="U66">
-        <v>0</v>
+        <v>4.1220891676524074</v>
       </c>
       <c r="V66">
         <v>0</v>
       </c>
       <c r="W66">
-        <v>0.28786060622981419</v>
+        <v>8.0530000000000008</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>0.54628330800000002</v>
       </c>
       <c r="Y66">
         <v>0</v>
       </c>
       <c r="Z66">
-        <v>5.5075705472860809E-2</v>
+        <v>3.8510326049913961</v>
       </c>
       <c r="AA66">
-        <v>4</v>
+        <v>0.48041586212717508</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC66">
-        <v>0.73907844</v>
+        <v>-4.8</v>
       </c>
       <c r="AD66">
-        <v>0</v>
+        <v>0.96928320000000001</v>
       </c>
       <c r="AE66">
         <v>0</v>
       </c>
       <c r="AF66">
-        <v>0.21714113940771862</v>
+        <v>-1.7569619513137056</v>
       </c>
       <c r="AG66">
-        <v>4</v>
+        <v>0.27876727169807036</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI66">
-        <v>0.83723737685498756</v>
+        <v>-0.37927796599702324</v>
       </c>
       <c r="AJ66">
-        <v>4</v>
+        <v>4.689946047095362E-2</v>
       </c>
       <c r="AK66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL66">
-        <v>0.74672399548939983</v>
+        <v>2.9567283999999998</v>
       </c>
       <c r="AM66">
-        <v>0</v>
+        <v>0.53437248046039998</v>
       </c>
       <c r="AN66">
         <v>0</v>
@@ -10232,13 +10268,13 @@
         <v>0</v>
       </c>
       <c r="AR66">
-        <v>0</v>
+        <v>-31</v>
       </c>
       <c r="AS66">
-        <v>4</v>
+        <v>1.4311372328443748</v>
       </c>
       <c r="AT66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.25">
@@ -10249,115 +10285,115 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E67">
-        <v>13.54881438</v>
+        <v>77.779285878211255</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>11.289652223038836</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>8.472791199999989</v>
+        <v>3.1389999999999998</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>5.9300000000000068</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>8.6379766099458717</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>23.475843449999999</v>
+        <v>-79.66</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>15.202712699999998</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>25.348311811100395</v>
+        <v>100.65146460000001</v>
       </c>
       <c r="R67">
-        <v>0</v>
+        <v>18.869029417097401</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
       <c r="T67">
-        <v>1.0581382512333712</v>
+        <v>10.309695999999986</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>4.229172848595943</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
       <c r="W67">
-        <v>1.2558695750000002</v>
+        <v>8.4120000000000008</v>
       </c>
       <c r="X67">
-        <v>0</v>
+        <v>0.57063643200000003</v>
       </c>
       <c r="Y67">
         <v>0</v>
       </c>
       <c r="Z67">
-        <v>1.2838945315165156</v>
+        <v>4.2356685525576738</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>0.14754694795495324</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67">
-        <v>0.73302042000000001</v>
+        <v>-4.2</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>0.84812280000000007</v>
       </c>
       <c r="AE67">
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>0.14303515418375298</v>
+        <v>-2</v>
       </c>
       <c r="AG67">
-        <v>7</v>
+        <v>0.31732875204227629</v>
       </c>
       <c r="AH67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI67">
-        <v>7.1528670243570947E-3</v>
+        <v>-1.3958411066867862</v>
       </c>
       <c r="AJ67">
-        <v>3</v>
+        <v>0.20844345466840553</v>
       </c>
       <c r="AK67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL67">
-        <v>0.80041624774719966</v>
+        <v>3.2624221999999987</v>
       </c>
       <c r="AM67">
-        <v>0</v>
+        <v>0.58962082662819981</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -10372,132 +10408,132 @@
         <v>0</v>
       </c>
       <c r="AR67">
-        <v>3.5355339059327378</v>
+        <v>-54.6</v>
       </c>
       <c r="AS67">
-        <v>2</v>
+        <v>11.3929802949009</v>
       </c>
       <c r="AT67">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B68">
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="D68" t="s">
-        <v>160</v>
+        <v>187</v>
       </c>
       <c r="E68">
-        <v>77.099999999999994</v>
+        <v>94.398029513874349</v>
       </c>
       <c r="F68">
-        <v>5.5021195639597513</v>
+        <v>2.7191972778775324</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H68">
-        <v>7.374634427559954</v>
+        <v>-1.081</v>
       </c>
       <c r="I68">
-        <v>10.344989682292551</v>
+        <v>0.2162</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>6.0300000000000011</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>8.7836423200629934</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>65.7</v>
+        <v>-69.222363999999999</v>
       </c>
       <c r="O68">
-        <v>4.1626261043644135</v>
+        <v>4.3857963377810565</v>
       </c>
       <c r="P68">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>62.918134400000007</v>
+        <v>100.7339346</v>
       </c>
       <c r="R68">
-        <v>11.795199737833601</v>
+        <v>18.884489985527399</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68">
-        <v>-4.7459759999999971</v>
+        <v>9.8848959999999888</v>
       </c>
       <c r="U68">
-        <v>1.9468617541475512</v>
+        <v>4.0549143034280206</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
       <c r="W68">
-        <v>7.4756656115367477</v>
+        <v>8.66</v>
       </c>
       <c r="X68">
-        <v>0.19248207825656016</v>
+        <v>0.22297610464670758</v>
       </c>
       <c r="Y68">
         <v>1</v>
       </c>
       <c r="Z68">
-        <v>3.2034298799999998</v>
+        <v>4.4422553262077491</v>
       </c>
       <c r="AA68">
-        <v>0.47526085699679993</v>
+        <v>0.28331014372467622</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC68">
-        <v>-4.6116239999999991</v>
+        <v>-4.1308496465690387</v>
       </c>
       <c r="AD68">
-        <v>0.9705992800319998</v>
+        <v>0.82616992931380784</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF68">
-        <v>-0.83534495289423183</v>
+        <v>-2.3350542131060088</v>
       </c>
       <c r="AG68">
-        <v>0.13253948571337032</v>
+        <v>0.13346437472296552</v>
       </c>
       <c r="AH68">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI68">
-        <v>0.20717968999999953</v>
+        <v>-1.3998152287306809</v>
       </c>
       <c r="AJ68">
-        <v>6.2769437858989849E-2</v>
+        <v>6.8688215356957738E-2</v>
       </c>
       <c r="AK68">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL68">
-        <v>2.3943827999999989</v>
+        <v>3.2098221999999987</v>
       </c>
       <c r="AM68">
-        <v>0.43273919782679982</v>
+        <v>0.58011437602819982</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -10512,272 +10548,272 @@
         <v>0</v>
       </c>
       <c r="AR68">
-        <v>51.5</v>
+        <v>-35</v>
       </c>
       <c r="AS68">
-        <v>2.1213203435596424</v>
+        <v>0</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B69">
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="E69">
-        <v>79.976666666666674</v>
+        <v>96.432000000000002</v>
       </c>
       <c r="F69">
-        <v>7.7949748770174621</v>
+        <v>12.116981802412674</v>
       </c>
       <c r="G69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H69">
-        <v>12.407421093848001</v>
+        <v>4.5799999999999983</v>
       </c>
       <c r="I69">
-        <v>17.404882162028098</v>
+        <v>6.4247323999999972</v>
       </c>
       <c r="J69">
         <v>0</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>11.289092534077643</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>75.3</v>
+        <v>-76.272636000000006</v>
       </c>
       <c r="O69">
-        <v>4.7708637086551038</v>
+        <v>4.832488061830821</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>70.401418300000003</v>
+        <v>114.1820809</v>
       </c>
       <c r="R69">
-        <v>13.1980834872827</v>
+        <v>21.4056005242421</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69">
-        <v>-11.785092000000001</v>
+        <v>5.5415839999999914</v>
       </c>
       <c r="U69">
-        <v>4.8343996859466394</v>
+        <v>2.2732306162096045</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
-        <v>9.062289783061221</v>
+        <v>9.66</v>
       </c>
       <c r="X69">
-        <v>0.23333418879984386</v>
+        <v>0.24872392273524194</v>
       </c>
       <c r="Y69">
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>3.4536576318955827</v>
+        <v>4.5386669822446644</v>
       </c>
       <c r="AA69">
-        <v>0.12659127947609147</v>
+        <v>0.4185329646809503</v>
       </c>
       <c r="AB69">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AC69">
-        <v>-4.6387730000000005</v>
+        <v>-5.64</v>
       </c>
       <c r="AD69">
-        <v>0.97631327576400007</v>
+        <v>1.1389077599999999</v>
       </c>
       <c r="AE69">
         <v>0</v>
       </c>
       <c r="AF69">
-        <v>-2.4901757792294523</v>
+        <v>-3.4028429570900025</v>
       </c>
       <c r="AG69">
-        <v>0.15804862177910686</v>
+        <v>0.56113384528000032</v>
       </c>
       <c r="AH69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI69">
-        <v>-0.99160050980834902</v>
+        <v>-2.196787626474034</v>
       </c>
       <c r="AJ69">
-        <v>0.18611663456422731</v>
+        <v>0.29807311025252042</v>
       </c>
       <c r="AK69">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL69">
-        <v>2.4676880999999993</v>
+        <v>2.7457662999999988</v>
       </c>
       <c r="AM69">
-        <v>0.44598773800109986</v>
+        <v>0.4962450891652998</v>
       </c>
       <c r="AN69">
         <v>0</v>
       </c>
       <c r="AO69">
-        <v>64.656964656964661</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>5.096237773624499</v>
+        <v>0</v>
       </c>
       <c r="AQ69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR69">
-        <v>63.741666666666667</v>
+        <v>-35</v>
       </c>
       <c r="AS69">
-        <v>0.94995613933837286</v>
+        <v>0</v>
       </c>
       <c r="AT69">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B70">
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>162</v>
+        <v>189</v>
       </c>
       <c r="E70">
-        <v>65.7</v>
+        <v>141.63999999999999</v>
       </c>
       <c r="F70">
-        <v>4.688576593413174</v>
+        <v>14.879848559999997</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>-2.362202987335948</v>
+        <v>12.97999999999999</v>
       </c>
       <c r="I70">
-        <v>3.3136511065751209</v>
+        <v>18.208084399999983</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>6.5999999999999943</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>9.6139368677306294</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>64.900000000000006</v>
+        <v>-135.04</v>
       </c>
       <c r="O70">
-        <v>4.11193963734019</v>
+        <v>25.771708799999995</v>
       </c>
       <c r="P70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>80.724194100000005</v>
+        <v>129.42021819999999</v>
       </c>
       <c r="R70">
-        <v>15.1332839437329</v>
+        <v>24.2622788857358</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70">
-        <v>-7.3026040000000041</v>
+        <v>-22.272568000000003</v>
       </c>
       <c r="U70">
-        <v>2.9956241736757501</v>
+        <v>9.1365002279511423</v>
       </c>
       <c r="V70">
         <v>0</v>
       </c>
       <c r="W70">
-        <v>8.5342489113816207</v>
+        <v>16.864000000000001</v>
       </c>
       <c r="X70">
-        <v>0.21973828849252638</v>
+        <v>1.143986304</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>5.1021482939458087</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA70">
-        <v>1.5306444881837427</v>
+        <v>0.69146320276503692</v>
       </c>
       <c r="AB70">
         <v>1</v>
       </c>
       <c r="AC70">
-        <v>-3.1825809999999994</v>
+        <v>-3.12</v>
       </c>
       <c r="AD70">
-        <v>0.66983145790799981</v>
+        <v>0.63003408000000005</v>
       </c>
       <c r="AE70">
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>-2.1437560717924429</v>
+        <v>-6.5403690608624325</v>
       </c>
       <c r="AG70">
-        <v>0.57534852774613077</v>
+        <v>1.0121875158590701</v>
       </c>
       <c r="AH70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI70">
-        <v>-1.9385377595649462</v>
+        <v>-8.68</v>
       </c>
       <c r="AJ70">
-        <v>0.23970908720513637</v>
+        <v>2.39297184</v>
       </c>
       <c r="AK70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL70">
-        <v>3.2429456999999982</v>
+        <v>4.4496473999999981</v>
       </c>
       <c r="AM70">
-        <v>0.58610081930669966</v>
+        <v>0.80418922424939965</v>
       </c>
       <c r="AN70">
         <v>0</v>
@@ -10792,10 +10828,10 @@
         <v>0</v>
       </c>
       <c r="AR70">
-        <v>70.400000000000006</v>
+        <v>-27</v>
       </c>
       <c r="AS70">
-        <v>3.2500664900723866</v>
+        <v>1.2464743640902618</v>
       </c>
       <c r="AT70">
         <v>1</v>
@@ -10803,121 +10839,121 @@
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B71">
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>71</v>
+        <v>212</v>
       </c>
       <c r="D71" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="E71">
-        <v>95.3</v>
+        <v>112.20803244366759</v>
       </c>
       <c r="F71">
-        <v>6.8009337800955159</v>
+        <v>4.4625575442630749</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H71">
-        <v>11.791564401960017</v>
+        <v>0.45000000000000284</v>
       </c>
       <c r="I71">
-        <v>16.540970711781473</v>
+        <v>0.631251000000004</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>5.4299999999999926</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>7.9096480593601957</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>82.9</v>
+        <v>-85.235128000000003</v>
       </c>
       <c r="O71">
-        <v>5.2523851453852348</v>
+        <v>5.4003343808469122</v>
       </c>
       <c r="P71">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>80.665976700000002</v>
+        <v>128.53927819999998</v>
       </c>
       <c r="R71">
-        <v>15.1223699859723</v>
+        <v>24.097129944875796</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
       <c r="T71">
-        <v>-11.64974799999999</v>
+        <v>2.6493320000000207</v>
       </c>
       <c r="U71">
-        <v>4.7788797976763728</v>
+        <v>1.0867908191780329</v>
       </c>
       <c r="V71">
         <v>0</v>
       </c>
       <c r="W71">
-        <v>8.4929739722986248</v>
+        <v>10.48</v>
       </c>
       <c r="X71">
-        <v>0.21867554886940208</v>
+        <v>0.26983713356784012</v>
       </c>
       <c r="Y71">
         <v>1</v>
       </c>
       <c r="Z71">
-        <v>6.4226390597038554</v>
+        <v>7.5961428571428575</v>
       </c>
       <c r="AA71">
-        <v>1.2845278119407713</v>
+        <v>0.35617946252389365</v>
       </c>
       <c r="AB71">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AC71">
-        <v>-2.8134969999999999</v>
+        <v>-3.28</v>
       </c>
       <c r="AD71">
-        <v>0.59215108659599991</v>
+        <v>0.66234351999999996</v>
       </c>
       <c r="AE71">
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>-1.8907497643218214</v>
+        <v>-4.6359639287313668</v>
       </c>
       <c r="AG71">
-        <v>9.4527481783361011E-2</v>
+        <v>0.40136383442810358</v>
       </c>
       <c r="AH71">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AI71">
-        <v>-2.8168194218021276</v>
+        <v>-3.4780745027655433</v>
       </c>
       <c r="AJ71">
-        <v>0.34831264394531203</v>
+        <v>0.53164878715036823</v>
       </c>
       <c r="AK71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL71">
-        <v>3.647892699999999</v>
+        <v>4.1874873999999984</v>
       </c>
       <c r="AM71">
-        <v>0.6592872955636998</v>
+        <v>0.75680878528939977</v>
       </c>
       <c r="AN71">
         <v>0</v>
@@ -10932,132 +10968,132 @@
         <v>0</v>
       </c>
       <c r="AR71">
-        <v>-20</v>
+        <v>-53</v>
       </c>
       <c r="AS71">
-        <v>6</v>
+        <v>2.7386127875258306</v>
       </c>
       <c r="AT71">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>72</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="E72">
-        <v>94.890864162898467</v>
+        <v>117.3274</v>
       </c>
       <c r="F72">
-        <v>6.7717364481417759</v>
+        <v>8.7652894441655516</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H72">
-        <v>14.364364347839867</v>
+        <v>6.2299999999999898</v>
       </c>
       <c r="I72">
-        <v>20.150043019862807</v>
+        <v>8.7393193999999852</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>0</v>
+        <v>5.8299999999999983</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>8.4923108998287269</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>-110.07866029979206</v>
+        <v>-92.642902000000007</v>
       </c>
       <c r="O72">
-        <v>18.278671621440772</v>
+        <v>5.8696767465642949</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
-        <v>113.09291160000001</v>
+        <v>129.96127820000001</v>
       </c>
       <c r="R72">
-        <v>21.201415044740401</v>
+        <v>24.363710862875802</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72">
-        <v>-7.3122039999999959</v>
+        <v>0.13103200000002402</v>
       </c>
       <c r="U72">
-        <v>2.9995622198942309</v>
+        <v>5.3751049177136349E-2</v>
       </c>
       <c r="V72">
         <v>0</v>
       </c>
       <c r="W72">
-        <v>12.639320878301151</v>
+        <v>11.18</v>
       </c>
       <c r="X72">
-        <v>1.0364369513415728</v>
+        <v>0.28786060622981419</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z72">
-        <v>6.089186783305113</v>
+        <v>8.125</v>
       </c>
       <c r="AA72">
-        <v>1.2178373566610228</v>
+        <v>5.5075705472860809E-2</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AC72">
-        <v>-5.8832059999999995</v>
+        <v>-3.66</v>
       </c>
       <c r="AD72">
-        <v>1.2382266004079998</v>
+        <v>0.73907844</v>
       </c>
       <c r="AE72">
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>-9.755026966610103</v>
+        <v>-5.2448925746858528</v>
       </c>
       <c r="AG72">
-        <v>1.5477752667265681</v>
+        <v>0.21714113940771862</v>
       </c>
       <c r="AH72">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI72">
-        <v>-4.1239577006727393</v>
+        <v>-5.5036251812831916</v>
       </c>
       <c r="AJ72">
-        <v>0.22861214103520214</v>
+        <v>0.83723737685498756</v>
       </c>
       <c r="AK72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL72">
-        <v>3.0572181999999977</v>
+        <v>4.1316873999999988</v>
       </c>
       <c r="AM72">
-        <v>0.55253410250419954</v>
+        <v>0.74672399548939983</v>
       </c>
       <c r="AN72">
         <v>0</v>
@@ -11072,132 +11108,132 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>-9.9</v>
+        <v>-25</v>
       </c>
       <c r="AS72">
-        <v>2.97</v>
+        <v>0</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="D73" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="E73">
-        <v>95.314065814702502</v>
+        <v>128.97</v>
       </c>
       <c r="F73">
-        <v>6.8019375647162388</v>
+        <v>13.54881438</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>13.321313130624034</v>
+        <v>6.039999999999992</v>
       </c>
       <c r="I73">
-        <v>18.686871633376782</v>
+        <v>8.472791199999989</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>5.9599999999999937</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>8.6816763229809908</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>-77.583805094615741</v>
+        <v>-123.01</v>
       </c>
       <c r="O73">
-        <v>12.882868419766039</v>
+        <v>23.475843449999999</v>
       </c>
       <c r="P73">
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>77.906984800000004</v>
+        <v>135.21335159999998</v>
       </c>
       <c r="R73">
-        <v>14.605144533471201</v>
+        <v>25.348311811100395</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73">
-        <v>-10.924632000000004</v>
+        <v>-2.5794840000000026</v>
       </c>
       <c r="U73">
-        <v>4.4814276808261342</v>
+        <v>1.0581382512333712</v>
       </c>
       <c r="V73">
         <v>0</v>
       </c>
       <c r="W73">
-        <v>8.2228855706999919</v>
+        <v>13.57</v>
       </c>
       <c r="X73">
-        <v>0.67428483968297004</v>
+        <v>1.2558695750000002</v>
       </c>
       <c r="Y73">
         <v>0</v>
       </c>
       <c r="Z73">
-        <v>6.4362128672865646</v>
+        <v>7.4342989408727043</v>
       </c>
       <c r="AA73">
-        <v>1.9308638601859693</v>
+        <v>1.2838945315165156</v>
       </c>
       <c r="AB73">
         <v>1</v>
       </c>
       <c r="AC73">
-        <v>-2.5275280000000002</v>
+        <v>-3.63</v>
       </c>
       <c r="AD73">
-        <v>0.53196376310400006</v>
+        <v>0.73302042000000001</v>
       </c>
       <c r="AE73">
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>-1.2839966563652008</v>
+        <v>-3.8839740178332058</v>
       </c>
       <c r="AG73">
-        <v>0.20372452829541232</v>
+        <v>0.14303515418375298</v>
       </c>
       <c r="AH73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI73">
-        <v>-2.6450973005369249</v>
+        <v>-5.8270387665542565</v>
       </c>
       <c r="AJ73">
-        <v>0.32707841585854547</v>
+        <v>7.1528670243570947E-3</v>
       </c>
       <c r="AK73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL73">
-        <v>3.7626205999999982</v>
+        <v>4.4287711999999981</v>
       </c>
       <c r="AM73">
-        <v>0.68002218365859968</v>
+        <v>0.80041624774719966</v>
       </c>
       <c r="AN73">
         <v>0</v>
@@ -11212,13 +11248,13 @@
         <v>0</v>
       </c>
       <c r="AR73">
-        <v>-20</v>
+        <v>-45.5</v>
       </c>
       <c r="AS73">
-        <v>6</v>
+        <v>3.5355339059327378</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
@@ -11229,118 +11265,118 @@
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E74">
-        <v>109.20942995680001</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F74">
-        <v>19.497050320757548</v>
+        <v>5.5021195639597513</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>3.8691312060082481</v>
+        <v>7.374634427559954</v>
       </c>
       <c r="I74">
-        <v>5.4275398731642497</v>
+        <v>10.344989682292551</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>0</v>
+        <v>5.9957474500716899</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>8.7337480999766939</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>-99.692940717856132</v>
+        <v>-65.7</v>
       </c>
       <c r="O74">
-        <v>16.554112499140729</v>
+        <v>4.1626261043644135</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>111.53555650000001</v>
+        <v>62.918134400000007</v>
       </c>
       <c r="R74">
-        <v>20.909459241498503</v>
+        <v>11.795199737833601</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74">
-        <v>3.0459800000000197</v>
+        <v>-4.7459759999999971</v>
       </c>
       <c r="U74">
-        <v>1.2495010438102512</v>
+        <v>1.9468617541475512</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
       <c r="W74">
-        <v>11.674199918450622</v>
+        <v>7.4756656115367477</v>
       </c>
       <c r="X74">
-        <v>0.95729606751286955</v>
+        <v>0.19248207825656016</v>
       </c>
       <c r="Y74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z74">
-        <v>4.7695797400000002</v>
+        <v>3.2034298799999998</v>
       </c>
       <c r="AA74">
-        <v>0.70761485022640003</v>
+        <v>0.47526085699679993</v>
       </c>
       <c r="AB74">
         <v>0</v>
       </c>
       <c r="AC74">
-        <v>-7.4751449999999995</v>
+        <v>-4.6116239999999991</v>
       </c>
       <c r="AD74">
-        <v>1.5732788178599999</v>
+        <v>0.9705992800319998</v>
       </c>
       <c r="AE74">
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>-4.8499999999999996</v>
+        <v>-0.83534495289423183</v>
       </c>
       <c r="AG74">
-        <v>0.76952222370251988</v>
+        <v>0.13253948571337032</v>
       </c>
       <c r="AH74">
         <v>1</v>
       </c>
       <c r="AI74">
-        <v>-4.0495573269641527</v>
+        <v>0.20717968999999953</v>
       </c>
       <c r="AJ74">
-        <v>0.50074634122644102</v>
+        <v>6.2769437858989849E-2</v>
       </c>
       <c r="AK74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL74">
-        <v>2.0133316945093855</v>
+        <v>2.3943827999999989</v>
       </c>
       <c r="AM74">
-        <v>0.40266633890187714</v>
+        <v>0.43273919782679982</v>
       </c>
       <c r="AN74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO74">
         <v>0</v>
@@ -11352,13 +11388,13 @@
         <v>0</v>
       </c>
       <c r="AR74">
-        <v>39.783333333333331</v>
+        <v>51.5</v>
       </c>
       <c r="AS74">
-        <v>68.339020088575069</v>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AT74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
@@ -11369,135 +11405,975 @@
         <v>74</v>
       </c>
       <c r="C75" t="s">
+        <v>69</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75">
+        <v>79.976666666666674</v>
+      </c>
+      <c r="F75">
+        <v>7.7949748770174621</v>
+      </c>
+      <c r="G75">
+        <v>3</v>
+      </c>
+      <c r="H75">
+        <v>12.407421093848001</v>
+      </c>
+      <c r="I75">
+        <v>17.404882162028098</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>8.2113004094161113</v>
+      </c>
+      <c r="L75">
+        <v>11.961049051226853</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>-75.3</v>
+      </c>
+      <c r="O75">
+        <v>4.7708637086551038</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>70.401418300000003</v>
+      </c>
+      <c r="R75">
+        <v>13.1980834872827</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>-11.785092000000001</v>
+      </c>
+      <c r="U75">
+        <v>4.8343996859466394</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>9.062289783061221</v>
+      </c>
+      <c r="X75">
+        <v>0.23333418879984386</v>
+      </c>
+      <c r="Y75">
+        <v>1</v>
+      </c>
+      <c r="Z75">
+        <v>3.4536576318955827</v>
+      </c>
+      <c r="AA75">
+        <v>0.12659127947609147</v>
+      </c>
+      <c r="AB75">
+        <v>3</v>
+      </c>
+      <c r="AC75">
+        <v>-4.6387730000000005</v>
+      </c>
+      <c r="AD75">
+        <v>0.97631327576400007</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>-2.4901757792294523</v>
+      </c>
+      <c r="AG75">
+        <v>0.15804862177910686</v>
+      </c>
+      <c r="AH75">
+        <v>3</v>
+      </c>
+      <c r="AI75">
+        <v>-0.99160050980834902</v>
+      </c>
+      <c r="AJ75">
+        <v>0.18611663456422731</v>
+      </c>
+      <c r="AK75">
+        <v>2</v>
+      </c>
+      <c r="AL75">
+        <v>2.4676880999999993</v>
+      </c>
+      <c r="AM75">
+        <v>0.44598773800109986</v>
+      </c>
+      <c r="AN75">
+        <v>0</v>
+      </c>
+      <c r="AO75">
+        <v>64.656964656964661</v>
+      </c>
+      <c r="AP75">
+        <v>5.096237773624499</v>
+      </c>
+      <c r="AQ75">
+        <v>1</v>
+      </c>
+      <c r="AR75">
+        <v>63.741666666666667</v>
+      </c>
+      <c r="AS75">
+        <v>0.94995613933837286</v>
+      </c>
+      <c r="AT75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76">
         <v>75</v>
       </c>
-      <c r="D75" t="s">
+      <c r="C76" t="s">
+        <v>70</v>
+      </c>
+      <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76">
+        <v>65.7</v>
+      </c>
+      <c r="F76">
+        <v>4.688576593413174</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>-2.362202987335948</v>
+      </c>
+      <c r="I76">
+        <v>3.3136511065751209</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>4.3645426961598588</v>
+      </c>
+      <c r="L76">
+        <v>6.3576421117266282</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>-64.900000000000006</v>
+      </c>
+      <c r="O76">
+        <v>4.11193963734019</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>80.724194100000005</v>
+      </c>
+      <c r="R76">
+        <v>15.1332839437329</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>-7.3026040000000041</v>
+      </c>
+      <c r="U76">
+        <v>2.9956241736757501</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>8.5342489113816207</v>
+      </c>
+      <c r="X76">
+        <v>0.21973828849252638</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76">
+        <v>5.1021482939458087</v>
+      </c>
+      <c r="AA76">
+        <v>1.5306444881837427</v>
+      </c>
+      <c r="AB76">
+        <v>1</v>
+      </c>
+      <c r="AC76">
+        <v>-3.1825809999999994</v>
+      </c>
+      <c r="AD76">
+        <v>0.66983145790799981</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>-2.1437560717924429</v>
+      </c>
+      <c r="AG76">
+        <v>0.57534852774613077</v>
+      </c>
+      <c r="AH76">
+        <v>2</v>
+      </c>
+      <c r="AI76">
+        <v>-1.9385377595649462</v>
+      </c>
+      <c r="AJ76">
+        <v>0.23970908720513637</v>
+      </c>
+      <c r="AK76">
+        <v>1</v>
+      </c>
+      <c r="AL76">
+        <v>3.2429456999999982</v>
+      </c>
+      <c r="AM76">
+        <v>0.58610081930669966</v>
+      </c>
+      <c r="AN76">
+        <v>0</v>
+      </c>
+      <c r="AO76">
+        <v>0</v>
+      </c>
+      <c r="AP76">
+        <v>0</v>
+      </c>
+      <c r="AQ76">
+        <v>0</v>
+      </c>
+      <c r="AR76">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="AS76">
+        <v>3.2500664900723866</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77" t="s">
+        <v>71</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77">
+        <v>95.3</v>
+      </c>
+      <c r="F77">
+        <v>6.8009337800955159</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>11.791564401960017</v>
+      </c>
+      <c r="I77">
+        <v>16.540970711781473</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>5.9286749301441262</v>
+      </c>
+      <c r="L77">
+        <v>8.6360464375307551</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>-82.9</v>
+      </c>
+      <c r="O77">
+        <v>5.2523851453852348</v>
+      </c>
+      <c r="P77">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>80.665976700000002</v>
+      </c>
+      <c r="R77">
+        <v>15.1223699859723</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>-11.64974799999999</v>
+      </c>
+      <c r="U77">
+        <v>4.7788797976763728</v>
+      </c>
+      <c r="V77">
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <v>8.4929739722986248</v>
+      </c>
+      <c r="X77">
+        <v>0.21867554886940208</v>
+      </c>
+      <c r="Y77">
+        <v>1</v>
+      </c>
+      <c r="Z77">
+        <v>6.4226390597038554</v>
+      </c>
+      <c r="AA77">
+        <v>1.2845278119407713</v>
+      </c>
+      <c r="AB77">
+        <v>1</v>
+      </c>
+      <c r="AC77">
+        <v>-2.8134969999999999</v>
+      </c>
+      <c r="AD77">
+        <v>0.59215108659599991</v>
+      </c>
+      <c r="AE77">
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <v>-1.8907497643218214</v>
+      </c>
+      <c r="AG77">
+        <v>9.4527481783361011E-2</v>
+      </c>
+      <c r="AH77">
+        <v>2</v>
+      </c>
+      <c r="AI77">
+        <v>-2.8168194218021276</v>
+      </c>
+      <c r="AJ77">
+        <v>0.34831264394531203</v>
+      </c>
+      <c r="AK77">
+        <v>1</v>
+      </c>
+      <c r="AL77">
+        <v>3.647892699999999</v>
+      </c>
+      <c r="AM77">
+        <v>0.6592872955636998</v>
+      </c>
+      <c r="AN77">
+        <v>0</v>
+      </c>
+      <c r="AO77">
+        <v>0</v>
+      </c>
+      <c r="AP77">
+        <v>0</v>
+      </c>
+      <c r="AQ77">
+        <v>0</v>
+      </c>
+      <c r="AR77">
+        <v>-20</v>
+      </c>
+      <c r="AS77">
+        <v>6</v>
+      </c>
+      <c r="AT77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78">
+        <v>94.890864162898467</v>
+      </c>
+      <c r="F78">
+        <v>6.7717364481417759</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>14.364364347839867</v>
+      </c>
+      <c r="I78">
+        <v>20.150043019862807</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>8.9664609587679394</v>
+      </c>
+      <c r="L78">
+        <v>13.061059027964621</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>-110.07866029979206</v>
+      </c>
+      <c r="O78">
+        <v>18.278671621440772</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>113.09291160000001</v>
+      </c>
+      <c r="R78">
+        <v>21.201415044740401</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>-7.3122039999999959</v>
+      </c>
+      <c r="U78">
+        <v>2.9995622198942309</v>
+      </c>
+      <c r="V78">
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <v>12.639320878301151</v>
+      </c>
+      <c r="X78">
+        <v>1.0364369513415728</v>
+      </c>
+      <c r="Y78">
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <v>6.089186783305113</v>
+      </c>
+      <c r="AA78">
+        <v>1.2178373566610228</v>
+      </c>
+      <c r="AB78">
+        <v>1</v>
+      </c>
+      <c r="AC78">
+        <v>-5.8832059999999995</v>
+      </c>
+      <c r="AD78">
+        <v>1.2382266004079998</v>
+      </c>
+      <c r="AE78">
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <v>-9.755026966610103</v>
+      </c>
+      <c r="AG78">
+        <v>1.5477752667265681</v>
+      </c>
+      <c r="AH78">
+        <v>1</v>
+      </c>
+      <c r="AI78">
+        <v>-4.1239577006727393</v>
+      </c>
+      <c r="AJ78">
+        <v>0.22861214103520214</v>
+      </c>
+      <c r="AK78">
+        <v>2</v>
+      </c>
+      <c r="AL78">
+        <v>3.0572181999999977</v>
+      </c>
+      <c r="AM78">
+        <v>0.55253410250419954</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>0</v>
+      </c>
+      <c r="AP78">
+        <v>0</v>
+      </c>
+      <c r="AQ78">
+        <v>0</v>
+      </c>
+      <c r="AR78">
+        <v>-9.9</v>
+      </c>
+      <c r="AS78">
+        <v>2.97</v>
+      </c>
+      <c r="AT78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>165</v>
+      </c>
+      <c r="E79">
+        <v>95.314065814702502</v>
+      </c>
+      <c r="F79">
+        <v>6.8019375647162388</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>13.321313130624034</v>
+      </c>
+      <c r="I79">
+        <v>18.686871633376782</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>5.7726576913842678</v>
+      </c>
+      <c r="L79">
+        <v>8.4087828187860669</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>-77.583805094615741</v>
+      </c>
+      <c r="O79">
+        <v>12.882868419766039</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>77.906984800000004</v>
+      </c>
+      <c r="R79">
+        <v>14.605144533471201</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>-10.924632000000004</v>
+      </c>
+      <c r="U79">
+        <v>4.4814276808261342</v>
+      </c>
+      <c r="V79">
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <v>8.2228855706999919</v>
+      </c>
+      <c r="X79">
+        <v>0.67428483968297004</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>6.4362128672865646</v>
+      </c>
+      <c r="AA79">
+        <v>1.9308638601859693</v>
+      </c>
+      <c r="AB79">
+        <v>1</v>
+      </c>
+      <c r="AC79">
+        <v>-2.5275280000000002</v>
+      </c>
+      <c r="AD79">
+        <v>0.53196376310400006</v>
+      </c>
+      <c r="AE79">
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <v>-1.2839966563652008</v>
+      </c>
+      <c r="AG79">
+        <v>0.20372452829541232</v>
+      </c>
+      <c r="AH79">
+        <v>1</v>
+      </c>
+      <c r="AI79">
+        <v>-2.6450973005369249</v>
+      </c>
+      <c r="AJ79">
+        <v>0.32707841585854547</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>3.7626205999999982</v>
+      </c>
+      <c r="AM79">
+        <v>0.68002218365859968</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>-20</v>
+      </c>
+      <c r="AS79">
+        <v>6</v>
+      </c>
+      <c r="AT79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E80">
+        <v>109.20942995680001</v>
+      </c>
+      <c r="F80">
+        <v>19.497050320757548</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>3.8691312060082481</v>
+      </c>
+      <c r="I80">
+        <v>5.4275398731642497</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>9.5164892389438762</v>
+      </c>
+      <c r="L80">
+        <v>13.862261628127941</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>-99.692940717856132</v>
+      </c>
+      <c r="O80">
+        <v>16.554112499140729</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>111.53555650000001</v>
+      </c>
+      <c r="R80">
+        <v>20.909459241498503</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>3.0459800000000197</v>
+      </c>
+      <c r="U80">
+        <v>1.2495010438102512</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>11.674199918450622</v>
+      </c>
+      <c r="X80">
+        <v>0.95729606751286955</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>4.7695797400000002</v>
+      </c>
+      <c r="AA80">
+        <v>0.70761485022640003</v>
+      </c>
+      <c r="AB80">
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <v>-7.4751449999999995</v>
+      </c>
+      <c r="AD80">
+        <v>1.5732788178599999</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="AG80">
+        <v>0.76952222370251988</v>
+      </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>-4.0495573269641527</v>
+      </c>
+      <c r="AJ80">
+        <v>0.50074634122644102</v>
+      </c>
+      <c r="AK80">
+        <v>1</v>
+      </c>
+      <c r="AL80">
+        <v>2.0133316945093855</v>
+      </c>
+      <c r="AM80">
+        <v>0.40266633890187714</v>
+      </c>
+      <c r="AN80">
+        <v>1</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>39.783333333333331</v>
+      </c>
+      <c r="AS80">
+        <v>68.339020088575069</v>
+      </c>
+      <c r="AT80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" t="s">
         <v>167</v>
       </c>
-      <c r="E75">
+      <c r="E81">
         <v>110.96000000000001</v>
       </c>
-      <c r="F75">
+      <c r="F81">
         <v>9.9560634791065876</v>
       </c>
-      <c r="G75">
-        <v>2</v>
-      </c>
-      <c r="H75">
+      <c r="G81">
+        <v>2</v>
+      </c>
+      <c r="H81">
         <v>6.0135759891440017</v>
       </c>
-      <c r="I75">
+      <c r="I81">
         <v>8.4357241260514222</v>
       </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>101.7366255</v>
-      </c>
-      <c r="O75">
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>6.4736074288558285</v>
+      </c>
+      <c r="L81">
+        <v>9.4298262314381809</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>-101.7366255</v>
+      </c>
+      <c r="O81">
         <v>20.17145766310653</v>
       </c>
-      <c r="P75">
-        <v>2</v>
-      </c>
-      <c r="Q75">
+      <c r="P81">
+        <v>2</v>
+      </c>
+      <c r="Q81">
         <v>95.871147899999997</v>
       </c>
-      <c r="R75">
+      <c r="R81">
         <v>17.972868225665099</v>
       </c>
-      <c r="S75">
-        <v>0</v>
-      </c>
-      <c r="T75">
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
         <v>2.0442639999999894</v>
       </c>
-      <c r="U75">
+      <c r="U81">
         <v>0.8385839702899196</v>
       </c>
-      <c r="V75">
-        <v>0</v>
-      </c>
-      <c r="W75">
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
         <v>10.330951337636964</v>
       </c>
-      <c r="X75">
+      <c r="X81">
         <v>1.3307061432192995</v>
       </c>
-      <c r="Y75">
-        <v>2</v>
-      </c>
-      <c r="Z75">
+      <c r="Y81">
+        <v>2</v>
+      </c>
+      <c r="Z81">
         <v>6.0022541387692874</v>
       </c>
-      <c r="AA75">
+      <c r="AA81">
         <v>1.2004508277538575</v>
       </c>
-      <c r="AB75">
-        <v>1</v>
-      </c>
-      <c r="AC75">
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
         <v>-3.6227189999999996</v>
       </c>
-      <c r="AD75">
+      <c r="AD81">
         <v>0.76246642249199992</v>
       </c>
-      <c r="AE75">
-        <v>0</v>
-      </c>
-      <c r="AF75">
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
         <v>-4.0845351391156468</v>
       </c>
-      <c r="AG75">
+      <c r="AG81">
         <v>0.98176864457868018</v>
       </c>
-      <c r="AH75">
-        <v>2</v>
-      </c>
-      <c r="AI75">
+      <c r="AH81">
+        <v>2</v>
+      </c>
+      <c r="AI81">
         <v>-3.3038705028971718</v>
       </c>
-      <c r="AJ75">
+      <c r="AJ81">
         <v>0.76711407451090985</v>
       </c>
-      <c r="AK75">
-        <v>2</v>
-      </c>
-      <c r="AL75">
+      <c r="AK81">
+        <v>2</v>
+      </c>
+      <c r="AL81">
         <v>3.5162542999999982</v>
       </c>
-      <c r="AM75">
+      <c r="AM81">
         <v>0.63549615589329966</v>
       </c>
-      <c r="AN75">
-        <v>0</v>
-      </c>
-      <c r="AO75">
-        <v>0</v>
-      </c>
-      <c r="AP75">
-        <v>0</v>
-      </c>
-      <c r="AQ75">
-        <v>0</v>
-      </c>
-      <c r="AR75">
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
         <v>-68.3</v>
       </c>
-      <c r="AS75">
+      <c r="AS81">
         <v>3.1531184839764772</v>
       </c>
-      <c r="AT75">
+      <c r="AT81">
         <v>1</v>
       </c>
     </row>

--- a/LDVMDV_Data.xlsx
+++ b/LDVMDV_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\Bayesian_FAV_Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bayesian_FAV_Tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0219B918-3E60-42A7-AC8F-563E5C079E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEDBF496-C6ED-4B17-B1DF-2E8D46822E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-3230" windowWidth="38620" windowHeight="21220" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
+    <workbookView xWindow="-38505" yWindow="-3225" windowWidth="38625" windowHeight="21225" xr2:uid="{DCE33827-4322-4BD1-9624-0366949F140D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="220">
   <si>
     <t>Class</t>
   </si>
@@ -666,6 +658,33 @@
   </si>
   <si>
     <t>Diisononyl phthalate</t>
+  </si>
+  <si>
+    <t>TEP</t>
+  </si>
+  <si>
+    <t>TPrP</t>
+  </si>
+  <si>
+    <t>phenanthrene</t>
+  </si>
+  <si>
+    <t>PFC</t>
+  </si>
+  <si>
+    <t>PFOA</t>
+  </si>
+  <si>
+    <t>78-40-0</t>
+  </si>
+  <si>
+    <t>513-08-6</t>
+  </si>
+  <si>
+    <t>85-01-8</t>
+  </si>
+  <si>
+    <t>335-67-1</t>
   </si>
 </sst>
 </file>
@@ -1017,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6089F3A3-B933-43E9-8E92-242433A56B01}">
-  <dimension ref="A1:AT79"/>
+  <dimension ref="A1:AT83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="R47" workbookViewId="0">
+      <selection activeCell="AL69" sqref="AL69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4953,19 +4972,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D29" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E29">
-        <v>73.579280213433478</v>
+        <v>56.424999999999997</v>
       </c>
       <c r="F29">
-        <v>9.6108129578966537</v>
+        <v>4.0266808871132165</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H29">
         <v>7.0501590657234505</v>
@@ -4986,82 +5005,82 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>-70.8495712</v>
+        <v>-65</v>
       </c>
       <c r="O29">
-        <v>7.7266416863584002</v>
+        <v>4.1182754457182176</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>94.157976399999995</v>
+        <v>80.189397200000016</v>
       </c>
       <c r="R29">
-        <v>17.651701677731598</v>
+        <v>15.033026103686803</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>23.304604000000001</v>
+        <v>28.669831999999996</v>
       </c>
       <c r="U29">
-        <v>9.5598549641115067</v>
+        <v>11.760742030434967</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>7.3810200000000004</v>
+        <v>5.21</v>
       </c>
       <c r="X29">
-        <v>0.48744256080000004</v>
+        <v>0.13414613224126404</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
-        <v>3.72</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="AA29">
-        <v>0.2521806974790135</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="AB29">
         <v>1</v>
       </c>
       <c r="AC29">
-        <v>-2.9467767029021981</v>
+        <v>-5.8322257206709365</v>
       </c>
       <c r="AD29">
-        <v>0.83474227696121439</v>
+        <v>1.7496677162012808</v>
       </c>
       <c r="AE29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
-        <v>-0.48126167744393333</v>
+        <v>1.6546478151372854</v>
       </c>
       <c r="AG29">
-        <v>0.11783463401677403</v>
+        <v>9.1425816944937455E-2</v>
       </c>
       <c r="AH29">
         <v>2</v>
       </c>
       <c r="AI29">
-        <v>-7.0988371796333744E-3</v>
+        <v>3.4354676142742648</v>
       </c>
       <c r="AJ29">
-        <v>4.6885273026846148E-3</v>
+        <v>1.0306402842822795</v>
       </c>
       <c r="AK29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL29">
-        <v>4.1284707999999988</v>
+        <v>3.1561648260757162</v>
       </c>
       <c r="AM29">
-        <v>0.7461426561547998</v>
+        <v>0.57041682518149028</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -5076,13 +5095,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>-60</v>
+        <v>-56.2</v>
       </c>
       <c r="AS29">
-        <v>2.7699430313116928</v>
+        <v>0.23094010767584949</v>
       </c>
       <c r="AT29">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
@@ -5093,28 +5112,28 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="D30" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="E30">
-        <v>77.756666666666661</v>
+        <v>75.08</v>
       </c>
       <c r="F30">
-        <v>3.3164187512033716</v>
+        <v>5.3579654586523757</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>-21.437204504851408</v>
+        <v>7.0501590657234505</v>
       </c>
       <c r="I30">
-        <v>4.2874409009702816</v>
+        <v>2.115047719717035</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -5126,82 +5145,82 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>-80.2</v>
+        <v>-70.109681399999999</v>
       </c>
       <c r="O30">
-        <v>14.849242404917437</v>
+        <v>7.6459515244398002</v>
       </c>
       <c r="P30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>111.9953814</v>
+        <v>94.291493299999999</v>
       </c>
       <c r="R30">
-        <v>20.995662155676598</v>
+        <v>17.676731957457701</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>28.68670400000001</v>
+        <v>29.625788</v>
       </c>
       <c r="U30">
-        <v>11.767663146663958</v>
+        <v>12.152887750313846</v>
       </c>
       <c r="V30">
         <v>0</v>
       </c>
       <c r="W30">
-        <v>7.4499999999999993</v>
+        <v>7.2581699999999998</v>
       </c>
       <c r="X30">
-        <v>0.14142135623730964</v>
+        <v>0.47932954680000001</v>
       </c>
       <c r="Y30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>3.9971606868913212</v>
+        <v>1.87</v>
       </c>
       <c r="AA30">
-        <v>1.012674051761338E-2</v>
+        <v>0.56100000000000005</v>
       </c>
       <c r="AB30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC30">
-        <v>-3.1676449286445965</v>
+        <v>-4.5560193087319867</v>
       </c>
       <c r="AD30">
-        <v>0.89730828187194078</v>
+        <v>1.366805792619596</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
-        <v>-0.96840832213366246</v>
+        <v>3.9810554148350386E-2</v>
       </c>
       <c r="AG30">
-        <v>0.25994612154186569</v>
+        <v>6.3165167330037466E-3</v>
       </c>
       <c r="AH30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI30">
-        <v>0.12912422184350617</v>
+        <v>-1.5406075122407692</v>
       </c>
       <c r="AJ30">
-        <v>9.4534838877287433E-2</v>
+        <v>0.46218225367223076</v>
       </c>
       <c r="AK30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL30">
-        <v>3.6484507999999995</v>
+        <v>2.9829312976044928</v>
       </c>
       <c r="AM30">
-        <v>0.65938816153479995</v>
+        <v>0.53910815634735765</v>
       </c>
       <c r="AN30">
         <v>0</v>
@@ -5216,13 +5235,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>3.6932573750822573</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
@@ -5233,28 +5252,28 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D31" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E31">
-        <v>101.4</v>
+        <v>73.579280213433478</v>
       </c>
       <c r="F31">
-        <v>7.2362506327564056</v>
+        <v>9.6108129578966537</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>22.132368777024709</v>
+        <v>7.0501590657234505</v>
       </c>
       <c r="I31">
-        <v>4.4264737554049418</v>
+        <v>2.115047719717035</v>
       </c>
       <c r="J31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -5266,82 +5285,82 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>-131.44674519999998</v>
+        <v>-70.8495712</v>
       </c>
       <c r="O31">
-        <v>14.335187691276397</v>
+        <v>7.7266416863584002</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>129.36153389999998</v>
+        <v>94.157976399999995</v>
       </c>
       <c r="R31">
-        <v>24.251277398699095</v>
+        <v>17.651701677731598</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>-2.0959359999999965</v>
+        <v>23.304604000000001</v>
       </c>
       <c r="U31">
-        <v>0.85978050406091344</v>
+        <v>9.5598549641115067</v>
       </c>
       <c r="V31">
         <v>0</v>
       </c>
       <c r="W31">
-        <v>10.4476</v>
+        <v>7.3810200000000004</v>
       </c>
       <c r="X31">
-        <v>0.68995950399999995</v>
+        <v>0.48744256080000004</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>2.83</v>
+        <v>3.72</v>
       </c>
       <c r="AA31">
-        <v>0.19184714351226026</v>
+        <v>0.2521806974790135</v>
       </c>
       <c r="AB31">
         <v>1</v>
       </c>
       <c r="AC31">
-        <v>-7.6675176248253818</v>
+        <v>-2.9467767029021981</v>
       </c>
       <c r="AD31">
-        <v>2.1720007201371603</v>
+        <v>0.83474227696121439</v>
       </c>
       <c r="AE31">
         <v>0</v>
       </c>
       <c r="AF31">
-        <v>-4.3260580013659125</v>
+        <v>-0.48126167744393333</v>
       </c>
       <c r="AG31">
-        <v>0.68639129341797445</v>
+        <v>0.11783463401677403</v>
       </c>
       <c r="AH31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI31">
-        <v>6.8766978856811892E-2</v>
+        <v>-7.0988371796333744E-3</v>
       </c>
       <c r="AJ31">
-        <v>8.5033524110052442E-3</v>
+        <v>4.6885273026846148E-3</v>
       </c>
       <c r="AK31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL31">
-        <v>1.529792299999998</v>
+        <v>4.1284707999999988</v>
       </c>
       <c r="AM31">
-        <v>0.27648089217129962</v>
+        <v>0.7461426561547998</v>
       </c>
       <c r="AN31">
         <v>0</v>
@@ -5356,13 +5375,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>156.55000000000001</v>
+        <v>-60</v>
       </c>
       <c r="AS31">
-        <v>7.0710678118670822E-2</v>
+        <v>2.7699430313116928</v>
       </c>
       <c r="AT31">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
@@ -5373,28 +5392,28 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D32" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E32">
-        <v>114.61585945221712</v>
+        <v>77.756666666666661</v>
       </c>
       <c r="F32">
-        <v>34.384757835665134</v>
+        <v>3.3164187512033716</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>7.0501590657234505</v>
+        <v>-21.437204504851408</v>
       </c>
       <c r="I32">
-        <v>2.115047719717035</v>
+        <v>4.2874409009702816</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -5406,82 +5425,82 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>-134.07584640000002</v>
+        <v>-80.2</v>
       </c>
       <c r="O32">
-        <v>14.621909580844802</v>
+        <v>14.849242404917437</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32">
-        <v>141.6297758</v>
+        <v>111.9953814</v>
       </c>
       <c r="R32">
-        <v>26.551192439450201</v>
+        <v>20.995662155676598</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>7.5455880000000004</v>
+        <v>28.68670400000001</v>
       </c>
       <c r="U32">
-        <v>3.0952994051707643</v>
+        <v>11.767663146663958</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>11.6829</v>
+        <v>7.4950000000000001</v>
       </c>
       <c r="X32">
-        <v>0.77153871600000001</v>
+        <v>7.7781745930519827E-2</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z32">
-        <v>4.7649999999999997</v>
+        <v>3.9971606868913212</v>
       </c>
       <c r="AA32">
-        <v>0.12020815280171303</v>
+        <v>1.012674051761338E-2</v>
       </c>
       <c r="AB32">
         <v>2</v>
       </c>
       <c r="AC32">
-        <v>-3.2833185915855339</v>
+        <v>-3.1676449286445965</v>
       </c>
       <c r="AD32">
-        <v>0.93007550739420897</v>
+        <v>0.89730828187194078</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>-3.3442177994290483</v>
+        <v>-0.96840832213366246</v>
       </c>
       <c r="AG32">
-        <v>0.53060823042519367</v>
+        <v>0.25994612154186569</v>
       </c>
       <c r="AH32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI32">
-        <v>-2.1445400588030026</v>
+        <v>0.12912422184350617</v>
       </c>
       <c r="AJ32">
-        <v>0.26518221656197488</v>
+        <v>9.4534838877287433E-2</v>
       </c>
       <c r="AK32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AL32">
-        <v>3.0528525999999996</v>
+        <v>3.6484507999999995</v>
       </c>
       <c r="AM32">
-        <v>0.55174510325059989</v>
+        <v>0.65938816153479995</v>
       </c>
       <c r="AN32">
         <v>0</v>
@@ -5496,10 +5515,10 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>-21</v>
+        <v>-80</v>
       </c>
       <c r="AS32">
-        <v>0.96948006095909256</v>
+        <v>3.6932573750822573</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -5513,115 +5532,115 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="E33">
-        <v>81.233333333333334</v>
+        <v>101.4</v>
       </c>
       <c r="F33">
-        <v>2.9091808698211468</v>
+        <v>7.2362506327564056</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>8.5991821757841791</v>
+        <v>22.132368777024709</v>
       </c>
       <c r="I33">
-        <v>12.062760772546531</v>
+        <v>4.4264737554049418</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>14.416645774624172</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>21.000109442677644</v>
+        <v>0</v>
       </c>
       <c r="M33">
         <v>0</v>
       </c>
       <c r="N33">
-        <v>-79.8</v>
+        <v>-101.5</v>
       </c>
       <c r="O33">
-        <v>14.117011015083925</v>
+        <v>6.4308455036984471</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>88.651607799999994</v>
+        <v>129.36153389999998</v>
       </c>
       <c r="R33">
-        <v>16.6194282626582</v>
+        <v>24.251277398699095</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>19.752828000000004</v>
+        <v>-2.0959359999999965</v>
       </c>
       <c r="U33">
-        <v>8.1028697510174723</v>
+        <v>0.85978050406091344</v>
       </c>
       <c r="V33">
         <v>0</v>
       </c>
       <c r="W33">
-        <v>7.914452287052451</v>
+        <v>11</v>
       </c>
       <c r="X33">
-        <v>6.3438854805062408E-2</v>
+        <v>0.28322599897387801</v>
       </c>
       <c r="Y33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z33">
-        <v>1.6487788978175042</v>
+        <v>2.83</v>
       </c>
       <c r="AA33">
-        <v>0.19072172315272956</v>
+        <v>0.19184714351226026</v>
       </c>
       <c r="AB33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>-5.9826251278887241</v>
+        <v>-7.6675176248253818</v>
       </c>
       <c r="AD33">
-        <v>1.6947161678524225</v>
+        <v>2.1720007201371603</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
       <c r="AF33">
-        <v>-1.3849533306583126</v>
+        <v>-4.3260580013659125</v>
       </c>
       <c r="AG33">
-        <v>0.17815080358449792</v>
+        <v>0.68639129341797445</v>
       </c>
       <c r="AH33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI33">
-        <v>1.4162808651238727</v>
+        <v>6.8766978856811892E-2</v>
       </c>
       <c r="AJ33">
-        <v>2.992467579434344E-2</v>
+        <v>8.5033524110052442E-3</v>
       </c>
       <c r="AK33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL33">
-        <v>2.1740961999999993</v>
+        <v>1.529792299999998</v>
       </c>
       <c r="AM33">
-        <v>0.39292658032219985</v>
+        <v>0.27648089217129962</v>
       </c>
       <c r="AN33">
         <v>0</v>
@@ -5636,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>-45</v>
+        <v>156.55000000000001</v>
       </c>
       <c r="AS33">
-        <v>14.142135623730951</v>
+        <v>7.0710678118670822E-2</v>
       </c>
       <c r="AT33">
         <v>2</v>
@@ -5653,115 +5672,115 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="E34">
-        <v>90.566666666666663</v>
+        <v>114.61585945221712</v>
       </c>
       <c r="F34">
-        <v>9.2251467919666919</v>
+        <v>34.384757835665134</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-0.73212846989601132</v>
+        <v>7.0501590657234505</v>
       </c>
       <c r="I34">
-        <v>1.0270151750007268</v>
+        <v>2.115047719717035</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>10.523885889296238</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>15.3296931125599</v>
+        <v>0</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>-90.3</v>
+        <v>-134.07584640000002</v>
       </c>
       <c r="O34">
-        <v>15.703821191035079</v>
+        <v>14.621909580844802</v>
       </c>
       <c r="P34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>112.60832490000001</v>
+        <v>141.6297758</v>
       </c>
       <c r="R34">
-        <v>21.110570060678103</v>
+        <v>26.551192439450201</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>22.089963999999991</v>
+        <v>7.5455880000000004</v>
       </c>
       <c r="U34">
-        <v>9.0615936663177958</v>
+        <v>3.0952994051707643</v>
       </c>
       <c r="V34">
         <v>0</v>
       </c>
       <c r="W34">
-        <v>8.5999801895500738</v>
+        <v>11.6829</v>
       </c>
       <c r="X34">
-        <v>0.93553903324940713</v>
+        <v>0.77153871600000001</v>
       </c>
       <c r="Y34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>2.6349999999999998</v>
+        <v>4.7649999999999997</v>
       </c>
       <c r="AA34">
-        <v>6.3639610306789496E-2</v>
+        <v>0.12020815280171303</v>
       </c>
       <c r="AB34">
         <v>2</v>
       </c>
       <c r="AC34">
-        <v>-5.613207895230822</v>
+        <v>-3.2833185915855339</v>
       </c>
       <c r="AD34">
-        <v>1.5900702401057205</v>
+        <v>0.93007550739420897</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>-2.0793529564966393</v>
+        <v>-3.3442177994290483</v>
       </c>
       <c r="AG34">
-        <v>0.83649137759001246</v>
+        <v>0.53060823042519367</v>
       </c>
       <c r="AH34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI34">
-        <v>0.56851833009543651</v>
+        <v>-2.1445400588030026</v>
       </c>
       <c r="AJ34">
-        <v>8.5459697155219894E-2</v>
+        <v>0.26518221656197488</v>
       </c>
       <c r="AK34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL34">
-        <v>2.9175402999999984</v>
+        <v>3.0528525999999996</v>
       </c>
       <c r="AM34">
-        <v>0.52728997595929972</v>
+        <v>0.55174510325059989</v>
       </c>
       <c r="AN34">
         <v>0</v>
@@ -5776,13 +5795,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>-45.5</v>
+        <v>-21</v>
       </c>
       <c r="AS34">
-        <v>7.7781745930520225</v>
+        <v>0.96948006095909256</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
@@ -5793,115 +5812,115 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E35">
-        <v>97</v>
+        <v>81.233333333333334</v>
       </c>
       <c r="F35">
-        <v>5.0239426748321856</v>
+        <v>2.9091808698211468</v>
       </c>
       <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
-        <v>8.4122944185202044</v>
+        <v>8.5991821757841791</v>
       </c>
       <c r="I35">
-        <v>11.800598364411771</v>
+        <v>12.062760772546531</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>11.45452447393582</v>
+        <v>14.416645774624172</v>
       </c>
       <c r="L35">
-        <v>16.68531441549916</v>
+        <v>21.000109442677644</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>-93.066666666666663</v>
+        <v>-79.8</v>
       </c>
       <c r="O35">
-        <v>5.7500724633115148</v>
+        <v>14.117011015083925</v>
       </c>
       <c r="P35">
         <v>3</v>
       </c>
       <c r="Q35">
-        <v>117.4782165</v>
+        <v>88.651607799999994</v>
       </c>
       <c r="R35">
-        <v>22.023523769038501</v>
+        <v>16.6194282626582</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>20.914440000000003</v>
+        <v>19.752828000000004</v>
       </c>
       <c r="U35">
-        <v>8.5793782660118261</v>
+        <v>8.1028697510174723</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>10.196734960730311</v>
+        <v>7.914452287052451</v>
       </c>
       <c r="X35">
-        <v>0.35717875532112214</v>
+        <v>6.3438854805062408E-2</v>
       </c>
       <c r="Y35">
         <v>3</v>
       </c>
       <c r="Z35">
-        <v>3.7354013998198079</v>
+        <v>1.6487788978175042</v>
       </c>
       <c r="AA35">
-        <v>5.478325049151412E-2</v>
+        <v>0.19072172315272956</v>
       </c>
       <c r="AB35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC35">
-        <v>-6.9726409069821225</v>
+        <v>-5.9826251278887241</v>
       </c>
       <c r="AD35">
-        <v>1.9751609076435468</v>
+        <v>1.6947161678524225</v>
       </c>
       <c r="AE35">
         <v>0</v>
       </c>
       <c r="AF35">
-        <v>-3.8968901507926397</v>
+        <v>-1.3849533306583126</v>
       </c>
       <c r="AG35">
-        <v>0.8017700738440946</v>
+        <v>0.17815080358449792</v>
       </c>
       <c r="AH35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI35">
-        <v>-1.5157161364205862</v>
+        <v>1.4162808651238727</v>
       </c>
       <c r="AJ35">
-        <v>0.23853678415206614</v>
+        <v>2.992467579434344E-2</v>
       </c>
       <c r="AK35">
         <v>3</v>
       </c>
       <c r="AL35">
-        <v>2.4274862999999964</v>
+        <v>2.1740961999999993</v>
       </c>
       <c r="AM35">
-        <v>0.43872202648529934</v>
+        <v>0.39292658032219985</v>
       </c>
       <c r="AN35">
         <v>0</v>
@@ -5916,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>27</v>
+        <v>-45</v>
       </c>
       <c r="AS35">
-        <v>8.1</v>
+        <v>14.142135623730951</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
@@ -5933,136 +5952,136 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E36">
-        <v>94.320000000000007</v>
+        <v>90.566666666666663</v>
       </c>
       <c r="F36">
-        <v>8.6586373061816122</v>
+        <v>9.2251467919666919</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>16.749474442736073</v>
+        <v>-0.73212846989601132</v>
       </c>
       <c r="I36">
-        <v>23.495827758781306</v>
+        <v>1.0270151750007268</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>7.2887838306799324</v>
+        <v>10.523885889296238</v>
       </c>
       <c r="L36">
-        <v>10.617258725862538</v>
+        <v>15.3296931125599</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>-95.100000000000009</v>
+        <v>-90.3</v>
       </c>
       <c r="O36">
-        <v>5.8077534382926403</v>
+        <v>15.703821191035079</v>
       </c>
       <c r="P36">
         <v>3</v>
       </c>
       <c r="Q36">
-        <v>109.47182520000001</v>
+        <v>112.60832490000001</v>
       </c>
       <c r="R36">
-        <v>20.522573598418802</v>
+        <v>21.110570060678103</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>2.4292000000000646E-2</v>
+        <v>22.089963999999991</v>
       </c>
       <c r="U36">
-        <v>9.9648977853561849E-3</v>
+        <v>9.0615936663177958</v>
       </c>
       <c r="V36">
         <v>0</v>
       </c>
       <c r="W36">
-        <v>10.202624059176518</v>
+        <v>8.5999801895500738</v>
       </c>
       <c r="X36">
-        <v>0.16599464740887165</v>
+        <v>0.93553903324940713</v>
       </c>
       <c r="Y36">
+        <v>3</v>
+      </c>
+      <c r="Z36">
+        <v>2.6349999999999998</v>
+      </c>
+      <c r="AA36">
+        <v>6.3639610306789496E-2</v>
+      </c>
+      <c r="AB36">
         <v>2</v>
       </c>
-      <c r="Z36">
-        <v>4.281560068433973</v>
-      </c>
-      <c r="AA36">
-        <v>0.75778339429101471</v>
-      </c>
-      <c r="AB36">
-        <v>4</v>
-      </c>
       <c r="AC36">
-        <v>-5.7889397877108442</v>
+        <v>-5.613207895230822</v>
       </c>
       <c r="AD36">
-        <v>1.639850340484214</v>
+        <v>1.5900702401057205</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>-3.6388660479834938</v>
+        <v>-2.0793529564966393</v>
       </c>
       <c r="AG36">
-        <v>0.42628200846392272</v>
+        <v>0.83649137759001246</v>
       </c>
       <c r="AH36">
         <v>5</v>
       </c>
       <c r="AI36">
-        <v>-2.3752720246754775</v>
+        <v>0.56851833009543651</v>
       </c>
       <c r="AJ36">
-        <v>0.18822354636508534</v>
+        <v>8.5459697155219894E-2</v>
       </c>
       <c r="AK36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL36">
-        <v>2.3427773999999992</v>
+        <v>2.9175402999999984</v>
       </c>
       <c r="AM36">
-        <v>0.42341250227939986</v>
+        <v>0.52728997595929972</v>
       </c>
       <c r="AN36">
         <v>0</v>
       </c>
       <c r="AO36">
-        <v>91.84</v>
+        <v>0</v>
       </c>
       <c r="AP36">
-        <v>7.2387944533560509</v>
+        <v>0</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR36">
-        <v>49.708333333333336</v>
+        <v>-45.5</v>
       </c>
       <c r="AS36">
-        <v>0.6003471218109292</v>
+        <v>7.7781745930520225</v>
       </c>
       <c r="AT36">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
@@ -6073,115 +6092,115 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E37">
-        <v>109.58571428571429</v>
+        <v>97</v>
       </c>
       <c r="F37">
-        <v>7.9982140863713171</v>
+        <v>5.0239426748321856</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>11.646784604791947</v>
+        <v>8.4122944185202044</v>
       </c>
       <c r="I37">
-        <v>16.337876507910046</v>
+        <v>11.800598364411771</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>6.7868184388082824</v>
+        <v>11.45452447393582</v>
       </c>
       <c r="L37">
-        <v>9.8860672732504593</v>
+        <v>16.68531441549916</v>
       </c>
       <c r="M37">
         <v>0</v>
       </c>
       <c r="N37">
-        <v>-102</v>
+        <v>-93.066666666666663</v>
       </c>
       <c r="O37">
-        <v>6.4625245455885869</v>
+        <v>5.7500724633115148</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q37">
-        <v>136.38984429999999</v>
+        <v>117.4782165</v>
       </c>
       <c r="R37">
-        <v>25.5688677210767</v>
+        <v>22.023523769038501</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>3.1020880000000073</v>
+        <v>20.914440000000003</v>
       </c>
       <c r="U37">
-        <v>1.2725172831046947</v>
+        <v>8.5793782660118261</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37">
-        <v>11.064474887288533</v>
+        <v>10.196734960730311</v>
       </c>
       <c r="X37">
-        <v>0.28488608664306192</v>
+        <v>0.35717875532112214</v>
       </c>
       <c r="Y37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z37">
-        <v>5.1369400000000001</v>
+        <v>3.7354013998198079</v>
       </c>
       <c r="AA37">
-        <v>2.39362397322</v>
+        <v>5.478325049151412E-2</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC37">
-        <v>-5.6602455473135667</v>
+        <v>-6.9726409069821225</v>
       </c>
       <c r="AD37">
-        <v>1.6033947369241559</v>
+        <v>1.9751609076435468</v>
       </c>
       <c r="AE37">
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>-4.9827157586780739</v>
+        <v>-3.8968901507926397</v>
       </c>
       <c r="AG37">
-        <v>0.66020783020185903</v>
+        <v>0.8017700738440946</v>
       </c>
       <c r="AH37">
+        <v>5</v>
+      </c>
+      <c r="AI37">
+        <v>-1.5157161364205862</v>
+      </c>
+      <c r="AJ37">
+        <v>0.23853678415206614</v>
+      </c>
+      <c r="AK37">
         <v>3</v>
       </c>
-      <c r="AI37">
-        <v>-3.3293905311605743</v>
-      </c>
-      <c r="AJ37">
-        <v>2.9155639350899705</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
       <c r="AL37">
-        <v>2.0676830999999991</v>
+        <v>2.4274862999999964</v>
       </c>
       <c r="AM37">
-        <v>0.37369443434609984</v>
+        <v>0.43872202648529934</v>
       </c>
       <c r="AN37">
         <v>0</v>
@@ -6196,10 +6215,10 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>25.5</v>
+        <v>27</v>
       </c>
       <c r="AS37">
-        <v>1.1772257883074695</v>
+        <v>8.1</v>
       </c>
       <c r="AT37">
         <v>1</v>
@@ -6213,136 +6232,136 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E38">
-        <v>96.174999999999997</v>
+        <v>94.320000000000007</v>
       </c>
       <c r="F38">
-        <v>7.2168783648703219</v>
+        <v>8.6586373061816122</v>
       </c>
       <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>16.749474442736073</v>
+      </c>
+      <c r="I38">
+        <v>23.495827758781306</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>7.2887838306799324</v>
+      </c>
+      <c r="L38">
+        <v>10.617258725862538</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>-95.100000000000009</v>
+      </c>
+      <c r="O38">
+        <v>5.8077534382926403</v>
+      </c>
+      <c r="P38">
         <v>3</v>
       </c>
-      <c r="H38">
-        <v>11.919418940071921</v>
-      </c>
-      <c r="I38">
-        <v>16.72032250075409</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>6.4092891357116315</v>
-      </c>
-      <c r="L38">
-        <v>9.3361365329944679</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>-97.9</v>
-      </c>
-      <c r="O38">
-        <v>6.2027564020894381</v>
-      </c>
-      <c r="P38">
-        <v>1</v>
-      </c>
       <c r="Q38">
-        <v>136.38984429999999</v>
+        <v>109.47182520000001</v>
       </c>
       <c r="R38">
-        <v>25.5688677210767</v>
+        <v>20.522573598418802</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>3.1020880000000073</v>
+        <v>2.4292000000000646E-2</v>
       </c>
       <c r="U38">
-        <v>1.2725172831046947</v>
+        <v>9.9648977853561849E-3</v>
       </c>
       <c r="V38">
         <v>0</v>
       </c>
       <c r="W38">
-        <v>10.720407474148484</v>
+        <v>10.202624059176518</v>
       </c>
       <c r="X38">
-        <v>0.27602710147933929</v>
+        <v>0.16599464740887165</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z38">
-        <v>5.1511899999999997</v>
+        <v>4.281560068433973</v>
       </c>
       <c r="AA38">
-        <v>2.4002639459699999</v>
+        <v>0.75778339429101471</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC38">
-        <v>-5.6602455473135667</v>
+        <v>-5.7889397877108442</v>
       </c>
       <c r="AD38">
-        <v>1.6033947369241559</v>
+        <v>1.639850340484214</v>
       </c>
       <c r="AE38">
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>-4.0295295311185804</v>
+        <v>-3.6388660479834938</v>
       </c>
       <c r="AG38">
-        <v>0.33620127189764476</v>
+        <v>0.42628200846392272</v>
       </c>
       <c r="AH38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AI38">
-        <v>-2.1255891224464589</v>
+        <v>-2.3752720246754775</v>
       </c>
       <c r="AJ38">
-        <v>0.63767673673393765</v>
+        <v>0.18822354636508534</v>
       </c>
       <c r="AK38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AL38">
-        <v>2.0676830999999991</v>
+        <v>2.3427773999999992</v>
       </c>
       <c r="AM38">
-        <v>0.37369443434609984</v>
+        <v>0.42341250227939986</v>
       </c>
       <c r="AN38">
         <v>0</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>91.84</v>
       </c>
       <c r="AP38">
-        <v>0</v>
+        <v>7.2387944533560509</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>-10.95</v>
+        <v>49.708333333333336</v>
       </c>
       <c r="AS38">
-        <v>0.50551460321438391</v>
+        <v>0.6003471218109292</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
@@ -6353,43 +6372,43 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E39">
-        <v>107.25</v>
+        <v>109.58571428571429</v>
       </c>
       <c r="F39">
-        <v>4.1154181642533825</v>
+        <v>7.9982140863713171</v>
       </c>
       <c r="G39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H39">
-        <v>10.954777397464071</v>
+        <v>11.646784604791947</v>
       </c>
       <c r="I39">
-        <v>15.367142637614648</v>
+        <v>16.337876507910046</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>7.1739603940400798</v>
+        <v>6.7868184388082824</v>
       </c>
       <c r="L39">
-        <v>10.450000351500202</v>
+        <v>9.8860672732504593</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>-104</v>
+        <v>-102</v>
       </c>
       <c r="O39">
-        <v>6.5892407131491479</v>
+        <v>6.4625245455885869</v>
       </c>
       <c r="P39">
         <v>1</v>
@@ -6413,19 +6432,19 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>11.296948484835518</v>
+        <v>11.064474887288533</v>
       </c>
       <c r="X39">
-        <v>0.29087177454308882</v>
+        <v>0.28488608664306192</v>
       </c>
       <c r="Y39">
         <v>1</v>
       </c>
       <c r="Z39">
-        <v>5.1328800000000001</v>
+        <v>5.1369400000000001</v>
       </c>
       <c r="AA39">
-        <v>2.3917321634399999</v>
+        <v>2.39362397322</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -6440,22 +6459,22 @@
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>-4.8811502522142618</v>
+        <v>-4.9827157586780739</v>
       </c>
       <c r="AG39">
-        <v>0.52309835760605849</v>
+        <v>0.66020783020185903</v>
       </c>
       <c r="AH39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI39">
-        <v>-3.6970513553893394</v>
+        <v>-3.3293905311605743</v>
       </c>
       <c r="AJ39">
-        <v>1.1091154066168019</v>
+        <v>2.9155639350899705</v>
       </c>
       <c r="AK39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL39">
         <v>2.0676830999999991</v>
@@ -6476,13 +6495,13 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>76.875</v>
+        <v>25.5</v>
       </c>
       <c r="AS39">
-        <v>0.62915286960589578</v>
+        <v>1.1772257883074695</v>
       </c>
       <c r="AT39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
@@ -6493,115 +6512,115 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E40">
-        <v>106.39999999999999</v>
+        <v>96.174999999999997</v>
       </c>
       <c r="F40">
-        <v>3.9564293666554136</v>
+        <v>7.2168783648703219</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40">
-        <v>-25.078541008080165</v>
+        <v>11.919418940071921</v>
       </c>
       <c r="I40">
-        <v>35.17967575531469</v>
+        <v>16.72032250075409</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>4.8328781671361156</v>
+        <v>6.4092891357116315</v>
       </c>
       <c r="L40">
-        <v>7.0398463012546024</v>
+        <v>9.3361365329944679</v>
       </c>
       <c r="M40">
         <v>0</v>
       </c>
       <c r="N40">
-        <v>-103.56666666666666</v>
+        <v>-97.9</v>
       </c>
       <c r="O40">
-        <v>7.4875452141094492</v>
+        <v>6.2027564020894381</v>
       </c>
       <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>136.38984429999999</v>
+      </c>
+      <c r="R40">
+        <v>25.5688677210767</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <v>3.1020880000000073</v>
+      </c>
+      <c r="U40">
+        <v>1.2725172831046947</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>10.720407474148484</v>
+      </c>
+      <c r="X40">
+        <v>0.27602710147933929</v>
+      </c>
+      <c r="Y40">
+        <v>1</v>
+      </c>
+      <c r="Z40">
+        <v>5.1511899999999997</v>
+      </c>
+      <c r="AA40">
+        <v>2.4002639459699999</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>-5.6602455473135667</v>
+      </c>
+      <c r="AD40">
+        <v>1.6033947369241559</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>-4.0295295311185804</v>
+      </c>
+      <c r="AG40">
+        <v>0.33620127189764476</v>
+      </c>
+      <c r="AH40">
         <v>3</v>
       </c>
-      <c r="Q40">
-        <v>161.93206889999999</v>
-      </c>
-      <c r="R40">
-        <v>30.357243024614096</v>
-      </c>
-      <c r="S40">
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <v>30.219663999999998</v>
-      </c>
-      <c r="U40">
-        <v>12.396503493652231</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>11.043333333333331</v>
-      </c>
-      <c r="X40">
-        <v>0.48335632129241141</v>
-      </c>
-      <c r="Y40">
-        <v>3</v>
-      </c>
-      <c r="Z40">
-        <v>4.0149999999999997</v>
-      </c>
-      <c r="AA40">
-        <v>0.41137979208188291</v>
-      </c>
-      <c r="AB40">
-        <v>4</v>
-      </c>
-      <c r="AC40">
-        <v>-9.3114594635355044</v>
-      </c>
-      <c r="AD40">
-        <v>2.6376850566140928</v>
-      </c>
-      <c r="AE40">
-        <v>0</v>
-      </c>
-      <c r="AF40">
-        <v>-4.5257014829074143</v>
-      </c>
-      <c r="AG40">
-        <v>0.26343339067048643</v>
-      </c>
-      <c r="AH40">
-        <v>7</v>
-      </c>
       <c r="AI40">
-        <v>0.22099596443744718</v>
+        <v>-2.1255891224464589</v>
       </c>
       <c r="AJ40">
-        <v>0.15524653687336698</v>
+        <v>0.63767673673393765</v>
       </c>
       <c r="AK40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL40">
-        <v>3.3537672999999995</v>
+        <v>2.0676830999999991</v>
       </c>
       <c r="AM40">
-        <v>0.60612971789629988</v>
+        <v>0.37369443434609984</v>
       </c>
       <c r="AN40">
         <v>0</v>
@@ -6616,10 +6635,10 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>-70</v>
+        <v>-10.95</v>
       </c>
       <c r="AS40">
-        <v>3.2316002031969751</v>
+        <v>0.50551460321438391</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -6633,115 +6652,115 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E41">
-        <v>108.8053199021883</v>
+        <v>107.25</v>
       </c>
       <c r="F41">
-        <v>2.7599602935757312</v>
+        <v>4.1154181642533825</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H41">
-        <v>-1.2870326288639831</v>
+        <v>10.954777397464071</v>
       </c>
       <c r="I41">
-        <v>1.805423631117818</v>
+        <v>15.367142637614648</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>3.4477632265923148</v>
+        <v>7.1739603940400798</v>
       </c>
       <c r="L41">
-        <v>5.0222087871729997</v>
+        <v>10.450000351500202</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>-105.63333333333333</v>
+        <v>-104</v>
       </c>
       <c r="O41">
-        <v>5.6109268396584868</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>152.94250580000002</v>
+        <v>136.38984429999999</v>
       </c>
       <c r="R41">
-        <v>28.671978619820205</v>
+        <v>25.5688677210767</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>9.7376280000000062</v>
+        <v>3.1020880000000073</v>
       </c>
       <c r="U41">
-        <v>3.9945030335838898</v>
+        <v>1.2725172831046947</v>
       </c>
       <c r="V41">
         <v>0</v>
       </c>
       <c r="W41">
-        <v>11.254058807284656</v>
+        <v>11.296948484835518</v>
       </c>
       <c r="X41">
-        <v>0.56090842337414826</v>
+        <v>0.29087177454308882</v>
       </c>
       <c r="Y41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>4.4551030939086207</v>
+        <v>5.1328800000000001</v>
       </c>
       <c r="AA41">
-        <v>0.51039582393287042</v>
+        <v>2.3917321634399999</v>
       </c>
       <c r="AB41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC41">
-        <v>-2.4079210568011886</v>
+        <v>-5.6602455473135667</v>
       </c>
       <c r="AD41">
-        <v>0.68209902152324309</v>
+        <v>1.6033947369241559</v>
       </c>
       <c r="AE41">
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>-4.6558136987291556</v>
+        <v>-4.8811502522142618</v>
       </c>
       <c r="AG41">
-        <v>0.27719074419421286</v>
+        <v>0.52309835760605849</v>
       </c>
       <c r="AH41">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AI41">
-        <v>-4.7043664347305514</v>
+        <v>-3.6970513553893394</v>
       </c>
       <c r="AJ41">
-        <v>2.6083556879317391</v>
+        <v>1.1091154066168019</v>
       </c>
       <c r="AK41">
         <v>1</v>
       </c>
       <c r="AL41">
-        <v>4.8651235999999987</v>
+        <v>2.0676830999999991</v>
       </c>
       <c r="AM41">
-        <v>0.87927865335159983</v>
+        <v>0.37369443434609984</v>
       </c>
       <c r="AN41">
         <v>0</v>
@@ -6756,10 +6775,10 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>-72</v>
+        <v>76.875</v>
       </c>
       <c r="AS41">
-        <v>2.8284271247461903</v>
+        <v>0.62915286960589578</v>
       </c>
       <c r="AT41">
         <v>2</v>
@@ -6773,115 +6792,115 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E42">
-        <v>135</v>
+        <v>106.39999999999999</v>
       </c>
       <c r="F42">
-        <v>9.6340614933147393</v>
+        <v>3.9564293666554136</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H42">
-        <v>11.415015016767995</v>
+        <v>-25.078541008080165</v>
       </c>
       <c r="I42">
-        <v>16.012754765221807</v>
+        <v>35.17967575531469</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>7.1788619249362284</v>
+        <v>4.8328781671361156</v>
       </c>
       <c r="L42">
-        <v>10.457140201286688</v>
+        <v>7.0398463012546024</v>
       </c>
       <c r="M42">
         <v>0</v>
       </c>
       <c r="N42">
-        <v>-138.71850051290377</v>
+        <v>-103.56666666666666</v>
       </c>
       <c r="O42">
-        <v>15.128223510435747</v>
+        <v>7.4875452141094492</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q42">
-        <v>168.94886359999998</v>
+        <v>161.93206889999999</v>
       </c>
       <c r="R42">
-        <v>31.672674510228397</v>
+        <v>30.357243024614096</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42">
-        <v>2.1688360000000042</v>
+        <v>30.219663999999998</v>
       </c>
       <c r="U42">
-        <v>0.88968504253253056</v>
+        <v>12.396503493652231</v>
       </c>
       <c r="V42">
         <v>0</v>
       </c>
       <c r="W42">
-        <v>11.6783</v>
+        <v>11.043333333333331</v>
       </c>
       <c r="X42">
-        <v>0.77123493200000004</v>
+        <v>0.48335632129241141</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z42">
-        <v>8.5659399999999994</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="AA42">
-        <v>3.9914111002199997</v>
+        <v>0.41137979208188291</v>
       </c>
       <c r="AB42">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC42">
-        <v>-4.5528853633970989</v>
+        <v>-9.3114594635355044</v>
       </c>
       <c r="AD42">
-        <v>1.2897094955455863</v>
+        <v>2.6376850566140928</v>
       </c>
       <c r="AE42">
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>-5.9337440369338292</v>
+        <v>-4.5257014829074143</v>
       </c>
       <c r="AG42">
-        <v>0.94147379508925533</v>
+        <v>0.26343339067048643</v>
       </c>
       <c r="AH42">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AI42">
-        <v>-5.1955273046673671</v>
+        <v>0.22099596443744718</v>
       </c>
       <c r="AJ42">
-        <v>4.5497492383337361</v>
+        <v>0.15524653687336698</v>
       </c>
       <c r="AK42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL42">
-        <v>3.2175101999999995</v>
+        <v>3.3537672999999995</v>
       </c>
       <c r="AM42">
-        <v>0.58150383595619992</v>
+        <v>0.60612971789629988</v>
       </c>
       <c r="AN42">
         <v>0</v>
@@ -6896,13 +6915,13 @@
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>99.75</v>
+        <v>-70</v>
       </c>
       <c r="AS42">
-        <v>0.35355339059327379</v>
+        <v>3.2316002031969751</v>
       </c>
       <c r="AT42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
@@ -6913,136 +6932,136 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E43">
-        <v>111.56666666666666</v>
+        <v>108.8053199021883</v>
       </c>
       <c r="F43">
-        <v>4.8850110883531626</v>
+        <v>2.7599602935757312</v>
       </c>
       <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <v>-1.2870326288639831</v>
+      </c>
+      <c r="I43">
+        <v>1.805423631117818</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>3.4477632265923148</v>
+      </c>
+      <c r="L43">
+        <v>5.0222087871729997</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>-105.63333333333333</v>
+      </c>
+      <c r="O43">
+        <v>5.6109268396584868</v>
+      </c>
+      <c r="P43">
         <v>3</v>
       </c>
-      <c r="H43">
-        <v>13.571716907400017</v>
-      </c>
-      <c r="I43">
-        <v>19.038133043362595</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>5.2379786369601931</v>
-      </c>
-      <c r="L43">
-        <v>7.6299387773116782</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>-106.65</v>
-      </c>
-      <c r="O43">
-        <v>0.91923881554250975</v>
-      </c>
-      <c r="P43">
+      <c r="Q43">
+        <v>152.94250580000002</v>
+      </c>
+      <c r="R43">
+        <v>28.671978619820205</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>9.7376280000000062</v>
+      </c>
+      <c r="U43">
+        <v>3.9945030335838898</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>11.254058807284656</v>
+      </c>
+      <c r="X43">
+        <v>0.56090842337414826</v>
+      </c>
+      <c r="Y43">
+        <v>3</v>
+      </c>
+      <c r="Z43">
+        <v>4.4551030939086207</v>
+      </c>
+      <c r="AA43">
+        <v>0.51039582393287042</v>
+      </c>
+      <c r="AB43">
+        <v>3</v>
+      </c>
+      <c r="AC43">
+        <v>-2.4079210568011886</v>
+      </c>
+      <c r="AD43">
+        <v>0.68209902152324309</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
+      </c>
+      <c r="AF43">
+        <v>-4.6558136987291556</v>
+      </c>
+      <c r="AG43">
+        <v>0.27719074419421286</v>
+      </c>
+      <c r="AH43">
+        <v>7</v>
+      </c>
+      <c r="AI43">
+        <v>-4.7043664347305514</v>
+      </c>
+      <c r="AJ43">
+        <v>2.6083556879317391</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>4.8651235999999987</v>
+      </c>
+      <c r="AM43">
+        <v>0.87927865335159983</v>
+      </c>
+      <c r="AN43">
+        <v>0</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>0</v>
+      </c>
+      <c r="AQ43">
+        <v>0</v>
+      </c>
+      <c r="AR43">
+        <v>-72</v>
+      </c>
+      <c r="AS43">
+        <v>2.8284271247461903</v>
+      </c>
+      <c r="AT43">
         <v>2</v>
-      </c>
-      <c r="Q43">
-        <v>159.06712350000001</v>
-      </c>
-      <c r="R43">
-        <v>29.820154575421501</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0.71806000000001347</v>
-      </c>
-      <c r="U43">
-        <v>0.29455765287966429</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>11.609699222331166</v>
-      </c>
-      <c r="X43">
-        <v>0.24084166946195062</v>
-      </c>
-      <c r="Y43">
-        <v>2</v>
-      </c>
-      <c r="Z43">
-        <v>6.0075900000000004</v>
-      </c>
-      <c r="AA43">
-        <v>2.7993146591700002</v>
-      </c>
-      <c r="AB43">
-        <v>0</v>
-      </c>
-      <c r="AC43">
-        <v>-4.9214883845347419</v>
-      </c>
-      <c r="AD43">
-        <v>1.3941247791523099</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
-        <v>-5.2702642012958201</v>
-      </c>
-      <c r="AG43">
-        <v>0.18378959287479971</v>
-      </c>
-      <c r="AH43">
-        <v>4</v>
-      </c>
-      <c r="AI43">
-        <v>-4.947844932800435</v>
-      </c>
-      <c r="AJ43">
-        <v>4.332852546878005</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>2.7322344999999979</v>
-      </c>
-      <c r="AM43">
-        <v>0.49379947341949965</v>
-      </c>
-      <c r="AN43">
-        <v>0</v>
-      </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AT43">
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
@@ -7053,115 +7072,115 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E44">
-        <v>98.617666666666665</v>
+        <v>135</v>
       </c>
       <c r="F44">
-        <v>11.372626624194313</v>
+        <v>9.6340614933147393</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>12.004375829927909</v>
+        <v>11.415015016767995</v>
       </c>
       <c r="I44">
-        <v>16.83949832670627</v>
+        <v>16.012754765221807</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44">
-        <v>5.8272615858800378</v>
+        <v>7.1788619249362284</v>
       </c>
       <c r="L44">
-        <v>8.4883219694549386</v>
+        <v>10.457140201286688</v>
       </c>
       <c r="M44">
         <v>0</v>
       </c>
       <c r="N44">
-        <v>-99.75</v>
+        <v>-138.71850051290377</v>
       </c>
       <c r="O44">
-        <v>6.7175144212722016</v>
+        <v>15.128223510435747</v>
       </c>
       <c r="P44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>135.47459039999998</v>
+        <v>168.94886359999998</v>
       </c>
       <c r="R44">
-        <v>25.397285987697597</v>
+        <v>31.672674510228397</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44">
-        <v>8.2935040000000111</v>
+        <v>2.1688360000000042</v>
       </c>
       <c r="U44">
-        <v>3.402104381789913</v>
+        <v>0.88968504253253056</v>
       </c>
       <c r="V44">
         <v>0</v>
       </c>
       <c r="W44">
-        <v>10.879999999999999</v>
+        <v>11.6783</v>
       </c>
       <c r="X44">
-        <v>0.45254833995938959</v>
+        <v>0.77123493200000004</v>
       </c>
       <c r="Y44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z44">
-        <v>5.5325137523428518</v>
+        <v>8.5659399999999994</v>
       </c>
       <c r="AA44">
-        <v>0.4666388278829241</v>
+        <v>3.9914111002199997</v>
       </c>
       <c r="AB44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>-5.5353437273052064</v>
+        <v>-4.5528853633970989</v>
       </c>
       <c r="AD44">
-        <v>1.6606031181915619</v>
+        <v>1.2897094955455863</v>
       </c>
       <c r="AE44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF44">
-        <v>-4.2249019599857434</v>
+        <v>-5.9337440369338292</v>
       </c>
       <c r="AG44">
-        <v>0.21483584436789924</v>
+        <v>0.94147379508925533</v>
       </c>
       <c r="AH44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI44">
-        <v>-2.8238365561540544</v>
+        <v>-5.1955273046673671</v>
       </c>
       <c r="AJ44">
-        <v>0.90185046293129689</v>
+        <v>4.5497492383337361</v>
       </c>
       <c r="AK44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL44">
-        <v>2.6897827999999979</v>
+        <v>3.2175101999999995</v>
       </c>
       <c r="AM44">
-        <v>0.48612713522679962</v>
+        <v>0.58150383595619992</v>
       </c>
       <c r="AN44">
         <v>0</v>
@@ -7176,10 +7195,10 @@
         <v>0</v>
       </c>
       <c r="AR44">
-        <v>-67</v>
+        <v>99.75</v>
       </c>
       <c r="AS44">
-        <v>18.384776310850235</v>
+        <v>0.35355339059327379</v>
       </c>
       <c r="AT44">
         <v>2</v>
@@ -7193,115 +7212,115 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E45">
-        <v>77.2</v>
+        <v>111.56666666666666</v>
       </c>
       <c r="F45">
-        <v>5.5092559058066515</v>
+        <v>4.8850110883531626</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H45">
-        <v>8.5225134635762458</v>
+        <v>13.571716907400017</v>
       </c>
       <c r="I45">
-        <v>11.955211436435485</v>
+        <v>19.038133043362595</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45">
-        <v>13.007027706688376</v>
+        <v>5.2379786369601931</v>
       </c>
       <c r="L45">
-        <v>18.946779274079585</v>
+        <v>7.6299387773116782</v>
       </c>
       <c r="M45">
         <v>0</v>
       </c>
       <c r="N45">
-        <v>-127.90782443979163</v>
+        <v>-106.65</v>
       </c>
       <c r="O45">
-        <v>13.949243609930356</v>
+        <v>0.91923881554250975</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q45">
-        <v>139.24704929999999</v>
+        <v>159.06712350000001</v>
       </c>
       <c r="R45">
-        <v>26.104505085221696</v>
+        <v>29.820154575421501</v>
       </c>
       <c r="S45">
         <v>0</v>
       </c>
       <c r="T45">
-        <v>12.569867999999998</v>
+        <v>0.71806000000001347</v>
       </c>
       <c r="U45">
-        <v>5.1563251191921706</v>
+        <v>0.29455765287966429</v>
       </c>
       <c r="V45">
         <v>0</v>
       </c>
       <c r="W45">
-        <v>11.689500000000001</v>
+        <v>11.609699222331166</v>
       </c>
       <c r="X45">
-        <v>0.77197458000000008</v>
+        <v>0.24084166946195062</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z45">
-        <v>4.6850000000000005</v>
+        <v>6.0075900000000004</v>
       </c>
       <c r="AA45">
-        <v>0.41719300090006356</v>
+        <v>2.7993146591700002</v>
       </c>
       <c r="AB45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>-9.8836998236453422</v>
+        <v>-4.9214883845347419</v>
       </c>
       <c r="AD45">
-        <v>2.7997853001434869</v>
+        <v>1.3941247791523099</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>-4.3871611703129787</v>
+        <v>-5.2702642012958201</v>
       </c>
       <c r="AG45">
-        <v>0.69608618959187496</v>
+        <v>0.18378959287479971</v>
       </c>
       <c r="AH45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI45">
-        <v>-2.2900095802422902</v>
+        <v>-4.947844932800435</v>
       </c>
       <c r="AJ45">
-        <v>0.49424642991199053</v>
+        <v>4.332852546878005</v>
       </c>
       <c r="AK45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL45">
-        <v>1.7478950999999965</v>
+        <v>2.7322344999999979</v>
       </c>
       <c r="AM45">
-        <v>0.31589882931809937</v>
+        <v>0.49379947341949965</v>
       </c>
       <c r="AN45">
         <v>0</v>
@@ -7316,272 +7335,272 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>119.5</v>
+        <v>0</v>
       </c>
       <c r="AS45">
-        <v>5.5168032040291219</v>
+        <v>0</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B46">
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E46">
-        <v>102.97044542908371</v>
+        <v>98.617666666666665</v>
       </c>
       <c r="F46">
-        <v>8.2645317733743067</v>
+        <v>11.372626624194313</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H46">
-        <v>28.535700146660066</v>
+        <v>12.004375829927909</v>
       </c>
       <c r="I46">
-        <v>9.3194645443453155</v>
+        <v>16.83949832670627</v>
       </c>
       <c r="J46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>7.6253721994684973</v>
+        <v>5.8272615858800378</v>
       </c>
       <c r="L46">
-        <v>2.2876116598405489</v>
+        <v>8.4883219694549386</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46">
-        <v>-101.25</v>
+        <v>-99.75</v>
       </c>
       <c r="O46">
-        <v>2.616295090390218</v>
+        <v>6.7175144212722016</v>
       </c>
       <c r="P46">
         <v>2</v>
       </c>
       <c r="Q46">
-        <v>73.989164799999998</v>
+        <v>135.47459039999998</v>
       </c>
       <c r="R46">
-        <v>13.8706747358912</v>
+        <v>25.397285987697597</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>-25.4</v>
+        <v>8.2935040000000111</v>
       </c>
       <c r="U46">
-        <v>5.08</v>
+        <v>3.402104381789913</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46">
-        <v>11.228588497286774</v>
+        <v>10.879999999999999</v>
       </c>
       <c r="X46">
-        <v>0.46868664186349301</v>
+        <v>0.45254833995938959</v>
       </c>
       <c r="Y46">
         <v>2</v>
       </c>
       <c r="Z46">
-        <v>6.1318209339345842</v>
+        <v>5.5325137523428518</v>
       </c>
       <c r="AA46">
-        <v>0.2700030284701323</v>
+        <v>0.4666388278829241</v>
       </c>
       <c r="AB46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AC46">
-        <v>-4.5228787452803374</v>
+        <v>-5.5353437273052064</v>
       </c>
       <c r="AD46">
-        <v>0.90457574905606752</v>
+        <v>1.6606031181915619</v>
       </c>
       <c r="AE46">
         <v>1</v>
       </c>
       <c r="AF46">
-        <v>-4.6349999999999998</v>
+        <v>-4.2249019599857434</v>
       </c>
       <c r="AG46">
-        <v>0.57275649276110319</v>
+        <v>0.21483584436789924</v>
       </c>
       <c r="AH46">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AI46">
-        <v>-4.1856271642104357</v>
+        <v>-2.8238365561540544</v>
       </c>
       <c r="AJ46">
-        <v>0.27611870329049543</v>
+        <v>0.90185046293129689</v>
       </c>
       <c r="AK46">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AL46">
-        <v>2.2353977200130184</v>
+        <v>2.6897827999999979</v>
       </c>
       <c r="AM46">
-        <v>0.44707954400260369</v>
+        <v>0.48612713522679962</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO46">
-        <v>36.703691924967444</v>
+        <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.8061861822140384</v>
+        <v>0</v>
       </c>
       <c r="AQ46">
+        <v>0</v>
+      </c>
+      <c r="AR46">
+        <v>-67</v>
+      </c>
+      <c r="AS46">
+        <v>18.384776310850235</v>
+      </c>
+      <c r="AT46">
         <v>2</v>
-      </c>
-      <c r="AR46">
-        <v>177.33333333333334</v>
-      </c>
-      <c r="AS46">
-        <v>1.5275252316519465</v>
-      </c>
-      <c r="AT46">
-        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B47">
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E47">
-        <v>105.49559435946666</v>
+        <v>77.2</v>
       </c>
       <c r="F47">
-        <v>7.5751191460147407</v>
+        <v>5.5092559058066515</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>24.695982056704011</v>
+        <v>8.5225134635762458</v>
       </c>
       <c r="I47">
-        <v>34.643029709503253</v>
+        <v>11.955211436435485</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>4.2101512426480525</v>
+        <v>13.007027706688376</v>
       </c>
       <c r="L47">
-        <v>6.1327467046084951</v>
+        <v>18.946779274079585</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>-100.05</v>
+        <v>-127.90782443979163</v>
       </c>
       <c r="O47">
-        <v>2.0506096654409918</v>
+        <v>13.949243609930356</v>
       </c>
       <c r="P47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>68.0877488</v>
+        <v>139.24704929999999</v>
       </c>
       <c r="R47">
-        <v>12.764342179787199</v>
+        <v>26.104505085221696</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
       <c r="T47">
-        <v>-35.839772000000004</v>
+        <v>12.569867999999998</v>
       </c>
       <c r="U47">
-        <v>14.701945687076449</v>
+        <v>5.1563251191921706</v>
       </c>
       <c r="V47">
         <v>0</v>
       </c>
       <c r="W47">
-        <v>11.073997910243794</v>
+        <v>11.689500000000001</v>
       </c>
       <c r="X47">
-        <v>0.41861016982400551</v>
+        <v>0.77197458000000008</v>
       </c>
       <c r="Y47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z47">
-        <v>5.6850000000000005</v>
+        <v>4.6850000000000005</v>
       </c>
       <c r="AA47">
-        <v>0.36062445840513968</v>
+        <v>0.41719300090006356</v>
       </c>
       <c r="AB47">
         <v>2</v>
       </c>
       <c r="AC47">
-        <v>-4.4799016767325135</v>
+        <v>-9.8836998236453422</v>
       </c>
       <c r="AD47">
-        <v>1.4837389554321319</v>
+        <v>2.7997853001434869</v>
       </c>
       <c r="AE47">
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>-4.6904457173535388</v>
+        <v>-4.3871611703129787</v>
       </c>
       <c r="AG47">
-        <v>0.35274120168317763</v>
+        <v>0.69608618959187496</v>
       </c>
       <c r="AH47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AI47">
-        <v>-3.5173626058676488</v>
+        <v>-2.2900095802422902</v>
       </c>
       <c r="AJ47">
-        <v>0.25242396939971701</v>
+        <v>0.49424642991199053</v>
       </c>
       <c r="AK47">
         <v>2</v>
       </c>
       <c r="AL47">
-        <v>1.9273476</v>
+        <v>1.7478950999999965</v>
       </c>
       <c r="AM47">
-        <v>0.34833145909560004</v>
+        <v>0.31589882931809937</v>
       </c>
       <c r="AN47">
         <v>0</v>
@@ -7596,412 +7615,412 @@
         <v>0</v>
       </c>
       <c r="AR47">
-        <v>216.61666666666667</v>
+        <v>114.425</v>
       </c>
       <c r="AS47">
-        <v>0.53928965624545278</v>
+        <v>5.282512189297341</v>
       </c>
       <c r="AT47">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B48">
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="E48">
-        <v>94.14</v>
+        <v>78.62</v>
       </c>
       <c r="F48">
-        <v>4.4506179346243595</v>
+        <v>0.29495762407505188</v>
       </c>
       <c r="G48">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H48">
-        <v>14.9</v>
+        <v>29.560532019325517</v>
       </c>
       <c r="I48">
-        <v>2.9800000000000004</v>
+        <v>5.9121064038651037</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48">
-        <v>4.2967974015840014</v>
+        <v>12.216814093813408</v>
       </c>
       <c r="L48">
-        <v>6.2589604473117628</v>
+        <v>3.6650442281440223</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
-        <v>-93.4</v>
+        <v>-88.930193804316445</v>
       </c>
       <c r="O48">
-        <v>4.6669047558312196</v>
+        <v>5.6344466696504423</v>
       </c>
       <c r="P48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q48">
-        <v>70.758807699999991</v>
+        <v>47.552228915797265</v>
       </c>
       <c r="R48">
-        <v>13.265082920711299</v>
+        <v>14.26566867473918</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>-21.7</v>
+        <v>-19</v>
       </c>
       <c r="U48">
-        <v>4.34</v>
+        <v>3.8000000000000003</v>
       </c>
       <c r="V48">
         <v>1</v>
       </c>
       <c r="W48">
-        <v>10.434999999999999</v>
+        <v>7.6566666666666663</v>
       </c>
       <c r="X48">
-        <v>0.13435028842544369</v>
+        <v>0.23586719427112637</v>
       </c>
       <c r="Y48">
         <v>2</v>
       </c>
       <c r="Z48">
-        <v>6.6174999999999997</v>
+        <v>4.479555555555554</v>
       </c>
       <c r="AA48">
-        <v>0.39969780251251513</v>
+        <v>0.15412379372066357</v>
       </c>
       <c r="AB48">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="AC48">
-        <v>-3.3186978724594232</v>
+        <v>-2.7655555555555558</v>
       </c>
       <c r="AD48">
-        <v>0.38418905920526514</v>
+        <v>5.7686894332922602E-2</v>
       </c>
       <c r="AE48">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF48">
-        <v>-3.7075139892385729</v>
+        <v>-1.067375</v>
       </c>
       <c r="AG48">
-        <v>0.19995588786711851</v>
+        <v>8.5069614350332431E-2</v>
       </c>
       <c r="AH48">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AI48">
-        <v>-4.0697069918861315</v>
+        <v>-1.5933333333333335</v>
       </c>
       <c r="AJ48">
-        <v>7.1457772538696201E-2</v>
+        <v>8.6107448885814675E-2</v>
       </c>
       <c r="AK48">
+        <v>24</v>
+      </c>
+      <c r="AL48">
+        <v>3.15</v>
+      </c>
+      <c r="AM48">
+        <v>0.63</v>
+      </c>
+      <c r="AN48">
         <v>3</v>
       </c>
-      <c r="AL48">
-        <v>2.6982638999999988</v>
-      </c>
-      <c r="AM48">
-        <v>0.48765993291089982</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
       <c r="AO48">
-        <v>48.472961613897454</v>
+        <v>16.560833333333335</v>
       </c>
       <c r="AP48">
-        <v>3.820620706319922</v>
+        <v>1.2504941447526279</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AR48">
-        <v>83.875</v>
+        <v>99.2</v>
       </c>
       <c r="AS48">
-        <v>0.17677669529663689</v>
+        <v>4.5796391451019991</v>
       </c>
       <c r="AT48">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E49">
-        <v>96.833333333333329</v>
+        <v>102.97044542908371</v>
       </c>
       <c r="F49">
-        <v>2.9704096238285618</v>
+        <v>8.2645317733743067</v>
       </c>
       <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>28.535700146660066</v>
+      </c>
+      <c r="I49">
+        <v>9.3194645443453155</v>
+      </c>
+      <c r="J49">
         <v>3</v>
       </c>
-      <c r="H49">
-        <v>16.357400538928019</v>
-      </c>
-      <c r="I49">
-        <v>22.945834327997446</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
       <c r="K49">
-        <v>4.6010027029921474</v>
+        <v>7.6253721994684973</v>
       </c>
       <c r="L49">
-        <v>6.7020832598218973</v>
+        <v>2.2876116598405489</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49">
-        <v>-103</v>
+        <v>-101.25</v>
       </c>
       <c r="O49">
-        <v>6.5258826293688674</v>
+        <v>2.616295090390218</v>
       </c>
       <c r="P49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q49">
-        <v>67.159043699999984</v>
+        <v>73.989164799999998</v>
       </c>
       <c r="R49">
-        <v>12.590238763395297</v>
+        <v>13.8706747358912</v>
       </c>
       <c r="S49">
         <v>0</v>
       </c>
       <c r="T49">
-        <v>-32.069367999999997</v>
+        <v>-25.4</v>
       </c>
       <c r="U49">
-        <v>13.155276393914209</v>
+        <v>5.08</v>
       </c>
       <c r="V49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W49">
-        <v>10.655000000000001</v>
+        <v>11.228588497286774</v>
       </c>
       <c r="X49">
-        <v>0.23334523779156074</v>
+        <v>0.46868664186349301</v>
       </c>
       <c r="Y49">
         <v>2</v>
       </c>
       <c r="Z49">
-        <v>7.24</v>
+        <v>6.1318209339345842</v>
       </c>
       <c r="AA49">
-        <v>0.51206348000000002</v>
+        <v>0.2700030284701323</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AC49">
-        <v>-3.4597463826083863</v>
+        <v>-4.5228787452803374</v>
       </c>
       <c r="AD49">
-        <v>0.40051753998265988</v>
+        <v>0.90457574905606752</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49">
-        <v>-3.8064674031393619</v>
+        <v>-4.6349999999999998</v>
       </c>
       <c r="AG49">
-        <v>0.15897540206098351</v>
+        <v>0.57275649276110319</v>
       </c>
       <c r="AH49">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AI49">
-        <v>-3.6293678108253968</v>
+        <v>-4.1856271642104357</v>
       </c>
       <c r="AJ49">
-        <v>0.44878797989465358</v>
+        <v>0.27611870329049543</v>
       </c>
       <c r="AK49">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AL49">
-        <v>2.4449938999999983</v>
+        <v>2.2353977200130184</v>
       </c>
       <c r="AM49">
-        <v>0.44188619254089967</v>
+        <v>0.44707954400260369</v>
       </c>
       <c r="AN49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO49">
-        <v>0</v>
+        <v>36.703691924967444</v>
       </c>
       <c r="AP49">
-        <v>0</v>
+        <v>2.8061861822140384</v>
       </c>
       <c r="AQ49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR49">
-        <v>106</v>
+        <v>177.33333333333334</v>
       </c>
       <c r="AS49">
-        <v>4.8935660219839905</v>
+        <v>1.5275252316519465</v>
       </c>
       <c r="AT49">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>49</v>
       </c>
       <c r="C50" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E50">
-        <v>100</v>
+        <v>105.49559435946666</v>
       </c>
       <c r="F50">
-        <v>7.136341846899807</v>
+        <v>7.5751191460147407</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H50">
-        <v>15.360580442263995</v>
+        <v>24.695982056704011</v>
       </c>
       <c r="I50">
-        <v>21.547515032799087</v>
+        <v>34.643029709503253</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>4.7805045747598029</v>
+        <v>4.2101512426480525</v>
       </c>
       <c r="L50">
-        <v>6.963555936005795</v>
+        <v>6.1327467046084951</v>
       </c>
       <c r="M50">
         <v>0</v>
       </c>
       <c r="N50">
-        <v>-98.4</v>
+        <v>-100.05</v>
       </c>
       <c r="O50">
-        <v>6.2344354439795788</v>
+        <v>2.0506096654409918</v>
       </c>
       <c r="P50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q50">
-        <v>67.783638699999997</v>
+        <v>68.0877488</v>
       </c>
       <c r="R50">
-        <v>12.7073309634503</v>
+        <v>12.764342179787199</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>-32.865367999999989</v>
+        <v>-35.839772000000004</v>
       </c>
       <c r="U50">
-        <v>13.481806059530182</v>
+        <v>14.701945687076449</v>
       </c>
       <c r="V50">
         <v>0</v>
       </c>
       <c r="W50">
-        <v>10.361775178295694</v>
+        <v>11.073997910243794</v>
       </c>
       <c r="X50">
-        <v>0.26679310236504827</v>
+        <v>0.41861016982400551</v>
       </c>
       <c r="Y50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z50">
-        <v>7.25</v>
+        <v>5.6850000000000005</v>
       </c>
       <c r="AA50">
-        <v>0.51277074999999994</v>
+        <v>0.36062445840513968</v>
       </c>
       <c r="AB50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC50">
-        <v>-3.608914998841187</v>
+        <v>-4.4799016767325135</v>
       </c>
       <c r="AD50">
-        <v>0.41778604484085002</v>
+        <v>1.4837389554321319</v>
       </c>
       <c r="AE50">
         <v>0</v>
       </c>
       <c r="AF50">
-        <v>-3.7529626300087369</v>
+        <v>-4.6904457173535388</v>
       </c>
       <c r="AG50">
-        <v>0.59546147392098581</v>
+        <v>0.35274120168317763</v>
       </c>
       <c r="AH50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI50">
-        <v>-3.2173176400000005</v>
+        <v>-3.5173626058676488</v>
       </c>
       <c r="AJ50">
-        <v>0.31517487064968003</v>
+        <v>0.25242396939971701</v>
       </c>
       <c r="AK50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL50">
-        <v>2.4542238999999997</v>
+        <v>1.9273476</v>
       </c>
       <c r="AM50">
-        <v>0.44355433967089997</v>
+        <v>0.34833145909560004</v>
       </c>
       <c r="AN50">
         <v>0</v>
@@ -8016,13 +8035,13 @@
         <v>0</v>
       </c>
       <c r="AR50">
-        <v>0</v>
+        <v>216.61666666666667</v>
       </c>
       <c r="AS50">
-        <v>0</v>
+        <v>0.53928965624545278</v>
       </c>
       <c r="AT50">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
@@ -8033,136 +8052,136 @@
         <v>50</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E51">
-        <v>113</v>
+        <v>94.14</v>
       </c>
       <c r="F51">
-        <v>15.556349186104045</v>
+        <v>4.4506179346243595</v>
       </c>
       <c r="G51">
+        <v>4</v>
+      </c>
+      <c r="H51">
+        <v>14.9</v>
+      </c>
+      <c r="I51">
+        <v>2.9800000000000004</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>4.2967974015840014</v>
+      </c>
+      <c r="L51">
+        <v>6.2589604473117628</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>-93.4</v>
+      </c>
+      <c r="O51">
+        <v>4.6669047558312196</v>
+      </c>
+      <c r="P51">
         <v>2</v>
       </c>
-      <c r="H51">
-        <v>15.645735560719942</v>
-      </c>
-      <c r="I51">
-        <v>21.94752492986672</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>4.4621379019357761</v>
-      </c>
-      <c r="L51">
-        <v>6.4998048612603929</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>-122</v>
-      </c>
-      <c r="O51">
-        <v>7.7296862211941928</v>
-      </c>
-      <c r="P51">
-        <v>1</v>
-      </c>
       <c r="Q51">
-        <v>77.959482699999995</v>
+        <v>70.758807699999991</v>
       </c>
       <c r="R51">
-        <v>14.614986262286299</v>
+        <v>13.265082920711299</v>
       </c>
       <c r="S51">
         <v>0</v>
       </c>
       <c r="T51">
-        <v>-28.546148000000013</v>
+        <v>-21.7</v>
       </c>
       <c r="U51">
-        <v>11.71000522746758</v>
+        <v>4.34</v>
       </c>
       <c r="V51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51">
-        <v>11.375613387532628</v>
+        <v>10.434999999999999</v>
       </c>
       <c r="X51">
-        <v>0.34734978374903991</v>
+        <v>0.13435028842544369</v>
       </c>
       <c r="Y51">
         <v>2</v>
       </c>
       <c r="Z51">
-        <v>6.98</v>
+        <v>6.6174999999999997</v>
       </c>
       <c r="AA51">
-        <v>0.36769552621700502</v>
+        <v>0.39969780251251513</v>
       </c>
       <c r="AB51">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AC51">
-        <v>-3.7507921573657663</v>
+        <v>-3.3186978724594232</v>
       </c>
       <c r="AD51">
-        <v>0.43421045409744796</v>
+        <v>0.38418905920526514</v>
       </c>
       <c r="AE51">
         <v>0</v>
       </c>
       <c r="AF51">
-        <v>-4.4248091794189603</v>
+        <v>-3.7075139892385729</v>
       </c>
       <c r="AG51">
-        <v>0.1257038377706223</v>
+        <v>0.19995588786711851</v>
       </c>
       <c r="AH51">
+        <v>5</v>
+      </c>
+      <c r="AI51">
+        <v>-4.0697069918861315</v>
+      </c>
+      <c r="AJ51">
+        <v>7.1457772538696201E-2</v>
+      </c>
+      <c r="AK51">
         <v>3</v>
       </c>
-      <c r="AI51">
-        <v>-3.9164203700479505</v>
-      </c>
-      <c r="AJ51">
-        <v>0.21552936573178999</v>
-      </c>
-      <c r="AK51">
-        <v>2</v>
-      </c>
       <c r="AL51">
-        <v>2.6197388999999971</v>
+        <v>2.6982638999999988</v>
       </c>
       <c r="AM51">
-        <v>0.47346803113589947</v>
+        <v>0.48765993291089982</v>
       </c>
       <c r="AN51">
         <v>0</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>48.472961613897454</v>
       </c>
       <c r="AP51">
-        <v>0</v>
+        <v>3.820620706319922</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR51">
-        <v>99</v>
+        <v>83.875</v>
       </c>
       <c r="AS51">
-        <v>2.1213203435596424</v>
+        <v>0.17677669529663689</v>
       </c>
       <c r="AT51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
@@ -8173,255 +8192,255 @@
         <v>51</v>
       </c>
       <c r="C52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E52">
-        <v>100.15</v>
+        <v>96.833333333333329</v>
       </c>
       <c r="F52">
-        <v>9.0053687690547495</v>
+        <v>2.9704096238285618</v>
       </c>
       <c r="G52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H52">
-        <v>3.1000000000000014</v>
+        <v>16.357400538928019</v>
       </c>
       <c r="I52">
-        <v>0.62000000000000033</v>
+        <v>22.945834327997446</v>
       </c>
       <c r="J52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52">
-        <v>4.8293702345921474</v>
+        <v>4.6010027029921474</v>
       </c>
       <c r="L52">
-        <v>7.0347364464040005</v>
+        <v>6.7020832598218973</v>
       </c>
       <c r="M52">
         <v>0</v>
       </c>
       <c r="N52">
-        <v>-91.1</v>
+        <v>-103</v>
       </c>
       <c r="O52">
-        <v>27.33</v>
+        <v>6.5258826293688674</v>
       </c>
       <c r="P52">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>79.564132699999988</v>
+        <v>67.159043699999984</v>
       </c>
       <c r="R52">
-        <v>14.915808393136297</v>
+        <v>12.590238763395297</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>-29.258548000000015</v>
+        <v>-32.069367999999997</v>
       </c>
       <c r="U52">
-        <v>12.002241073930925</v>
+        <v>13.155276393914209</v>
       </c>
       <c r="V52">
         <v>0</v>
       </c>
       <c r="W52">
-        <v>11.200000000000001</v>
+        <v>10.655000000000001</v>
       </c>
       <c r="X52">
-        <v>0.1652271164185832</v>
+        <v>0.23334523779156074</v>
       </c>
       <c r="Y52">
+        <v>2</v>
+      </c>
+      <c r="Z52">
+        <v>7.24</v>
+      </c>
+      <c r="AA52">
+        <v>0.51206348000000002</v>
+      </c>
+      <c r="AB52">
+        <v>0</v>
+      </c>
+      <c r="AC52">
+        <v>-3.4597463826083863</v>
+      </c>
+      <c r="AD52">
+        <v>0.40051753998265988</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>-3.8064674031393619</v>
+      </c>
+      <c r="AG52">
+        <v>0.15897540206098351</v>
+      </c>
+      <c r="AH52">
         <v>3</v>
       </c>
-      <c r="Z52">
-        <v>7.1433333333333335</v>
-      </c>
-      <c r="AA52">
-        <v>0.36828431046317112</v>
-      </c>
-      <c r="AB52">
-        <v>3</v>
-      </c>
-      <c r="AC52">
-        <v>-3.8501767895016785</v>
-      </c>
-      <c r="AD52">
-        <v>0.44571571603666182</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>-4.4678337478400705</v>
-      </c>
-      <c r="AG52">
-        <v>0.28281797910706313</v>
-      </c>
-      <c r="AH52">
-        <v>4</v>
-      </c>
       <c r="AI52">
-        <v>-4.2554666846671543</v>
+        <v>-3.6293678108253968</v>
       </c>
       <c r="AJ52">
-        <v>0.29719362983561631</v>
+        <v>0.44878797989465358</v>
       </c>
       <c r="AK52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL52">
-        <v>2.5778088999999973</v>
+        <v>2.4449938999999983</v>
       </c>
       <c r="AM52">
-        <v>0.46588998030589951</v>
+        <v>0.44188619254089967</v>
       </c>
       <c r="AN52">
         <v>0</v>
       </c>
       <c r="AO52">
-        <v>77.464788732394354</v>
+        <v>0</v>
       </c>
       <c r="AP52">
-        <v>6.1057456773350891</v>
+        <v>0</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR52">
-        <v>86.283333333333346</v>
+        <v>106</v>
       </c>
       <c r="AS52">
-        <v>7.5306872196367154</v>
+        <v>4.8935660219839905</v>
       </c>
       <c r="AT52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>52</v>
       </c>
       <c r="C53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E53">
-        <v>73.524218355999992</v>
+        <v>100</v>
       </c>
       <c r="F53">
-        <v>0.10717142872373359</v>
+        <v>7.136341846899807</v>
       </c>
       <c r="G53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>39</v>
+        <v>15.360580442263995</v>
       </c>
       <c r="I53">
-        <v>7.8000000000000007</v>
+        <v>21.547515032799087</v>
       </c>
       <c r="J53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53">
-        <v>3.431115592671901</v>
+        <v>4.7805045747598029</v>
       </c>
       <c r="L53">
-        <v>4.9979588930051282</v>
+        <v>6.963555936005795</v>
       </c>
       <c r="M53">
         <v>0</v>
       </c>
       <c r="N53">
-        <v>-61.2</v>
+        <v>-98.4</v>
       </c>
       <c r="O53">
-        <v>3.8775147273531525</v>
+        <v>6.2344354439795788</v>
       </c>
       <c r="P53">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>51.928700200000002</v>
+        <v>67.783638699999997</v>
       </c>
       <c r="R53">
-        <v>15.522059705482199</v>
+        <v>12.7073309634503</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53">
-        <v>-13.497807999999997</v>
+        <v>-32.865367999999989</v>
       </c>
       <c r="U53">
-        <v>5.5369783075234391</v>
+        <v>13.481806059530182</v>
       </c>
       <c r="V53">
         <v>0</v>
       </c>
       <c r="W53">
-        <v>7.5390552184404918</v>
+        <v>10.361775178295694</v>
       </c>
       <c r="X53">
-        <v>0.19411422232382147</v>
+        <v>0.26679310236504827</v>
       </c>
       <c r="Y53">
         <v>1</v>
       </c>
       <c r="Z53">
-        <v>5.26</v>
+        <v>7.25</v>
       </c>
       <c r="AA53">
-        <v>0.3111269837220812</v>
+        <v>0.51277074999999994</v>
       </c>
       <c r="AB53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC53">
-        <v>-1.9124978394296193</v>
+        <v>-3.608914998841187</v>
       </c>
       <c r="AD53">
-        <v>0.16164821075426294</v>
+        <v>0.41778604484085002</v>
       </c>
       <c r="AE53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF53">
-        <v>-1.1806733242754686</v>
+        <v>-3.7529626300087369</v>
       </c>
       <c r="AG53">
-        <v>0.14119223273996104</v>
+        <v>0.59546147392098581</v>
       </c>
       <c r="AH53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AI53">
-        <v>-2.4696037487087663</v>
+        <v>-3.2173176400000005</v>
       </c>
       <c r="AJ53">
-        <v>0.26889462132834718</v>
+        <v>0.31517487064968003</v>
       </c>
       <c r="AK53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL53">
-        <v>2.9278073999999989</v>
+        <v>2.4542238999999997</v>
       </c>
       <c r="AM53">
-        <v>0.52914555920939976</v>
+        <v>0.44355433967089997</v>
       </c>
       <c r="AN53">
         <v>0</v>
@@ -8436,132 +8455,132 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="AS53">
-        <v>4.2010802641560678</v>
+        <v>0</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B54">
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E54">
-        <v>80.262301825000009</v>
+        <v>113</v>
       </c>
       <c r="F54">
-        <v>3.164583107582521</v>
+        <v>15.556349186104045</v>
       </c>
       <c r="G54">
         <v>2</v>
       </c>
       <c r="H54">
-        <v>16.093591803544058</v>
+        <v>15.645735560719942</v>
       </c>
       <c r="I54">
-        <v>9.8469607065492522</v>
+        <v>21.94752492986672</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>3.2927695071998926</v>
+        <v>4.4621379019357761</v>
       </c>
       <c r="L54">
-        <v>4.7964360851830747</v>
+        <v>6.4998048612603929</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>-70.099999999999994</v>
+        <v>-122</v>
       </c>
       <c r="O54">
-        <v>4.441401672997646</v>
+        <v>7.7296862211941928</v>
       </c>
       <c r="P54">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>51.739082200000006</v>
+        <v>77.959482699999995</v>
       </c>
       <c r="R54">
-        <v>15.465380799484201</v>
+        <v>14.614986262286299</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54">
-        <v>-18.204648000000006</v>
+        <v>-28.546148000000013</v>
       </c>
       <c r="U54">
-        <v>7.4677859599203078</v>
+        <v>11.71000522746758</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>7.993297276476711</v>
+        <v>11.375613387532628</v>
       </c>
       <c r="X54">
-        <v>0.20580996420229952</v>
+        <v>0.34734978374903991</v>
       </c>
       <c r="Y54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z54">
-        <v>5.71</v>
+        <v>6.98</v>
       </c>
       <c r="AA54">
-        <v>1.1420000000000001</v>
+        <v>0.36769552621700502</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC54">
-        <v>-2.087498225774242</v>
+        <v>-3.7507921573657663</v>
       </c>
       <c r="AD54">
-        <v>0.41749964515484844</v>
+        <v>0.43421045409744796</v>
       </c>
       <c r="AE54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>-1.4403667064642687</v>
+        <v>-4.4248091794189603</v>
       </c>
       <c r="AG54">
-        <v>0.12779782186875707</v>
+        <v>0.1257038377706223</v>
       </c>
       <c r="AH54">
+        <v>3</v>
+      </c>
+      <c r="AI54">
+        <v>-3.9164203700479505</v>
+      </c>
+      <c r="AJ54">
+        <v>0.21552936573178999</v>
+      </c>
+      <c r="AK54">
         <v>2</v>
       </c>
-      <c r="AI54">
-        <v>-2.98523196960676</v>
-      </c>
-      <c r="AJ54">
-        <v>0.36913762809068135</v>
-      </c>
-      <c r="AK54">
-        <v>1</v>
-      </c>
       <c r="AL54">
-        <v>2.9341074000000003</v>
+        <v>2.6197388999999971</v>
       </c>
       <c r="AM54">
-        <v>0.53028416450940008</v>
+        <v>0.47346803113589947</v>
       </c>
       <c r="AN54">
         <v>0</v>
@@ -8576,10 +8595,10 @@
         <v>0</v>
       </c>
       <c r="AR54">
-        <v>57.75</v>
+        <v>99</v>
       </c>
       <c r="AS54">
-        <v>0.35355339059327379</v>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AT54">
         <v>2</v>
@@ -8587,142 +8606,142 @@
     </row>
     <row r="55" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B55">
         <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E55">
-        <v>77.099999999999994</v>
+        <v>100.15</v>
       </c>
       <c r="F55">
-        <v>5.5021195639597513</v>
+        <v>9.0053687690547495</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H55">
-        <v>31.8</v>
+        <v>3.1000000000000014</v>
       </c>
       <c r="I55">
-        <v>6.36</v>
+        <v>0.62000000000000033</v>
       </c>
       <c r="J55">
         <v>1</v>
       </c>
       <c r="K55">
-        <v>2.8348884338479081</v>
+        <v>4.8293702345921474</v>
       </c>
       <c r="L55">
-        <v>4.1294603681929649</v>
+        <v>7.0347364464040005</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>-76.099999999999994</v>
+        <v>-91.1</v>
       </c>
       <c r="O55">
-        <v>4.8215501756793282</v>
+        <v>27.33</v>
       </c>
       <c r="P55">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>56.590070599999997</v>
+        <v>79.564132699999988</v>
       </c>
       <c r="R55">
-        <v>16.915394593116599</v>
+        <v>14.915808393136297</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55">
-        <v>-22.709944000000011</v>
+        <v>-29.258548000000015</v>
       </c>
       <c r="U55">
-        <v>9.3159176136652828</v>
+        <v>12.002241073930925</v>
       </c>
       <c r="V55">
         <v>0</v>
       </c>
       <c r="W55">
-        <v>9.0261907024857795</v>
+        <v>11.200000000000001</v>
       </c>
       <c r="X55">
-        <v>0.23240471624002404</v>
+        <v>0.1652271164185832</v>
       </c>
       <c r="Y55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z55">
-        <v>6.4024999999999999</v>
+        <v>7.1433333333333335</v>
       </c>
       <c r="AA55">
-        <v>1.2805</v>
+        <v>0.36828431046317112</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC55">
-        <v>-2.5192965017072471</v>
+        <v>-3.8501767895016785</v>
       </c>
       <c r="AD55">
-        <v>0.50385930034144943</v>
+        <v>0.44571571603666182</v>
       </c>
       <c r="AE55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF55">
-        <v>-2.4598699455590731</v>
+        <v>-4.4678337478400705</v>
       </c>
       <c r="AG55">
-        <v>0.15642979300815249</v>
+        <v>0.28281797910706313</v>
       </c>
       <c r="AH55">
+        <v>4</v>
+      </c>
+      <c r="AI55">
+        <v>-4.2554666846671543</v>
+      </c>
+      <c r="AJ55">
+        <v>0.29719362983561631</v>
+      </c>
+      <c r="AK55">
         <v>3</v>
       </c>
-      <c r="AI55">
-        <v>-4.4217108558101943</v>
-      </c>
-      <c r="AJ55">
-        <v>0.54676483235961115</v>
-      </c>
-      <c r="AK55">
-        <v>1</v>
-      </c>
       <c r="AL55">
-        <v>2.8537641999999988</v>
+        <v>2.5778088999999973</v>
       </c>
       <c r="AM55">
-        <v>0.51576365763019982</v>
+        <v>0.46588998030589951</v>
       </c>
       <c r="AN55">
         <v>0</v>
       </c>
       <c r="AO55">
-        <v>0</v>
+        <v>77.464788732394354</v>
       </c>
       <c r="AP55">
-        <v>0</v>
+        <v>6.1057456773350891</v>
       </c>
       <c r="AQ55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR55">
-        <v>76</v>
+        <v>86.283333333333346</v>
       </c>
       <c r="AS55">
-        <v>3.5085945063281443</v>
+        <v>7.5306872196367154</v>
       </c>
       <c r="AT55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:46" x14ac:dyDescent="0.25">
@@ -8733,115 +8752,115 @@
         <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E56">
-        <v>77.521050303999999</v>
+        <v>73.524218355999992</v>
       </c>
       <c r="F56">
-        <v>3.0417753598014903</v>
+        <v>0.10717142872373359</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56">
-        <v>17.427305216247994</v>
+        <v>39</v>
       </c>
       <c r="I56">
-        <v>10.663001260392631</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K56">
-        <v>3.6011771303441691</v>
+        <v>3.431115592671901</v>
       </c>
       <c r="L56">
-        <v>5.2456802394915494</v>
+        <v>4.9979588930051282</v>
       </c>
       <c r="M56">
         <v>0</v>
       </c>
       <c r="N56">
-        <v>-63.8</v>
+        <v>-61.2</v>
       </c>
       <c r="O56">
-        <v>4.042245745181881</v>
+        <v>3.8775147273531525</v>
       </c>
       <c r="P56">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>57.033388800000004</v>
+        <v>51.928700200000002</v>
       </c>
       <c r="R56">
-        <v>17.047907279596799</v>
+        <v>15.522059705482199</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
-        <v>-33.734671999999989</v>
+        <v>-13.497807999999997</v>
       </c>
       <c r="U56">
-        <v>13.838405989729468</v>
+        <v>5.5369783075234391</v>
       </c>
       <c r="V56">
         <v>0</v>
       </c>
       <c r="W56">
-        <v>7.6828040702811879</v>
+        <v>7.5390552184404918</v>
       </c>
       <c r="X56">
-        <v>2.1784930946130668E-2</v>
+        <v>0.19411422232382147</v>
       </c>
       <c r="Y56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z56">
-        <v>5.2862499999999999</v>
+        <v>5.26</v>
       </c>
       <c r="AA56">
-        <v>1.9445436482629957E-2</v>
+        <v>0.3111269837220812</v>
       </c>
       <c r="AB56">
         <v>2</v>
       </c>
       <c r="AC56">
-        <v>-2.4469041999999996</v>
+        <v>-1.9124978394296193</v>
       </c>
       <c r="AD56">
-        <v>0.54425266668499994</v>
+        <v>0.16164821075426294</v>
       </c>
       <c r="AE56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF56">
-        <v>-1.1641242474646873</v>
+        <v>-1.1806733242754686</v>
       </c>
       <c r="AG56">
-        <v>0.17316928979703319</v>
+        <v>0.14119223273996104</v>
       </c>
       <c r="AH56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI56">
-        <v>-3.2819205999699497</v>
+        <v>-2.4696037487087663</v>
       </c>
       <c r="AJ56">
-        <v>0.44450077171695895</v>
+        <v>0.26889462132834718</v>
       </c>
       <c r="AK56">
         <v>2</v>
       </c>
       <c r="AL56">
-        <v>2.9694425999999989</v>
+        <v>2.9278073999999989</v>
       </c>
       <c r="AM56">
-        <v>0.53667033054059976</v>
+        <v>0.52914555920939976</v>
       </c>
       <c r="AN56">
         <v>0</v>
@@ -8856,13 +8875,13 @@
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>29.083333333333332</v>
+        <v>91</v>
       </c>
       <c r="AS56">
-        <v>0.38188130791298669</v>
+        <v>4.2010802641560678</v>
       </c>
       <c r="AT56">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:46" x14ac:dyDescent="0.25">
@@ -8873,136 +8892,136 @@
         <v>56</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E57">
-        <v>85.341688061999989</v>
+        <v>80.262301825000009</v>
       </c>
       <c r="F57">
-        <v>1.7560120975171565</v>
+        <v>3.164583107582521</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
       <c r="H57">
-        <v>12.778028014968001</v>
+        <v>16.093591803544058</v>
       </c>
       <c r="I57">
-        <v>7.8183131091262608</v>
+        <v>9.8469607065492522</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>3.375780711535981</v>
+        <v>3.2927695071998926</v>
       </c>
       <c r="L57">
-        <v>4.9173549454560206</v>
+        <v>4.7964360851830747</v>
       </c>
       <c r="M57">
         <v>0</v>
       </c>
       <c r="N57">
-        <v>-83</v>
+        <v>-70.099999999999994</v>
       </c>
       <c r="O57">
-        <v>5.2587209537632624</v>
+        <v>4.441401672997646</v>
       </c>
       <c r="P57">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>58.2108378</v>
+        <v>51.739082200000006</v>
       </c>
       <c r="R57">
-        <v>17.399859737635801</v>
+        <v>15.465380799484201</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57">
-        <v>-23.136451999999995</v>
+        <v>-18.204648000000006</v>
       </c>
       <c r="U57">
-        <v>9.4908768028895718</v>
+        <v>7.4677859599203078</v>
       </c>
       <c r="V57">
         <v>0</v>
       </c>
       <c r="W57">
-        <v>9.5354454649199933</v>
+        <v>7.993297276476711</v>
       </c>
       <c r="X57">
-        <v>6.0454967129327825E-2</v>
+        <v>0.20580996420229952</v>
       </c>
       <c r="Y57">
+        <v>1</v>
+      </c>
+      <c r="Z57">
+        <v>5.71</v>
+      </c>
+      <c r="AA57">
+        <v>1.1420000000000001</v>
+      </c>
+      <c r="AB57">
+        <v>1</v>
+      </c>
+      <c r="AC57">
+        <v>-2.087498225774242</v>
+      </c>
+      <c r="AD57">
+        <v>0.41749964515484844</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
+      </c>
+      <c r="AF57">
+        <v>-1.4403667064642687</v>
+      </c>
+      <c r="AG57">
+        <v>0.12779782186875707</v>
+      </c>
+      <c r="AH57">
         <v>2</v>
       </c>
-      <c r="Z57">
-        <v>6.665</v>
-      </c>
-      <c r="AA57">
-        <v>0.16263455967290624</v>
-      </c>
-      <c r="AB57">
+      <c r="AI57">
+        <v>-2.98523196960676</v>
+      </c>
+      <c r="AJ57">
+        <v>0.36913762809068135</v>
+      </c>
+      <c r="AK57">
+        <v>1</v>
+      </c>
+      <c r="AL57">
+        <v>2.9341074000000003</v>
+      </c>
+      <c r="AM57">
+        <v>0.53028416450940008</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>0</v>
+      </c>
+      <c r="AP57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>0</v>
+      </c>
+      <c r="AR57">
+        <v>57.75</v>
+      </c>
+      <c r="AS57">
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="AT57">
         <v>2</v>
-      </c>
-      <c r="AC57">
-        <v>-2.5888519995337749</v>
-      </c>
-      <c r="AD57">
-        <v>0.29502137502894887</v>
-      </c>
-      <c r="AE57">
-        <v>2</v>
-      </c>
-      <c r="AF57">
-        <v>-3.0450153498164276</v>
-      </c>
-      <c r="AG57">
-        <v>0.24220774330514885</v>
-      </c>
-      <c r="AH57">
-        <v>4</v>
-      </c>
-      <c r="AI57">
-        <v>-4.9723347322518059</v>
-      </c>
-      <c r="AJ57">
-        <v>0.64224406619288954</v>
-      </c>
-      <c r="AK57">
-        <v>2</v>
-      </c>
-      <c r="AL57">
-        <v>2.8283425999999992</v>
-      </c>
-      <c r="AM57">
-        <v>0.51116918644059983</v>
-      </c>
-      <c r="AN57">
-        <v>0</v>
-      </c>
-      <c r="AO57">
-        <v>0</v>
-      </c>
-      <c r="AP57">
-        <v>0</v>
-      </c>
-      <c r="AQ57">
-        <v>0</v>
-      </c>
-      <c r="AR57">
-        <v>136</v>
-      </c>
-      <c r="AS57">
-        <v>6.2785375376398376</v>
-      </c>
-      <c r="AT57">
-        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:46" x14ac:dyDescent="0.25">
@@ -9013,136 +9032,136 @@
         <v>57</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E58">
-        <v>85.186631759000008</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F58">
-        <v>5.9586025096942681</v>
+        <v>5.5021195639597513</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="I58">
-        <v>6.4</v>
+        <v>6.36</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58">
-        <v>2.9175220740240775</v>
+        <v>2.8348884338479081</v>
       </c>
       <c r="L58">
-        <v>4.2498292469512169</v>
+        <v>4.1294603681929649</v>
       </c>
       <c r="M58">
         <v>0</v>
       </c>
       <c r="N58">
-        <v>-77</v>
+        <v>-76.099999999999994</v>
       </c>
       <c r="O58">
-        <v>4.8785724510815802</v>
+        <v>4.8215501756793282</v>
       </c>
       <c r="P58">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>54.406700399999998</v>
+        <v>56.590070599999997</v>
       </c>
       <c r="R58">
-        <v>16.262761223264398</v>
+        <v>16.915394593116599</v>
       </c>
       <c r="S58">
         <v>0</v>
       </c>
       <c r="T58">
-        <v>-18.97117600000001</v>
+        <v>-22.709944000000011</v>
       </c>
       <c r="U58">
-        <v>7.7822258236455406</v>
+        <v>9.3159176136652828</v>
       </c>
       <c r="V58">
         <v>0</v>
       </c>
       <c r="W58">
-        <v>8.3783125260505589</v>
+        <v>9.0261907024857795</v>
       </c>
       <c r="X58">
-        <v>6.3856714674023748E-2</v>
+        <v>0.23240471624002404</v>
       </c>
       <c r="Y58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z58">
-        <v>5.9708333333333323</v>
+        <v>6.4024999999999999</v>
       </c>
       <c r="AA58">
-        <v>0.30598542993635075</v>
+        <v>1.2805</v>
       </c>
       <c r="AB58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>-2.1097746204853944</v>
+        <v>-2.5192965017072471</v>
       </c>
       <c r="AD58">
-        <v>0.42195492409707891</v>
+        <v>0.50385930034144943</v>
       </c>
       <c r="AE58">
         <v>1</v>
       </c>
       <c r="AF58">
-        <v>-1.8415366630123795</v>
+        <v>-2.4598699455590731</v>
       </c>
       <c r="AG58">
-        <v>3.7003294481798843E-2</v>
+        <v>0.15642979300815249</v>
       </c>
       <c r="AH58">
         <v>3</v>
       </c>
       <c r="AI58">
-        <v>-3.7707483866126688</v>
+        <v>-4.4217108558101943</v>
       </c>
       <c r="AJ58">
-        <v>0.31763768319090768</v>
+        <v>0.54676483235961115</v>
       </c>
       <c r="AK58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL58">
-        <v>2.8884657999999988</v>
+        <v>2.8537641999999988</v>
       </c>
       <c r="AM58">
-        <v>0.52203531249979973</v>
+        <v>0.51576365763019982</v>
       </c>
       <c r="AN58">
         <v>0</v>
       </c>
       <c r="AO58">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AP58">
-        <v>4.7291775609904514</v>
+        <v>0</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR58">
-        <v>42.916666666666664</v>
+        <v>76</v>
       </c>
       <c r="AS58">
-        <v>2.4537386440559095</v>
+        <v>3.5085945063281443</v>
       </c>
       <c r="AT58">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
@@ -9153,115 +9172,115 @@
         <v>58</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E59">
-        <v>93.6</v>
+        <v>77.521050303999999</v>
       </c>
       <c r="F59">
-        <v>6.6796159686982195</v>
+        <v>3.0417753598014903</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>12.597595609048</v>
+        <v>17.427305216247994</v>
       </c>
       <c r="I59">
-        <v>7.7079144589696726</v>
+        <v>10.663001260392631</v>
       </c>
       <c r="J59">
         <v>0</v>
       </c>
       <c r="K59">
-        <v>4.1899954586160675</v>
+        <v>3.6011771303441691</v>
       </c>
       <c r="L59">
-        <v>6.1033866386686295</v>
+        <v>5.2456802394915494</v>
       </c>
       <c r="M59">
         <v>0</v>
       </c>
       <c r="N59">
-        <v>-82.3</v>
+        <v>-63.8</v>
       </c>
       <c r="O59">
-        <v>5.2143702951170656</v>
+        <v>4.042245745181881</v>
       </c>
       <c r="P59">
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>60.488209000000005</v>
+        <v>57.033388800000004</v>
       </c>
       <c r="R59">
-        <v>18.080591040399</v>
+        <v>17.047907279596799</v>
       </c>
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>-27.428640000000012</v>
+        <v>-33.734671999999989</v>
       </c>
       <c r="U59">
-        <v>11.251588753141977</v>
+        <v>13.838405989729468</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
       <c r="W59">
-        <v>10.270436050858564</v>
+        <v>7.6828040702811879</v>
       </c>
       <c r="X59">
-        <v>0.10951371931483565</v>
+        <v>2.1784930946130668E-2</v>
       </c>
       <c r="Y59">
         <v>2</v>
       </c>
       <c r="Z59">
-        <v>7.8893899999999997</v>
+        <v>5.2862499999999999</v>
       </c>
       <c r="AA59">
-        <v>0.55799288653000001</v>
+        <v>1.9445436482629957E-2</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC59">
-        <v>-3.2424001857599851</v>
+        <v>-2.4469041999999996</v>
       </c>
       <c r="AD59">
-        <v>0.64848003715199709</v>
+        <v>0.54425266668499994</v>
       </c>
       <c r="AE59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF59">
-        <v>-3.5667759081346233</v>
+        <v>-1.1641242474646873</v>
       </c>
       <c r="AG59">
-        <v>0.56592027387140831</v>
+        <v>0.17316928979703319</v>
       </c>
       <c r="AH59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI59">
-        <v>-4.9091550554090064</v>
+        <v>-3.2819205999699497</v>
       </c>
       <c r="AJ59">
-        <v>0.60703954383878933</v>
+        <v>0.44450077171695895</v>
       </c>
       <c r="AK59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL59">
-        <v>2.793641</v>
+        <v>2.9694425999999989</v>
       </c>
       <c r="AM59">
-        <v>0.50489753157100004</v>
+        <v>0.53667033054059976</v>
       </c>
       <c r="AN59">
         <v>0</v>
@@ -9276,13 +9295,13 @@
         <v>0</v>
       </c>
       <c r="AR59">
-        <v>204.5</v>
+        <v>29.083333333333332</v>
       </c>
       <c r="AS59">
-        <v>9.4408891650540205</v>
+        <v>0.38188130791298669</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
@@ -9293,115 +9312,115 @@
         <v>59</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E60">
-        <v>88.187381608999999</v>
+        <v>85.341688061999989</v>
       </c>
       <c r="F60">
-        <v>0.72495188087407936</v>
+        <v>1.7560120975171565</v>
       </c>
       <c r="G60">
         <v>2</v>
       </c>
       <c r="H60">
-        <v>11.734174130824016</v>
+        <v>12.778028014968001</v>
       </c>
       <c r="I60">
-        <v>7.1796248469894586</v>
+        <v>7.8183131091262608</v>
       </c>
       <c r="J60">
         <v>0</v>
       </c>
       <c r="K60">
-        <v>2.9918111487838956</v>
+        <v>3.375780711535981</v>
       </c>
       <c r="L60">
-        <v>4.3580429552395525</v>
+        <v>4.9173549454560206</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>-87.5</v>
+        <v>-83</v>
       </c>
       <c r="O60">
-        <v>5.5438323307745234</v>
+        <v>5.2587209537632624</v>
       </c>
       <c r="P60">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>59.783903000000002</v>
+        <v>58.2108378</v>
       </c>
       <c r="R60">
-        <v>17.870066229633</v>
+        <v>17.399859737635801</v>
       </c>
       <c r="S60">
         <v>0</v>
       </c>
       <c r="T60">
-        <v>-23.282120000000003</v>
+        <v>-23.136451999999995</v>
       </c>
       <c r="U60">
-        <v>9.5506317316972993</v>
+        <v>9.4908768028895718</v>
       </c>
       <c r="V60">
         <v>0</v>
       </c>
       <c r="W60">
-        <v>9.80286139538212</v>
+        <v>9.5354454649199933</v>
       </c>
       <c r="X60">
-        <v>7.0888148300808597E-3</v>
+        <v>6.0454967129327825E-2</v>
       </c>
       <c r="Y60">
         <v>2</v>
       </c>
       <c r="Z60">
-        <v>6.6549999999999994</v>
+        <v>6.665</v>
       </c>
       <c r="AA60">
-        <v>0.14849242404917495</v>
+        <v>0.16263455967290624</v>
       </c>
       <c r="AB60">
         <v>2</v>
       </c>
       <c r="AC60">
-        <v>-2.2302775143706985</v>
+        <v>-2.5888519995337749</v>
       </c>
       <c r="AD60">
-        <v>0.44605550287413975</v>
+        <v>0.29502137502894887</v>
       </c>
       <c r="AE60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF60">
-        <v>-3.2215368249492431</v>
+        <v>-3.0450153498164276</v>
       </c>
       <c r="AG60">
-        <v>8.1858281942174385E-2</v>
+        <v>0.24220774330514885</v>
       </c>
       <c r="AH60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI60">
-        <v>-4.6128134783762764</v>
+        <v>-4.9723347322518059</v>
       </c>
       <c r="AJ60">
-        <v>0.23403260873049611</v>
+        <v>0.64224406619288954</v>
       </c>
       <c r="AK60">
         <v>2</v>
       </c>
       <c r="AL60">
-        <v>2.793641</v>
+        <v>2.8283425999999992</v>
       </c>
       <c r="AM60">
-        <v>0.50489753157100004</v>
+        <v>0.51116918644059983</v>
       </c>
       <c r="AN60">
         <v>0</v>
@@ -9416,10 +9435,10 @@
         <v>0</v>
       </c>
       <c r="AR60">
-        <v>102.5</v>
+        <v>136</v>
       </c>
       <c r="AS60">
-        <v>4.7319860118241417</v>
+        <v>6.2785375376398376</v>
       </c>
       <c r="AT60">
         <v>1</v>
@@ -9433,556 +9452,556 @@
         <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E61">
-        <v>104.05587005119456</v>
+        <v>85.186631759000008</v>
       </c>
       <c r="F61">
-        <v>0.65273974807507618</v>
+        <v>5.9586025096942681</v>
       </c>
       <c r="G61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H61">
-        <v>37.809999999999995</v>
+        <v>32</v>
       </c>
       <c r="I61">
-        <v>7.5619999999999994</v>
+        <v>6.4</v>
       </c>
       <c r="J61">
         <v>1</v>
       </c>
       <c r="K61">
-        <v>5.8868070856240564</v>
+        <v>2.9175220740240775</v>
       </c>
       <c r="L61">
-        <v>8.5750593444998575</v>
+        <v>4.2498292469512169</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>-104</v>
+        <v>-77</v>
       </c>
       <c r="O61">
-        <v>6.5892407131491479</v>
+        <v>4.8785724510815802</v>
       </c>
       <c r="P61">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>65.77873559999999</v>
+        <v>54.406700399999998</v>
       </c>
       <c r="R61">
-        <v>19.661987636931595</v>
+        <v>16.262761223264398</v>
       </c>
       <c r="S61">
         <v>0</v>
       </c>
       <c r="T61">
-        <v>-23.8</v>
+        <v>-18.97117600000001</v>
       </c>
       <c r="U61">
-        <v>4.7600000000000007</v>
+        <v>7.7822258236455406</v>
       </c>
       <c r="V61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>11.525637381635953</v>
+        <v>8.3783125260505589</v>
       </c>
       <c r="X61">
-        <v>0.19984160559524264</v>
+        <v>6.3856714674023748E-2</v>
       </c>
       <c r="Y61">
         <v>2</v>
       </c>
       <c r="Z61">
-        <v>8.1416737508306145</v>
+        <v>5.9708333333333323</v>
       </c>
       <c r="AA61">
-        <v>0.25421187957856911</v>
+        <v>0.30598542993635075</v>
       </c>
       <c r="AB61">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AC61">
-        <v>-2.7664286699999998</v>
+        <v>-2.1097746204853944</v>
       </c>
       <c r="AD61">
-        <v>0.61532289692474995</v>
+        <v>0.42195492409707891</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF61">
-        <v>-4.9397366133846008</v>
+        <v>-1.8415366630123795</v>
       </c>
       <c r="AG61">
-        <v>0.45466857646634756</v>
+        <v>3.7003294481798843E-2</v>
       </c>
       <c r="AH61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI61">
-        <v>-5.8669835519668307</v>
+        <v>-3.7707483866126688</v>
       </c>
       <c r="AJ61">
-        <v>0.22757118902063592</v>
+        <v>0.31763768319090768</v>
       </c>
       <c r="AK61">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AL61">
-        <v>1.533336835519298</v>
+        <v>2.8884657999999988</v>
       </c>
       <c r="AM61">
-        <v>0.68025804777806742</v>
+        <v>0.52203531249979973</v>
       </c>
       <c r="AN61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO61">
-        <v>55.188213787105745</v>
+        <v>60</v>
       </c>
       <c r="AP61">
-        <v>9.8727770120457699</v>
+        <v>4.7291775609904514</v>
       </c>
       <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>42.916666666666664</v>
+      </c>
+      <c r="AS61">
+        <v>2.4537386440559095</v>
+      </c>
+      <c r="AT61">
         <v>3</v>
-      </c>
-      <c r="AR61">
-        <v>308.39285714285717</v>
-      </c>
-      <c r="AS61">
-        <v>5.139425111448797</v>
-      </c>
-      <c r="AT61">
-        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>64</v>
       </c>
       <c r="D62" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="E62">
-        <v>77.251485714285693</v>
+        <v>93.6</v>
       </c>
       <c r="F62">
-        <v>0.96533834384387507</v>
+        <v>6.6796159686982195</v>
       </c>
       <c r="G62">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>-1.3400000000000034</v>
+        <v>12.597595609048</v>
       </c>
       <c r="I62">
-        <v>1.8797252000000046</v>
+        <v>7.7079144589696726</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>8.5500000000000043</v>
+        <v>4.1899954586160675</v>
       </c>
       <c r="L62">
-        <v>12.454418215014696</v>
+        <v>6.1033866386686295</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>-54.963853999999998</v>
+        <v>-82.3</v>
       </c>
       <c r="O62">
-        <v>3.4824044666190925</v>
+        <v>5.2143702951170656</v>
       </c>
       <c r="P62">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>79.281399399999998</v>
+        <v>60.488209000000005</v>
       </c>
       <c r="R62">
-        <v>14.862804664118599</v>
+        <v>18.080591040399</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62">
-        <v>13.732444000000006</v>
+        <v>-27.428640000000012</v>
       </c>
       <c r="U62">
-        <v>5.6332290796609685</v>
+        <v>11.251588753141977</v>
       </c>
       <c r="V62">
         <v>0</v>
       </c>
       <c r="W62">
-        <v>7</v>
+        <v>10.270436050858564</v>
       </c>
       <c r="X62">
-        <v>0.18023472661974055</v>
+        <v>0.10951371931483565</v>
       </c>
       <c r="Y62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z62">
-        <v>1.6110213059370522</v>
+        <v>7.8893899999999997</v>
       </c>
       <c r="AA62">
-        <v>0.10675059659978832</v>
+        <v>0.55799288653000001</v>
       </c>
       <c r="AB62">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>-4.7471469690201067</v>
+        <v>-3.2424001857599851</v>
       </c>
       <c r="AD62">
-        <v>0.94942939380402136</v>
+        <v>0.64848003715199709</v>
       </c>
       <c r="AE62">
         <v>1</v>
       </c>
       <c r="AF62">
-        <v>-0.5737975003434046</v>
+        <v>-3.5667759081346233</v>
       </c>
       <c r="AG62">
-        <v>9.5464368197886035E-2</v>
+        <v>0.56592027387140831</v>
       </c>
       <c r="AH62">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AI62">
-        <v>1.3026136962115185</v>
+        <v>-4.9091550554090064</v>
       </c>
       <c r="AJ62">
-        <v>7.889766480857377E-2</v>
+        <v>0.60703954383878933</v>
       </c>
       <c r="AK62">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AL62">
-        <v>2.4956207999999984</v>
+        <v>2.793641</v>
       </c>
       <c r="AM62">
-        <v>0.4510360428047997</v>
+        <v>0.50489753157100004</v>
       </c>
       <c r="AN62">
         <v>0</v>
       </c>
       <c r="AO62">
-        <v>61.8</v>
+        <v>0</v>
       </c>
       <c r="AP62">
-        <v>4.8710528878201647</v>
+        <v>0</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR62">
-        <v>5.4119999999999999</v>
+        <v>204.5</v>
       </c>
       <c r="AS62">
-        <v>0.23177575369309009</v>
+        <v>9.4408891650540205</v>
       </c>
       <c r="AT62">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>62</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>65</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="E63">
-        <v>83.510311011427788</v>
+        <v>88.187381608999999</v>
       </c>
       <c r="F63">
-        <v>2.0167132760553788</v>
+        <v>0.72495188087407936</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H63">
-        <v>-7.0300000000000011</v>
+        <v>11.734174130824016</v>
       </c>
       <c r="I63">
-        <v>9.8615434000000004</v>
+        <v>7.1796248469894586</v>
       </c>
       <c r="J63">
         <v>0</v>
       </c>
       <c r="K63">
-        <v>7.289999999999992</v>
+        <v>2.9918111487838956</v>
       </c>
       <c r="L63">
-        <v>10.619030267538829</v>
+        <v>4.3580429552395525</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>-59.087598</v>
+        <v>-87.5</v>
       </c>
       <c r="O63">
-        <v>3.7436769844595208</v>
+        <v>5.5438323307745234</v>
       </c>
       <c r="P63">
         <v>1</v>
       </c>
       <c r="Q63">
-        <v>86.346859800000004</v>
+        <v>59.783903000000002</v>
       </c>
       <c r="R63">
-        <v>16.187359459846199</v>
+        <v>17.870066229633</v>
       </c>
       <c r="S63">
         <v>0</v>
       </c>
       <c r="T63">
-        <v>11.982088000000003</v>
+        <v>-23.282120000000003</v>
       </c>
       <c r="U63">
-        <v>4.9152100352025263</v>
+        <v>9.5506317316972993</v>
       </c>
       <c r="V63">
         <v>0</v>
       </c>
       <c r="W63">
-        <v>7.48</v>
+        <v>9.80286139538212</v>
       </c>
       <c r="X63">
-        <v>0.19259367930223703</v>
+        <v>7.0888148300808597E-3</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z63">
-        <v>2.309034364660989</v>
+        <v>6.6549999999999994</v>
       </c>
       <c r="AA63">
-        <v>0.41659773461009664</v>
+        <v>0.14849242404917495</v>
       </c>
       <c r="AB63">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AC63">
-        <v>-4.7375489102695703</v>
+        <v>-2.2302775143706985</v>
       </c>
       <c r="AD63">
-        <v>0.94750978205391412</v>
+        <v>0.44605550287413975</v>
       </c>
       <c r="AE63">
         <v>1</v>
       </c>
       <c r="AF63">
-        <v>-0.86296934379017121</v>
+        <v>-3.2215368249492431</v>
       </c>
       <c r="AG63">
-        <v>0.22717615065451793</v>
+        <v>8.1858281942174385E-2</v>
       </c>
       <c r="AH63">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AI63">
-        <v>0.6479393964825203</v>
+        <v>-4.6128134783762764</v>
       </c>
       <c r="AJ63">
-        <v>4.9413997541154983E-2</v>
+        <v>0.23403260873049611</v>
       </c>
       <c r="AK63">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AL63">
-        <v>2.7502045999999996</v>
+        <v>2.793641</v>
       </c>
       <c r="AM63">
-        <v>0.49704722756259995</v>
+        <v>0.50489753157100004</v>
       </c>
       <c r="AN63">
         <v>0</v>
       </c>
       <c r="AO63">
-        <v>66.64</v>
+        <v>0</v>
       </c>
       <c r="AP63">
-        <v>5.2525398777400616</v>
+        <v>0</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR63">
-        <v>-50.183333333333337</v>
+        <v>102.5</v>
       </c>
       <c r="AS63">
-        <v>10.907871775312827</v>
+        <v>4.7319860118241417</v>
       </c>
       <c r="AT63">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
       <c r="B64">
         <v>63</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="E64">
-        <v>88.7</v>
+        <v>104.05587005119456</v>
       </c>
       <c r="F64">
-        <v>6.3299352182001298</v>
+        <v>0.65273974807507618</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64">
-        <v>-5.6399999999999864</v>
+        <v>37.809999999999995</v>
       </c>
       <c r="I64">
-        <v>7.9116791999999805</v>
+        <v>7.5619999999999994</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64">
-        <v>6.6300000000000097</v>
+        <v>5.8868070856240564</v>
       </c>
       <c r="L64">
-        <v>9.6576365807657911</v>
+        <v>8.5750593444998575</v>
       </c>
       <c r="M64">
         <v>0</v>
       </c>
       <c r="N64">
-        <v>-74.55</v>
+        <v>-104</v>
       </c>
       <c r="O64">
-        <v>14.227494749999998</v>
+        <v>6.5892407131491479</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>94.4325142</v>
+        <v>65.77873559999999</v>
       </c>
       <c r="R64">
-        <v>17.7031690045598</v>
+        <v>19.661987636931595</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64">
-        <v>10.048651999999995</v>
+        <v>-23.8</v>
       </c>
       <c r="U64">
-        <v>4.1220891676524074</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W64">
-        <v>8.0530000000000008</v>
+        <v>11.525637381635953</v>
       </c>
       <c r="X64">
-        <v>0.54628330800000002</v>
+        <v>0.19984160559524264</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z64">
-        <v>3.8510326049913961</v>
+        <v>8.1416737508306145</v>
       </c>
       <c r="AA64">
-        <v>0.48041586212717508</v>
+        <v>0.25421187957856911</v>
       </c>
       <c r="AB64">
+        <v>8</v>
+      </c>
+      <c r="AC64">
+        <v>-2.7664286699999998</v>
+      </c>
+      <c r="AD64">
+        <v>0.61532289692474995</v>
+      </c>
+      <c r="AE64">
+        <v>0</v>
+      </c>
+      <c r="AF64">
+        <v>-4.9397366133846008</v>
+      </c>
+      <c r="AG64">
+        <v>0.45466857646634756</v>
+      </c>
+      <c r="AH64">
+        <v>4</v>
+      </c>
+      <c r="AI64">
+        <v>-5.8669835519668307</v>
+      </c>
+      <c r="AJ64">
+        <v>0.22757118902063592</v>
+      </c>
+      <c r="AK64">
+        <v>5</v>
+      </c>
+      <c r="AL64">
+        <v>1.533336835519298</v>
+      </c>
+      <c r="AM64">
+        <v>0.68025804777806742</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>55.188213787105745</v>
+      </c>
+      <c r="AP64">
+        <v>9.8727770120457699</v>
+      </c>
+      <c r="AQ64">
         <v>3</v>
       </c>
-      <c r="AC64">
-        <v>-4.8</v>
-      </c>
-      <c r="AD64">
-        <v>0.96928320000000001</v>
-      </c>
-      <c r="AE64">
-        <v>0</v>
-      </c>
-      <c r="AF64">
-        <v>-1.7569619513137056</v>
-      </c>
-      <c r="AG64">
-        <v>0.27876727169807036</v>
-      </c>
-      <c r="AH64">
-        <v>1</v>
-      </c>
-      <c r="AI64">
-        <v>-0.37927796599702324</v>
-      </c>
-      <c r="AJ64">
-        <v>4.689946047095362E-2</v>
-      </c>
-      <c r="AK64">
-        <v>1</v>
-      </c>
-      <c r="AL64">
-        <v>2.9567283999999998</v>
-      </c>
-      <c r="AM64">
-        <v>0.53437248046039998</v>
-      </c>
-      <c r="AN64">
-        <v>0</v>
-      </c>
-      <c r="AO64">
-        <v>0</v>
-      </c>
-      <c r="AP64">
-        <v>0</v>
-      </c>
-      <c r="AQ64">
-        <v>0</v>
-      </c>
       <c r="AR64">
-        <v>-31</v>
+        <v>308.39285714285717</v>
       </c>
       <c r="AS64">
-        <v>1.4311372328443748</v>
+        <v>5.139425111448797</v>
       </c>
       <c r="AT64">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:46" x14ac:dyDescent="0.25">
@@ -9993,133 +10012,133 @@
         <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E65">
-        <v>77.779285878211255</v>
+        <v>77.251485714285693</v>
       </c>
       <c r="F65">
-        <v>11.289652223038836</v>
+        <v>0.96533834384387507</v>
       </c>
       <c r="G65">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H65">
-        <v>3.1389999999999998</v>
+        <v>-1.3400000000000034</v>
       </c>
       <c r="I65">
-        <v>0.62780000000000002</v>
+        <v>1.8797252000000046</v>
       </c>
       <c r="J65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65">
-        <v>5.9300000000000068</v>
+        <v>8.5500000000000043</v>
       </c>
       <c r="L65">
-        <v>8.6379766099458717</v>
+        <v>12.454418215014696</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>-79.66</v>
+        <v>-54.963853999999998</v>
       </c>
       <c r="O65">
-        <v>15.202712699999998</v>
+        <v>3.4824044666190925</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>100.65146460000001</v>
+        <v>79.281399399999998</v>
       </c>
       <c r="R65">
-        <v>18.869029417097401</v>
+        <v>14.862804664118599</v>
       </c>
       <c r="S65">
         <v>0</v>
       </c>
       <c r="T65">
-        <v>10.309695999999986</v>
+        <v>13.732444000000006</v>
       </c>
       <c r="U65">
-        <v>4.229172848595943</v>
+        <v>5.6332290796609685</v>
       </c>
       <c r="V65">
         <v>0</v>
       </c>
       <c r="W65">
-        <v>8.4120000000000008</v>
+        <v>7</v>
       </c>
       <c r="X65">
-        <v>0.57063643200000003</v>
+        <v>0.18023472661974055</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65">
-        <v>4.2356685525576738</v>
+        <v>1.6110213059370522</v>
       </c>
       <c r="AA65">
-        <v>0.14754694795495324</v>
+        <v>0.10675059659978832</v>
       </c>
       <c r="AB65">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="AC65">
-        <v>-4.2</v>
+        <v>-4.7471469690201067</v>
       </c>
       <c r="AD65">
-        <v>0.84812280000000007</v>
+        <v>0.94942939380402136</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF65">
-        <v>-2</v>
+        <v>-0.5737975003434046</v>
       </c>
       <c r="AG65">
-        <v>0.31732875204227629</v>
+        <v>9.5464368197886035E-2</v>
       </c>
       <c r="AH65">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AI65">
-        <v>-1.3958411066867862</v>
+        <v>1.3026136962115185</v>
       </c>
       <c r="AJ65">
-        <v>0.20844345466840553</v>
+        <v>7.889766480857377E-2</v>
       </c>
       <c r="AK65">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL65">
-        <v>3.2624221999999987</v>
+        <v>2.4956207999999984</v>
       </c>
       <c r="AM65">
-        <v>0.58962082662819981</v>
+        <v>0.4510360428047997</v>
       </c>
       <c r="AN65">
         <v>0</v>
       </c>
       <c r="AO65">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="AP65">
-        <v>0</v>
+        <v>4.8710528878201647</v>
       </c>
       <c r="AQ65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR65">
-        <v>-54.6</v>
+        <v>5.4119999999999999</v>
       </c>
       <c r="AS65">
-        <v>11.3929802949009</v>
+        <v>0.23177575369309009</v>
       </c>
       <c r="AT65">
         <v>5</v>
@@ -10133,136 +10152,136 @@
         <v>65</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E66">
-        <v>94.398029513874349</v>
+        <v>83.510311011427788</v>
       </c>
       <c r="F66">
-        <v>2.7191972778775324</v>
+        <v>2.0167132760553788</v>
       </c>
       <c r="G66">
+        <v>6</v>
+      </c>
+      <c r="H66">
+        <v>-7.0300000000000011</v>
+      </c>
+      <c r="I66">
+        <v>9.8615434000000004</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>7.289999999999992</v>
+      </c>
+      <c r="L66">
+        <v>10.619030267538829</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>-59.087598</v>
+      </c>
+      <c r="O66">
+        <v>3.7436769844595208</v>
+      </c>
+      <c r="P66">
+        <v>1</v>
+      </c>
+      <c r="Q66">
+        <v>86.346859800000004</v>
+      </c>
+      <c r="R66">
+        <v>16.187359459846199</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>11.982088000000003</v>
+      </c>
+      <c r="U66">
+        <v>4.9152100352025263</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>7.48</v>
+      </c>
+      <c r="X66">
+        <v>0.19259367930223703</v>
+      </c>
+      <c r="Y66">
+        <v>1</v>
+      </c>
+      <c r="Z66">
+        <v>2.309034364660989</v>
+      </c>
+      <c r="AA66">
+        <v>0.41659773461009664</v>
+      </c>
+      <c r="AB66">
         <v>10</v>
       </c>
-      <c r="H66">
-        <v>-1.081</v>
-      </c>
-      <c r="I66">
-        <v>0.2162</v>
-      </c>
-      <c r="J66">
-        <v>1</v>
-      </c>
-      <c r="K66">
-        <v>6.0300000000000011</v>
-      </c>
-      <c r="L66">
-        <v>8.7836423200629934</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>-69.222363999999999</v>
-      </c>
-      <c r="O66">
-        <v>4.3857963377810565</v>
-      </c>
-      <c r="P66">
-        <v>1</v>
-      </c>
-      <c r="Q66">
-        <v>100.7339346</v>
-      </c>
-      <c r="R66">
-        <v>18.884489985527399</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <v>9.8848959999999888</v>
-      </c>
-      <c r="U66">
-        <v>4.0549143034280206</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
-      <c r="W66">
-        <v>8.66</v>
-      </c>
-      <c r="X66">
-        <v>0.22297610464670758</v>
-      </c>
-      <c r="Y66">
-        <v>1</v>
-      </c>
-      <c r="Z66">
-        <v>4.4422553262077491</v>
-      </c>
-      <c r="AA66">
-        <v>0.28331014372467622</v>
-      </c>
-      <c r="AB66">
-        <v>12</v>
-      </c>
       <c r="AC66">
-        <v>-4.1308496465690387</v>
+        <v>-4.7375489102695703</v>
       </c>
       <c r="AD66">
-        <v>0.82616992931380784</v>
+        <v>0.94750978205391412</v>
       </c>
       <c r="AE66">
         <v>1</v>
       </c>
       <c r="AF66">
-        <v>-2.3350542131060088</v>
+        <v>-0.86296934379017121</v>
       </c>
       <c r="AG66">
-        <v>0.13346437472296552</v>
+        <v>0.22717615065451793</v>
       </c>
       <c r="AH66">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI66">
-        <v>-1.3998152287306809</v>
+        <v>0.6479393964825203</v>
       </c>
       <c r="AJ66">
-        <v>6.8688215356957738E-2</v>
+        <v>4.9413997541154983E-2</v>
       </c>
       <c r="AK66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL66">
-        <v>3.2098221999999987</v>
+        <v>2.7502045999999996</v>
       </c>
       <c r="AM66">
-        <v>0.58011437602819982</v>
+        <v>0.49704722756259995</v>
       </c>
       <c r="AN66">
         <v>0</v>
       </c>
       <c r="AO66">
-        <v>0</v>
+        <v>66.64</v>
       </c>
       <c r="AP66">
-        <v>0</v>
+        <v>5.2525398777400616</v>
       </c>
       <c r="AQ66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR66">
-        <v>-35</v>
+        <v>-50.183333333333337</v>
       </c>
       <c r="AS66">
-        <v>0</v>
+        <v>10.907871775312827</v>
       </c>
       <c r="AT66">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:46" x14ac:dyDescent="0.25">
@@ -10273,115 +10292,115 @@
         <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E67">
-        <v>96.432000000000002</v>
+        <v>88.7</v>
       </c>
       <c r="F67">
-        <v>12.116981802412674</v>
+        <v>6.3299352182001298</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>4.5799999999999983</v>
+        <v>-5.6399999999999864</v>
       </c>
       <c r="I67">
-        <v>6.4247323999999972</v>
+        <v>7.9116791999999805</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <v>7.75</v>
+        <v>6.6300000000000097</v>
       </c>
       <c r="L67">
-        <v>11.289092534077643</v>
+        <v>9.6576365807657911</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>-76.272636000000006</v>
+        <v>-74.55</v>
       </c>
       <c r="O67">
-        <v>4.832488061830821</v>
+        <v>14.227494749999998</v>
       </c>
       <c r="P67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>114.1820809</v>
+        <v>94.4325142</v>
       </c>
       <c r="R67">
-        <v>21.4056005242421</v>
+        <v>17.7031690045598</v>
       </c>
       <c r="S67">
         <v>0</v>
       </c>
       <c r="T67">
-        <v>5.5415839999999914</v>
+        <v>10.048651999999995</v>
       </c>
       <c r="U67">
-        <v>2.2732306162096045</v>
+        <v>4.1220891676524074</v>
       </c>
       <c r="V67">
         <v>0</v>
       </c>
       <c r="W67">
-        <v>9.66</v>
+        <v>8.0530000000000008</v>
       </c>
       <c r="X67">
-        <v>0.24872392273524194</v>
+        <v>0.54628330800000002</v>
       </c>
       <c r="Y67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>4.5386669822446644</v>
+        <v>3.8510326049913961</v>
       </c>
       <c r="AA67">
-        <v>0.4185329646809503</v>
+        <v>0.48041586212717508</v>
       </c>
       <c r="AB67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AC67">
-        <v>-5.64</v>
+        <v>-4.8</v>
       </c>
       <c r="AD67">
-        <v>1.1389077599999999</v>
+        <v>0.96928320000000001</v>
       </c>
       <c r="AE67">
         <v>0</v>
       </c>
       <c r="AF67">
-        <v>-3.4028429570900025</v>
+        <v>-1.7569619513137056</v>
       </c>
       <c r="AG67">
-        <v>0.56113384528000032</v>
+        <v>0.27876727169807036</v>
       </c>
       <c r="AH67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI67">
-        <v>-2.196787626474034</v>
+        <v>-0.37927796599702324</v>
       </c>
       <c r="AJ67">
-        <v>0.29807311025252042</v>
+        <v>4.689946047095362E-2</v>
       </c>
       <c r="AK67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AL67">
-        <v>2.7457662999999988</v>
+        <v>2.9567283999999998</v>
       </c>
       <c r="AM67">
-        <v>0.4962450891652998</v>
+        <v>0.53437248046039998</v>
       </c>
       <c r="AN67">
         <v>0</v>
@@ -10396,13 +10415,13 @@
         <v>0</v>
       </c>
       <c r="AR67">
-        <v>-35</v>
+        <v>-31</v>
       </c>
       <c r="AS67">
-        <v>0</v>
+        <v>1.4311372328443748</v>
       </c>
       <c r="AT67">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:46" x14ac:dyDescent="0.25">
@@ -10413,115 +10432,115 @@
         <v>67</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E68">
-        <v>141.63999999999999</v>
+        <v>77.779285878211255</v>
       </c>
       <c r="F68">
-        <v>14.879848559999997</v>
+        <v>11.289652223038836</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>12.97999999999999</v>
+        <v>3.1389999999999998</v>
       </c>
       <c r="I68">
-        <v>18.208084399999983</v>
+        <v>0.62780000000000002</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>6.5999999999999943</v>
+        <v>5.9300000000000068</v>
       </c>
       <c r="L68">
-        <v>9.6139368677306294</v>
+        <v>8.6379766099458717</v>
       </c>
       <c r="M68">
         <v>0</v>
       </c>
       <c r="N68">
-        <v>-135.04</v>
+        <v>-79.66</v>
       </c>
       <c r="O68">
-        <v>25.771708799999995</v>
+        <v>15.202712699999998</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>129.42021819999999</v>
+        <v>100.65146460000001</v>
       </c>
       <c r="R68">
-        <v>24.2622788857358</v>
+        <v>18.869029417097401</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68">
-        <v>-22.272568000000003</v>
+        <v>10.309695999999986</v>
       </c>
       <c r="U68">
-        <v>9.1365002279511423</v>
+        <v>4.229172848595943</v>
       </c>
       <c r="V68">
         <v>0</v>
       </c>
       <c r="W68">
-        <v>16.864000000000001</v>
+        <v>8.4120000000000008</v>
       </c>
       <c r="X68">
-        <v>1.143986304</v>
+        <v>0.57063643200000003</v>
       </c>
       <c r="Y68">
         <v>0</v>
       </c>
       <c r="Z68">
-        <v>10.199999999999999</v>
+        <v>4.2356685525576738</v>
       </c>
       <c r="AA68">
-        <v>0.69146320276503692</v>
+        <v>0.14754694795495324</v>
       </c>
       <c r="AB68">
         <v>1</v>
       </c>
       <c r="AC68">
-        <v>-3.12</v>
+        <v>-4.2</v>
       </c>
       <c r="AD68">
-        <v>0.63003408000000005</v>
+        <v>0.84812280000000007</v>
       </c>
       <c r="AE68">
         <v>0</v>
       </c>
       <c r="AF68">
-        <v>-6.5403690608624325</v>
+        <v>-2</v>
       </c>
       <c r="AG68">
-        <v>1.0121875158590701</v>
+        <v>0.31732875204227629</v>
       </c>
       <c r="AH68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68">
-        <v>-8.68</v>
+        <v>-1.3958411066867862</v>
       </c>
       <c r="AJ68">
-        <v>2.39297184</v>
+        <v>0.20844345466840553</v>
       </c>
       <c r="AK68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL68">
-        <v>4.4496473999999981</v>
+        <v>3.2624221999999987</v>
       </c>
       <c r="AM68">
-        <v>0.80418922424939965</v>
+        <v>0.58962082662819981</v>
       </c>
       <c r="AN68">
         <v>0</v>
@@ -10536,13 +10555,13 @@
         <v>0</v>
       </c>
       <c r="AR68">
-        <v>-27</v>
+        <v>-54.6</v>
       </c>
       <c r="AS68">
-        <v>1.2464743640902618</v>
+        <v>11.3929802949009</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:46" x14ac:dyDescent="0.25">
@@ -10553,115 +10572,115 @@
         <v>68</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E69">
-        <v>112.20803244366759</v>
+        <v>94.398029513874349</v>
       </c>
       <c r="F69">
-        <v>4.4625575442630749</v>
+        <v>2.7191972778775324</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H69">
-        <v>0.45000000000000284</v>
+        <v>-1.081</v>
       </c>
       <c r="I69">
-        <v>0.631251000000004</v>
+        <v>0.2162</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>5.4299999999999926</v>
+        <v>6.0300000000000011</v>
       </c>
       <c r="L69">
-        <v>7.9096480593601957</v>
+        <v>8.7836423200629934</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>-85.235128000000003</v>
+        <v>-69.222363999999999</v>
       </c>
       <c r="O69">
-        <v>5.4003343808469122</v>
+        <v>4.3857963377810565</v>
       </c>
       <c r="P69">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>128.53927819999998</v>
+        <v>100.7339346</v>
       </c>
       <c r="R69">
-        <v>24.097129944875796</v>
+        <v>18.884489985527399</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69">
-        <v>2.6493320000000207</v>
+        <v>9.8848959999999888</v>
       </c>
       <c r="U69">
-        <v>1.0867908191780329</v>
+        <v>4.0549143034280206</v>
       </c>
       <c r="V69">
         <v>0</v>
       </c>
       <c r="W69">
-        <v>10.48</v>
+        <v>8.66</v>
       </c>
       <c r="X69">
-        <v>0.26983713356784012</v>
+        <v>0.22297610464670758</v>
       </c>
       <c r="Y69">
         <v>1</v>
       </c>
       <c r="Z69">
-        <v>7.5961428571428575</v>
+        <v>4.4422553262077491</v>
       </c>
       <c r="AA69">
-        <v>0.35617946252389365</v>
+        <v>0.28331014372467622</v>
       </c>
       <c r="AB69">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AC69">
-        <v>-3.28</v>
+        <v>-4.1308496465690387</v>
       </c>
       <c r="AD69">
-        <v>0.66234351999999996</v>
+        <v>0.82616992931380784</v>
       </c>
       <c r="AE69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF69">
-        <v>-4.6359639287313668</v>
+        <v>-2.3350542131060088</v>
       </c>
       <c r="AG69">
-        <v>0.40136383442810358</v>
+        <v>0.13346437472296552</v>
       </c>
       <c r="AH69">
         <v>10</v>
       </c>
       <c r="AI69">
-        <v>-3.4780745027655433</v>
+        <v>-1.3998152287306809</v>
       </c>
       <c r="AJ69">
-        <v>0.53164878715036823</v>
+        <v>6.8688215356957738E-2</v>
       </c>
       <c r="AK69">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL69">
-        <v>4.1874873999999984</v>
+        <v>3.2098221999999987</v>
       </c>
       <c r="AM69">
-        <v>0.75680878528939977</v>
+        <v>0.58011437602819982</v>
       </c>
       <c r="AN69">
         <v>0</v>
@@ -10676,10 +10695,10 @@
         <v>0</v>
       </c>
       <c r="AR69">
-        <v>-53</v>
+        <v>-35</v>
       </c>
       <c r="AS69">
-        <v>2.7386127875258306</v>
+        <v>0</v>
       </c>
       <c r="AT69">
         <v>5</v>
@@ -10693,115 +10712,115 @@
         <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E70">
-        <v>117.3274</v>
+        <v>96.432000000000002</v>
       </c>
       <c r="F70">
-        <v>8.7652894441655516</v>
+        <v>12.116981802412674</v>
       </c>
       <c r="G70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70">
-        <v>6.2299999999999898</v>
+        <v>4.5799999999999983</v>
       </c>
       <c r="I70">
-        <v>8.7393193999999852</v>
+        <v>6.4247323999999972</v>
       </c>
       <c r="J70">
         <v>0</v>
       </c>
       <c r="K70">
-        <v>5.8299999999999983</v>
+        <v>7.75</v>
       </c>
       <c r="L70">
-        <v>8.4923108998287269</v>
+        <v>11.289092534077643</v>
       </c>
       <c r="M70">
         <v>0</v>
       </c>
       <c r="N70">
-        <v>-92.642902000000007</v>
+        <v>-76.272636000000006</v>
       </c>
       <c r="O70">
-        <v>5.8696767465642949</v>
+        <v>4.832488061830821</v>
       </c>
       <c r="P70">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>129.96127820000001</v>
+        <v>114.1820809</v>
       </c>
       <c r="R70">
-        <v>24.363710862875802</v>
+        <v>21.4056005242421</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
       <c r="T70">
-        <v>0.13103200000002402</v>
+        <v>5.5415839999999914</v>
       </c>
       <c r="U70">
-        <v>5.3751049177136349E-2</v>
+        <v>2.2732306162096045</v>
       </c>
       <c r="V70">
         <v>0</v>
       </c>
       <c r="W70">
-        <v>11.18</v>
+        <v>9.66</v>
       </c>
       <c r="X70">
-        <v>0.28786060622981419</v>
+        <v>0.24872392273524194</v>
       </c>
       <c r="Y70">
         <v>1</v>
       </c>
       <c r="Z70">
-        <v>8.125</v>
+        <v>4.5386669822446644</v>
       </c>
       <c r="AA70">
-        <v>5.5075705472860809E-2</v>
+        <v>0.4185329646809503</v>
       </c>
       <c r="AB70">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AC70">
-        <v>-3.66</v>
+        <v>-5.64</v>
       </c>
       <c r="AD70">
-        <v>0.73907844</v>
+        <v>1.1389077599999999</v>
       </c>
       <c r="AE70">
         <v>0</v>
       </c>
       <c r="AF70">
-        <v>-5.2448925746858528</v>
+        <v>-3.4028429570900025</v>
       </c>
       <c r="AG70">
-        <v>0.21714113940771862</v>
+        <v>0.56113384528000032</v>
       </c>
       <c r="AH70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI70">
-        <v>-5.5036251812831916</v>
+        <v>-2.196787626474034</v>
       </c>
       <c r="AJ70">
-        <v>0.83723737685498756</v>
+        <v>0.29807311025252042</v>
       </c>
       <c r="AK70">
         <v>4</v>
       </c>
       <c r="AL70">
-        <v>4.1316873999999988</v>
+        <v>2.7457662999999988</v>
       </c>
       <c r="AM70">
-        <v>0.74672399548939983</v>
+        <v>0.4962450891652998</v>
       </c>
       <c r="AN70">
         <v>0</v>
@@ -10816,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="AR70">
-        <v>-25</v>
+        <v>-35</v>
       </c>
       <c r="AS70">
         <v>0</v>
       </c>
       <c r="AT70">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:46" x14ac:dyDescent="0.25">
@@ -10833,115 +10852,115 @@
         <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E71">
-        <v>128.97</v>
+        <v>141.63999999999999</v>
       </c>
       <c r="F71">
-        <v>13.54881438</v>
+        <v>14.879848559999997</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>6.039999999999992</v>
+        <v>12.97999999999999</v>
       </c>
       <c r="I71">
-        <v>8.472791199999989</v>
+        <v>18.208084399999983</v>
       </c>
       <c r="J71">
         <v>0</v>
       </c>
       <c r="K71">
-        <v>5.9599999999999937</v>
+        <v>6.5999999999999943</v>
       </c>
       <c r="L71">
-        <v>8.6816763229809908</v>
+        <v>9.6139368677306294</v>
       </c>
       <c r="M71">
         <v>0</v>
       </c>
       <c r="N71">
-        <v>-123.01</v>
+        <v>-135.04</v>
       </c>
       <c r="O71">
-        <v>23.475843449999999</v>
+        <v>25.771708799999995</v>
       </c>
       <c r="P71">
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>135.21335159999998</v>
+        <v>129.42021819999999</v>
       </c>
       <c r="R71">
-        <v>25.348311811100395</v>
+        <v>24.2622788857358</v>
       </c>
       <c r="S71">
         <v>0</v>
       </c>
       <c r="T71">
-        <v>-2.5794840000000026</v>
+        <v>-22.272568000000003</v>
       </c>
       <c r="U71">
-        <v>1.0581382512333712</v>
+        <v>9.1365002279511423</v>
       </c>
       <c r="V71">
         <v>0</v>
       </c>
       <c r="W71">
-        <v>13.57</v>
+        <v>16.864000000000001</v>
       </c>
       <c r="X71">
-        <v>1.2558695750000002</v>
+        <v>1.143986304</v>
       </c>
       <c r="Y71">
         <v>0</v>
       </c>
       <c r="Z71">
-        <v>7.4342989408727043</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="AA71">
-        <v>1.2838945315165156</v>
+        <v>0.69146320276503692</v>
       </c>
       <c r="AB71">
         <v>1</v>
       </c>
       <c r="AC71">
-        <v>-3.63</v>
+        <v>-3.12</v>
       </c>
       <c r="AD71">
-        <v>0.73302042000000001</v>
+        <v>0.63003408000000005</v>
       </c>
       <c r="AE71">
         <v>0</v>
       </c>
       <c r="AF71">
-        <v>-3.8839740178332058</v>
+        <v>-6.5403690608624325</v>
       </c>
       <c r="AG71">
-        <v>0.14303515418375298</v>
+        <v>1.0121875158590701</v>
       </c>
       <c r="AH71">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI71">
-        <v>-5.8270387665542565</v>
+        <v>-8.68</v>
       </c>
       <c r="AJ71">
-        <v>7.1528670243570947E-3</v>
+        <v>2.39297184</v>
       </c>
       <c r="AK71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AL71">
-        <v>4.4287711999999981</v>
+        <v>4.4496473999999981</v>
       </c>
       <c r="AM71">
-        <v>0.80041624774719966</v>
+        <v>0.80418922424939965</v>
       </c>
       <c r="AN71">
         <v>0</v>
@@ -10956,132 +10975,132 @@
         <v>0</v>
       </c>
       <c r="AR71">
-        <v>-45.5</v>
+        <v>-27</v>
       </c>
       <c r="AS71">
-        <v>3.5355339059327378</v>
+        <v>1.2464743640902618</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B72">
         <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="E72">
-        <v>77.099999999999994</v>
+        <v>112.20803244366759</v>
       </c>
       <c r="F72">
-        <v>5.5021195639597513</v>
+        <v>4.4625575442630749</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H72">
-        <v>7.374634427559954</v>
+        <v>0.45000000000000284</v>
       </c>
       <c r="I72">
-        <v>10.344989682292551</v>
+        <v>0.631251000000004</v>
       </c>
       <c r="J72">
         <v>0</v>
       </c>
       <c r="K72">
-        <v>5.9957474500716899</v>
+        <v>5.4299999999999926</v>
       </c>
       <c r="L72">
-        <v>8.7337480999766939</v>
+        <v>7.9096480593601957</v>
       </c>
       <c r="M72">
         <v>0</v>
       </c>
       <c r="N72">
-        <v>-65.7</v>
+        <v>-85.235128000000003</v>
       </c>
       <c r="O72">
-        <v>4.1626261043644135</v>
+        <v>5.4003343808469122</v>
       </c>
       <c r="P72">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>62.918134400000007</v>
+        <v>128.53927819999998</v>
       </c>
       <c r="R72">
-        <v>11.795199737833601</v>
+        <v>24.097129944875796</v>
       </c>
       <c r="S72">
         <v>0</v>
       </c>
       <c r="T72">
-        <v>-4.7459759999999971</v>
+        <v>2.6493320000000207</v>
       </c>
       <c r="U72">
-        <v>1.9468617541475512</v>
+        <v>1.0867908191780329</v>
       </c>
       <c r="V72">
         <v>0</v>
       </c>
       <c r="W72">
-        <v>7.4756656115367477</v>
+        <v>10.48</v>
       </c>
       <c r="X72">
-        <v>0.19248207825656016</v>
+        <v>0.26983713356784012</v>
       </c>
       <c r="Y72">
         <v>1</v>
       </c>
       <c r="Z72">
-        <v>3.2034298799999998</v>
+        <v>7.5961428571428575</v>
       </c>
       <c r="AA72">
-        <v>0.47526085699679993</v>
+        <v>0.35617946252389365</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC72">
-        <v>-4.6116239999999991</v>
+        <v>-3.28</v>
       </c>
       <c r="AD72">
-        <v>0.9705992800319998</v>
+        <v>0.66234351999999996</v>
       </c>
       <c r="AE72">
         <v>0</v>
       </c>
       <c r="AF72">
-        <v>-0.83534495289423183</v>
+        <v>-4.6359639287313668</v>
       </c>
       <c r="AG72">
-        <v>0.13253948571337032</v>
+        <v>0.40136383442810358</v>
       </c>
       <c r="AH72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI72">
-        <v>0.20717968999999953</v>
+        <v>-3.4780745027655433</v>
       </c>
       <c r="AJ72">
-        <v>6.2769437858989849E-2</v>
+        <v>0.53164878715036823</v>
       </c>
       <c r="AK72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AL72">
-        <v>2.3943827999999989</v>
+        <v>4.1874873999999984</v>
       </c>
       <c r="AM72">
-        <v>0.43273919782679982</v>
+        <v>0.75680878528939977</v>
       </c>
       <c r="AN72">
         <v>0</v>
@@ -11096,415 +11115,415 @@
         <v>0</v>
       </c>
       <c r="AR72">
-        <v>51.5</v>
+        <v>-53</v>
       </c>
       <c r="AS72">
-        <v>2.1213203435596424</v>
+        <v>2.7386127875258306</v>
       </c>
       <c r="AT72">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B73">
         <v>72</v>
       </c>
       <c r="C73" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="E73">
-        <v>79.976666666666674</v>
+        <v>117.3274</v>
       </c>
       <c r="F73">
-        <v>7.7949748770174621</v>
+        <v>8.7652894441655516</v>
       </c>
       <c r="G73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H73">
-        <v>12.407421093848001</v>
+        <v>6.2299999999999898</v>
       </c>
       <c r="I73">
-        <v>17.404882162028098</v>
+        <v>8.7393193999999852</v>
       </c>
       <c r="J73">
         <v>0</v>
       </c>
       <c r="K73">
-        <v>8.2113004094161113</v>
+        <v>5.8299999999999983</v>
       </c>
       <c r="L73">
-        <v>11.961049051226853</v>
+        <v>8.4923108998287269</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>-75.3</v>
+        <v>-92.642902000000007</v>
       </c>
       <c r="O73">
-        <v>4.7708637086551038</v>
+        <v>5.8696767465642949</v>
       </c>
       <c r="P73">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>70.401418300000003</v>
+        <v>129.96127820000001</v>
       </c>
       <c r="R73">
-        <v>13.1980834872827</v>
+        <v>24.363710862875802</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73">
-        <v>-11.785092000000001</v>
+        <v>0.13103200000002402</v>
       </c>
       <c r="U73">
-        <v>4.8343996859466394</v>
+        <v>5.3751049177136349E-2</v>
       </c>
       <c r="V73">
         <v>0</v>
       </c>
       <c r="W73">
-        <v>9.062289783061221</v>
+        <v>11.18</v>
       </c>
       <c r="X73">
-        <v>0.23333418879984386</v>
+        <v>0.28786060622981419</v>
       </c>
       <c r="Y73">
         <v>1</v>
       </c>
       <c r="Z73">
-        <v>3.4536576318955827</v>
+        <v>8.125</v>
       </c>
       <c r="AA73">
-        <v>0.12659127947609147</v>
+        <v>5.5075705472860809E-2</v>
       </c>
       <c r="AB73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AC73">
-        <v>-4.6387730000000005</v>
+        <v>-3.66</v>
       </c>
       <c r="AD73">
-        <v>0.97631327576400007</v>
+        <v>0.73907844</v>
       </c>
       <c r="AE73">
         <v>0</v>
       </c>
       <c r="AF73">
-        <v>-2.4901757792294523</v>
+        <v>-5.2448925746858528</v>
       </c>
       <c r="AG73">
-        <v>0.15804862177910686</v>
+        <v>0.21714113940771862</v>
       </c>
       <c r="AH73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI73">
-        <v>-0.99160050980834902</v>
+        <v>-5.5036251812831916</v>
       </c>
       <c r="AJ73">
-        <v>0.18611663456422731</v>
+        <v>0.83723737685498756</v>
       </c>
       <c r="AK73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AL73">
-        <v>2.4676880999999993</v>
+        <v>4.1316873999999988</v>
       </c>
       <c r="AM73">
-        <v>0.44598773800109986</v>
+        <v>0.74672399548939983</v>
       </c>
       <c r="AN73">
         <v>0</v>
       </c>
       <c r="AO73">
-        <v>64.656964656964661</v>
+        <v>0</v>
       </c>
       <c r="AP73">
-        <v>5.096237773624499</v>
+        <v>0</v>
       </c>
       <c r="AQ73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR73">
-        <v>63.741666666666667</v>
+        <v>-25</v>
       </c>
       <c r="AS73">
-        <v>0.94995613933837286</v>
+        <v>0</v>
       </c>
       <c r="AT73">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>182</v>
       </c>
       <c r="B74">
         <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>210</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>192</v>
       </c>
       <c r="E74">
-        <v>65.7</v>
+        <v>128.97</v>
       </c>
       <c r="F74">
-        <v>4.688576593413174</v>
+        <v>13.54881438</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>-2.362202987335948</v>
+        <v>6.039999999999992</v>
       </c>
       <c r="I74">
-        <v>3.3136511065751209</v>
+        <v>8.472791199999989</v>
       </c>
       <c r="J74">
         <v>0</v>
       </c>
       <c r="K74">
-        <v>4.3645426961598588</v>
+        <v>5.9599999999999937</v>
       </c>
       <c r="L74">
-        <v>6.3576421117266282</v>
+        <v>8.6816763229809908</v>
       </c>
       <c r="M74">
         <v>0</v>
       </c>
       <c r="N74">
-        <v>-64.900000000000006</v>
+        <v>-123.01</v>
       </c>
       <c r="O74">
-        <v>4.11193963734019</v>
+        <v>23.475843449999999</v>
       </c>
       <c r="P74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>80.724194100000005</v>
+        <v>135.21335159999998</v>
       </c>
       <c r="R74">
-        <v>15.1332839437329</v>
+        <v>25.348311811100395</v>
       </c>
       <c r="S74">
         <v>0</v>
       </c>
       <c r="T74">
-        <v>-7.3026040000000041</v>
+        <v>-2.5794840000000026</v>
       </c>
       <c r="U74">
-        <v>2.9956241736757501</v>
+        <v>1.0581382512333712</v>
       </c>
       <c r="V74">
         <v>0</v>
       </c>
       <c r="W74">
-        <v>8.5342489113816207</v>
+        <v>13.57</v>
       </c>
       <c r="X74">
-        <v>0.21973828849252638</v>
+        <v>1.2558695750000002</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>5.1021482939458087</v>
+        <v>7.4342989408727043</v>
       </c>
       <c r="AA74">
-        <v>1.5306444881837427</v>
+        <v>1.2838945315165156</v>
       </c>
       <c r="AB74">
         <v>1</v>
       </c>
       <c r="AC74">
-        <v>-3.1825809999999994</v>
+        <v>-3.63</v>
       </c>
       <c r="AD74">
-        <v>0.66983145790799981</v>
+        <v>0.73302042000000001</v>
       </c>
       <c r="AE74">
         <v>0</v>
       </c>
       <c r="AF74">
-        <v>-2.1437560717924429</v>
+        <v>-3.8839740178332058</v>
       </c>
       <c r="AG74">
-        <v>0.57534852774613077</v>
+        <v>0.14303515418375298</v>
       </c>
       <c r="AH74">
+        <v>7</v>
+      </c>
+      <c r="AI74">
+        <v>-5.8270387665542565</v>
+      </c>
+      <c r="AJ74">
+        <v>7.1528670243570947E-3</v>
+      </c>
+      <c r="AK74">
+        <v>3</v>
+      </c>
+      <c r="AL74">
+        <v>4.4287711999999981</v>
+      </c>
+      <c r="AM74">
+        <v>0.80041624774719966</v>
+      </c>
+      <c r="AN74">
+        <v>0</v>
+      </c>
+      <c r="AO74">
+        <v>0</v>
+      </c>
+      <c r="AP74">
+        <v>0</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>-45.5</v>
+      </c>
+      <c r="AS74">
+        <v>3.5355339059327378</v>
+      </c>
+      <c r="AT74">
         <v>2</v>
-      </c>
-      <c r="AI74">
-        <v>-1.9385377595649462</v>
-      </c>
-      <c r="AJ74">
-        <v>0.23970908720513637</v>
-      </c>
-      <c r="AK74">
-        <v>1</v>
-      </c>
-      <c r="AL74">
-        <v>3.2429456999999982</v>
-      </c>
-      <c r="AM74">
-        <v>0.58610081930669966</v>
-      </c>
-      <c r="AN74">
-        <v>0</v>
-      </c>
-      <c r="AO74">
-        <v>0</v>
-      </c>
-      <c r="AP74">
-        <v>0</v>
-      </c>
-      <c r="AQ74">
-        <v>0</v>
-      </c>
-      <c r="AR74">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="AS74">
-        <v>3.2500664900723866</v>
-      </c>
-      <c r="AT74">
-        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="B75">
         <v>74</v>
       </c>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c r="E75">
-        <v>95.3</v>
+        <v>54.525499400000008</v>
       </c>
       <c r="F75">
-        <v>6.8009337800955159</v>
+        <v>9.7343828823826009</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>11.791564401960017</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>16.540970711781473</v>
+        <v>0</v>
       </c>
       <c r="J75">
         <v>0</v>
       </c>
       <c r="K75">
-        <v>5.9286749301441262</v>
+        <v>0</v>
       </c>
       <c r="L75">
-        <v>8.6360464375307551</v>
+        <v>0</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>-82.9</v>
+        <v>-66.134984800000012</v>
       </c>
       <c r="O75">
-        <v>5.2523851453852348</v>
+        <v>10.981780361024802</v>
       </c>
       <c r="P75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>80.665976700000002</v>
+        <v>65.657305100000016</v>
       </c>
       <c r="R75">
-        <v>15.1223699859723</v>
+        <v>12.308709329791903</v>
       </c>
       <c r="S75">
         <v>0</v>
       </c>
       <c r="T75">
-        <v>-11.64974799999999</v>
+        <v>4.2481960000000019</v>
       </c>
       <c r="U75">
-        <v>4.7788797976763728</v>
+        <v>1.7426658534561952</v>
       </c>
       <c r="V75">
         <v>0</v>
       </c>
       <c r="W75">
-        <v>8.4929739722986248</v>
+        <v>5.8076102500000006</v>
       </c>
       <c r="X75">
-        <v>0.21867554886940208</v>
+        <v>1.6656584514700412</v>
       </c>
       <c r="Y75">
         <v>1</v>
       </c>
       <c r="Z75">
-        <v>6.4226390597038554</v>
+        <v>1.92</v>
       </c>
       <c r="AA75">
-        <v>1.2845278119407713</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="AB75">
         <v>1</v>
       </c>
       <c r="AC75">
-        <v>-2.8134969999999999</v>
+        <v>-2.9714942157058073</v>
       </c>
       <c r="AD75">
-        <v>0.59215108659599991</v>
+        <v>0.87418900715655345</v>
       </c>
       <c r="AE75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF75">
-        <v>-1.8907497643218214</v>
+        <v>1.3751447787200113</v>
       </c>
       <c r="AG75">
-        <v>9.4527481783361011E-2</v>
+        <v>1.2205898698191469</v>
       </c>
       <c r="AH75">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AI75">
-        <v>-2.8168194218021276</v>
+        <v>1.4130798169683882</v>
       </c>
       <c r="AJ75">
-        <v>0.34831264394531203</v>
+        <v>0.23236442158435855</v>
       </c>
       <c r="AK75">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AL75">
-        <v>3.647892699999999</v>
+        <v>3.9799630634250143</v>
       </c>
       <c r="AM75">
-        <v>0.6592872955636998</v>
+        <v>2.1970385207847878</v>
       </c>
       <c r="AN75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO75">
         <v>0</v>
@@ -11516,13 +11535,13 @@
         <v>0</v>
       </c>
       <c r="AR75">
-        <v>-20</v>
+        <v>55.445454545454552</v>
       </c>
       <c r="AS75">
-        <v>6</v>
+        <v>3.2200508183454608</v>
       </c>
       <c r="AT75">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:46" x14ac:dyDescent="0.25">
@@ -11533,115 +11552,115 @@
         <v>75</v>
       </c>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E76">
-        <v>94.890864162898467</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="F76">
-        <v>6.7717364481417759</v>
+        <v>5.5021195639597513</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>14.364364347839867</v>
+        <v>7.374634427559954</v>
       </c>
       <c r="I76">
-        <v>20.150043019862807</v>
+        <v>10.344989682292551</v>
       </c>
       <c r="J76">
         <v>0</v>
       </c>
       <c r="K76">
-        <v>8.9664609587679394</v>
+        <v>5.9957474500716899</v>
       </c>
       <c r="L76">
-        <v>13.061059027964621</v>
+        <v>8.7337480999766939</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>-110.07866029979206</v>
+        <v>-65.7</v>
       </c>
       <c r="O76">
-        <v>18.278671621440772</v>
+        <v>4.1626261043644135</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>113.09291160000001</v>
+        <v>62.918134400000007</v>
       </c>
       <c r="R76">
-        <v>21.201415044740401</v>
+        <v>11.795199737833601</v>
       </c>
       <c r="S76">
         <v>0</v>
       </c>
       <c r="T76">
-        <v>-7.3122039999999959</v>
+        <v>-4.7459759999999971</v>
       </c>
       <c r="U76">
-        <v>2.9995622198942309</v>
+        <v>1.9468617541475512</v>
       </c>
       <c r="V76">
         <v>0</v>
       </c>
       <c r="W76">
-        <v>12.639320878301151</v>
+        <v>7.4756656115367477</v>
       </c>
       <c r="X76">
-        <v>1.0364369513415728</v>
+        <v>0.19248207825656016</v>
       </c>
       <c r="Y76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z76">
-        <v>6.089186783305113</v>
+        <v>3.2034298799999998</v>
       </c>
       <c r="AA76">
-        <v>1.2178373566610228</v>
+        <v>0.47526085699679993</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC76">
-        <v>-5.8832059999999995</v>
+        <v>-4.6116239999999991</v>
       </c>
       <c r="AD76">
-        <v>1.2382266004079998</v>
+        <v>0.9705992800319998</v>
       </c>
       <c r="AE76">
         <v>0</v>
       </c>
       <c r="AF76">
-        <v>-9.755026966610103</v>
+        <v>-0.83534495289423183</v>
       </c>
       <c r="AG76">
-        <v>1.5477752667265681</v>
+        <v>0.13253948571337032</v>
       </c>
       <c r="AH76">
         <v>1</v>
       </c>
       <c r="AI76">
-        <v>-4.1239577006727393</v>
+        <v>0.20717968999999953</v>
       </c>
       <c r="AJ76">
-        <v>0.22861214103520214</v>
+        <v>6.2769437858989849E-2</v>
       </c>
       <c r="AK76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AL76">
-        <v>3.0572181999999977</v>
+        <v>2.3943827999999989</v>
       </c>
       <c r="AM76">
-        <v>0.55253410250419954</v>
+        <v>0.43273919782679982</v>
       </c>
       <c r="AN76">
         <v>0</v>
@@ -11656,10 +11675,10 @@
         <v>0</v>
       </c>
       <c r="AR76">
-        <v>-9.9</v>
+        <v>51.5</v>
       </c>
       <c r="AS76">
-        <v>2.97</v>
+        <v>2.1213203435596424</v>
       </c>
       <c r="AT76">
         <v>1</v>
@@ -11673,136 +11692,136 @@
         <v>76</v>
       </c>
       <c r="C77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E77">
-        <v>95.314065814702502</v>
+        <v>79.976666666666674</v>
       </c>
       <c r="F77">
-        <v>6.8019375647162388</v>
+        <v>7.7949748770174621</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H77">
-        <v>13.321313130624034</v>
+        <v>12.407421093848001</v>
       </c>
       <c r="I77">
-        <v>18.686871633376782</v>
+        <v>17.404882162028098</v>
       </c>
       <c r="J77">
         <v>0</v>
       </c>
       <c r="K77">
-        <v>5.7726576913842678</v>
+        <v>8.2113004094161113</v>
       </c>
       <c r="L77">
-        <v>8.4087828187860669</v>
+        <v>11.961049051226853</v>
       </c>
       <c r="M77">
         <v>0</v>
       </c>
       <c r="N77">
-        <v>-77.583805094615741</v>
+        <v>-75.3</v>
       </c>
       <c r="O77">
-        <v>12.882868419766039</v>
+        <v>4.7708637086551038</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>77.906984800000004</v>
+        <v>70.401418300000003</v>
       </c>
       <c r="R77">
-        <v>14.605144533471201</v>
+        <v>13.1980834872827</v>
       </c>
       <c r="S77">
         <v>0</v>
       </c>
       <c r="T77">
-        <v>-10.924632000000004</v>
+        <v>-11.785092000000001</v>
       </c>
       <c r="U77">
-        <v>4.4814276808261342</v>
+        <v>4.8343996859466394</v>
       </c>
       <c r="V77">
         <v>0</v>
       </c>
       <c r="W77">
-        <v>8.2228855706999919</v>
+        <v>9.062289783061221</v>
       </c>
       <c r="X77">
-        <v>0.67428483968297004</v>
+        <v>0.23333418879984386</v>
       </c>
       <c r="Y77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z77">
-        <v>6.4362128672865646</v>
+        <v>3.4536576318955827</v>
       </c>
       <c r="AA77">
-        <v>1.9308638601859693</v>
+        <v>0.12659127947609147</v>
       </c>
       <c r="AB77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC77">
-        <v>-2.5275280000000002</v>
+        <v>-4.6387730000000005</v>
       </c>
       <c r="AD77">
-        <v>0.53196376310400006</v>
+        <v>0.97631327576400007</v>
       </c>
       <c r="AE77">
         <v>0</v>
       </c>
       <c r="AF77">
-        <v>-1.2839966563652008</v>
+        <v>-2.4901757792294523</v>
       </c>
       <c r="AG77">
-        <v>0.20372452829541232</v>
+        <v>0.15804862177910686</v>
       </c>
       <c r="AH77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI77">
-        <v>-2.6450973005369249</v>
+        <v>-0.99160050980834902</v>
       </c>
       <c r="AJ77">
-        <v>0.32707841585854547</v>
+        <v>0.18611663456422731</v>
       </c>
       <c r="AK77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL77">
-        <v>3.7626205999999982</v>
+        <v>2.4676880999999993</v>
       </c>
       <c r="AM77">
-        <v>0.68002218365859968</v>
+        <v>0.44598773800109986</v>
       </c>
       <c r="AN77">
         <v>0</v>
       </c>
       <c r="AO77">
-        <v>0</v>
+        <v>64.656964656964661</v>
       </c>
       <c r="AP77">
-        <v>0</v>
+        <v>5.096237773624499</v>
       </c>
       <c r="AQ77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR77">
-        <v>-20</v>
+        <v>63.741666666666667</v>
       </c>
       <c r="AS77">
+        <v>0.94995613933837286</v>
+      </c>
+      <c r="AT77">
         <v>6</v>
-      </c>
-      <c r="AT77">
-        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:46" x14ac:dyDescent="0.25">
@@ -11813,118 +11832,118 @@
         <v>77</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D78" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E78">
-        <v>109.20942995680001</v>
+        <v>65.7</v>
       </c>
       <c r="F78">
-        <v>19.497050320757548</v>
+        <v>4.688576593413174</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>3.8691312060082481</v>
+        <v>-2.362202987335948</v>
       </c>
       <c r="I78">
-        <v>5.4275398731642497</v>
+        <v>3.3136511065751209</v>
       </c>
       <c r="J78">
         <v>0</v>
       </c>
       <c r="K78">
-        <v>9.5164892389438762</v>
+        <v>4.3645426961598588</v>
       </c>
       <c r="L78">
-        <v>13.862261628127941</v>
+        <v>6.3576421117266282</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>-99.692940717856132</v>
+        <v>-64.900000000000006</v>
       </c>
       <c r="O78">
-        <v>16.554112499140729</v>
+        <v>4.11193963734019</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>111.53555650000001</v>
+        <v>80.724194100000005</v>
       </c>
       <c r="R78">
-        <v>20.909459241498503</v>
+        <v>15.1332839437329</v>
       </c>
       <c r="S78">
         <v>0</v>
       </c>
       <c r="T78">
-        <v>3.0459800000000197</v>
+        <v>-7.3026040000000041</v>
       </c>
       <c r="U78">
-        <v>1.2495010438102512</v>
+        <v>2.9956241736757501</v>
       </c>
       <c r="V78">
         <v>0</v>
       </c>
       <c r="W78">
-        <v>11.674199918450622</v>
+        <v>8.5342489113816207</v>
       </c>
       <c r="X78">
-        <v>0.95729606751286955</v>
+        <v>0.21973828849252638</v>
       </c>
       <c r="Y78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z78">
-        <v>4.7695797400000002</v>
+        <v>5.1021482939458087</v>
       </c>
       <c r="AA78">
-        <v>0.70761485022640003</v>
+        <v>1.5306444881837427</v>
       </c>
       <c r="AB78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC78">
-        <v>-7.4751449999999995</v>
+        <v>-3.1825809999999994</v>
       </c>
       <c r="AD78">
-        <v>1.5732788178599999</v>
+        <v>0.66983145790799981</v>
       </c>
       <c r="AE78">
         <v>0</v>
       </c>
       <c r="AF78">
-        <v>-4.8499999999999996</v>
+        <v>-2.1437560717924429</v>
       </c>
       <c r="AG78">
-        <v>0.76952222370251988</v>
+        <v>0.57534852774613077</v>
       </c>
       <c r="AH78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI78">
-        <v>-4.0495573269641527</v>
+        <v>-1.9385377595649462</v>
       </c>
       <c r="AJ78">
-        <v>0.50074634122644102</v>
+        <v>0.23970908720513637</v>
       </c>
       <c r="AK78">
         <v>1</v>
       </c>
       <c r="AL78">
-        <v>2.0133316945093855</v>
+        <v>3.2429456999999982</v>
       </c>
       <c r="AM78">
-        <v>0.40266633890187714</v>
+        <v>0.58610081930669966</v>
       </c>
       <c r="AN78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO78">
         <v>0</v>
@@ -11936,13 +11955,13 @@
         <v>0</v>
       </c>
       <c r="AR78">
-        <v>39.783333333333331</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="AS78">
-        <v>68.339020088575069</v>
+        <v>3.2500664900723866</v>
       </c>
       <c r="AT78">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:46" x14ac:dyDescent="0.25">
@@ -11953,135 +11972,695 @@
         <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E79">
-        <v>110.96000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="F79">
-        <v>9.9560634791065876</v>
+        <v>6.8009337800955159</v>
       </c>
       <c r="G79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>6.0135759891440017</v>
+        <v>11.791564401960017</v>
       </c>
       <c r="I79">
-        <v>8.4357241260514222</v>
+        <v>16.540970711781473</v>
       </c>
       <c r="J79">
         <v>0</v>
       </c>
       <c r="K79">
-        <v>6.4736074288558285</v>
+        <v>5.9286749301441262</v>
       </c>
       <c r="L79">
-        <v>9.4298262314381809</v>
+        <v>8.6360464375307551</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>-101.7366255</v>
+        <v>-82.9</v>
       </c>
       <c r="O79">
-        <v>20.17145766310653</v>
+        <v>5.2523851453852348</v>
       </c>
       <c r="P79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q79">
-        <v>95.871147899999997</v>
+        <v>80.665976700000002</v>
       </c>
       <c r="R79">
-        <v>17.972868225665099</v>
+        <v>15.1223699859723</v>
       </c>
       <c r="S79">
         <v>0</v>
       </c>
       <c r="T79">
-        <v>2.0442639999999894</v>
+        <v>-11.64974799999999</v>
       </c>
       <c r="U79">
-        <v>0.8385839702899196</v>
+        <v>4.7788797976763728</v>
       </c>
       <c r="V79">
         <v>0</v>
       </c>
       <c r="W79">
-        <v>10.330951337636964</v>
+        <v>8.4929739722986248</v>
       </c>
       <c r="X79">
-        <v>1.3307061432192995</v>
+        <v>0.21867554886940208</v>
       </c>
       <c r="Y79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z79">
-        <v>6.0022541387692874</v>
+        <v>6.4226390597038554</v>
       </c>
       <c r="AA79">
-        <v>1.2004508277538575</v>
+        <v>1.2845278119407713</v>
       </c>
       <c r="AB79">
         <v>1</v>
       </c>
       <c r="AC79">
-        <v>-3.6227189999999996</v>
+        <v>-2.8134969999999999</v>
       </c>
       <c r="AD79">
-        <v>0.76246642249199992</v>
+        <v>0.59215108659599991</v>
       </c>
       <c r="AE79">
         <v>0</v>
       </c>
       <c r="AF79">
-        <v>-4.0845351391156468</v>
+        <v>-1.8907497643218214</v>
       </c>
       <c r="AG79">
-        <v>0.98176864457868018</v>
+        <v>9.4527481783361011E-2</v>
       </c>
       <c r="AH79">
         <v>2</v>
       </c>
       <c r="AI79">
+        <v>-2.8168194218021276</v>
+      </c>
+      <c r="AJ79">
+        <v>0.34831264394531203</v>
+      </c>
+      <c r="AK79">
+        <v>1</v>
+      </c>
+      <c r="AL79">
+        <v>3.647892699999999</v>
+      </c>
+      <c r="AM79">
+        <v>0.6592872955636998</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>0</v>
+      </c>
+      <c r="AP79">
+        <v>0</v>
+      </c>
+      <c r="AQ79">
+        <v>0</v>
+      </c>
+      <c r="AR79">
+        <v>-20</v>
+      </c>
+      <c r="AS79">
+        <v>6</v>
+      </c>
+      <c r="AT79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80" t="s">
+        <v>72</v>
+      </c>
+      <c r="D80" t="s">
+        <v>164</v>
+      </c>
+      <c r="E80">
+        <v>94.890864162898467</v>
+      </c>
+      <c r="F80">
+        <v>6.7717364481417759</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>14.364364347839867</v>
+      </c>
+      <c r="I80">
+        <v>20.150043019862807</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>8.9664609587679394</v>
+      </c>
+      <c r="L80">
+        <v>13.061059027964621</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>-110.07866029979206</v>
+      </c>
+      <c r="O80">
+        <v>18.278671621440772</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>113.09291160000001</v>
+      </c>
+      <c r="R80">
+        <v>21.201415044740401</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>-7.3122039999999959</v>
+      </c>
+      <c r="U80">
+        <v>2.9995622198942309</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>12.639320878301151</v>
+      </c>
+      <c r="X80">
+        <v>1.0364369513415728</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>6.089186783305113</v>
+      </c>
+      <c r="AA80">
+        <v>1.2178373566610228</v>
+      </c>
+      <c r="AB80">
+        <v>1</v>
+      </c>
+      <c r="AC80">
+        <v>-5.8832059999999995</v>
+      </c>
+      <c r="AD80">
+        <v>1.2382266004079998</v>
+      </c>
+      <c r="AE80">
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <v>-9.755026966610103</v>
+      </c>
+      <c r="AG80">
+        <v>1.5477752667265681</v>
+      </c>
+      <c r="AH80">
+        <v>1</v>
+      </c>
+      <c r="AI80">
+        <v>-4.1239577006727393</v>
+      </c>
+      <c r="AJ80">
+        <v>0.22861214103520214</v>
+      </c>
+      <c r="AK80">
+        <v>2</v>
+      </c>
+      <c r="AL80">
+        <v>3.0572181999999977</v>
+      </c>
+      <c r="AM80">
+        <v>0.55253410250419954</v>
+      </c>
+      <c r="AN80">
+        <v>0</v>
+      </c>
+      <c r="AO80">
+        <v>0</v>
+      </c>
+      <c r="AP80">
+        <v>0</v>
+      </c>
+      <c r="AQ80">
+        <v>0</v>
+      </c>
+      <c r="AR80">
+        <v>-9.9</v>
+      </c>
+      <c r="AS80">
+        <v>2.97</v>
+      </c>
+      <c r="AT80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>67</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81">
+        <v>95.314065814702502</v>
+      </c>
+      <c r="F81">
+        <v>6.8019375647162388</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>13.321313130624034</v>
+      </c>
+      <c r="I81">
+        <v>18.686871633376782</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>5.7726576913842678</v>
+      </c>
+      <c r="L81">
+        <v>8.4087828187860669</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>-77.583805094615741</v>
+      </c>
+      <c r="O81">
+        <v>12.882868419766039</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>77.906984800000004</v>
+      </c>
+      <c r="R81">
+        <v>14.605144533471201</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>-10.924632000000004</v>
+      </c>
+      <c r="U81">
+        <v>4.4814276808261342</v>
+      </c>
+      <c r="V81">
+        <v>0</v>
+      </c>
+      <c r="W81">
+        <v>8.2228855706999919</v>
+      </c>
+      <c r="X81">
+        <v>0.67428483968297004</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>6.4362128672865646</v>
+      </c>
+      <c r="AA81">
+        <v>1.9308638601859693</v>
+      </c>
+      <c r="AB81">
+        <v>1</v>
+      </c>
+      <c r="AC81">
+        <v>-2.5275280000000002</v>
+      </c>
+      <c r="AD81">
+        <v>0.53196376310400006</v>
+      </c>
+      <c r="AE81">
+        <v>0</v>
+      </c>
+      <c r="AF81">
+        <v>-1.2839966563652008</v>
+      </c>
+      <c r="AG81">
+        <v>0.20372452829541232</v>
+      </c>
+      <c r="AH81">
+        <v>1</v>
+      </c>
+      <c r="AI81">
+        <v>-2.6450973005369249</v>
+      </c>
+      <c r="AJ81">
+        <v>0.32707841585854547</v>
+      </c>
+      <c r="AK81">
+        <v>1</v>
+      </c>
+      <c r="AL81">
+        <v>3.7626205999999982</v>
+      </c>
+      <c r="AM81">
+        <v>0.68002218365859968</v>
+      </c>
+      <c r="AN81">
+        <v>0</v>
+      </c>
+      <c r="AO81">
+        <v>0</v>
+      </c>
+      <c r="AP81">
+        <v>0</v>
+      </c>
+      <c r="AQ81">
+        <v>0</v>
+      </c>
+      <c r="AR81">
+        <v>-20</v>
+      </c>
+      <c r="AS81">
+        <v>6</v>
+      </c>
+      <c r="AT81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82">
+        <v>109.20942995680001</v>
+      </c>
+      <c r="F82">
+        <v>19.497050320757548</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>3.8691312060082481</v>
+      </c>
+      <c r="I82">
+        <v>5.4275398731642497</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>9.5164892389438762</v>
+      </c>
+      <c r="L82">
+        <v>13.862261628127941</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>-99.692940717856132</v>
+      </c>
+      <c r="O82">
+        <v>16.554112499140729</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>111.53555650000001</v>
+      </c>
+      <c r="R82">
+        <v>20.909459241498503</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <v>3.0459800000000197</v>
+      </c>
+      <c r="U82">
+        <v>1.2495010438102512</v>
+      </c>
+      <c r="V82">
+        <v>0</v>
+      </c>
+      <c r="W82">
+        <v>11.674199918450622</v>
+      </c>
+      <c r="X82">
+        <v>0.95729606751286955</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>4.7695797400000002</v>
+      </c>
+      <c r="AA82">
+        <v>0.70761485022640003</v>
+      </c>
+      <c r="AB82">
+        <v>0</v>
+      </c>
+      <c r="AC82">
+        <v>-7.4751449999999995</v>
+      </c>
+      <c r="AD82">
+        <v>1.5732788178599999</v>
+      </c>
+      <c r="AE82">
+        <v>0</v>
+      </c>
+      <c r="AF82">
+        <v>-4.8499999999999996</v>
+      </c>
+      <c r="AG82">
+        <v>0.76952222370251988</v>
+      </c>
+      <c r="AH82">
+        <v>1</v>
+      </c>
+      <c r="AI82">
+        <v>-4.0495573269641527</v>
+      </c>
+      <c r="AJ82">
+        <v>0.50074634122644102</v>
+      </c>
+      <c r="AK82">
+        <v>1</v>
+      </c>
+      <c r="AL82">
+        <v>2.0133316945093855</v>
+      </c>
+      <c r="AM82">
+        <v>0.40266633890187714</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>0</v>
+      </c>
+      <c r="AP82">
+        <v>0</v>
+      </c>
+      <c r="AQ82">
+        <v>0</v>
+      </c>
+      <c r="AR82">
+        <v>39.783333333333331</v>
+      </c>
+      <c r="AS82">
+        <v>68.339020088575069</v>
+      </c>
+      <c r="AT82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83" t="s">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83">
+        <v>110.96000000000001</v>
+      </c>
+      <c r="F83">
+        <v>9.9560634791065876</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+      <c r="H83">
+        <v>6.0135759891440017</v>
+      </c>
+      <c r="I83">
+        <v>8.4357241260514222</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>6.4736074288558285</v>
+      </c>
+      <c r="L83">
+        <v>9.4298262314381809</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>-101.7366255</v>
+      </c>
+      <c r="O83">
+        <v>20.17145766310653</v>
+      </c>
+      <c r="P83">
+        <v>2</v>
+      </c>
+      <c r="Q83">
+        <v>95.871147899999997</v>
+      </c>
+      <c r="R83">
+        <v>17.972868225665099</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+      <c r="T83">
+        <v>2.0442639999999894</v>
+      </c>
+      <c r="U83">
+        <v>0.8385839702899196</v>
+      </c>
+      <c r="V83">
+        <v>0</v>
+      </c>
+      <c r="W83">
+        <v>10.330951337636964</v>
+      </c>
+      <c r="X83">
+        <v>1.3307061432192995</v>
+      </c>
+      <c r="Y83">
+        <v>2</v>
+      </c>
+      <c r="Z83">
+        <v>6.0022541387692874</v>
+      </c>
+      <c r="AA83">
+        <v>1.2004508277538575</v>
+      </c>
+      <c r="AB83">
+        <v>1</v>
+      </c>
+      <c r="AC83">
+        <v>-3.6227189999999996</v>
+      </c>
+      <c r="AD83">
+        <v>0.76246642249199992</v>
+      </c>
+      <c r="AE83">
+        <v>0</v>
+      </c>
+      <c r="AF83">
+        <v>-4.0845351391156468</v>
+      </c>
+      <c r="AG83">
+        <v>0.98176864457868018</v>
+      </c>
+      <c r="AH83">
+        <v>2</v>
+      </c>
+      <c r="AI83">
         <v>-3.3038705028971718</v>
       </c>
-      <c r="AJ79">
+      <c r="AJ83">
         <v>0.76711407451090985</v>
       </c>
-      <c r="AK79">
+      <c r="AK83">
         <v>2</v>
       </c>
-      <c r="AL79">
+      <c r="AL83">
         <v>3.5162542999999982</v>
       </c>
-      <c r="AM79">
+      <c r="AM83">
         <v>0.63549615589329966</v>
       </c>
-      <c r="AN79">
-        <v>0</v>
-      </c>
-      <c r="AO79">
-        <v>0</v>
-      </c>
-      <c r="AP79">
-        <v>0</v>
-      </c>
-      <c r="AQ79">
-        <v>0</v>
-      </c>
-      <c r="AR79">
+      <c r="AN83">
+        <v>0</v>
+      </c>
+      <c r="AO83">
+        <v>0</v>
+      </c>
+      <c r="AP83">
+        <v>0</v>
+      </c>
+      <c r="AQ83">
+        <v>0</v>
+      </c>
+      <c r="AR83">
         <v>-68.3</v>
       </c>
-      <c r="AS79">
+      <c r="AS83">
         <v>3.1531184839764772</v>
       </c>
-      <c r="AT79">
+      <c r="AT83">
         <v>1</v>
       </c>
     </row>
